--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="заявки" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <color rgb="FF000000"/>
@@ -94,12 +94,6 @@
       <sz val="12"/>
       <u val="single"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -150,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -218,13 +212,7 @@
     <xf numFmtId="165" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -12553,14 +12541,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:P849"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C202" workbookViewId="0">
-      <selection activeCell="F852" sqref="F852"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
@@ -12575,7 +12563,7 @@
     <col width="17.59765625" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="16" customHeight="1">
       <c r="A1" s="22" t="inlineStr">
         <is>
           <t>Артикул</t>
@@ -12657,7 +12645,7 @@
         </is>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" ht="16" customHeight="1">
       <c r="A2" s="23" t="n">
         <v>352675</v>
       </c>
@@ -12719,7 +12707,7 @@
         </is>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3" ht="16" customHeight="1">
       <c r="A3" s="23" t="n">
         <v>3639013</v>
       </c>
@@ -12781,7 +12769,7 @@
         </is>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" ht="16" customHeight="1">
       <c r="A4" s="23" t="n">
         <v>3639014</v>
       </c>
@@ -12843,7 +12831,7 @@
         </is>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5" ht="16" customHeight="1">
       <c r="A5" s="23" t="n">
         <v>3690615</v>
       </c>
@@ -12905,7 +12893,7 @@
         </is>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6" ht="16" customHeight="1">
       <c r="A6" s="23" t="n">
         <v>302699</v>
       </c>
@@ -12971,7 +12959,7 @@
         </is>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7" ht="16" customHeight="1">
       <c r="A7" s="23" t="n">
         <v>302697</v>
       </c>
@@ -13037,7 +13025,7 @@
         </is>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8" ht="16" customHeight="1">
       <c r="A8" s="23" t="n">
         <v>302703</v>
       </c>
@@ -13103,7 +13091,7 @@
         </is>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9" ht="16" customHeight="1">
       <c r="A9" s="23" t="n">
         <v>89749</v>
       </c>
@@ -13169,7 +13157,7 @@
         </is>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10" ht="16" customHeight="1">
       <c r="A10" s="23" t="n">
         <v>80559</v>
       </c>
@@ -13233,7 +13221,7 @@
         </is>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11" ht="16" customHeight="1">
       <c r="A11" s="23" t="n">
         <v>199503</v>
       </c>
@@ -13293,7 +13281,7 @@
         </is>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12" ht="16" customHeight="1">
       <c r="A12" s="23" t="n">
         <v>465003400</v>
       </c>
@@ -13355,7 +13343,7 @@
         </is>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13" ht="16" customHeight="1">
       <c r="A13" s="23" t="n">
         <v>465002700</v>
       </c>
@@ -13421,7 +13409,7 @@
         </is>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14" ht="16" customHeight="1">
       <c r="A14" s="23" t="n">
         <v>465003200</v>
       </c>
@@ -13483,7 +13471,7 @@
         </is>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15" ht="16" customHeight="1">
       <c r="A15" s="23" t="n">
         <v>465002900</v>
       </c>
@@ -13545,7 +13533,7 @@
         </is>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16" ht="16" customHeight="1">
       <c r="A16" s="23" t="n">
         <v>3023428</v>
       </c>
@@ -13603,7 +13591,7 @@
         </is>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17" ht="16" customHeight="1">
       <c r="A17" s="23" t="n">
         <v>3023429</v>
       </c>
@@ -13661,7 +13649,7 @@
         </is>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18" ht="16" customHeight="1">
       <c r="A18" s="23" t="n">
         <v>301249</v>
       </c>
@@ -13719,7 +13707,7 @@
         </is>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19" ht="16" customHeight="1">
       <c r="A19" s="23" t="n">
         <v>301250</v>
       </c>
@@ -13777,7 +13765,7 @@
         </is>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20" ht="16" customHeight="1">
       <c r="A20" s="23" t="n">
         <v>302718</v>
       </c>
@@ -13835,7 +13823,7 @@
         </is>
       </c>
     </row>
-    <row r="21" hidden="1">
+    <row r="21" ht="16" customHeight="1">
       <c r="A21" s="23" t="n">
         <v>302708</v>
       </c>
@@ -13893,7 +13881,7 @@
         </is>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22" ht="16" customHeight="1">
       <c r="A22" s="23" t="n">
         <v>302712</v>
       </c>
@@ -13951,7 +13939,7 @@
         </is>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23" ht="16" customHeight="1">
       <c r="A23" s="23" t="n">
         <v>302707</v>
       </c>
@@ -14009,7 +13997,7 @@
         </is>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24" ht="16" customHeight="1">
       <c r="A24" s="23" t="n">
         <v>240486</v>
       </c>
@@ -14067,7 +14055,7 @@
         </is>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25" ht="16" customHeight="1">
       <c r="A25" s="23" t="n">
         <v>302714</v>
       </c>
@@ -14125,7 +14113,7 @@
         </is>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26" ht="16" customHeight="1">
       <c r="A26" s="23" t="n">
         <v>80495</v>
       </c>
@@ -14181,7 +14169,7 @@
         </is>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27" ht="16" customHeight="1">
       <c r="A27" s="23" t="n">
         <v>2025990</v>
       </c>
@@ -14237,7 +14225,7 @@
         </is>
       </c>
     </row>
-    <row r="28" hidden="1">
+    <row r="28" ht="16" customHeight="1">
       <c r="A28" s="23" t="n">
         <v>2026006</v>
       </c>
@@ -14293,7 +14281,7 @@
         </is>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29" ht="16" customHeight="1">
       <c r="A29" s="23" t="n">
         <v>2360007</v>
       </c>
@@ -14351,7 +14339,7 @@
         </is>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30" ht="16" customHeight="1">
       <c r="A30" s="23" t="n">
         <v>2360008</v>
       </c>
@@ -14409,7 +14397,7 @@
         </is>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31" ht="16" customHeight="1">
       <c r="A31" s="23" t="n">
         <v>2360012</v>
       </c>
@@ -14467,7 +14455,7 @@
         </is>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32" ht="16" customHeight="1">
       <c r="A32" s="23" t="n">
         <v>2360013</v>
       </c>
@@ -14525,7 +14513,7 @@
         </is>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33" ht="16" customHeight="1">
       <c r="A33" s="23" t="n">
         <v>2360014</v>
       </c>
@@ -14583,7 +14571,7 @@
         </is>
       </c>
     </row>
-    <row r="34" hidden="1">
+    <row r="34" ht="16" customHeight="1">
       <c r="A34" s="23" t="n">
         <v>2360016</v>
       </c>
@@ -14641,7 +14629,7 @@
         </is>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35" ht="16" customHeight="1">
       <c r="A35" s="23" t="n">
         <v>2344177</v>
       </c>
@@ -14699,7 +14687,7 @@
         </is>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36" ht="16" customHeight="1">
       <c r="A36" s="23" t="n">
         <v>2344178</v>
       </c>
@@ -14757,7 +14745,7 @@
         </is>
       </c>
     </row>
-    <row r="37" hidden="1">
+    <row r="37" ht="16" customHeight="1">
       <c r="A37" s="23" t="n">
         <v>2344179</v>
       </c>
@@ -14815,7 +14803,7 @@
         </is>
       </c>
     </row>
-    <row r="38" hidden="1">
+    <row r="38" ht="16" customHeight="1">
       <c r="A38" s="23" t="n">
         <v>2344180</v>
       </c>
@@ -14873,7 +14861,7 @@
         </is>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39" ht="16" customHeight="1">
       <c r="A39" s="23" t="n">
         <v>2344181</v>
       </c>
@@ -14931,7 +14919,7 @@
         </is>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40" ht="16" customHeight="1">
       <c r="A40" s="23" t="n">
         <v>3621534</v>
       </c>
@@ -14989,7 +14977,7 @@
         </is>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41" ht="16" customHeight="1">
       <c r="A41" s="23" t="n">
         <v>3450518</v>
       </c>
@@ -15047,7 +15035,7 @@
         </is>
       </c>
     </row>
-    <row r="42" hidden="1">
+    <row r="42" ht="16" customHeight="1">
       <c r="A42" s="23" t="n">
         <v>3450526</v>
       </c>
@@ -15105,7 +15093,7 @@
         </is>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43" ht="16" customHeight="1">
       <c r="A43" s="23" t="n">
         <v>3450527</v>
       </c>
@@ -15163,7 +15151,7 @@
         </is>
       </c>
     </row>
-    <row r="44" hidden="1">
+    <row r="44" ht="16" customHeight="1">
       <c r="A44" s="23" t="n">
         <v>3450524</v>
       </c>
@@ -15221,7 +15209,7 @@
         </is>
       </c>
     </row>
-    <row r="45" hidden="1">
+    <row r="45" ht="16" customHeight="1">
       <c r="A45" s="23" t="n">
         <v>3450521</v>
       </c>
@@ -15279,7 +15267,7 @@
         </is>
       </c>
     </row>
-    <row r="46" hidden="1">
+    <row r="46" ht="16" customHeight="1">
       <c r="A46" s="23" t="n">
         <v>2552993</v>
       </c>
@@ -15337,7 +15325,7 @@
         </is>
       </c>
     </row>
-    <row r="47" hidden="1">
+    <row r="47" ht="16" customHeight="1">
       <c r="A47" s="23" t="n">
         <v>240486</v>
       </c>
@@ -15395,7 +15383,7 @@
         </is>
       </c>
     </row>
-    <row r="48" hidden="1">
+    <row r="48" ht="16" customHeight="1">
       <c r="A48" s="23" t="n">
         <v>301600</v>
       </c>
@@ -15453,7 +15441,7 @@
         </is>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49" ht="16" customHeight="1">
       <c r="A49" s="23" t="n">
         <v>301599</v>
       </c>
@@ -15511,7 +15499,7 @@
         </is>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50" ht="16" customHeight="1">
       <c r="A50" s="23" t="n">
         <v>2028380</v>
       </c>
@@ -15571,7 +15559,7 @@
         </is>
       </c>
     </row>
-    <row r="51" hidden="1">
+    <row r="51" ht="16" customHeight="1">
       <c r="A51" s="23" t="n">
         <v>2028381</v>
       </c>
@@ -15631,7 +15619,7 @@
         </is>
       </c>
     </row>
-    <row r="52" hidden="1">
+    <row r="52" ht="16" customHeight="1">
       <c r="A52" s="23" t="n">
         <v>2028382</v>
       </c>
@@ -15691,7 +15679,7 @@
         </is>
       </c>
     </row>
-    <row r="53" hidden="1">
+    <row r="53" ht="16" customHeight="1">
       <c r="A53" s="23" t="n">
         <v>2074379</v>
       </c>
@@ -15755,7 +15743,7 @@
         </is>
       </c>
     </row>
-    <row r="54" hidden="1">
+    <row r="54" ht="16" customHeight="1">
       <c r="A54" s="23" t="n">
         <v>61320</v>
       </c>
@@ -15821,7 +15809,7 @@
         </is>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55" ht="16" customHeight="1">
       <c r="A55" s="23" t="n">
         <v>61323</v>
       </c>
@@ -15887,7 +15875,7 @@
         </is>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56" ht="16" customHeight="1">
       <c r="A56" s="23" t="n">
         <v>61324</v>
       </c>
@@ -15953,7 +15941,7 @@
         </is>
       </c>
     </row>
-    <row r="57" hidden="1">
+    <row r="57" ht="16" customHeight="1">
       <c r="A57" s="23" t="n">
         <v>61325</v>
       </c>
@@ -16019,7 +16007,7 @@
         </is>
       </c>
     </row>
-    <row r="58" hidden="1">
+    <row r="58" ht="16" customHeight="1">
       <c r="A58" s="23" t="n">
         <v>61332</v>
       </c>
@@ -16085,7 +16073,7 @@
         </is>
       </c>
     </row>
-    <row r="59" hidden="1">
+    <row r="59" ht="16" customHeight="1">
       <c r="A59" s="23" t="n">
         <v>2000813</v>
       </c>
@@ -16149,7 +16137,7 @@
         </is>
       </c>
     </row>
-    <row r="60" hidden="1">
+    <row r="60" ht="16" customHeight="1">
       <c r="A60" s="23" t="n">
         <v>195594</v>
       </c>
@@ -16215,7 +16203,7 @@
         </is>
       </c>
     </row>
-    <row r="61" hidden="1">
+    <row r="61" ht="16" customHeight="1">
       <c r="A61" s="23" t="n">
         <v>195598</v>
       </c>
@@ -16281,7 +16269,7 @@
         </is>
       </c>
     </row>
-    <row r="62" hidden="1">
+    <row r="62" ht="16" customHeight="1">
       <c r="A62" s="23" t="n">
         <v>61296</v>
       </c>
@@ -16347,7 +16335,7 @@
         </is>
       </c>
     </row>
-    <row r="63" hidden="1">
+    <row r="63" ht="16" customHeight="1">
       <c r="A63" s="23" t="n">
         <v>61298</v>
       </c>
@@ -16413,7 +16401,7 @@
         </is>
       </c>
     </row>
-    <row r="64" hidden="1">
+    <row r="64" ht="16" customHeight="1">
       <c r="A64" s="23" t="n">
         <v>61301</v>
       </c>
@@ -16479,7 +16467,7 @@
         </is>
       </c>
     </row>
-    <row r="65" hidden="1">
+    <row r="65" ht="16" customHeight="1">
       <c r="A65" s="23" t="n">
         <v>61302</v>
       </c>
@@ -16545,7 +16533,7 @@
         </is>
       </c>
     </row>
-    <row r="66" hidden="1">
+    <row r="66" ht="16" customHeight="1">
       <c r="A66" s="23" t="n">
         <v>61305</v>
       </c>
@@ -16611,7 +16599,7 @@
         </is>
       </c>
     </row>
-    <row r="67" hidden="1">
+    <row r="67" ht="16" customHeight="1">
       <c r="A67" s="23" t="n">
         <v>318515</v>
       </c>
@@ -16675,7 +16663,7 @@
         </is>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68" ht="16" customHeight="1">
       <c r="A68" s="23" t="n">
         <v>305274</v>
       </c>
@@ -16737,7 +16725,7 @@
         </is>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69" ht="16" customHeight="1">
       <c r="A69" s="23" t="n">
         <v>327486</v>
       </c>
@@ -16803,7 +16791,7 @@
         </is>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70" ht="16" customHeight="1">
       <c r="A70" s="23" t="n">
         <v>2079430</v>
       </c>
@@ -16861,7 +16849,7 @@
         </is>
       </c>
     </row>
-    <row r="71" hidden="1">
+    <row r="71" ht="16" customHeight="1">
       <c r="A71" s="23" t="n">
         <v>2026810</v>
       </c>
@@ -16919,7 +16907,7 @@
         </is>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72" ht="16" customHeight="1">
       <c r="A72" s="23" t="n">
         <v>4441500</v>
       </c>
@@ -16977,7 +16965,7 @@
         </is>
       </c>
     </row>
-    <row r="73" hidden="1">
+    <row r="73" ht="16" customHeight="1">
       <c r="A73" s="23" t="n">
         <v>4441502</v>
       </c>
@@ -17035,7 +17023,7 @@
         </is>
       </c>
     </row>
-    <row r="74" hidden="1">
+    <row r="74" ht="16" customHeight="1">
       <c r="A74" s="23" t="n">
         <v>4441511</v>
       </c>
@@ -17093,7 +17081,7 @@
         </is>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75" ht="16" customHeight="1">
       <c r="A75" s="23" t="n">
         <v>4441514</v>
       </c>
@@ -17151,7 +17139,7 @@
         </is>
       </c>
     </row>
-    <row r="76" hidden="1">
+    <row r="76" ht="16" customHeight="1">
       <c r="A76" s="23" t="n">
         <v>4441515</v>
       </c>
@@ -17209,7 +17197,7 @@
         </is>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77" ht="16" customHeight="1">
       <c r="A77" s="23" t="n">
         <v>4441516</v>
       </c>
@@ -17267,7 +17255,7 @@
         </is>
       </c>
     </row>
-    <row r="78" hidden="1">
+    <row r="78" ht="16" customHeight="1">
       <c r="A78" s="23" t="n">
         <v>4441520</v>
       </c>
@@ -17325,7 +17313,7 @@
         </is>
       </c>
     </row>
-    <row r="79" hidden="1">
+    <row r="79" ht="16" customHeight="1">
       <c r="A79" s="23" t="n">
         <v>4441522</v>
       </c>
@@ -17383,7 +17371,7 @@
         </is>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80" ht="16" customHeight="1">
       <c r="A80" s="23" t="n">
         <v>4441538</v>
       </c>
@@ -17441,7 +17429,7 @@
         </is>
       </c>
     </row>
-    <row r="81" hidden="1">
+    <row r="81" ht="16" customHeight="1">
       <c r="A81" s="23" t="n">
         <v>79757</v>
       </c>
@@ -17503,7 +17491,7 @@
         </is>
       </c>
     </row>
-    <row r="82" hidden="1">
+    <row r="82" ht="16" customHeight="1">
       <c r="A82" s="23" t="n">
         <v>79762</v>
       </c>
@@ -17565,7 +17553,7 @@
         </is>
       </c>
     </row>
-    <row r="83" hidden="1">
+    <row r="83" ht="16" customHeight="1">
       <c r="A83" s="23" t="n">
         <v>307015</v>
       </c>
@@ -17627,7 +17615,7 @@
         </is>
       </c>
     </row>
-    <row r="84" hidden="1">
+    <row r="84" ht="16" customHeight="1">
       <c r="A84" s="23" t="n">
         <v>2026811</v>
       </c>
@@ -17689,7 +17677,7 @@
         </is>
       </c>
     </row>
-    <row r="85" hidden="1">
+    <row r="85" ht="16" customHeight="1">
       <c r="A85" s="23" t="n">
         <v>3741130</v>
       </c>
@@ -17747,7 +17735,7 @@
         </is>
       </c>
     </row>
-    <row r="86" hidden="1">
+    <row r="86" ht="16" customHeight="1">
       <c r="A86" s="23" t="n">
         <v>89831</v>
       </c>
@@ -17813,7 +17801,7 @@
         </is>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87" ht="16" customHeight="1">
       <c r="A87" s="23" t="n">
         <v>89826</v>
       </c>
@@ -17877,7 +17865,7 @@
         </is>
       </c>
     </row>
-    <row r="88" hidden="1">
+    <row r="88" ht="16" customHeight="1">
       <c r="A88" s="23" t="n">
         <v>2028440</v>
       </c>
@@ -17933,7 +17921,7 @@
         </is>
       </c>
     </row>
-    <row r="89" hidden="1">
+    <row r="89" ht="16" customHeight="1">
       <c r="A89" s="23" t="n">
         <v>2028441</v>
       </c>
@@ -17989,7 +17977,7 @@
         </is>
       </c>
     </row>
-    <row r="90" hidden="1">
+    <row r="90" ht="16" customHeight="1">
       <c r="A90" s="23" t="n">
         <v>2028442</v>
       </c>
@@ -18045,7 +18033,7 @@
         </is>
       </c>
     </row>
-    <row r="91" hidden="1">
+    <row r="91" ht="16" customHeight="1">
       <c r="A91" s="23" t="n">
         <v>2028443</v>
       </c>
@@ -18101,7 +18089,7 @@
         </is>
       </c>
     </row>
-    <row r="92" hidden="1">
+    <row r="92" ht="16" customHeight="1">
       <c r="A92" s="23" t="n">
         <v>2028446</v>
       </c>
@@ -18157,7 +18145,7 @@
         </is>
       </c>
     </row>
-    <row r="93" hidden="1">
+    <row r="93" ht="16" customHeight="1">
       <c r="A93" s="23" t="n">
         <v>2028447</v>
       </c>
@@ -18213,7 +18201,7 @@
         </is>
       </c>
     </row>
-    <row r="94" hidden="1">
+    <row r="94" ht="16" customHeight="1">
       <c r="A94" s="23" t="n">
         <v>2028448</v>
       </c>
@@ -18269,7 +18257,7 @@
         </is>
       </c>
     </row>
-    <row r="95" hidden="1">
+    <row r="95" ht="16" customHeight="1">
       <c r="A95" s="23" t="n">
         <v>2028449</v>
       </c>
@@ -18325,7 +18313,7 @@
         </is>
       </c>
     </row>
-    <row r="96" hidden="1">
+    <row r="96" ht="16" customHeight="1">
       <c r="A96" s="23" t="n">
         <v>2028450</v>
       </c>
@@ -18381,7 +18369,7 @@
         </is>
       </c>
     </row>
-    <row r="97" hidden="1">
+    <row r="97" ht="16" customHeight="1">
       <c r="A97" s="23" t="n">
         <v>2028451</v>
       </c>
@@ -18437,7 +18425,7 @@
         </is>
       </c>
     </row>
-    <row r="98" hidden="1">
+    <row r="98" ht="16" customHeight="1">
       <c r="A98" s="23" t="n">
         <v>2028452</v>
       </c>
@@ -18493,7 +18481,7 @@
         </is>
       </c>
     </row>
-    <row r="99" hidden="1">
+    <row r="99" ht="16" customHeight="1">
       <c r="A99" s="23" t="n">
         <v>2028453</v>
       </c>
@@ -18549,7 +18537,7 @@
         </is>
       </c>
     </row>
-    <row r="100" hidden="1">
+    <row r="100" ht="16" customHeight="1">
       <c r="A100" s="23" t="n">
         <v>2028454</v>
       </c>
@@ -18605,7 +18593,7 @@
         </is>
       </c>
     </row>
-    <row r="101" hidden="1">
+    <row r="101" ht="16" customHeight="1">
       <c r="A101" s="23" t="n">
         <v>2028455</v>
       </c>
@@ -18661,7 +18649,7 @@
         </is>
       </c>
     </row>
-    <row r="102" hidden="1">
+    <row r="102" ht="16" customHeight="1">
       <c r="A102" s="23" t="n">
         <v>2028456</v>
       </c>
@@ -18717,7 +18705,7 @@
         </is>
       </c>
     </row>
-    <row r="103" hidden="1">
+    <row r="103" ht="16" customHeight="1">
       <c r="A103" s="23" t="n">
         <v>2028457</v>
       </c>
@@ -18773,7 +18761,7 @@
         </is>
       </c>
     </row>
-    <row r="104" hidden="1">
+    <row r="104" ht="16" customHeight="1">
       <c r="A104" s="23" t="n">
         <v>2028459</v>
       </c>
@@ -18829,7 +18817,7 @@
         </is>
       </c>
     </row>
-    <row r="105" hidden="1">
+    <row r="105" ht="16" customHeight="1">
       <c r="A105" s="23" t="n">
         <v>2028460</v>
       </c>
@@ -18885,7 +18873,7 @@
         </is>
       </c>
     </row>
-    <row r="106" hidden="1">
+    <row r="106" ht="16" customHeight="1">
       <c r="A106" s="23" t="n">
         <v>2028461</v>
       </c>
@@ -18941,7 +18929,7 @@
         </is>
       </c>
     </row>
-    <row r="107" hidden="1">
+    <row r="107" ht="16" customHeight="1">
       <c r="A107" s="23" t="n">
         <v>2028462</v>
       </c>
@@ -18997,7 +18985,7 @@
         </is>
       </c>
     </row>
-    <row r="108" hidden="1">
+    <row r="108" ht="16" customHeight="1">
       <c r="A108" s="23" t="n">
         <v>2028463</v>
       </c>
@@ -19053,7 +19041,7 @@
         </is>
       </c>
     </row>
-    <row r="109" hidden="1">
+    <row r="109" ht="16" customHeight="1">
       <c r="A109" s="23" t="n">
         <v>2028464</v>
       </c>
@@ -19109,7 +19097,7 @@
         </is>
       </c>
     </row>
-    <row r="110" hidden="1">
+    <row r="110" ht="16" customHeight="1">
       <c r="A110" s="23" t="n">
         <v>2028465</v>
       </c>
@@ -19165,7 +19153,7 @@
         </is>
       </c>
     </row>
-    <row r="111" hidden="1">
+    <row r="111" ht="16" customHeight="1">
       <c r="A111" s="23" t="n">
         <v>3450637</v>
       </c>
@@ -19221,7 +19209,7 @@
         </is>
       </c>
     </row>
-    <row r="112" hidden="1">
+    <row r="112" ht="16" customHeight="1">
       <c r="A112" s="23" t="n">
         <v>3450598</v>
       </c>
@@ -19277,7 +19265,7 @@
         </is>
       </c>
     </row>
-    <row r="113" hidden="1">
+    <row r="113" ht="16" customHeight="1">
       <c r="A113" s="23" t="n">
         <v>3450608</v>
       </c>
@@ -19333,7 +19321,7 @@
         </is>
       </c>
     </row>
-    <row r="114" hidden="1">
+    <row r="114" ht="16" customHeight="1">
       <c r="A114" s="23" t="n">
         <v>3450625</v>
       </c>
@@ -19389,7 +19377,7 @@
         </is>
       </c>
     </row>
-    <row r="115" hidden="1">
+    <row r="115" ht="16" customHeight="1">
       <c r="A115" s="23" t="n">
         <v>3450626</v>
       </c>
@@ -19445,7 +19433,7 @@
         </is>
       </c>
     </row>
-    <row r="116" hidden="1">
+    <row r="116" ht="16" customHeight="1">
       <c r="A116" s="23" t="n">
         <v>3450628</v>
       </c>
@@ -19501,7 +19489,7 @@
         </is>
       </c>
     </row>
-    <row r="117" hidden="1">
+    <row r="117" ht="16" customHeight="1">
       <c r="A117" s="23" t="n">
         <v>3450629</v>
       </c>
@@ -19557,7 +19545,7 @@
         </is>
       </c>
     </row>
-    <row r="118" hidden="1">
+    <row r="118" ht="16" customHeight="1">
       <c r="A118" s="23" t="n">
         <v>3450632</v>
       </c>
@@ -19613,7 +19601,7 @@
         </is>
       </c>
     </row>
-    <row r="119" hidden="1">
+    <row r="119" ht="16" customHeight="1">
       <c r="A119" s="23" t="n">
         <v>3450633</v>
       </c>
@@ -19669,7 +19657,7 @@
         </is>
       </c>
     </row>
-    <row r="120" hidden="1">
+    <row r="120" ht="16" customHeight="1">
       <c r="A120" s="23" t="n">
         <v>3450634</v>
       </c>
@@ -19725,7 +19713,7 @@
         </is>
       </c>
     </row>
-    <row r="121" hidden="1">
+    <row r="121" ht="16" customHeight="1">
       <c r="A121" s="23" t="n">
         <v>3450649</v>
       </c>
@@ -19781,7 +19769,7 @@
         </is>
       </c>
     </row>
-    <row r="122" hidden="1">
+    <row r="122" ht="16" customHeight="1">
       <c r="A122" s="23" t="n">
         <v>3450650</v>
       </c>
@@ -19837,7 +19825,7 @@
         </is>
       </c>
     </row>
-    <row r="123" hidden="1">
+    <row r="123" ht="16" customHeight="1">
       <c r="A123" s="23" t="n">
         <v>3450652</v>
       </c>
@@ -19893,7 +19881,7 @@
         </is>
       </c>
     </row>
-    <row r="124" hidden="1">
+    <row r="124" ht="16" customHeight="1">
       <c r="A124" s="23" t="n">
         <v>3450653</v>
       </c>
@@ -19949,7 +19937,7 @@
         </is>
       </c>
     </row>
-    <row r="125" hidden="1">
+    <row r="125" ht="16" customHeight="1">
       <c r="A125" s="23" t="n">
         <v>3450661</v>
       </c>
@@ -20005,7 +19993,7 @@
         </is>
       </c>
     </row>
-    <row r="126" hidden="1">
+    <row r="126" ht="16" customHeight="1">
       <c r="A126" s="23" t="n">
         <v>3450603</v>
       </c>
@@ -20061,7 +20049,7 @@
         </is>
       </c>
     </row>
-    <row r="127" hidden="1">
+    <row r="127" ht="16" customHeight="1">
       <c r="A127" s="23" t="n">
         <v>3450654</v>
       </c>
@@ -20117,7 +20105,7 @@
         </is>
       </c>
     </row>
-    <row r="128" hidden="1">
+    <row r="128" ht="16" customHeight="1">
       <c r="A128" s="23" t="n">
         <v>3450656</v>
       </c>
@@ -20173,7 +20161,7 @@
         </is>
       </c>
     </row>
-    <row r="129" hidden="1">
+    <row r="129" ht="16" customHeight="1">
       <c r="A129" s="23" t="n">
         <v>3450658</v>
       </c>
@@ -20229,7 +20217,7 @@
         </is>
       </c>
     </row>
-    <row r="130" hidden="1">
+    <row r="130" ht="16" customHeight="1">
       <c r="A130" s="23" t="n">
         <v>3450659</v>
       </c>
@@ -20285,7 +20273,7 @@
         </is>
       </c>
     </row>
-    <row r="131" hidden="1">
+    <row r="131" ht="16" customHeight="1">
       <c r="A131" s="23" t="n">
         <v>3450660</v>
       </c>
@@ -20341,7 +20329,7 @@
         </is>
       </c>
     </row>
-    <row r="132" hidden="1">
+    <row r="132" ht="16" customHeight="1">
       <c r="A132" s="23" t="n">
         <v>2028409</v>
       </c>
@@ -20397,7 +20385,7 @@
         </is>
       </c>
     </row>
-    <row r="133" hidden="1">
+    <row r="133" ht="16" customHeight="1">
       <c r="A133" s="23" t="n">
         <v>2028410</v>
       </c>
@@ -20453,7 +20441,7 @@
         </is>
       </c>
     </row>
-    <row r="134" hidden="1">
+    <row r="134" ht="16" customHeight="1">
       <c r="A134" s="23" t="n">
         <v>2028411</v>
       </c>
@@ -20509,7 +20497,7 @@
         </is>
       </c>
     </row>
-    <row r="135" hidden="1">
+    <row r="135" ht="16" customHeight="1">
       <c r="A135" s="23" t="n">
         <v>2028412</v>
       </c>
@@ -20565,7 +20553,7 @@
         </is>
       </c>
     </row>
-    <row r="136" hidden="1">
+    <row r="136" ht="16" customHeight="1">
       <c r="A136" s="23" t="n">
         <v>2028413</v>
       </c>
@@ -20621,7 +20609,7 @@
         </is>
       </c>
     </row>
-    <row r="137" hidden="1">
+    <row r="137" ht="16" customHeight="1">
       <c r="A137" s="23" t="n">
         <v>2028424</v>
       </c>
@@ -20677,7 +20665,7 @@
         </is>
       </c>
     </row>
-    <row r="138" hidden="1">
+    <row r="138" ht="16" customHeight="1">
       <c r="A138" s="23" t="n">
         <v>2028426</v>
       </c>
@@ -20733,7 +20721,7 @@
         </is>
       </c>
     </row>
-    <row r="139" hidden="1">
+    <row r="139" ht="16" customHeight="1">
       <c r="A139" s="23" t="n">
         <v>2028427</v>
       </c>
@@ -20789,7 +20777,7 @@
         </is>
       </c>
     </row>
-    <row r="140" hidden="1">
+    <row r="140" ht="16" customHeight="1">
       <c r="A140" s="23" t="n">
         <v>2028384</v>
       </c>
@@ -20845,7 +20833,7 @@
         </is>
       </c>
     </row>
-    <row r="141" hidden="1">
+    <row r="141" ht="16" customHeight="1">
       <c r="A141" s="23" t="n">
         <v>2028386</v>
       </c>
@@ -20901,7 +20889,7 @@
         </is>
       </c>
     </row>
-    <row r="142" hidden="1">
+    <row r="142" ht="16" customHeight="1">
       <c r="A142" s="23" t="n">
         <v>3450571</v>
       </c>
@@ -20957,7 +20945,7 @@
         </is>
       </c>
     </row>
-    <row r="143" hidden="1">
+    <row r="143" ht="16" customHeight="1">
       <c r="A143" s="23" t="n">
         <v>3450569</v>
       </c>
@@ -21013,7 +21001,7 @@
         </is>
       </c>
     </row>
-    <row r="144" hidden="1">
+    <row r="144" ht="16" customHeight="1">
       <c r="A144" s="23" t="n">
         <v>3450572</v>
       </c>
@@ -21069,7 +21057,7 @@
         </is>
       </c>
     </row>
-    <row r="145" hidden="1">
+    <row r="145" ht="16" customHeight="1">
       <c r="A145" s="23" t="n">
         <v>3450575</v>
       </c>
@@ -21125,7 +21113,7 @@
         </is>
       </c>
     </row>
-    <row r="146" hidden="1">
+    <row r="146" ht="16" customHeight="1">
       <c r="A146" s="23" t="n">
         <v>3450573</v>
       </c>
@@ -21181,7 +21169,7 @@
         </is>
       </c>
     </row>
-    <row r="147" hidden="1">
+    <row r="147" ht="16" customHeight="1">
       <c r="A147" s="23" t="n">
         <v>3450574</v>
       </c>
@@ -21237,7 +21225,7 @@
         </is>
       </c>
     </row>
-    <row r="148" hidden="1">
+    <row r="148" ht="16" customHeight="1">
       <c r="A148" s="23" t="n">
         <v>3450576</v>
       </c>
@@ -21293,7 +21281,7 @@
         </is>
       </c>
     </row>
-    <row r="149" hidden="1">
+    <row r="149" ht="16" customHeight="1">
       <c r="A149" s="23" t="n">
         <v>3450577</v>
       </c>
@@ -21349,7 +21337,7 @@
         </is>
       </c>
     </row>
-    <row r="150" hidden="1">
+    <row r="150" ht="16" customHeight="1">
       <c r="A150" s="23" t="n">
         <v>3450578</v>
       </c>
@@ -21405,7 +21393,7 @@
         </is>
       </c>
     </row>
-    <row r="151" hidden="1">
+    <row r="151" ht="16" customHeight="1">
       <c r="A151" s="23" t="n">
         <v>3450579</v>
       </c>
@@ -21461,7 +21449,7 @@
         </is>
       </c>
     </row>
-    <row r="152" hidden="1">
+    <row r="152" ht="16" customHeight="1">
       <c r="A152" s="23" t="n">
         <v>2028393</v>
       </c>
@@ -21517,7 +21505,7 @@
         </is>
       </c>
     </row>
-    <row r="153" hidden="1">
+    <row r="153" ht="16" customHeight="1">
       <c r="A153" s="23" t="n">
         <v>2028394</v>
       </c>
@@ -21573,7 +21561,7 @@
         </is>
       </c>
     </row>
-    <row r="154" hidden="1">
+    <row r="154" ht="16" customHeight="1">
       <c r="A154" s="23" t="n">
         <v>2028389</v>
       </c>
@@ -21629,7 +21617,7 @@
         </is>
       </c>
     </row>
-    <row r="155" hidden="1">
+    <row r="155" ht="16" customHeight="1">
       <c r="A155" s="23" t="n">
         <v>2028390</v>
       </c>
@@ -21685,7 +21673,7 @@
         </is>
       </c>
     </row>
-    <row r="156" hidden="1">
+    <row r="156" ht="16" customHeight="1">
       <c r="A156" s="23" t="n">
         <v>2028391</v>
       </c>
@@ -21741,7 +21729,7 @@
         </is>
       </c>
     </row>
-    <row r="157" hidden="1">
+    <row r="157" ht="16" customHeight="1">
       <c r="A157" s="23" t="n">
         <v>2028392</v>
       </c>
@@ -21797,7 +21785,7 @@
         </is>
       </c>
     </row>
-    <row r="158" hidden="1">
+    <row r="158" ht="16" customHeight="1">
       <c r="A158" s="23" t="n">
         <v>2028399</v>
       </c>
@@ -21853,7 +21841,7 @@
         </is>
       </c>
     </row>
-    <row r="159" hidden="1">
+    <row r="159" ht="16" customHeight="1">
       <c r="A159" s="23" t="n">
         <v>2028400</v>
       </c>
@@ -21909,7 +21897,7 @@
         </is>
       </c>
     </row>
-    <row r="160" hidden="1">
+    <row r="160" ht="16" customHeight="1">
       <c r="A160" s="23" t="n">
         <v>2028395</v>
       </c>
@@ -21938,7 +21926,7 @@
       </c>
       <c r="G160" s="24" t="n"/>
       <c r="H160" s="23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I160" s="22" t="inlineStr">
         <is>
@@ -21965,7 +21953,7 @@
         </is>
       </c>
     </row>
-    <row r="161" hidden="1">
+    <row r="161" ht="16" customHeight="1">
       <c r="A161" s="23" t="n">
         <v>2028396</v>
       </c>
@@ -22021,7 +22009,7 @@
         </is>
       </c>
     </row>
-    <row r="162" hidden="1">
+    <row r="162" ht="16" customHeight="1">
       <c r="A162" s="23" t="n">
         <v>2028397</v>
       </c>
@@ -22077,7 +22065,7 @@
         </is>
       </c>
     </row>
-    <row r="163" hidden="1">
+    <row r="163" ht="16" customHeight="1">
       <c r="A163" s="23" t="n">
         <v>2028398</v>
       </c>
@@ -22133,7 +22121,7 @@
         </is>
       </c>
     </row>
-    <row r="164" hidden="1">
+    <row r="164" ht="16" customHeight="1">
       <c r="A164" s="23" t="n">
         <v>300138</v>
       </c>
@@ -22191,7 +22179,7 @@
         </is>
       </c>
     </row>
-    <row r="165" hidden="1">
+    <row r="165" ht="16" customHeight="1">
       <c r="A165" s="23" t="n">
         <v>306380</v>
       </c>
@@ -22249,7 +22237,7 @@
         </is>
       </c>
     </row>
-    <row r="166" hidden="1">
+    <row r="166" ht="16" customHeight="1">
       <c r="A166" s="23" t="n">
         <v>306375</v>
       </c>
@@ -22307,7 +22295,7 @@
         </is>
       </c>
     </row>
-    <row r="167" hidden="1">
+    <row r="167" ht="16" customHeight="1">
       <c r="A167" s="23" t="n">
         <v>306377</v>
       </c>
@@ -22365,7 +22353,7 @@
         </is>
       </c>
     </row>
-    <row r="168" hidden="1">
+    <row r="168" ht="16" customHeight="1">
       <c r="A168" s="23" t="n">
         <v>306372</v>
       </c>
@@ -22423,7 +22411,7 @@
         </is>
       </c>
     </row>
-    <row r="169" hidden="1">
+    <row r="169" ht="16" customHeight="1">
       <c r="A169" s="23" t="n">
         <v>318490</v>
       </c>
@@ -22479,7 +22467,7 @@
         </is>
       </c>
     </row>
-    <row r="170" hidden="1">
+    <row r="170" ht="16" customHeight="1">
       <c r="A170" s="23" t="n">
         <v>303149</v>
       </c>
@@ -22535,7 +22523,7 @@
         </is>
       </c>
     </row>
-    <row r="171" hidden="1">
+    <row r="171" ht="16" customHeight="1">
       <c r="A171" s="23" t="n">
         <v>303156</v>
       </c>
@@ -22591,7 +22579,7 @@
         </is>
       </c>
     </row>
-    <row r="172" hidden="1">
+    <row r="172" ht="16" customHeight="1">
       <c r="A172" s="23" t="n">
         <v>318490</v>
       </c>
@@ -22647,7 +22635,7 @@
         </is>
       </c>
     </row>
-    <row r="173" hidden="1">
+    <row r="173" ht="16" customHeight="1">
       <c r="A173" s="23" t="n">
         <v>266187</v>
       </c>
@@ -22699,7 +22687,7 @@
         </is>
       </c>
     </row>
-    <row r="174" hidden="1">
+    <row r="174" ht="16" customHeight="1">
       <c r="A174" s="23" t="n">
         <v>266188</v>
       </c>
@@ -22751,7 +22739,7 @@
         </is>
       </c>
     </row>
-    <row r="175" hidden="1">
+    <row r="175" ht="16" customHeight="1">
       <c r="A175" s="23" t="n">
         <v>266189</v>
       </c>
@@ -22803,7 +22791,7 @@
         </is>
       </c>
     </row>
-    <row r="176" hidden="1">
+    <row r="176" ht="16" customHeight="1">
       <c r="A176" s="23" t="n">
         <v>266190</v>
       </c>
@@ -22855,7 +22843,7 @@
         </is>
       </c>
     </row>
-    <row r="177" hidden="1">
+    <row r="177" ht="16" customHeight="1">
       <c r="A177" s="23" t="n">
         <v>266181</v>
       </c>
@@ -22907,7 +22895,7 @@
         </is>
       </c>
     </row>
-    <row r="178" hidden="1">
+    <row r="178" ht="16" customHeight="1">
       <c r="A178" s="23" t="n">
         <v>300303</v>
       </c>
@@ -22965,7 +22953,7 @@
         </is>
       </c>
     </row>
-    <row r="179" hidden="1">
+    <row r="179" ht="16" customHeight="1">
       <c r="A179" s="23" t="n">
         <v>300085</v>
       </c>
@@ -23025,7 +23013,7 @@
         </is>
       </c>
     </row>
-    <row r="180" hidden="1">
+    <row r="180" ht="16" customHeight="1">
       <c r="A180" s="23" t="n">
         <v>2028414</v>
       </c>
@@ -23083,7 +23071,7 @@
         </is>
       </c>
     </row>
-    <row r="181">
+    <row r="181" ht="16" customHeight="1">
       <c r="A181" s="23" t="n">
         <v>3502095</v>
       </c>
@@ -23141,7 +23129,7 @@
         </is>
       </c>
     </row>
-    <row r="182">
+    <row r="182" ht="16" customHeight="1">
       <c r="A182" s="23" t="n">
         <v>3656196</v>
       </c>
@@ -23199,7 +23187,7 @@
         </is>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="16" customHeight="1">
       <c r="A183" s="23" t="n">
         <v>3656197</v>
       </c>
@@ -23257,7 +23245,7 @@
         </is>
       </c>
     </row>
-    <row r="184">
+    <row r="184" ht="16" customHeight="1">
       <c r="A184" s="23" t="n">
         <v>3502096</v>
       </c>
@@ -23315,7 +23303,7 @@
         </is>
       </c>
     </row>
-    <row r="185">
+    <row r="185" ht="16" customHeight="1">
       <c r="A185" s="23" t="n">
         <v>2028467</v>
       </c>
@@ -23371,7 +23359,7 @@
         </is>
       </c>
     </row>
-    <row r="186">
+    <row r="186" ht="16" customHeight="1">
       <c r="A186" s="23" t="n">
         <v>2028470</v>
       </c>
@@ -23427,7 +23415,7 @@
         </is>
       </c>
     </row>
-    <row r="187">
+    <row r="187" ht="16" customHeight="1">
       <c r="A187" s="23" t="n">
         <v>2028471</v>
       </c>
@@ -23483,7 +23471,7 @@
         </is>
       </c>
     </row>
-    <row r="188">
+    <row r="188" ht="16" customHeight="1">
       <c r="A188" s="23" t="n">
         <v>2028472</v>
       </c>
@@ -23539,7 +23527,7 @@
         </is>
       </c>
     </row>
-    <row r="189">
+    <row r="189" ht="16" customHeight="1">
       <c r="A189" s="23" t="n">
         <v>4181464</v>
       </c>
@@ -23595,7 +23583,7 @@
         </is>
       </c>
     </row>
-    <row r="190">
+    <row r="190" ht="16" customHeight="1">
       <c r="A190" s="23" t="n">
         <v>4181453</v>
       </c>
@@ -23653,7 +23641,7 @@
         </is>
       </c>
     </row>
-    <row r="191">
+    <row r="191" ht="16" customHeight="1">
       <c r="A191" s="23" t="n">
         <v>4181458</v>
       </c>
@@ -23711,7 +23699,7 @@
         </is>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="16" customHeight="1">
       <c r="A192" s="23" t="n">
         <v>4181459</v>
       </c>
@@ -23769,7 +23757,7 @@
         </is>
       </c>
     </row>
-    <row r="193">
+    <row r="193" ht="16" customHeight="1">
       <c r="A193" s="23" t="n">
         <v>4181460</v>
       </c>
@@ -23827,7 +23815,7 @@
         </is>
       </c>
     </row>
-    <row r="194">
+    <row r="194" ht="16" customHeight="1">
       <c r="A194" s="23" t="n">
         <v>4181461</v>
       </c>
@@ -23885,7 +23873,7 @@
         </is>
       </c>
     </row>
-    <row r="195">
+    <row r="195" ht="16" customHeight="1">
       <c r="A195" s="23" t="n">
         <v>4181462</v>
       </c>
@@ -23943,7 +23931,7 @@
         </is>
       </c>
     </row>
-    <row r="196">
+    <row r="196" ht="16" customHeight="1">
       <c r="A196" s="23" t="n">
         <v>4181463</v>
       </c>
@@ -24001,7 +23989,7 @@
         </is>
       </c>
     </row>
-    <row r="197">
+    <row r="197" ht="16" customHeight="1">
       <c r="A197" s="23" t="n">
         <v>4181474</v>
       </c>
@@ -24059,7 +24047,7 @@
         </is>
       </c>
     </row>
-    <row r="198">
+    <row r="198" ht="16" customHeight="1">
       <c r="A198" s="23" t="n">
         <v>4181475</v>
       </c>
@@ -24117,7 +24105,7 @@
         </is>
       </c>
     </row>
-    <row r="199">
+    <row r="199" ht="16" customHeight="1">
       <c r="A199" s="23" t="n">
         <v>4181476</v>
       </c>
@@ -24175,7 +24163,7 @@
         </is>
       </c>
     </row>
-    <row r="200">
+    <row r="200" ht="16" customHeight="1">
       <c r="A200" s="23" t="n">
         <v>4181478</v>
       </c>
@@ -24233,7 +24221,7 @@
         </is>
       </c>
     </row>
-    <row r="201">
+    <row r="201" ht="16" customHeight="1">
       <c r="A201" s="23" t="n">
         <v>4181479</v>
       </c>
@@ -24291,7 +24279,7 @@
         </is>
       </c>
     </row>
-    <row r="202">
+    <row r="202" ht="16" customHeight="1">
       <c r="A202" s="23" t="n">
         <v>4181480</v>
       </c>
@@ -24347,7 +24335,7 @@
         </is>
       </c>
     </row>
-    <row r="203">
+    <row r="203" ht="16" customHeight="1">
       <c r="A203" s="23" t="n">
         <v>4181481</v>
       </c>
@@ -24403,7 +24391,7 @@
         </is>
       </c>
     </row>
-    <row r="204">
+    <row r="204" ht="16" customHeight="1">
       <c r="A204" s="23" t="n">
         <v>4181482</v>
       </c>
@@ -24459,7 +24447,7 @@
         </is>
       </c>
     </row>
-    <row r="205">
+    <row r="205" ht="16" customHeight="1">
       <c r="A205" s="23" t="n">
         <v>4181483</v>
       </c>
@@ -24515,7 +24503,7 @@
         </is>
       </c>
     </row>
-    <row r="206">
+    <row r="206" ht="16" customHeight="1">
       <c r="A206" s="23" t="n">
         <v>4181485</v>
       </c>
@@ -24571,7 +24559,7 @@
         </is>
       </c>
     </row>
-    <row r="207">
+    <row r="207" ht="16" customHeight="1">
       <c r="A207" s="23" t="n">
         <v>4181486</v>
       </c>
@@ -24627,7 +24615,7 @@
         </is>
       </c>
     </row>
-    <row r="208">
+    <row r="208" ht="16" customHeight="1">
       <c r="A208" s="23" t="n">
         <v>4181487</v>
       </c>
@@ -24683,7 +24671,7 @@
         </is>
       </c>
     </row>
-    <row r="209">
+    <row r="209" ht="16" customHeight="1">
       <c r="A209" s="23" t="n">
         <v>2990503</v>
       </c>
@@ -24745,7 +24733,7 @@
         </is>
       </c>
     </row>
-    <row r="210">
+    <row r="210" ht="16" customHeight="1">
       <c r="A210" s="23" t="n">
         <v>315301</v>
       </c>
@@ -24807,7 +24795,7 @@
         </is>
       </c>
     </row>
-    <row r="211">
+    <row r="211" ht="16" customHeight="1">
       <c r="A211" s="23" t="n">
         <v>315299</v>
       </c>
@@ -24867,7 +24855,7 @@
         </is>
       </c>
     </row>
-    <row r="212">
+    <row r="212" ht="16" customHeight="1">
       <c r="A212" s="23" t="n">
         <v>315300</v>
       </c>
@@ -24927,7 +24915,7 @@
         </is>
       </c>
     </row>
-    <row r="213">
+    <row r="213" ht="16" customHeight="1">
       <c r="A213" s="23" t="n">
         <v>315347</v>
       </c>
@@ -24989,7 +24977,7 @@
         </is>
       </c>
     </row>
-    <row r="214">
+    <row r="214" ht="16" customHeight="1">
       <c r="A214" s="23" t="n">
         <v>315313</v>
       </c>
@@ -25049,7 +25037,7 @@
         </is>
       </c>
     </row>
-    <row r="215">
+    <row r="215" ht="16" customHeight="1">
       <c r="A215" s="23" t="n">
         <v>315314</v>
       </c>
@@ -25109,7 +25097,7 @@
         </is>
       </c>
     </row>
-    <row r="216">
+    <row r="216" ht="16" customHeight="1">
       <c r="A216" s="23" t="n">
         <v>300305</v>
       </c>
@@ -25169,7 +25157,7 @@
         </is>
       </c>
     </row>
-    <row r="217">
+    <row r="217" ht="16" customHeight="1">
       <c r="A217" s="23" t="n">
         <v>315321</v>
       </c>
@@ -25231,7 +25219,7 @@
         </is>
       </c>
     </row>
-    <row r="218">
+    <row r="218" ht="16" customHeight="1">
       <c r="A218" s="23" t="n">
         <v>315333</v>
       </c>
@@ -25293,7 +25281,7 @@
         </is>
       </c>
     </row>
-    <row r="219" hidden="1">
+    <row r="219" ht="16" customHeight="1">
       <c r="A219" s="23" t="n">
         <v>3329290</v>
       </c>
@@ -25351,7 +25339,7 @@
         </is>
       </c>
     </row>
-    <row r="220" hidden="1">
+    <row r="220" ht="16" customHeight="1">
       <c r="A220" s="23" t="n">
         <v>3329291</v>
       </c>
@@ -25409,7 +25397,7 @@
         </is>
       </c>
     </row>
-    <row r="221" hidden="1">
+    <row r="221" ht="16" customHeight="1">
       <c r="A221" s="23" t="n">
         <v>3329295</v>
       </c>
@@ -25467,7 +25455,7 @@
         </is>
       </c>
     </row>
-    <row r="222" hidden="1">
+    <row r="222" ht="16" customHeight="1">
       <c r="A222" s="23" t="n">
         <v>3347113</v>
       </c>
@@ -25525,7 +25513,7 @@
         </is>
       </c>
     </row>
-    <row r="223" hidden="1">
+    <row r="223" ht="16" customHeight="1">
       <c r="A223" s="23" t="n">
         <v>3347114</v>
       </c>
@@ -25583,7 +25571,7 @@
         </is>
       </c>
     </row>
-    <row r="224" hidden="1">
+    <row r="224" ht="16" customHeight="1">
       <c r="A224" s="23" t="n">
         <v>3347117</v>
       </c>
@@ -25641,7 +25629,7 @@
         </is>
       </c>
     </row>
-    <row r="225" hidden="1">
+    <row r="225" ht="16" customHeight="1">
       <c r="A225" s="23" t="n">
         <v>3347118</v>
       </c>
@@ -25699,7 +25687,7 @@
         </is>
       </c>
     </row>
-    <row r="226" hidden="1">
+    <row r="226" ht="16" customHeight="1">
       <c r="A226" s="23" t="n">
         <v>3347119</v>
       </c>
@@ -25757,7 +25745,7 @@
         </is>
       </c>
     </row>
-    <row r="227" hidden="1">
+    <row r="227" ht="16" customHeight="1">
       <c r="A227" s="23" t="n">
         <v>3347122</v>
       </c>
@@ -25815,7 +25803,7 @@
         </is>
       </c>
     </row>
-    <row r="228" hidden="1">
+    <row r="228" ht="16" customHeight="1">
       <c r="A228" s="23" t="n">
         <v>3347123</v>
       </c>
@@ -25873,7 +25861,7 @@
         </is>
       </c>
     </row>
-    <row r="229" hidden="1">
+    <row r="229" ht="16" customHeight="1">
       <c r="A229" s="23" t="n">
         <v>3347129</v>
       </c>
@@ -25931,7 +25919,7 @@
         </is>
       </c>
     </row>
-    <row r="230" hidden="1">
+    <row r="230" ht="16" customHeight="1">
       <c r="A230" s="23" t="n">
         <v>3347130</v>
       </c>
@@ -25989,7 +25977,7 @@
         </is>
       </c>
     </row>
-    <row r="231" hidden="1">
+    <row r="231" ht="16" customHeight="1">
       <c r="A231" s="23" t="n">
         <v>3347131</v>
       </c>
@@ -26047,7 +26035,7 @@
         </is>
       </c>
     </row>
-    <row r="232" hidden="1">
+    <row r="232" ht="16" customHeight="1">
       <c r="A232" s="23" t="n">
         <v>3347138</v>
       </c>
@@ -26105,7 +26093,7 @@
         </is>
       </c>
     </row>
-    <row r="233" hidden="1">
+    <row r="233" ht="16" customHeight="1">
       <c r="A233" s="23" t="n">
         <v>3329196</v>
       </c>
@@ -26163,7 +26151,7 @@
         </is>
       </c>
     </row>
-    <row r="234" hidden="1">
+    <row r="234" ht="16" customHeight="1">
       <c r="A234" s="23" t="n">
         <v>3329197</v>
       </c>
@@ -26221,7 +26209,7 @@
         </is>
       </c>
     </row>
-    <row r="235" hidden="1">
+    <row r="235" ht="16" customHeight="1">
       <c r="A235" s="23" t="n">
         <v>3329199</v>
       </c>
@@ -26279,7 +26267,7 @@
         </is>
       </c>
     </row>
-    <row r="236" hidden="1">
+    <row r="236" ht="16" customHeight="1">
       <c r="A236" s="23" t="n">
         <v>3329200</v>
       </c>
@@ -26337,7 +26325,7 @@
         </is>
       </c>
     </row>
-    <row r="237" hidden="1">
+    <row r="237" ht="16" customHeight="1">
       <c r="A237" s="23" t="n">
         <v>3329201</v>
       </c>
@@ -26395,7 +26383,7 @@
         </is>
       </c>
     </row>
-    <row r="238" hidden="1">
+    <row r="238" ht="16" customHeight="1">
       <c r="A238" s="23" t="n">
         <v>3329239</v>
       </c>
@@ -26453,7 +26441,7 @@
         </is>
       </c>
     </row>
-    <row r="239" hidden="1">
+    <row r="239" ht="16" customHeight="1">
       <c r="A239" s="23" t="n">
         <v>3329087</v>
       </c>
@@ -26511,7 +26499,7 @@
         </is>
       </c>
     </row>
-    <row r="240" hidden="1">
+    <row r="240" ht="16" customHeight="1">
       <c r="A240" s="23" t="n">
         <v>3329088</v>
       </c>
@@ -26569,7 +26557,7 @@
         </is>
       </c>
     </row>
-    <row r="241" hidden="1">
+    <row r="241" ht="16" customHeight="1">
       <c r="A241" s="23" t="n">
         <v>52729</v>
       </c>
@@ -26627,7 +26615,7 @@
         </is>
       </c>
     </row>
-    <row r="242" hidden="1">
+    <row r="242" ht="16" customHeight="1">
       <c r="A242" s="23" t="n">
         <v>52734</v>
       </c>
@@ -26685,7 +26673,7 @@
         </is>
       </c>
     </row>
-    <row r="243" hidden="1">
+    <row r="243" ht="16" customHeight="1">
       <c r="A243" s="23" t="n">
         <v>52740</v>
       </c>
@@ -26743,7 +26731,7 @@
         </is>
       </c>
     </row>
-    <row r="244" hidden="1">
+    <row r="244" ht="16" customHeight="1">
       <c r="A244" s="23" t="n">
         <v>52741</v>
       </c>
@@ -26801,7 +26789,7 @@
         </is>
       </c>
     </row>
-    <row r="245" hidden="1">
+    <row r="245" ht="16" customHeight="1">
       <c r="A245" s="23" t="n">
         <v>25685</v>
       </c>
@@ -26859,7 +26847,7 @@
         </is>
       </c>
     </row>
-    <row r="246" hidden="1">
+    <row r="246" ht="16" customHeight="1">
       <c r="A246" s="23" t="n">
         <v>52743</v>
       </c>
@@ -26917,7 +26905,7 @@
         </is>
       </c>
     </row>
-    <row r="247" hidden="1">
+    <row r="247" ht="16" customHeight="1">
       <c r="A247" s="23" t="n">
         <v>3329084</v>
       </c>
@@ -26975,7 +26963,7 @@
         </is>
       </c>
     </row>
-    <row r="248" hidden="1">
+    <row r="248" ht="16" customHeight="1">
       <c r="A248" s="23" t="n">
         <v>2553078</v>
       </c>
@@ -27033,7 +27021,7 @@
         </is>
       </c>
     </row>
-    <row r="249" hidden="1">
+    <row r="249" ht="16" customHeight="1">
       <c r="A249" s="23" t="n">
         <v>2026987</v>
       </c>
@@ -27091,7 +27079,7 @@
         </is>
       </c>
     </row>
-    <row r="250" hidden="1">
+    <row r="250" ht="16" customHeight="1">
       <c r="A250" s="23" t="n">
         <v>2026988</v>
       </c>
@@ -27149,7 +27137,7 @@
         </is>
       </c>
     </row>
-    <row r="251" hidden="1">
+    <row r="251" ht="16" customHeight="1">
       <c r="A251" s="23" t="n">
         <v>4181256</v>
       </c>
@@ -27207,7 +27195,7 @@
         </is>
       </c>
     </row>
-    <row r="252" hidden="1">
+    <row r="252" ht="16" customHeight="1">
       <c r="A252" s="23" t="n">
         <v>4181258</v>
       </c>
@@ -27265,7 +27253,7 @@
         </is>
       </c>
     </row>
-    <row r="253" hidden="1">
+    <row r="253" ht="16" customHeight="1">
       <c r="A253" s="23" t="n">
         <v>4058244</v>
       </c>
@@ -27323,7 +27311,7 @@
         </is>
       </c>
     </row>
-    <row r="254" hidden="1">
+    <row r="254" ht="16" customHeight="1">
       <c r="A254" s="23" t="n">
         <v>4058247</v>
       </c>
@@ -27381,7 +27369,7 @@
         </is>
       </c>
     </row>
-    <row r="255" hidden="1">
+    <row r="255" ht="16" customHeight="1">
       <c r="A255" s="23" t="n">
         <v>4058123</v>
       </c>
@@ -27439,7 +27427,7 @@
         </is>
       </c>
     </row>
-    <row r="256" hidden="1">
+    <row r="256" ht="16" customHeight="1">
       <c r="A256" s="23" t="n">
         <v>4058128</v>
       </c>
@@ -27497,7 +27485,7 @@
         </is>
       </c>
     </row>
-    <row r="257" hidden="1">
+    <row r="257" ht="16" customHeight="1">
       <c r="A257" s="23" t="n">
         <v>4058116</v>
       </c>
@@ -27555,7 +27543,7 @@
         </is>
       </c>
     </row>
-    <row r="258" hidden="1">
+    <row r="258" ht="16" customHeight="1">
       <c r="A258" s="23" t="n">
         <v>2027471</v>
       </c>
@@ -27621,7 +27609,7 @@
         </is>
       </c>
     </row>
-    <row r="259" hidden="1">
+    <row r="259" ht="16" customHeight="1">
       <c r="A259" s="23" t="n">
         <v>302897</v>
       </c>
@@ -27683,7 +27671,7 @@
         </is>
       </c>
     </row>
-    <row r="260" hidden="1">
+    <row r="260" ht="16" customHeight="1">
       <c r="A260" s="23" t="n">
         <v>2081587</v>
       </c>
@@ -27745,7 +27733,7 @@
         </is>
       </c>
     </row>
-    <row r="261" hidden="1">
+    <row r="261" ht="16" customHeight="1">
       <c r="A261" s="23" t="n">
         <v>2081588</v>
       </c>
@@ -27807,7 +27795,7 @@
         </is>
       </c>
     </row>
-    <row r="262" hidden="1">
+    <row r="262" ht="16" customHeight="1">
       <c r="A262" s="23" t="n">
         <v>2081585</v>
       </c>
@@ -27869,7 +27857,7 @@
         </is>
       </c>
     </row>
-    <row r="263" hidden="1">
+    <row r="263" ht="16" customHeight="1">
       <c r="A263" s="23" t="n">
         <v>2081586</v>
       </c>
@@ -27931,7 +27919,7 @@
         </is>
       </c>
     </row>
-    <row r="264" hidden="1">
+    <row r="264" ht="16" customHeight="1">
       <c r="A264" s="23" t="n">
         <v>2081589</v>
       </c>
@@ -27993,7 +27981,7 @@
         </is>
       </c>
     </row>
-    <row r="265" hidden="1">
+    <row r="265" ht="16" customHeight="1">
       <c r="A265" s="23" t="n">
         <v>2081590</v>
       </c>
@@ -28055,7 +28043,7 @@
         </is>
       </c>
     </row>
-    <row r="266" hidden="1">
+    <row r="266" ht="16" customHeight="1">
       <c r="A266" s="23" t="n">
         <v>199495</v>
       </c>
@@ -28117,7 +28105,7 @@
         </is>
       </c>
     </row>
-    <row r="267" hidden="1">
+    <row r="267" ht="16" customHeight="1">
       <c r="A267" s="23" t="n">
         <v>199500</v>
       </c>
@@ -28179,7 +28167,7 @@
         </is>
       </c>
     </row>
-    <row r="268" hidden="1">
+    <row r="268" ht="16" customHeight="1">
       <c r="A268" s="23" t="n">
         <v>327425</v>
       </c>
@@ -28245,7 +28233,7 @@
         </is>
       </c>
     </row>
-    <row r="269" hidden="1">
+    <row r="269" ht="16" customHeight="1">
       <c r="A269" s="23" t="n">
         <v>3347100</v>
       </c>
@@ -28301,7 +28289,7 @@
         </is>
       </c>
     </row>
-    <row r="270" hidden="1">
+    <row r="270" ht="16" customHeight="1">
       <c r="A270" s="23" t="n">
         <v>40134</v>
       </c>
@@ -28359,7 +28347,7 @@
         </is>
       </c>
     </row>
-    <row r="271" hidden="1">
+    <row r="271" ht="16" customHeight="1">
       <c r="A271" s="23" t="n">
         <v>40133</v>
       </c>
@@ -28417,7 +28405,7 @@
         </is>
       </c>
     </row>
-    <row r="272" hidden="1">
+    <row r="272" ht="16" customHeight="1">
       <c r="A272" s="23" t="n">
         <v>40132</v>
       </c>
@@ -28475,7 +28463,7 @@
         </is>
       </c>
     </row>
-    <row r="273" hidden="1">
+    <row r="273" ht="16" customHeight="1">
       <c r="A273" s="23" t="n">
         <v>15903</v>
       </c>
@@ -28533,7 +28521,7 @@
         </is>
       </c>
     </row>
-    <row r="274" hidden="1">
+    <row r="274" ht="16" customHeight="1">
       <c r="A274" s="23" t="n">
         <v>15423</v>
       </c>
@@ -28591,7 +28579,7 @@
         </is>
       </c>
     </row>
-    <row r="275" hidden="1">
+    <row r="275" ht="16" customHeight="1">
       <c r="A275" s="23" t="n">
         <v>15421</v>
       </c>
@@ -28649,7 +28637,7 @@
         </is>
       </c>
     </row>
-    <row r="276" hidden="1">
+    <row r="276" ht="16" customHeight="1">
       <c r="A276" s="23" t="n">
         <v>15424</v>
       </c>
@@ -28707,7 +28695,7 @@
         </is>
       </c>
     </row>
-    <row r="277" hidden="1">
+    <row r="277" ht="16" customHeight="1">
       <c r="A277" s="23" t="n">
         <v>15427</v>
       </c>
@@ -28765,7 +28753,7 @@
         </is>
       </c>
     </row>
-    <row r="278" hidden="1">
+    <row r="278" ht="16" customHeight="1">
       <c r="A278" s="23" t="n">
         <v>15428</v>
       </c>
@@ -28823,7 +28811,7 @@
         </is>
       </c>
     </row>
-    <row r="279" hidden="1">
+    <row r="279" ht="16" customHeight="1">
       <c r="A279" s="23" t="n">
         <v>40138</v>
       </c>
@@ -28881,7 +28869,7 @@
         </is>
       </c>
     </row>
-    <row r="280" hidden="1">
+    <row r="280" ht="16" customHeight="1">
       <c r="A280" s="23" t="n">
         <v>40135</v>
       </c>
@@ -28939,7 +28927,7 @@
         </is>
       </c>
     </row>
-    <row r="281" hidden="1">
+    <row r="281" ht="16" customHeight="1">
       <c r="A281" s="23" t="n">
         <v>3433732</v>
       </c>
@@ -29001,7 +28989,7 @@
         </is>
       </c>
     </row>
-    <row r="282" hidden="1">
+    <row r="282" ht="16" customHeight="1">
       <c r="A282" s="23" t="n">
         <v>3433749</v>
       </c>
@@ -29063,7 +29051,7 @@
         </is>
       </c>
     </row>
-    <row r="283" hidden="1">
+    <row r="283" ht="16" customHeight="1">
       <c r="A283" s="23" t="n">
         <v>3433751</v>
       </c>
@@ -29125,7 +29113,7 @@
         </is>
       </c>
     </row>
-    <row r="284" hidden="1">
+    <row r="284" ht="16" customHeight="1">
       <c r="A284" s="23" t="n">
         <v>3433761</v>
       </c>
@@ -29187,7 +29175,7 @@
         </is>
       </c>
     </row>
-    <row r="285" hidden="1">
+    <row r="285" ht="16" customHeight="1">
       <c r="A285" s="23" t="n">
         <v>2438943</v>
       </c>
@@ -29245,7 +29233,7 @@
         </is>
       </c>
     </row>
-    <row r="286" hidden="1">
+    <row r="286" ht="16" customHeight="1">
       <c r="A286" s="23" t="n">
         <v>2438944</v>
       </c>
@@ -29303,7 +29291,7 @@
         </is>
       </c>
     </row>
-    <row r="287" hidden="1">
+    <row r="287" ht="16" customHeight="1">
       <c r="A287" s="23" t="n">
         <v>2438945</v>
       </c>
@@ -29361,7 +29349,7 @@
         </is>
       </c>
     </row>
-    <row r="288" hidden="1">
+    <row r="288" ht="16" customHeight="1">
       <c r="A288" s="23" t="n">
         <v>2454984</v>
       </c>
@@ -29419,7 +29407,7 @@
         </is>
       </c>
     </row>
-    <row r="289" hidden="1">
+    <row r="289" ht="16" customHeight="1">
       <c r="A289" s="23" t="n">
         <v>2454985</v>
       </c>
@@ -29477,7 +29465,7 @@
         </is>
       </c>
     </row>
-    <row r="290" hidden="1">
+    <row r="290" ht="16" customHeight="1">
       <c r="A290" s="23" t="n">
         <v>2392357</v>
       </c>
@@ -29535,7 +29523,7 @@
         </is>
       </c>
     </row>
-    <row r="291" hidden="1">
+    <row r="291" ht="16" customHeight="1">
       <c r="A291" s="23" t="n">
         <v>2392359</v>
       </c>
@@ -29593,7 +29581,7 @@
         </is>
       </c>
     </row>
-    <row r="292" hidden="1">
+    <row r="292" ht="16" customHeight="1">
       <c r="A292" s="23" t="n">
         <v>2455007</v>
       </c>
@@ -29651,7 +29639,7 @@
         </is>
       </c>
     </row>
-    <row r="293" hidden="1">
+    <row r="293" ht="16" customHeight="1">
       <c r="A293" s="23" t="n">
         <v>2455011</v>
       </c>
@@ -29709,7 +29697,7 @@
         </is>
       </c>
     </row>
-    <row r="294" hidden="1">
+    <row r="294" ht="16" customHeight="1">
       <c r="A294" s="23" t="n">
         <v>2455008</v>
       </c>
@@ -29767,7 +29755,7 @@
         </is>
       </c>
     </row>
-    <row r="295" hidden="1">
+    <row r="295" ht="16" customHeight="1">
       <c r="A295" s="23" t="n">
         <v>2438970</v>
       </c>
@@ -29825,7 +29813,7 @@
         </is>
       </c>
     </row>
-    <row r="296" hidden="1">
+    <row r="296" ht="16" customHeight="1">
       <c r="A296" s="23" t="n">
         <v>2438967</v>
       </c>
@@ -29883,7 +29871,7 @@
         </is>
       </c>
     </row>
-    <row r="297" hidden="1">
+    <row r="297" ht="16" customHeight="1">
       <c r="A297" s="23" t="n">
         <v>3433516</v>
       </c>
@@ -29945,7 +29933,7 @@
         </is>
       </c>
     </row>
-    <row r="298" hidden="1">
+    <row r="298" ht="16" customHeight="1">
       <c r="A298" s="23" t="n">
         <v>3433517</v>
       </c>
@@ -30007,7 +29995,7 @@
         </is>
       </c>
     </row>
-    <row r="299" hidden="1">
+    <row r="299" ht="16" customHeight="1">
       <c r="A299" s="23" t="n">
         <v>3433710</v>
       </c>
@@ -30069,7 +30057,7 @@
         </is>
       </c>
     </row>
-    <row r="300" hidden="1">
+    <row r="300" ht="16" customHeight="1">
       <c r="A300" s="23" t="n">
         <v>4109892</v>
       </c>
@@ -30131,7 +30119,7 @@
         </is>
       </c>
     </row>
-    <row r="301" hidden="1">
+    <row r="301" ht="16" customHeight="1">
       <c r="A301" s="23" t="n">
         <v>4109894</v>
       </c>
@@ -30193,7 +30181,7 @@
         </is>
       </c>
     </row>
-    <row r="302" hidden="1">
+    <row r="302" ht="16" customHeight="1">
       <c r="A302" s="23" t="n">
         <v>4109895</v>
       </c>
@@ -30255,7 +30243,7 @@
         </is>
       </c>
     </row>
-    <row r="303" hidden="1">
+    <row r="303" ht="16" customHeight="1">
       <c r="A303" s="23" t="n">
         <v>4110133</v>
       </c>
@@ -30317,7 +30305,7 @@
         </is>
       </c>
     </row>
-    <row r="304" hidden="1">
+    <row r="304" ht="16" customHeight="1">
       <c r="A304" s="23" t="n">
         <v>4109897</v>
       </c>
@@ -30379,7 +30367,7 @@
         </is>
       </c>
     </row>
-    <row r="305" hidden="1">
+    <row r="305" ht="16" customHeight="1">
       <c r="A305" s="23" t="n">
         <v>4109946</v>
       </c>
@@ -30441,7 +30429,7 @@
         </is>
       </c>
     </row>
-    <row r="306" hidden="1">
+    <row r="306" ht="16" customHeight="1">
       <c r="A306" s="23" t="n">
         <v>4109949</v>
       </c>
@@ -30503,7 +30491,7 @@
         </is>
       </c>
     </row>
-    <row r="307" hidden="1">
+    <row r="307" ht="16" customHeight="1">
       <c r="A307" s="23" t="n">
         <v>4181211</v>
       </c>
@@ -30565,7 +30553,7 @@
         </is>
       </c>
     </row>
-    <row r="308" hidden="1">
+    <row r="308" ht="16" customHeight="1">
       <c r="A308" s="23" t="n">
         <v>4181212</v>
       </c>
@@ -30627,7 +30615,7 @@
         </is>
       </c>
     </row>
-    <row r="309" hidden="1">
+    <row r="309" ht="16" customHeight="1">
       <c r="A309" s="23" t="n">
         <v>4181213</v>
       </c>
@@ -30689,7 +30677,7 @@
         </is>
       </c>
     </row>
-    <row r="310" hidden="1">
+    <row r="310" ht="16" customHeight="1">
       <c r="A310" s="23" t="n">
         <v>4181216</v>
       </c>
@@ -30751,7 +30739,7 @@
         </is>
       </c>
     </row>
-    <row r="311" hidden="1">
+    <row r="311" ht="16" customHeight="1">
       <c r="A311" s="23" t="n">
         <v>4181217</v>
       </c>
@@ -30813,7 +30801,7 @@
         </is>
       </c>
     </row>
-    <row r="312" hidden="1">
+    <row r="312" ht="16" customHeight="1">
       <c r="A312" s="23" t="n">
         <v>4181218</v>
       </c>
@@ -30875,7 +30863,7 @@
         </is>
       </c>
     </row>
-    <row r="313" hidden="1">
+    <row r="313" ht="16" customHeight="1">
       <c r="A313" s="23" t="n">
         <v>4181219</v>
       </c>
@@ -30937,7 +30925,7 @@
         </is>
       </c>
     </row>
-    <row r="314" hidden="1">
+    <row r="314" ht="16" customHeight="1">
       <c r="A314" s="23" t="n">
         <v>4181221</v>
       </c>
@@ -30999,7 +30987,7 @@
         </is>
       </c>
     </row>
-    <row r="315" hidden="1">
+    <row r="315" ht="16" customHeight="1">
       <c r="A315" s="23" t="n">
         <v>4181222</v>
       </c>
@@ -31061,7 +31049,7 @@
         </is>
       </c>
     </row>
-    <row r="316" hidden="1">
+    <row r="316" ht="16" customHeight="1">
       <c r="A316" s="23" t="n">
         <v>4181223</v>
       </c>
@@ -31123,7 +31111,7 @@
         </is>
       </c>
     </row>
-    <row r="317" hidden="1">
+    <row r="317" ht="16" customHeight="1">
       <c r="A317" s="23" t="n">
         <v>4181224</v>
       </c>
@@ -31185,7 +31173,7 @@
         </is>
       </c>
     </row>
-    <row r="318" hidden="1">
+    <row r="318" ht="16" customHeight="1">
       <c r="A318" s="23" t="n">
         <v>62343</v>
       </c>
@@ -31249,7 +31237,7 @@
         </is>
       </c>
     </row>
-    <row r="319" hidden="1">
+    <row r="319" ht="16" customHeight="1">
       <c r="A319" s="23" t="n">
         <v>2071337</v>
       </c>
@@ -31313,7 +31301,7 @@
         </is>
       </c>
     </row>
-    <row r="320" hidden="1">
+    <row r="320" ht="16" customHeight="1">
       <c r="A320" s="23" t="n">
         <v>2026922</v>
       </c>
@@ -31377,7 +31365,7 @@
         </is>
       </c>
     </row>
-    <row r="321" hidden="1">
+    <row r="321" ht="16" customHeight="1">
       <c r="A321" s="23" t="n">
         <v>61363</v>
       </c>
@@ -31443,7 +31431,7 @@
         </is>
       </c>
     </row>
-    <row r="322" hidden="1">
+    <row r="322" ht="16" customHeight="1">
       <c r="A322" s="23" t="n">
         <v>61364</v>
       </c>
@@ -31509,7 +31497,7 @@
         </is>
       </c>
     </row>
-    <row r="323" hidden="1">
+    <row r="323" ht="16" customHeight="1">
       <c r="A323" s="23" t="n">
         <v>61369</v>
       </c>
@@ -31575,7 +31563,7 @@
         </is>
       </c>
     </row>
-    <row r="324" hidden="1">
+    <row r="324" ht="16" customHeight="1">
       <c r="A324" s="23" t="n">
         <v>317087</v>
       </c>
@@ -31645,7 +31633,7 @@
         </is>
       </c>
     </row>
-    <row r="325" hidden="1">
+    <row r="325" ht="16" customHeight="1">
       <c r="A325" s="23" t="n">
         <v>61408</v>
       </c>
@@ -31715,7 +31703,7 @@
         </is>
       </c>
     </row>
-    <row r="326" hidden="1">
+    <row r="326" ht="16" customHeight="1">
       <c r="A326" s="23" t="n">
         <v>26021</v>
       </c>
@@ -31785,7 +31773,7 @@
         </is>
       </c>
     </row>
-    <row r="327" hidden="1">
+    <row r="327" ht="16" customHeight="1">
       <c r="A327" s="23" t="n">
         <v>352445203</v>
       </c>
@@ -31855,7 +31843,7 @@
         </is>
       </c>
     </row>
-    <row r="328" hidden="1">
+    <row r="328" ht="16" customHeight="1">
       <c r="A328" s="23" t="n">
         <v>452281203</v>
       </c>
@@ -31925,7 +31913,7 @@
         </is>
       </c>
     </row>
-    <row r="329" hidden="1">
+    <row r="329" ht="16" customHeight="1">
       <c r="A329" s="23" t="n">
         <v>318798</v>
       </c>
@@ -31995,7 +31983,7 @@
         </is>
       </c>
     </row>
-    <row r="330" hidden="1">
+    <row r="330" ht="16" customHeight="1">
       <c r="A330" s="23" t="n">
         <v>193823</v>
       </c>
@@ -32057,7 +32045,7 @@
         </is>
       </c>
     </row>
-    <row r="331" hidden="1">
+    <row r="331" ht="16" customHeight="1">
       <c r="A331" s="23" t="n">
         <v>193669</v>
       </c>
@@ -32119,7 +32107,7 @@
         </is>
       </c>
     </row>
-    <row r="332" hidden="1">
+    <row r="332" ht="16" customHeight="1">
       <c r="A332" s="23" t="n">
         <v>193670</v>
       </c>
@@ -32181,7 +32169,7 @@
         </is>
       </c>
     </row>
-    <row r="333" hidden="1">
+    <row r="333" ht="16" customHeight="1">
       <c r="A333" s="23" t="n">
         <v>193676</v>
       </c>
@@ -32243,7 +32231,7 @@
         </is>
       </c>
     </row>
-    <row r="334" hidden="1">
+    <row r="334" ht="16" customHeight="1">
       <c r="A334" s="23" t="n">
         <v>191436</v>
       </c>
@@ -32305,7 +32293,7 @@
         </is>
       </c>
     </row>
-    <row r="335" hidden="1">
+    <row r="335" ht="16" customHeight="1">
       <c r="A335" s="23" t="n">
         <v>191439</v>
       </c>
@@ -32367,7 +32355,7 @@
         </is>
       </c>
     </row>
-    <row r="336" hidden="1">
+    <row r="336" ht="16" customHeight="1">
       <c r="A336" s="23" t="n">
         <v>198015</v>
       </c>
@@ -32429,7 +32417,7 @@
         </is>
       </c>
     </row>
-    <row r="337" hidden="1">
+    <row r="337" ht="16" customHeight="1">
       <c r="A337" s="23" t="n">
         <v>306274</v>
       </c>
@@ -32489,7 +32477,7 @@
         </is>
       </c>
     </row>
-    <row r="338" hidden="1">
+    <row r="338" ht="16" customHeight="1">
       <c r="A338" s="23" t="n">
         <v>306273</v>
       </c>
@@ -32549,7 +32537,7 @@
         </is>
       </c>
     </row>
-    <row r="339" hidden="1">
+    <row r="339" ht="16" customHeight="1">
       <c r="A339" s="23" t="n">
         <v>306270</v>
       </c>
@@ -32609,7 +32597,7 @@
         </is>
       </c>
     </row>
-    <row r="340" hidden="1">
+    <row r="340" ht="16" customHeight="1">
       <c r="A340" s="23" t="n">
         <v>306275</v>
       </c>
@@ -32669,7 +32657,7 @@
         </is>
       </c>
     </row>
-    <row r="341" hidden="1">
+    <row r="341" ht="16" customHeight="1">
       <c r="A341" s="23" t="n">
         <v>306268</v>
       </c>
@@ -32729,7 +32717,7 @@
         </is>
       </c>
     </row>
-    <row r="342" hidden="1">
+    <row r="342" ht="16" customHeight="1">
       <c r="A342" s="23" t="n">
         <v>306263</v>
       </c>
@@ -32789,7 +32777,7 @@
         </is>
       </c>
     </row>
-    <row r="343" hidden="1">
+    <row r="343" ht="16" customHeight="1">
       <c r="A343" s="23" t="n">
         <v>306267</v>
       </c>
@@ -32849,7 +32837,7 @@
         </is>
       </c>
     </row>
-    <row r="344" hidden="1">
+    <row r="344" ht="16" customHeight="1">
       <c r="A344" s="23" t="n">
         <v>306264</v>
       </c>
@@ -32909,7 +32897,7 @@
         </is>
       </c>
     </row>
-    <row r="345" hidden="1">
+    <row r="345" ht="16" customHeight="1">
       <c r="A345" s="23" t="n">
         <v>306269</v>
       </c>
@@ -32969,7 +32957,7 @@
         </is>
       </c>
     </row>
-    <row r="346" hidden="1">
+    <row r="346" ht="16" customHeight="1">
       <c r="A346" s="23" t="n">
         <v>311707</v>
       </c>
@@ -33029,7 +33017,7 @@
         </is>
       </c>
     </row>
-    <row r="347" hidden="1">
+    <row r="347" ht="16" customHeight="1">
       <c r="A347" s="23" t="n">
         <v>189858</v>
       </c>
@@ -33091,7 +33079,7 @@
         </is>
       </c>
     </row>
-    <row r="348" hidden="1">
+    <row r="348" ht="16" customHeight="1">
       <c r="A348" s="23" t="n">
         <v>191363</v>
       </c>
@@ -33153,7 +33141,7 @@
         </is>
       </c>
     </row>
-    <row r="349" hidden="1">
+    <row r="349" ht="16" customHeight="1">
       <c r="A349" s="23" t="n">
         <v>191365</v>
       </c>
@@ -33215,7 +33203,7 @@
         </is>
       </c>
     </row>
-    <row r="350" hidden="1">
+    <row r="350" ht="16" customHeight="1">
       <c r="A350" s="23" t="n">
         <v>192941</v>
       </c>
@@ -33277,7 +33265,7 @@
         </is>
       </c>
     </row>
-    <row r="351" hidden="1">
+    <row r="351" ht="16" customHeight="1">
       <c r="A351" s="23" t="n">
         <v>192969</v>
       </c>
@@ -33339,7 +33327,7 @@
         </is>
       </c>
     </row>
-    <row r="352" hidden="1">
+    <row r="352" ht="16" customHeight="1">
       <c r="A352" s="23" t="n">
         <v>192972</v>
       </c>
@@ -33401,7 +33389,7 @@
         </is>
       </c>
     </row>
-    <row r="353" hidden="1">
+    <row r="353" ht="16" customHeight="1">
       <c r="A353" s="23" t="n">
         <v>189832</v>
       </c>
@@ -33463,7 +33451,7 @@
         </is>
       </c>
     </row>
-    <row r="354" hidden="1">
+    <row r="354" ht="16" customHeight="1">
       <c r="A354" s="23" t="n">
         <v>192940</v>
       </c>
@@ -33525,7 +33513,7 @@
         </is>
       </c>
     </row>
-    <row r="355" hidden="1">
+    <row r="355" ht="16" customHeight="1">
       <c r="A355" s="23" t="n">
         <v>192946</v>
       </c>
@@ -33587,7 +33575,7 @@
         </is>
       </c>
     </row>
-    <row r="356" hidden="1">
+    <row r="356" ht="16" customHeight="1">
       <c r="A356" s="23" t="n">
         <v>192968</v>
       </c>
@@ -33649,7 +33637,7 @@
         </is>
       </c>
     </row>
-    <row r="357" hidden="1">
+    <row r="357" ht="16" customHeight="1">
       <c r="A357" s="23" t="n">
         <v>192960</v>
       </c>
@@ -33711,7 +33699,7 @@
         </is>
       </c>
     </row>
-    <row r="358" hidden="1">
+    <row r="358" ht="16" customHeight="1">
       <c r="A358" s="23" t="n">
         <v>153429</v>
       </c>
@@ -33773,7 +33761,7 @@
         </is>
       </c>
     </row>
-    <row r="359" hidden="1">
+    <row r="359" ht="16" customHeight="1">
       <c r="A359" s="23" t="n">
         <v>137808</v>
       </c>
@@ -33835,7 +33823,7 @@
         </is>
       </c>
     </row>
-    <row r="360" hidden="1">
+    <row r="360" ht="16" customHeight="1">
       <c r="A360" s="23" t="n">
         <v>137809</v>
       </c>
@@ -33897,7 +33885,7 @@
         </is>
       </c>
     </row>
-    <row r="361" hidden="1">
+    <row r="361" ht="16" customHeight="1">
       <c r="A361" s="23" t="n">
         <v>137812</v>
       </c>
@@ -33959,7 +33947,7 @@
         </is>
       </c>
     </row>
-    <row r="362" hidden="1">
+    <row r="362" ht="16" customHeight="1">
       <c r="A362" s="23" t="n">
         <v>137888</v>
       </c>
@@ -34021,7 +34009,7 @@
         </is>
       </c>
     </row>
-    <row r="363" hidden="1">
+    <row r="363" ht="16" customHeight="1">
       <c r="A363" s="23" t="n">
         <v>137889</v>
       </c>
@@ -34083,7 +34071,7 @@
         </is>
       </c>
     </row>
-    <row r="364" hidden="1">
+    <row r="364" ht="16" customHeight="1">
       <c r="A364" s="23" t="n">
         <v>137892</v>
       </c>
@@ -34145,7 +34133,7 @@
         </is>
       </c>
     </row>
-    <row r="365" hidden="1">
+    <row r="365" ht="16" customHeight="1">
       <c r="A365" s="23" t="n">
         <v>3775446</v>
       </c>
@@ -34207,7 +34195,7 @@
         </is>
       </c>
     </row>
-    <row r="366" hidden="1">
+    <row r="366" ht="16" customHeight="1">
       <c r="A366" s="23" t="n">
         <v>3775458</v>
       </c>
@@ -34269,7 +34257,7 @@
         </is>
       </c>
     </row>
-    <row r="367" hidden="1">
+    <row r="367" ht="16" customHeight="1">
       <c r="A367" s="23" t="n">
         <v>3775486</v>
       </c>
@@ -34331,7 +34319,7 @@
         </is>
       </c>
     </row>
-    <row r="368" hidden="1">
+    <row r="368" ht="16" customHeight="1">
       <c r="A368" s="23" t="n">
         <v>3775497</v>
       </c>
@@ -34393,7 +34381,7 @@
         </is>
       </c>
     </row>
-    <row r="369" hidden="1">
+    <row r="369" ht="16" customHeight="1">
       <c r="A369" s="23" t="n">
         <v>3775498</v>
       </c>
@@ -34455,7 +34443,7 @@
         </is>
       </c>
     </row>
-    <row r="370" hidden="1">
+    <row r="370" ht="16" customHeight="1">
       <c r="A370" s="23" t="n">
         <v>3775499</v>
       </c>
@@ -34517,7 +34505,7 @@
         </is>
       </c>
     </row>
-    <row r="371" hidden="1">
+    <row r="371" ht="16" customHeight="1">
       <c r="A371" s="23" t="n">
         <v>3775500</v>
       </c>
@@ -34579,7 +34567,7 @@
         </is>
       </c>
     </row>
-    <row r="372" hidden="1">
+    <row r="372" ht="16" customHeight="1">
       <c r="A372" s="23" t="n">
         <v>3775505</v>
       </c>
@@ -34641,7 +34629,7 @@
         </is>
       </c>
     </row>
-    <row r="373" hidden="1">
+    <row r="373" ht="16" customHeight="1">
       <c r="A373" s="23" t="n">
         <v>3775507</v>
       </c>
@@ -34703,7 +34691,7 @@
         </is>
       </c>
     </row>
-    <row r="374" hidden="1">
+    <row r="374" ht="16" customHeight="1">
       <c r="A374" s="23" t="n">
         <v>3775508</v>
       </c>
@@ -34765,7 +34753,7 @@
         </is>
       </c>
     </row>
-    <row r="375" hidden="1">
+    <row r="375" ht="16" customHeight="1">
       <c r="A375" s="23" t="n">
         <v>3775514</v>
       </c>
@@ -34827,7 +34815,7 @@
         </is>
       </c>
     </row>
-    <row r="376" hidden="1">
+    <row r="376" ht="16" customHeight="1">
       <c r="A376" s="23" t="n">
         <v>3775516</v>
       </c>
@@ -34889,7 +34877,7 @@
         </is>
       </c>
     </row>
-    <row r="377" hidden="1">
+    <row r="377" ht="16" customHeight="1">
       <c r="A377" s="23" t="n">
         <v>3775605</v>
       </c>
@@ -34951,7 +34939,7 @@
         </is>
       </c>
     </row>
-    <row r="378" hidden="1">
+    <row r="378" ht="16" customHeight="1">
       <c r="A378" s="23" t="n">
         <v>3775616</v>
       </c>
@@ -35013,7 +35001,7 @@
         </is>
       </c>
     </row>
-    <row r="379" hidden="1">
+    <row r="379" ht="16" customHeight="1">
       <c r="A379" s="23" t="n">
         <v>3775627</v>
       </c>
@@ -35075,7 +35063,7 @@
         </is>
       </c>
     </row>
-    <row r="380" hidden="1">
+    <row r="380" ht="16" customHeight="1">
       <c r="A380" s="23" t="n">
         <v>3775629</v>
       </c>
@@ -35137,7 +35125,7 @@
         </is>
       </c>
     </row>
-    <row r="381" hidden="1">
+    <row r="381" ht="16" customHeight="1">
       <c r="A381" s="23" t="n">
         <v>3775637</v>
       </c>
@@ -35199,7 +35187,7 @@
         </is>
       </c>
     </row>
-    <row r="382" hidden="1">
+    <row r="382" ht="16" customHeight="1">
       <c r="A382" s="23" t="n">
         <v>3775664</v>
       </c>
@@ -35261,7 +35249,7 @@
         </is>
       </c>
     </row>
-    <row r="383" hidden="1">
+    <row r="383" ht="16" customHeight="1">
       <c r="A383" s="23" t="n">
         <v>3775653</v>
       </c>
@@ -35323,7 +35311,7 @@
         </is>
       </c>
     </row>
-    <row r="384" hidden="1">
+    <row r="384" ht="16" customHeight="1">
       <c r="A384" s="23" t="n">
         <v>3775654</v>
       </c>
@@ -35385,7 +35373,7 @@
         </is>
       </c>
     </row>
-    <row r="385" hidden="1">
+    <row r="385" ht="16" customHeight="1">
       <c r="A385" s="23" t="n">
         <v>3775674</v>
       </c>
@@ -35447,7 +35435,7 @@
         </is>
       </c>
     </row>
-    <row r="386" hidden="1">
+    <row r="386" ht="16" customHeight="1">
       <c r="A386" s="23" t="n">
         <v>3775742</v>
       </c>
@@ -35509,7 +35497,7 @@
         </is>
       </c>
     </row>
-    <row r="387" hidden="1">
+    <row r="387" ht="16" customHeight="1">
       <c r="A387" s="23" t="n">
         <v>3775745</v>
       </c>
@@ -35571,7 +35559,7 @@
         </is>
       </c>
     </row>
-    <row r="388" hidden="1">
+    <row r="388" ht="16" customHeight="1">
       <c r="A388" s="23" t="n">
         <v>3775746</v>
       </c>
@@ -35633,7 +35621,7 @@
         </is>
       </c>
     </row>
-    <row r="389" hidden="1">
+    <row r="389" ht="16" customHeight="1">
       <c r="A389" s="23" t="n">
         <v>3775747</v>
       </c>
@@ -35695,7 +35683,7 @@
         </is>
       </c>
     </row>
-    <row r="390" hidden="1">
+    <row r="390" ht="16" customHeight="1">
       <c r="A390" s="23" t="n">
         <v>3775748</v>
       </c>
@@ -35757,7 +35745,7 @@
         </is>
       </c>
     </row>
-    <row r="391" hidden="1">
+    <row r="391" ht="16" customHeight="1">
       <c r="A391" s="23" t="n">
         <v>3775753</v>
       </c>
@@ -35819,7 +35807,7 @@
         </is>
       </c>
     </row>
-    <row r="392" hidden="1">
+    <row r="392" ht="16" customHeight="1">
       <c r="A392" s="23" t="n">
         <v>3775754</v>
       </c>
@@ -35881,7 +35869,7 @@
         </is>
       </c>
     </row>
-    <row r="393" hidden="1">
+    <row r="393" ht="16" customHeight="1">
       <c r="A393" s="23" t="n">
         <v>3775756</v>
       </c>
@@ -35943,7 +35931,7 @@
         </is>
       </c>
     </row>
-    <row r="394" hidden="1">
+    <row r="394" ht="16" customHeight="1">
       <c r="A394" s="23" t="n">
         <v>3775760</v>
       </c>
@@ -36005,7 +35993,7 @@
         </is>
       </c>
     </row>
-    <row r="395" hidden="1">
+    <row r="395" ht="16" customHeight="1">
       <c r="A395" s="23" t="n">
         <v>3775762</v>
       </c>
@@ -36067,7 +36055,7 @@
         </is>
       </c>
     </row>
-    <row r="396" hidden="1">
+    <row r="396" ht="16" customHeight="1">
       <c r="A396" s="23" t="n">
         <v>3775764</v>
       </c>
@@ -36129,7 +36117,7 @@
         </is>
       </c>
     </row>
-    <row r="397" hidden="1">
+    <row r="397" ht="16" customHeight="1">
       <c r="A397" s="23" t="n">
         <v>3775847</v>
       </c>
@@ -36191,7 +36179,7 @@
         </is>
       </c>
     </row>
-    <row r="398" hidden="1">
+    <row r="398" ht="16" customHeight="1">
       <c r="A398" s="23" t="n">
         <v>4110810</v>
       </c>
@@ -36253,7 +36241,7 @@
         </is>
       </c>
     </row>
-    <row r="399" hidden="1">
+    <row r="399" ht="16" customHeight="1">
       <c r="A399" s="23" t="n">
         <v>4110812</v>
       </c>
@@ -36315,7 +36303,7 @@
         </is>
       </c>
     </row>
-    <row r="400" hidden="1">
+    <row r="400" ht="16" customHeight="1">
       <c r="A400" s="23" t="n">
         <v>4110813</v>
       </c>
@@ -36377,7 +36365,7 @@
         </is>
       </c>
     </row>
-    <row r="401" hidden="1">
+    <row r="401" ht="16" customHeight="1">
       <c r="A401" s="23" t="n">
         <v>3311598</v>
       </c>
@@ -36439,7 +36427,7 @@
         </is>
       </c>
     </row>
-    <row r="402" hidden="1">
+    <row r="402" ht="16" customHeight="1">
       <c r="A402" s="23" t="n">
         <v>2471366</v>
       </c>
@@ -36501,7 +36489,7 @@
         </is>
       </c>
     </row>
-    <row r="403" hidden="1">
+    <row r="403" ht="16" customHeight="1">
       <c r="A403" s="23" t="n">
         <v>2454654</v>
       </c>
@@ -36563,7 +36551,7 @@
         </is>
       </c>
     </row>
-    <row r="404" hidden="1">
+    <row r="404" ht="16" customHeight="1">
       <c r="A404" s="23" t="n">
         <v>2454655</v>
       </c>
@@ -36625,7 +36613,7 @@
         </is>
       </c>
     </row>
-    <row r="405" hidden="1">
+    <row r="405" ht="16" customHeight="1">
       <c r="A405" s="23" t="n">
         <v>2454653</v>
       </c>
@@ -36687,7 +36675,7 @@
         </is>
       </c>
     </row>
-    <row r="406" hidden="1">
+    <row r="406" ht="16" customHeight="1">
       <c r="A406" s="23" t="n">
         <v>2841423</v>
       </c>
@@ -36749,7 +36737,7 @@
         </is>
       </c>
     </row>
-    <row r="407" hidden="1">
+    <row r="407" ht="16" customHeight="1">
       <c r="A407" s="23" t="n">
         <v>33577</v>
       </c>
@@ -36811,7 +36799,7 @@
         </is>
       </c>
     </row>
-    <row r="408" hidden="1">
+    <row r="408" ht="16" customHeight="1">
       <c r="A408" s="23" t="n">
         <v>3311399</v>
       </c>
@@ -36873,7 +36861,7 @@
         </is>
       </c>
     </row>
-    <row r="409" hidden="1">
+    <row r="409" ht="16" customHeight="1">
       <c r="A409" s="23" t="n">
         <v>4019719</v>
       </c>
@@ -36935,7 +36923,7 @@
         </is>
       </c>
     </row>
-    <row r="410" hidden="1">
+    <row r="410" ht="16" customHeight="1">
       <c r="A410" s="23" t="n">
         <v>4019728</v>
       </c>
@@ -36997,7 +36985,7 @@
         </is>
       </c>
     </row>
-    <row r="411" hidden="1">
+    <row r="411" ht="16" customHeight="1">
       <c r="A411" s="23" t="n">
         <v>4019782</v>
       </c>
@@ -37059,7 +37047,7 @@
         </is>
       </c>
     </row>
-    <row r="412" hidden="1">
+    <row r="412" ht="16" customHeight="1">
       <c r="A412" s="23" t="n">
         <v>4019784</v>
       </c>
@@ -37121,7 +37109,7 @@
         </is>
       </c>
     </row>
-    <row r="413" hidden="1">
+    <row r="413" ht="16" customHeight="1">
       <c r="A413" s="23" t="n">
         <v>4019790</v>
       </c>
@@ -37183,7 +37171,7 @@
         </is>
       </c>
     </row>
-    <row r="414" hidden="1">
+    <row r="414" ht="16" customHeight="1">
       <c r="A414" s="23" t="n">
         <v>4019814</v>
       </c>
@@ -37245,7 +37233,7 @@
         </is>
       </c>
     </row>
-    <row r="415" hidden="1">
+    <row r="415" ht="16" customHeight="1">
       <c r="A415" s="23" t="n">
         <v>4019684</v>
       </c>
@@ -37307,7 +37295,7 @@
         </is>
       </c>
     </row>
-    <row r="416" hidden="1">
+    <row r="416" ht="16" customHeight="1">
       <c r="A416" s="23" t="n">
         <v>4019562</v>
       </c>
@@ -37369,7 +37357,7 @@
         </is>
       </c>
     </row>
-    <row r="417" hidden="1">
+    <row r="417" ht="16" customHeight="1">
       <c r="A417" s="23" t="n">
         <v>4019617</v>
       </c>
@@ -37431,7 +37419,7 @@
         </is>
       </c>
     </row>
-    <row r="418" hidden="1">
+    <row r="418" ht="16" customHeight="1">
       <c r="A418" s="23" t="n">
         <v>4019628</v>
       </c>
@@ -37493,7 +37481,7 @@
         </is>
       </c>
     </row>
-    <row r="419" hidden="1">
+    <row r="419" ht="16" customHeight="1">
       <c r="A419" s="23" t="n">
         <v>4020215</v>
       </c>
@@ -37555,7 +37543,7 @@
         </is>
       </c>
     </row>
-    <row r="420" hidden="1">
+    <row r="420" ht="16" customHeight="1">
       <c r="A420" s="23" t="n">
         <v>4020647</v>
       </c>
@@ -37617,7 +37605,7 @@
         </is>
       </c>
     </row>
-    <row r="421" hidden="1">
+    <row r="421" ht="16" customHeight="1">
       <c r="A421" s="23" t="n">
         <v>4020649</v>
       </c>
@@ -37679,7 +37667,7 @@
         </is>
       </c>
     </row>
-    <row r="422" hidden="1">
+    <row r="422" ht="16" customHeight="1">
       <c r="A422" s="23" t="n">
         <v>4019489</v>
       </c>
@@ -37741,7 +37729,7 @@
         </is>
       </c>
     </row>
-    <row r="423" hidden="1">
+    <row r="423" ht="16" customHeight="1">
       <c r="A423" s="23" t="n">
         <v>4019493</v>
       </c>
@@ -37803,7 +37791,7 @@
         </is>
       </c>
     </row>
-    <row r="424" hidden="1">
+    <row r="424" ht="16" customHeight="1">
       <c r="A424" s="23" t="n">
         <v>4019495</v>
       </c>
@@ -37865,7 +37853,7 @@
         </is>
       </c>
     </row>
-    <row r="425" hidden="1">
+    <row r="425" ht="16" customHeight="1">
       <c r="A425" s="23" t="n">
         <v>4019496</v>
       </c>
@@ -37927,7 +37915,7 @@
         </is>
       </c>
     </row>
-    <row r="426" hidden="1">
+    <row r="426" ht="16" customHeight="1">
       <c r="A426" s="23" t="n">
         <v>4019499</v>
       </c>
@@ -37989,7 +37977,7 @@
         </is>
       </c>
     </row>
-    <row r="427" hidden="1">
+    <row r="427" ht="16" customHeight="1">
       <c r="A427" s="23" t="n">
         <v>4019500</v>
       </c>
@@ -38051,7 +38039,7 @@
         </is>
       </c>
     </row>
-    <row r="428" hidden="1">
+    <row r="428" ht="16" customHeight="1">
       <c r="A428" s="23" t="n">
         <v>4019501</v>
       </c>
@@ -38113,7 +38101,7 @@
         </is>
       </c>
     </row>
-    <row r="429" hidden="1">
+    <row r="429" ht="16" customHeight="1">
       <c r="A429" s="23" t="n">
         <v>4019502</v>
       </c>
@@ -38175,7 +38163,7 @@
         </is>
       </c>
     </row>
-    <row r="430" hidden="1">
+    <row r="430" ht="16" customHeight="1">
       <c r="A430" s="23" t="n">
         <v>4389441</v>
       </c>
@@ -38237,7 +38225,7 @@
         </is>
       </c>
     </row>
-    <row r="431" hidden="1">
+    <row r="431" ht="16" customHeight="1">
       <c r="A431" s="23" t="n">
         <v>3621421</v>
       </c>
@@ -38303,7 +38291,7 @@
         </is>
       </c>
     </row>
-    <row r="432" hidden="1">
+    <row r="432" ht="16" customHeight="1">
       <c r="A432" s="23" t="n">
         <v>3207706</v>
       </c>
@@ -38369,7 +38357,7 @@
         </is>
       </c>
     </row>
-    <row r="433" hidden="1">
+    <row r="433" ht="16" customHeight="1">
       <c r="A433" s="23" t="n">
         <v>3207704</v>
       </c>
@@ -38400,7 +38388,7 @@
         </is>
       </c>
       <c r="H433" s="23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" s="22" t="inlineStr">
         <is>
@@ -38435,7 +38423,7 @@
         </is>
       </c>
     </row>
-    <row r="434" hidden="1">
+    <row r="434" ht="16" customHeight="1">
       <c r="A434" s="23" t="n">
         <v>3207700</v>
       </c>
@@ -38501,7 +38489,7 @@
         </is>
       </c>
     </row>
-    <row r="435" hidden="1">
+    <row r="435" ht="16" customHeight="1">
       <c r="A435" s="23" t="n">
         <v>3190477</v>
       </c>
@@ -38567,7 +38555,7 @@
         </is>
       </c>
     </row>
-    <row r="436" hidden="1">
+    <row r="436" ht="16" customHeight="1">
       <c r="A436" s="23" t="n">
         <v>2759292</v>
       </c>
@@ -38633,7 +38621,7 @@
         </is>
       </c>
     </row>
-    <row r="437" hidden="1">
+    <row r="437" ht="16" customHeight="1">
       <c r="A437" s="23" t="n">
         <v>2344141</v>
       </c>
@@ -38695,7 +38683,7 @@
         </is>
       </c>
     </row>
-    <row r="438" hidden="1">
+    <row r="438" ht="16" customHeight="1">
       <c r="A438" s="23" t="n">
         <v>4021306</v>
       </c>
@@ -38757,7 +38745,7 @@
         </is>
       </c>
     </row>
-    <row r="439" hidden="1">
+    <row r="439" ht="16" customHeight="1">
       <c r="A439" s="23" t="n">
         <v>4021307</v>
       </c>
@@ -38817,7 +38805,7 @@
         </is>
       </c>
     </row>
-    <row r="440" hidden="1">
+    <row r="440" ht="16" customHeight="1">
       <c r="A440" s="23" t="n">
         <v>4021302</v>
       </c>
@@ -38879,7 +38867,7 @@
         </is>
       </c>
     </row>
-    <row r="441" hidden="1">
+    <row r="441" ht="16" customHeight="1">
       <c r="A441" s="23" t="n">
         <v>4021303</v>
       </c>
@@ -38939,7 +38927,7 @@
         </is>
       </c>
     </row>
-    <row r="442" hidden="1">
+    <row r="442" ht="16" customHeight="1">
       <c r="A442" s="23" t="n">
         <v>4021304</v>
       </c>
@@ -39001,7 +38989,7 @@
         </is>
       </c>
     </row>
-    <row r="443" hidden="1">
+    <row r="443" ht="16" customHeight="1">
       <c r="A443" s="23" t="n">
         <v>4021338</v>
       </c>
@@ -39063,7 +39051,7 @@
         </is>
       </c>
     </row>
-    <row r="444" hidden="1">
+    <row r="444" ht="16" customHeight="1">
       <c r="A444" s="23" t="n">
         <v>4021349</v>
       </c>
@@ -39125,7 +39113,7 @@
         </is>
       </c>
     </row>
-    <row r="445" hidden="1">
+    <row r="445" ht="16" customHeight="1">
       <c r="A445" s="23" t="n">
         <v>4021350</v>
       </c>
@@ -39185,7 +39173,7 @@
         </is>
       </c>
     </row>
-    <row r="446" hidden="1">
+    <row r="446" ht="16" customHeight="1">
       <c r="A446" s="23" t="n">
         <v>4021355</v>
       </c>
@@ -39247,7 +39235,7 @@
         </is>
       </c>
     </row>
-    <row r="447" hidden="1">
+    <row r="447" ht="16" customHeight="1">
       <c r="A447" s="23" t="n">
         <v>4021356</v>
       </c>
@@ -39307,7 +39295,7 @@
         </is>
       </c>
     </row>
-    <row r="448" hidden="1">
+    <row r="448" ht="16" customHeight="1">
       <c r="A448" s="23" t="n">
         <v>4021377</v>
       </c>
@@ -39369,7 +39357,7 @@
         </is>
       </c>
     </row>
-    <row r="449" hidden="1">
+    <row r="449" ht="16" customHeight="1">
       <c r="A449" s="23" t="n">
         <v>4021379</v>
       </c>
@@ -39431,7 +39419,7 @@
         </is>
       </c>
     </row>
-    <row r="450" hidden="1">
+    <row r="450" ht="16" customHeight="1">
       <c r="A450" s="23" t="n">
         <v>4021380</v>
       </c>
@@ -39491,7 +39479,7 @@
         </is>
       </c>
     </row>
-    <row r="451" hidden="1">
+    <row r="451" ht="16" customHeight="1">
       <c r="A451" s="23" t="n">
         <v>4021381</v>
       </c>
@@ -39553,7 +39541,7 @@
         </is>
       </c>
     </row>
-    <row r="452" hidden="1">
+    <row r="452" ht="16" customHeight="1">
       <c r="A452" s="23" t="n">
         <v>4021383</v>
       </c>
@@ -39615,7 +39603,7 @@
         </is>
       </c>
     </row>
-    <row r="453" hidden="1">
+    <row r="453" ht="16" customHeight="1">
       <c r="A453" s="23" t="n">
         <v>4021392</v>
       </c>
@@ -39675,7 +39663,7 @@
         </is>
       </c>
     </row>
-    <row r="454" hidden="1">
+    <row r="454" ht="16" customHeight="1">
       <c r="A454" s="23" t="n">
         <v>4021416</v>
       </c>
@@ -39735,7 +39723,7 @@
         </is>
       </c>
     </row>
-    <row r="455" hidden="1">
+    <row r="455" ht="16" customHeight="1">
       <c r="A455" s="23" t="n">
         <v>4021429</v>
       </c>
@@ -39797,7 +39785,7 @@
         </is>
       </c>
     </row>
-    <row r="456" hidden="1">
+    <row r="456" ht="16" customHeight="1">
       <c r="A456" s="23" t="n">
         <v>4021463</v>
       </c>
@@ -39859,7 +39847,7 @@
         </is>
       </c>
     </row>
-    <row r="457" hidden="1">
+    <row r="457" ht="16" customHeight="1">
       <c r="A457" s="23" t="n">
         <v>4021489</v>
       </c>
@@ -39921,7 +39909,7 @@
         </is>
       </c>
     </row>
-    <row r="458" hidden="1">
+    <row r="458" ht="16" customHeight="1">
       <c r="A458" s="23" t="n">
         <v>300173</v>
       </c>
@@ -39985,7 +39973,7 @@
         </is>
       </c>
     </row>
-    <row r="459" hidden="1">
+    <row r="459" ht="16" customHeight="1">
       <c r="A459" s="23" t="n">
         <v>2007393</v>
       </c>
@@ -40047,7 +40035,7 @@
         </is>
       </c>
     </row>
-    <row r="460" hidden="1">
+    <row r="460" ht="16" customHeight="1">
       <c r="A460" s="23" t="n">
         <v>2007388</v>
       </c>
@@ -40109,7 +40097,7 @@
         </is>
       </c>
     </row>
-    <row r="461" hidden="1">
+    <row r="461" ht="16" customHeight="1">
       <c r="A461" s="23" t="n">
         <v>352851</v>
       </c>
@@ -40171,7 +40159,7 @@
         </is>
       </c>
     </row>
-    <row r="462" hidden="1">
+    <row r="462" ht="16" customHeight="1">
       <c r="A462" s="23" t="n">
         <v>3450668</v>
       </c>
@@ -40233,7 +40221,7 @@
         </is>
       </c>
     </row>
-    <row r="463" hidden="1">
+    <row r="463" ht="16" customHeight="1">
       <c r="A463" s="23" t="n">
         <v>3450670</v>
       </c>
@@ -40295,7 +40283,7 @@
         </is>
       </c>
     </row>
-    <row r="464" hidden="1">
+    <row r="464" ht="16" customHeight="1">
       <c r="A464" s="23" t="n">
         <v>3450671</v>
       </c>
@@ -40357,7 +40345,7 @@
         </is>
       </c>
     </row>
-    <row r="465" hidden="1">
+    <row r="465" ht="16" customHeight="1">
       <c r="A465" s="23" t="n">
         <v>3450673</v>
       </c>
@@ -40419,7 +40407,7 @@
         </is>
       </c>
     </row>
-    <row r="466" hidden="1">
+    <row r="466" ht="16" customHeight="1">
       <c r="A466" s="23" t="n">
         <v>3450674</v>
       </c>
@@ -40481,7 +40469,7 @@
         </is>
       </c>
     </row>
-    <row r="467" hidden="1">
+    <row r="467" ht="16" customHeight="1">
       <c r="A467" s="23" t="n">
         <v>3450675</v>
       </c>
@@ -40543,7 +40531,7 @@
         </is>
       </c>
     </row>
-    <row r="468" hidden="1">
+    <row r="468" ht="16" customHeight="1">
       <c r="A468" s="23" t="n">
         <v>3468185</v>
       </c>
@@ -40605,7 +40593,7 @@
         </is>
       </c>
     </row>
-    <row r="469" hidden="1">
+    <row r="469" ht="16" customHeight="1">
       <c r="A469" s="23" t="n">
         <v>3468188</v>
       </c>
@@ -40667,7 +40655,7 @@
         </is>
       </c>
     </row>
-    <row r="470" hidden="1">
+    <row r="470" ht="16" customHeight="1">
       <c r="A470" s="23" t="n">
         <v>3468189</v>
       </c>
@@ -40729,7 +40717,7 @@
         </is>
       </c>
     </row>
-    <row r="471" hidden="1">
+    <row r="471" ht="16" customHeight="1">
       <c r="A471" s="23" t="n">
         <v>3468192</v>
       </c>
@@ -40791,7 +40779,7 @@
         </is>
       </c>
     </row>
-    <row r="472" hidden="1">
+    <row r="472" ht="16" customHeight="1">
       <c r="A472" s="23" t="n">
         <v>3468193</v>
       </c>
@@ -40853,7 +40841,7 @@
         </is>
       </c>
     </row>
-    <row r="473" hidden="1">
+    <row r="473" ht="16" customHeight="1">
       <c r="A473" s="23" t="n">
         <v>3468194</v>
       </c>
@@ -40915,7 +40903,7 @@
         </is>
       </c>
     </row>
-    <row r="474" hidden="1">
+    <row r="474" ht="16" customHeight="1">
       <c r="A474" s="23" t="n">
         <v>3468195</v>
       </c>
@@ -40977,7 +40965,7 @@
         </is>
       </c>
     </row>
-    <row r="475" hidden="1">
+    <row r="475" ht="16" customHeight="1">
       <c r="A475" s="23" t="n">
         <v>2692694</v>
       </c>
@@ -41039,7 +41027,7 @@
         </is>
       </c>
     </row>
-    <row r="476" hidden="1">
+    <row r="476" ht="16" customHeight="1">
       <c r="A476" s="23" t="n">
         <v>2692729</v>
       </c>
@@ -41099,7 +41087,7 @@
         </is>
       </c>
     </row>
-    <row r="477" hidden="1">
+    <row r="477" ht="16" customHeight="1">
       <c r="A477" s="23" t="n">
         <v>2692731</v>
       </c>
@@ -41159,7 +41147,7 @@
         </is>
       </c>
     </row>
-    <row r="478" hidden="1">
+    <row r="478" ht="16" customHeight="1">
       <c r="A478" s="23" t="n">
         <v>2692720</v>
       </c>
@@ -41221,7 +41209,7 @@
         </is>
       </c>
     </row>
-    <row r="479" hidden="1">
+    <row r="479" ht="16" customHeight="1">
       <c r="A479" s="23" t="n">
         <v>2692726</v>
       </c>
@@ -41283,7 +41271,7 @@
         </is>
       </c>
     </row>
-    <row r="480" hidden="1">
+    <row r="480" ht="16" customHeight="1">
       <c r="A480" s="23" t="n">
         <v>2692722</v>
       </c>
@@ -41345,7 +41333,7 @@
         </is>
       </c>
     </row>
-    <row r="481" hidden="1">
+    <row r="481" ht="16" customHeight="1">
       <c r="A481" s="23" t="n">
         <v>2692724</v>
       </c>
@@ -41407,7 +41395,7 @@
         </is>
       </c>
     </row>
-    <row r="482" hidden="1">
+    <row r="482" ht="16" customHeight="1">
       <c r="A482" s="23" t="n">
         <v>2692727</v>
       </c>
@@ -41469,7 +41457,7 @@
         </is>
       </c>
     </row>
-    <row r="483" hidden="1">
+    <row r="483" ht="16" customHeight="1">
       <c r="A483" s="23" t="n">
         <v>2742616</v>
       </c>
@@ -41531,7 +41519,7 @@
         </is>
       </c>
     </row>
-    <row r="484" hidden="1">
+    <row r="484" ht="16" customHeight="1">
       <c r="A484" s="23" t="n">
         <v>2742617</v>
       </c>
@@ -41593,7 +41581,7 @@
         </is>
       </c>
     </row>
-    <row r="485" hidden="1">
+    <row r="485" ht="16" customHeight="1">
       <c r="A485" s="23" t="n">
         <v>2742618</v>
       </c>
@@ -41655,7 +41643,7 @@
         </is>
       </c>
     </row>
-    <row r="486" hidden="1">
+    <row r="486" ht="16" customHeight="1">
       <c r="A486" s="23" t="n">
         <v>2742619</v>
       </c>
@@ -41717,7 +41705,7 @@
         </is>
       </c>
     </row>
-    <row r="487" hidden="1">
+    <row r="487" ht="16" customHeight="1">
       <c r="A487" s="23" t="n">
         <v>2742620</v>
       </c>
@@ -41779,7 +41767,7 @@
         </is>
       </c>
     </row>
-    <row r="488" hidden="1">
+    <row r="488" ht="16" customHeight="1">
       <c r="A488" s="23" t="n">
         <v>2742621</v>
       </c>
@@ -41841,7 +41829,7 @@
         </is>
       </c>
     </row>
-    <row r="489" hidden="1">
+    <row r="489" ht="16" customHeight="1">
       <c r="A489" s="23" t="n">
         <v>302899</v>
       </c>
@@ -41903,7 +41891,7 @@
         </is>
       </c>
     </row>
-    <row r="490" hidden="1">
+    <row r="490" ht="16" customHeight="1">
       <c r="A490" s="23" t="n">
         <v>302900</v>
       </c>
@@ -41965,7 +41953,7 @@
         </is>
       </c>
     </row>
-    <row r="491" hidden="1">
+    <row r="491" ht="16" customHeight="1">
       <c r="A491" s="23" t="n">
         <v>302901</v>
       </c>
@@ -42027,7 +42015,7 @@
         </is>
       </c>
     </row>
-    <row r="492" hidden="1">
+    <row r="492" ht="16" customHeight="1">
       <c r="A492" s="23" t="n">
         <v>302902</v>
       </c>
@@ -42089,7 +42077,7 @@
         </is>
       </c>
     </row>
-    <row r="493" hidden="1">
+    <row r="493" ht="16" customHeight="1">
       <c r="A493" s="23" t="n">
         <v>302903</v>
       </c>
@@ -42151,7 +42139,7 @@
         </is>
       </c>
     </row>
-    <row r="494" hidden="1">
+    <row r="494" ht="16" customHeight="1">
       <c r="A494" s="23" t="n">
         <v>302905</v>
       </c>
@@ -42213,7 +42201,7 @@
         </is>
       </c>
     </row>
-    <row r="495" hidden="1">
+    <row r="495" ht="16" customHeight="1">
       <c r="A495" s="23" t="n">
         <v>302906</v>
       </c>
@@ -42275,7 +42263,7 @@
         </is>
       </c>
     </row>
-    <row r="496" hidden="1">
+    <row r="496" ht="16" customHeight="1">
       <c r="A496" s="23" t="n">
         <v>302907</v>
       </c>
@@ -42337,7 +42325,7 @@
         </is>
       </c>
     </row>
-    <row r="497" hidden="1">
+    <row r="497" ht="16" customHeight="1">
       <c r="A497" s="23" t="n">
         <v>302910</v>
       </c>
@@ -42399,7 +42387,7 @@
         </is>
       </c>
     </row>
-    <row r="498" hidden="1">
+    <row r="498" ht="16" customHeight="1">
       <c r="A498" s="23" t="n">
         <v>302911</v>
       </c>
@@ -42461,7 +42449,7 @@
         </is>
       </c>
     </row>
-    <row r="499" hidden="1">
+    <row r="499" ht="16" customHeight="1">
       <c r="A499" s="23" t="n">
         <v>302912</v>
       </c>
@@ -42523,7 +42511,7 @@
         </is>
       </c>
     </row>
-    <row r="500" hidden="1">
+    <row r="500" ht="16" customHeight="1">
       <c r="A500" s="23" t="n">
         <v>302913</v>
       </c>
@@ -42585,7 +42573,7 @@
         </is>
       </c>
     </row>
-    <row r="501" hidden="1">
+    <row r="501" ht="16" customHeight="1">
       <c r="A501" s="23" t="n">
         <v>302916</v>
       </c>
@@ -42647,7 +42635,7 @@
         </is>
       </c>
     </row>
-    <row r="502" hidden="1">
+    <row r="502" ht="16" customHeight="1">
       <c r="A502" s="23" t="n">
         <v>302917</v>
       </c>
@@ -42709,7 +42697,7 @@
         </is>
       </c>
     </row>
-    <row r="503" hidden="1">
+    <row r="503" ht="16" customHeight="1">
       <c r="A503" s="23" t="n">
         <v>302920</v>
       </c>
@@ -42771,7 +42759,7 @@
         </is>
       </c>
     </row>
-    <row r="504" hidden="1">
+    <row r="504" ht="16" customHeight="1">
       <c r="A504" s="23" t="n">
         <v>302921</v>
       </c>
@@ -42833,7 +42821,7 @@
         </is>
       </c>
     </row>
-    <row r="505" hidden="1">
+    <row r="505" ht="16" customHeight="1">
       <c r="A505" s="23" t="n">
         <v>2037743</v>
       </c>
@@ -42893,7 +42881,7 @@
         </is>
       </c>
     </row>
-    <row r="506" hidden="1">
+    <row r="506" ht="16" customHeight="1">
       <c r="A506" s="23" t="n">
         <v>4337502</v>
       </c>
@@ -42955,7 +42943,7 @@
         </is>
       </c>
     </row>
-    <row r="507" hidden="1">
+    <row r="507" ht="16" customHeight="1">
       <c r="A507" s="23" t="n">
         <v>4337503</v>
       </c>
@@ -43017,7 +43005,7 @@
         </is>
       </c>
     </row>
-    <row r="508" hidden="1">
+    <row r="508" ht="16" customHeight="1">
       <c r="A508" s="23" t="n">
         <v>4337504</v>
       </c>
@@ -43079,7 +43067,7 @@
         </is>
       </c>
     </row>
-    <row r="509" hidden="1">
+    <row r="509" ht="16" customHeight="1">
       <c r="A509" s="23" t="n">
         <v>4337508</v>
       </c>
@@ -43141,7 +43129,7 @@
         </is>
       </c>
     </row>
-    <row r="510" hidden="1">
+    <row r="510" ht="16" customHeight="1">
       <c r="A510" s="23" t="n">
         <v>4337509</v>
       </c>
@@ -43203,7 +43191,7 @@
         </is>
       </c>
     </row>
-    <row r="511" hidden="1">
+    <row r="511" ht="16" customHeight="1">
       <c r="A511" s="23" t="n">
         <v>4337510</v>
       </c>
@@ -43265,7 +43253,7 @@
         </is>
       </c>
     </row>
-    <row r="512" hidden="1">
+    <row r="512" ht="16" customHeight="1">
       <c r="A512" s="23" t="n">
         <v>4354839</v>
       </c>
@@ -43327,7 +43315,7 @@
         </is>
       </c>
     </row>
-    <row r="513" hidden="1">
+    <row r="513" ht="16" customHeight="1">
       <c r="A513" s="23" t="n">
         <v>4354840</v>
       </c>
@@ -43389,7 +43377,7 @@
         </is>
       </c>
     </row>
-    <row r="514" hidden="1">
+    <row r="514" ht="16" customHeight="1">
       <c r="A514" s="23" t="n">
         <v>4354872</v>
       </c>
@@ -43451,7 +43439,7 @@
         </is>
       </c>
     </row>
-    <row r="515" hidden="1">
+    <row r="515" ht="16" customHeight="1">
       <c r="A515" s="23" t="n">
         <v>4354873</v>
       </c>
@@ -43513,7 +43501,7 @@
         </is>
       </c>
     </row>
-    <row r="516" hidden="1">
+    <row r="516" ht="16" customHeight="1">
       <c r="A516" s="23" t="n">
         <v>4354874</v>
       </c>
@@ -43575,7 +43563,7 @@
         </is>
       </c>
     </row>
-    <row r="517" hidden="1">
+    <row r="517" ht="16" customHeight="1">
       <c r="A517" s="23" t="n">
         <v>3468204</v>
       </c>
@@ -43637,7 +43625,7 @@
         </is>
       </c>
     </row>
-    <row r="518" hidden="1">
+    <row r="518" ht="16" customHeight="1">
       <c r="A518" s="23" t="n">
         <v>3468206</v>
       </c>
@@ -43699,7 +43687,7 @@
         </is>
       </c>
     </row>
-    <row r="519" hidden="1">
+    <row r="519" ht="16" customHeight="1">
       <c r="A519" s="23" t="n">
         <v>3468207</v>
       </c>
@@ -43761,7 +43749,7 @@
         </is>
       </c>
     </row>
-    <row r="520" hidden="1">
+    <row r="520" ht="16" customHeight="1">
       <c r="A520" s="23" t="n">
         <v>4354905</v>
       </c>
@@ -43823,7 +43811,7 @@
         </is>
       </c>
     </row>
-    <row r="521" hidden="1">
+    <row r="521" ht="16" customHeight="1">
       <c r="A521" s="23" t="n">
         <v>4354910</v>
       </c>
@@ -43885,7 +43873,7 @@
         </is>
       </c>
     </row>
-    <row r="522" hidden="1">
+    <row r="522" ht="16" customHeight="1">
       <c r="A522" s="23" t="n">
         <v>4354911</v>
       </c>
@@ -43947,7 +43935,7 @@
         </is>
       </c>
     </row>
-    <row r="523" hidden="1">
+    <row r="523" ht="16" customHeight="1">
       <c r="A523" s="23" t="n">
         <v>4354912</v>
       </c>
@@ -44009,7 +43997,7 @@
         </is>
       </c>
     </row>
-    <row r="524" hidden="1">
+    <row r="524" ht="16" customHeight="1">
       <c r="A524" s="23" t="n">
         <v>4354913</v>
       </c>
@@ -44071,7 +44059,7 @@
         </is>
       </c>
     </row>
-    <row r="525" hidden="1">
+    <row r="525" ht="16" customHeight="1">
       <c r="A525" s="23" t="n">
         <v>4354949</v>
       </c>
@@ -44133,7 +44121,7 @@
         </is>
       </c>
     </row>
-    <row r="526" hidden="1">
+    <row r="526" ht="16" customHeight="1">
       <c r="A526" s="23" t="n">
         <v>4354950</v>
       </c>
@@ -44195,7 +44183,7 @@
         </is>
       </c>
     </row>
-    <row r="527" hidden="1">
+    <row r="527" ht="16" customHeight="1">
       <c r="A527" s="23" t="n">
         <v>4354951</v>
       </c>
@@ -44257,7 +44245,7 @@
         </is>
       </c>
     </row>
-    <row r="528" hidden="1">
+    <row r="528" ht="16" customHeight="1">
       <c r="A528" s="23" t="n">
         <v>4337461</v>
       </c>
@@ -44319,7 +44307,7 @@
         </is>
       </c>
     </row>
-    <row r="529" hidden="1">
+    <row r="529" ht="16" customHeight="1">
       <c r="A529" s="23" t="n">
         <v>4337462</v>
       </c>
@@ -44381,7 +44369,7 @@
         </is>
       </c>
     </row>
-    <row r="530" hidden="1">
+    <row r="530" ht="16" customHeight="1">
       <c r="A530" s="23" t="n">
         <v>4337463</v>
       </c>
@@ -44443,7 +44431,7 @@
         </is>
       </c>
     </row>
-    <row r="531" hidden="1">
+    <row r="531" ht="16" customHeight="1">
       <c r="A531" s="23" t="n">
         <v>4337464</v>
       </c>
@@ -44505,7 +44493,7 @@
         </is>
       </c>
     </row>
-    <row r="532" hidden="1">
+    <row r="532" ht="16" customHeight="1">
       <c r="A532" s="23" t="n">
         <v>4337465</v>
       </c>
@@ -44567,7 +44555,7 @@
         </is>
       </c>
     </row>
-    <row r="533" hidden="1">
+    <row r="533" ht="16" customHeight="1">
       <c r="A533" s="23" t="n">
         <v>4337474</v>
       </c>
@@ -44629,7 +44617,7 @@
         </is>
       </c>
     </row>
-    <row r="534" hidden="1">
+    <row r="534" ht="16" customHeight="1">
       <c r="A534" s="23" t="n">
         <v>4337475</v>
       </c>
@@ -44691,7 +44679,7 @@
         </is>
       </c>
     </row>
-    <row r="535" hidden="1">
+    <row r="535" ht="16" customHeight="1">
       <c r="A535" s="23" t="n">
         <v>4337469</v>
       </c>
@@ -44753,7 +44741,7 @@
         </is>
       </c>
     </row>
-    <row r="536" hidden="1">
+    <row r="536" ht="16" customHeight="1">
       <c r="A536" s="23" t="n">
         <v>4337470</v>
       </c>
@@ -44815,7 +44803,7 @@
         </is>
       </c>
     </row>
-    <row r="537" hidden="1">
+    <row r="537" ht="16" customHeight="1">
       <c r="A537" s="23" t="n">
         <v>4337472</v>
       </c>
@@ -44877,7 +44865,7 @@
         </is>
       </c>
     </row>
-    <row r="538" hidden="1">
+    <row r="538" ht="16" customHeight="1">
       <c r="A538" s="23" t="n">
         <v>4319927</v>
       </c>
@@ -44939,7 +44927,7 @@
         </is>
       </c>
     </row>
-    <row r="539" hidden="1">
+    <row r="539" ht="16" customHeight="1">
       <c r="A539" s="23" t="n">
         <v>4319928</v>
       </c>
@@ -45001,7 +44989,7 @@
         </is>
       </c>
     </row>
-    <row r="540" hidden="1">
+    <row r="540" ht="16" customHeight="1">
       <c r="A540" s="23" t="n">
         <v>4319929</v>
       </c>
@@ -45063,7 +45051,7 @@
         </is>
       </c>
     </row>
-    <row r="541" hidden="1">
+    <row r="541" ht="16" customHeight="1">
       <c r="A541" s="23" t="n">
         <v>3741248</v>
       </c>
@@ -45125,7 +45113,7 @@
         </is>
       </c>
     </row>
-    <row r="542" hidden="1">
+    <row r="542" ht="16" customHeight="1">
       <c r="A542" s="23" t="n">
         <v>3741249</v>
       </c>
@@ -45187,7 +45175,7 @@
         </is>
       </c>
     </row>
-    <row r="543" hidden="1">
+    <row r="543" ht="16" customHeight="1">
       <c r="A543" s="23" t="n">
         <v>3741251</v>
       </c>
@@ -45249,7 +45237,7 @@
         </is>
       </c>
     </row>
-    <row r="544" hidden="1">
+    <row r="544" ht="16" customHeight="1">
       <c r="A544" s="23" t="n">
         <v>3741252</v>
       </c>
@@ -45311,7 +45299,7 @@
         </is>
       </c>
     </row>
-    <row r="545" hidden="1">
+    <row r="545" ht="16" customHeight="1">
       <c r="A545" s="23" t="n">
         <v>3741253</v>
       </c>
@@ -45373,7 +45361,7 @@
         </is>
       </c>
     </row>
-    <row r="546" hidden="1">
+    <row r="546" ht="16" customHeight="1">
       <c r="A546" s="23" t="n">
         <v>3741254</v>
       </c>
@@ -45435,7 +45423,7 @@
         </is>
       </c>
     </row>
-    <row r="547" hidden="1">
+    <row r="547" ht="16" customHeight="1">
       <c r="A547" s="23" t="n">
         <v>3741255</v>
       </c>
@@ -45497,7 +45485,7 @@
         </is>
       </c>
     </row>
-    <row r="548" hidden="1">
+    <row r="548" ht="16" customHeight="1">
       <c r="A548" s="23" t="n">
         <v>4355036</v>
       </c>
@@ -45559,7 +45547,7 @@
         </is>
       </c>
     </row>
-    <row r="549" hidden="1">
+    <row r="549" ht="16" customHeight="1">
       <c r="A549" s="23" t="n">
         <v>4355037</v>
       </c>
@@ -45621,7 +45609,7 @@
         </is>
       </c>
     </row>
-    <row r="550" hidden="1">
+    <row r="550" ht="16" customHeight="1">
       <c r="A550" s="23" t="n">
         <v>4355038</v>
       </c>
@@ -45683,7 +45671,7 @@
         </is>
       </c>
     </row>
-    <row r="551" hidden="1">
+    <row r="551" ht="16" customHeight="1">
       <c r="A551" s="23" t="n">
         <v>4355039</v>
       </c>
@@ -45745,7 +45733,7 @@
         </is>
       </c>
     </row>
-    <row r="552" hidden="1">
+    <row r="552" ht="16" customHeight="1">
       <c r="A552" s="23" t="n">
         <v>4355040</v>
       </c>
@@ -45807,7 +45795,7 @@
         </is>
       </c>
     </row>
-    <row r="553" hidden="1">
+    <row r="553" ht="16" customHeight="1">
       <c r="A553" s="23" t="n">
         <v>3587432</v>
       </c>
@@ -45873,7 +45861,7 @@
         </is>
       </c>
     </row>
-    <row r="554" hidden="1">
+    <row r="554" ht="16" customHeight="1">
       <c r="A554" s="23" t="n">
         <v>3587433</v>
       </c>
@@ -45939,7 +45927,7 @@
         </is>
       </c>
     </row>
-    <row r="555" hidden="1">
+    <row r="555" ht="16" customHeight="1">
       <c r="A555" s="23" t="n">
         <v>3587434</v>
       </c>
@@ -46005,7 +45993,7 @@
         </is>
       </c>
     </row>
-    <row r="556" hidden="1">
+    <row r="556" ht="16" customHeight="1">
       <c r="A556" s="23" t="n">
         <v>2002545</v>
       </c>
@@ -46075,7 +46063,7 @@
         </is>
       </c>
     </row>
-    <row r="557" hidden="1">
+    <row r="557" ht="16" customHeight="1">
       <c r="A557" s="23" t="n">
         <v>310686</v>
       </c>
@@ -46145,7 +46133,7 @@
         </is>
       </c>
     </row>
-    <row r="558" hidden="1">
+    <row r="558" ht="16" customHeight="1">
       <c r="A558" s="23" t="n">
         <v>310687</v>
       </c>
@@ -46215,7 +46203,7 @@
         </is>
       </c>
     </row>
-    <row r="559" hidden="1">
+    <row r="559" ht="16" customHeight="1">
       <c r="A559" s="23" t="n">
         <v>311021</v>
       </c>
@@ -46281,7 +46269,7 @@
         </is>
       </c>
     </row>
-    <row r="560" hidden="1">
+    <row r="560" ht="16" customHeight="1">
       <c r="A560" s="23" t="n">
         <v>311022</v>
       </c>
@@ -46347,7 +46335,7 @@
         </is>
       </c>
     </row>
-    <row r="561" hidden="1">
+    <row r="561" ht="16" customHeight="1">
       <c r="A561" s="23" t="n">
         <v>311026</v>
       </c>
@@ -46413,7 +46401,7 @@
         </is>
       </c>
     </row>
-    <row r="562" hidden="1">
+    <row r="562" ht="16" customHeight="1">
       <c r="A562" s="23" t="n">
         <v>311032</v>
       </c>
@@ -46479,7 +46467,7 @@
         </is>
       </c>
     </row>
-    <row r="563" hidden="1">
+    <row r="563" ht="16" customHeight="1">
       <c r="A563" s="23" t="n">
         <v>311034</v>
       </c>
@@ -46545,7 +46533,7 @@
         </is>
       </c>
     </row>
-    <row r="564" hidden="1">
+    <row r="564" ht="16" customHeight="1">
       <c r="A564" s="23" t="n">
         <v>311037</v>
       </c>
@@ -46611,7 +46599,7 @@
         </is>
       </c>
     </row>
-    <row r="565" hidden="1">
+    <row r="565" ht="16" customHeight="1">
       <c r="A565" s="23" t="n">
         <v>311030</v>
       </c>
@@ -46675,7 +46663,7 @@
         </is>
       </c>
     </row>
-    <row r="566" hidden="1">
+    <row r="566" ht="16" customHeight="1">
       <c r="A566" s="23" t="n">
         <v>270083</v>
       </c>
@@ -46741,7 +46729,7 @@
         </is>
       </c>
     </row>
-    <row r="567" hidden="1">
+    <row r="567" ht="16" customHeight="1">
       <c r="A567" s="23" t="n">
         <v>148960</v>
       </c>
@@ -46807,7 +46795,7 @@
         </is>
       </c>
     </row>
-    <row r="568" hidden="1">
+    <row r="568" ht="16" customHeight="1">
       <c r="A568" s="23" t="n">
         <v>148962</v>
       </c>
@@ -46873,7 +46861,7 @@
         </is>
       </c>
     </row>
-    <row r="569" hidden="1">
+    <row r="569" ht="16" customHeight="1">
       <c r="A569" s="23" t="n">
         <v>96982</v>
       </c>
@@ -46937,7 +46925,7 @@
         </is>
       </c>
     </row>
-    <row r="570" hidden="1">
+    <row r="570" ht="16" customHeight="1">
       <c r="A570" s="23" t="n">
         <v>270084</v>
       </c>
@@ -47003,7 +46991,7 @@
         </is>
       </c>
     </row>
-    <row r="571" hidden="1">
+    <row r="571" ht="16" customHeight="1">
       <c r="A571" s="23" t="n">
         <v>197926</v>
       </c>
@@ -47069,7 +47057,7 @@
         </is>
       </c>
     </row>
-    <row r="572" hidden="1">
+    <row r="572" ht="16" customHeight="1">
       <c r="A572" s="23" t="n">
         <v>197925</v>
       </c>
@@ -47135,7 +47123,7 @@
         </is>
       </c>
     </row>
-    <row r="573" hidden="1">
+    <row r="573" ht="16" customHeight="1">
       <c r="A573" s="23" t="n">
         <v>197929</v>
       </c>
@@ -47201,7 +47189,7 @@
         </is>
       </c>
     </row>
-    <row r="574" hidden="1">
+    <row r="574" ht="16" customHeight="1">
       <c r="A574" s="23" t="n">
         <v>198639</v>
       </c>
@@ -47265,7 +47253,7 @@
         </is>
       </c>
     </row>
-    <row r="575" hidden="1">
+    <row r="575" ht="16" customHeight="1">
       <c r="A575" s="23" t="n">
         <v>198276</v>
       </c>
@@ -47329,7 +47317,7 @@
         </is>
       </c>
     </row>
-    <row r="576" hidden="1">
+    <row r="576" ht="16" customHeight="1">
       <c r="A576" s="23" t="n">
         <v>198277</v>
       </c>
@@ -47393,7 +47381,7 @@
         </is>
       </c>
     </row>
-    <row r="577" hidden="1">
+    <row r="577" ht="16" customHeight="1">
       <c r="A577" s="23" t="n">
         <v>198639</v>
       </c>
@@ -47459,7 +47447,7 @@
         </is>
       </c>
     </row>
-    <row r="578" hidden="1">
+    <row r="578" ht="16" customHeight="1">
       <c r="A578" s="23" t="n">
         <v>198276</v>
       </c>
@@ -47525,7 +47513,7 @@
         </is>
       </c>
     </row>
-    <row r="579" hidden="1">
+    <row r="579" ht="16" customHeight="1">
       <c r="A579" s="23" t="n">
         <v>198277</v>
       </c>
@@ -47591,7 +47579,7 @@
         </is>
       </c>
     </row>
-    <row r="580" hidden="1">
+    <row r="580" ht="16" customHeight="1">
       <c r="A580" s="23" t="n">
         <v>304911</v>
       </c>
@@ -47657,7 +47645,7 @@
         </is>
       </c>
     </row>
-    <row r="581" hidden="1">
+    <row r="581" ht="16" customHeight="1">
       <c r="A581" s="23" t="n">
         <v>304914</v>
       </c>
@@ -47723,7 +47711,7 @@
         </is>
       </c>
     </row>
-    <row r="582" hidden="1">
+    <row r="582" ht="16" customHeight="1">
       <c r="A582" s="23" t="n">
         <v>2002579</v>
       </c>
@@ -47789,7 +47777,7 @@
         </is>
       </c>
     </row>
-    <row r="583" hidden="1">
+    <row r="583" ht="16" customHeight="1">
       <c r="A583" s="23" t="n">
         <v>319072</v>
       </c>
@@ -47855,7 +47843,7 @@
         </is>
       </c>
     </row>
-    <row r="584" hidden="1">
+    <row r="584" ht="16" customHeight="1">
       <c r="A584" s="23" t="n">
         <v>310698</v>
       </c>
@@ -47921,7 +47909,7 @@
         </is>
       </c>
     </row>
-    <row r="585" hidden="1">
+    <row r="585" ht="16" customHeight="1">
       <c r="A585" s="23" t="n">
         <v>310699</v>
       </c>
@@ -47987,7 +47975,7 @@
         </is>
       </c>
     </row>
-    <row r="586" hidden="1">
+    <row r="586" ht="16" customHeight="1">
       <c r="A586" s="23" t="n">
         <v>310703</v>
       </c>
@@ -48053,7 +48041,7 @@
         </is>
       </c>
     </row>
-    <row r="587" hidden="1">
+    <row r="587" ht="16" customHeight="1">
       <c r="A587" s="23" t="n">
         <v>311136</v>
       </c>
@@ -48119,7 +48107,7 @@
         </is>
       </c>
     </row>
-    <row r="588" hidden="1">
+    <row r="588" ht="16" customHeight="1">
       <c r="A588" s="23" t="n">
         <v>199396</v>
       </c>
@@ -48193,7 +48181,7 @@
         </is>
       </c>
     </row>
-    <row r="589" hidden="1">
+    <row r="589" ht="16" customHeight="1">
       <c r="A589" s="23" t="n">
         <v>3207578</v>
       </c>
@@ -48259,7 +48247,7 @@
         </is>
       </c>
     </row>
-    <row r="590" hidden="1">
+    <row r="590" ht="16" customHeight="1">
       <c r="A590" s="23" t="n">
         <v>3207579</v>
       </c>
@@ -48325,7 +48313,7 @@
         </is>
       </c>
     </row>
-    <row r="591" hidden="1">
+    <row r="591" ht="16" customHeight="1">
       <c r="A591" s="23" t="n">
         <v>270086</v>
       </c>
@@ -48395,7 +48383,7 @@
         </is>
       </c>
     </row>
-    <row r="592" hidden="1">
+    <row r="592" ht="16" customHeight="1">
       <c r="A592" s="23" t="n">
         <v>197915</v>
       </c>
@@ -48465,7 +48453,7 @@
         </is>
       </c>
     </row>
-    <row r="593" hidden="1">
+    <row r="593" ht="16" customHeight="1">
       <c r="A593" s="23" t="n">
         <v>197914</v>
       </c>
@@ -48535,7 +48523,7 @@
         </is>
       </c>
     </row>
-    <row r="594" hidden="1">
+    <row r="594" ht="16" customHeight="1">
       <c r="A594" s="23" t="n">
         <v>197918</v>
       </c>
@@ -48605,7 +48593,7 @@
         </is>
       </c>
     </row>
-    <row r="595" hidden="1">
+    <row r="595" ht="16" customHeight="1">
       <c r="A595" s="23" t="n">
         <v>270087</v>
       </c>
@@ -48675,7 +48663,7 @@
         </is>
       </c>
     </row>
-    <row r="596" hidden="1">
+    <row r="596" ht="16" customHeight="1">
       <c r="A596" s="23" t="n">
         <v>270088</v>
       </c>
@@ -48745,7 +48733,7 @@
         </is>
       </c>
     </row>
-    <row r="597" hidden="1">
+    <row r="597" ht="16" customHeight="1">
       <c r="A597" s="23" t="n">
         <v>270089</v>
       </c>
@@ -48815,7 +48803,7 @@
         </is>
       </c>
     </row>
-    <row r="598" hidden="1">
+    <row r="598" ht="16" customHeight="1">
       <c r="A598" s="23" t="n">
         <v>270090</v>
       </c>
@@ -48885,7 +48873,7 @@
         </is>
       </c>
     </row>
-    <row r="599" hidden="1">
+    <row r="599" ht="16" customHeight="1">
       <c r="A599" s="23" t="n">
         <v>270091</v>
       </c>
@@ -48955,7 +48943,7 @@
         </is>
       </c>
     </row>
-    <row r="600" hidden="1">
+    <row r="600" ht="16" customHeight="1">
       <c r="A600" s="23" t="n">
         <v>138329</v>
       </c>
@@ -49025,7 +49013,7 @@
         </is>
       </c>
     </row>
-    <row r="601" hidden="1">
+    <row r="601" ht="16" customHeight="1">
       <c r="A601" s="23" t="n">
         <v>270080</v>
       </c>
@@ -49095,7 +49083,7 @@
         </is>
       </c>
     </row>
-    <row r="602" hidden="1">
+    <row r="602" ht="16" customHeight="1">
       <c r="A602" s="23" t="n">
         <v>2037753</v>
       </c>
@@ -49165,7 +49153,7 @@
         </is>
       </c>
     </row>
-    <row r="603" hidden="1">
+    <row r="603" ht="16" customHeight="1">
       <c r="A603" s="23" t="n">
         <v>2037754</v>
       </c>
@@ -49235,7 +49223,7 @@
         </is>
       </c>
     </row>
-    <row r="604" hidden="1">
+    <row r="604" ht="16" customHeight="1">
       <c r="A604" s="23" t="n">
         <v>270081</v>
       </c>
@@ -49305,7 +49293,7 @@
         </is>
       </c>
     </row>
-    <row r="605" hidden="1">
+    <row r="605" ht="16" customHeight="1">
       <c r="A605" s="23" t="n">
         <v>2037755</v>
       </c>
@@ -49375,7 +49363,7 @@
         </is>
       </c>
     </row>
-    <row r="606" hidden="1">
+    <row r="606" ht="16" customHeight="1">
       <c r="A606" s="23" t="n">
         <v>270082</v>
       </c>
@@ -49445,7 +49433,7 @@
         </is>
       </c>
     </row>
-    <row r="607" hidden="1">
+    <row r="607" ht="16" customHeight="1">
       <c r="A607" s="23" t="n">
         <v>2037760</v>
       </c>
@@ -49515,7 +49503,7 @@
         </is>
       </c>
     </row>
-    <row r="608" hidden="1">
+    <row r="608" ht="16" customHeight="1">
       <c r="A608" s="23" t="n">
         <v>2037761</v>
       </c>
@@ -49585,7 +49573,7 @@
         </is>
       </c>
     </row>
-    <row r="609" hidden="1">
+    <row r="609" ht="16" customHeight="1">
       <c r="A609" s="23" t="n">
         <v>2037762</v>
       </c>
@@ -49655,7 +49643,7 @@
         </is>
       </c>
     </row>
-    <row r="610" hidden="1">
+    <row r="610" ht="16" customHeight="1">
       <c r="A610" s="23" t="n">
         <v>2037763</v>
       </c>
@@ -49725,7 +49713,7 @@
         </is>
       </c>
     </row>
-    <row r="611" hidden="1">
+    <row r="611" ht="16" customHeight="1">
       <c r="A611" s="23" t="n">
         <v>2037764</v>
       </c>
@@ -49795,7 +49783,7 @@
         </is>
       </c>
     </row>
-    <row r="612" hidden="1">
+    <row r="612" ht="16" customHeight="1">
       <c r="A612" s="23" t="n">
         <v>2037774</v>
       </c>
@@ -49863,7 +49851,7 @@
         </is>
       </c>
     </row>
-    <row r="613" hidden="1">
+    <row r="613" ht="16" customHeight="1">
       <c r="A613" s="23" t="n">
         <v>320357</v>
       </c>
@@ -49931,7 +49919,7 @@
         </is>
       </c>
     </row>
-    <row r="614" hidden="1">
+    <row r="614" ht="16" customHeight="1">
       <c r="A614" s="23" t="n">
         <v>311223</v>
       </c>
@@ -50001,7 +49989,7 @@
         </is>
       </c>
     </row>
-    <row r="615" hidden="1">
+    <row r="615" ht="16" customHeight="1">
       <c r="A615" s="23" t="n">
         <v>2007348</v>
       </c>
@@ -50067,7 +50055,7 @@
         </is>
       </c>
     </row>
-    <row r="616" hidden="1">
+    <row r="616" ht="16" customHeight="1">
       <c r="A616" s="23" t="n">
         <v>2007357</v>
       </c>
@@ -50133,7 +50121,7 @@
         </is>
       </c>
     </row>
-    <row r="617" hidden="1">
+    <row r="617" ht="16" customHeight="1">
       <c r="A617" s="23" t="n">
         <v>2007361</v>
       </c>
@@ -50199,7 +50187,7 @@
         </is>
       </c>
     </row>
-    <row r="618" hidden="1">
+    <row r="618" ht="16" customHeight="1">
       <c r="A618" s="23" t="n">
         <v>3587475</v>
       </c>
@@ -50265,7 +50253,7 @@
         </is>
       </c>
     </row>
-    <row r="619" hidden="1">
+    <row r="619" ht="16" customHeight="1">
       <c r="A619" s="23" t="n">
         <v>3587476</v>
       </c>
@@ -50331,7 +50319,7 @@
         </is>
       </c>
     </row>
-    <row r="620" hidden="1">
+    <row r="620" ht="16" customHeight="1">
       <c r="A620" s="23" t="n">
         <v>3587489</v>
       </c>
@@ -50401,7 +50389,7 @@
         </is>
       </c>
     </row>
-    <row r="621" hidden="1">
+    <row r="621" ht="16" customHeight="1">
       <c r="A621" s="23" t="n">
         <v>3587491</v>
       </c>
@@ -50471,7 +50459,7 @@
         </is>
       </c>
     </row>
-    <row r="622" hidden="1">
+    <row r="622" ht="16" customHeight="1">
       <c r="A622" s="23" t="n">
         <v>3587494</v>
       </c>
@@ -50541,7 +50529,7 @@
         </is>
       </c>
     </row>
-    <row r="623" hidden="1">
+    <row r="623" ht="16" customHeight="1">
       <c r="A623" s="23" t="n">
         <v>3587490</v>
       </c>
@@ -50611,7 +50599,7 @@
         </is>
       </c>
     </row>
-    <row r="624" hidden="1">
+    <row r="624" ht="16" customHeight="1">
       <c r="A624" s="23" t="n">
         <v>3587450</v>
       </c>
@@ -50681,7 +50669,7 @@
         </is>
       </c>
     </row>
-    <row r="625" hidden="1">
+    <row r="625" ht="16" customHeight="1">
       <c r="A625" s="23" t="n">
         <v>3587449</v>
       </c>
@@ -50751,7 +50739,7 @@
         </is>
       </c>
     </row>
-    <row r="626" hidden="1">
+    <row r="626" ht="16" customHeight="1">
       <c r="A626" s="23" t="n">
         <v>3587461</v>
       </c>
@@ -50821,7 +50809,7 @@
         </is>
       </c>
     </row>
-    <row r="627" hidden="1">
+    <row r="627" ht="16" customHeight="1">
       <c r="A627" s="23" t="n">
         <v>3656128</v>
       </c>
@@ -50891,7 +50879,7 @@
         </is>
       </c>
     </row>
-    <row r="628" hidden="1">
+    <row r="628" ht="16" customHeight="1">
       <c r="A628" s="23" t="n">
         <v>3656177</v>
       </c>
@@ -50961,7 +50949,7 @@
         </is>
       </c>
     </row>
-    <row r="629" hidden="1">
+    <row r="629" ht="16" customHeight="1">
       <c r="A629" s="23" t="n">
         <v>3587501</v>
       </c>
@@ -51031,7 +51019,7 @@
         </is>
       </c>
     </row>
-    <row r="630" hidden="1">
+    <row r="630" ht="16" customHeight="1">
       <c r="A630" s="23" t="n">
         <v>3587503</v>
       </c>
@@ -51101,7 +51089,7 @@
         </is>
       </c>
     </row>
-    <row r="631" hidden="1">
+    <row r="631" ht="16" customHeight="1">
       <c r="A631" s="23" t="n">
         <v>311065</v>
       </c>
@@ -51171,7 +51159,7 @@
         </is>
       </c>
     </row>
-    <row r="632" hidden="1">
+    <row r="632" ht="16" customHeight="1">
       <c r="A632" s="23" t="n">
         <v>311066</v>
       </c>
@@ -51241,7 +51229,7 @@
         </is>
       </c>
     </row>
-    <row r="633" hidden="1">
+    <row r="633" ht="16" customHeight="1">
       <c r="A633" s="23" t="n">
         <v>311080</v>
       </c>
@@ -51311,7 +51299,7 @@
         </is>
       </c>
     </row>
-    <row r="634" hidden="1">
+    <row r="634" ht="16" customHeight="1">
       <c r="A634" s="23" t="n">
         <v>311087</v>
       </c>
@@ -51381,7 +51369,7 @@
         </is>
       </c>
     </row>
-    <row r="635" hidden="1">
+    <row r="635" ht="16" customHeight="1">
       <c r="A635" s="23" t="n">
         <v>311092</v>
       </c>
@@ -51451,7 +51439,7 @@
         </is>
       </c>
     </row>
-    <row r="636" hidden="1">
+    <row r="636" ht="16" customHeight="1">
       <c r="A636" s="23" t="n">
         <v>306834</v>
       </c>
@@ -51521,7 +51509,7 @@
         </is>
       </c>
     </row>
-    <row r="637" hidden="1">
+    <row r="637" ht="16" customHeight="1">
       <c r="A637" s="23" t="n">
         <v>306840</v>
       </c>
@@ -51591,7 +51579,7 @@
         </is>
       </c>
     </row>
-    <row r="638" hidden="1">
+    <row r="638" ht="16" customHeight="1">
       <c r="A638" s="23" t="n">
         <v>306846</v>
       </c>
@@ -51661,7 +51649,7 @@
         </is>
       </c>
     </row>
-    <row r="639" hidden="1">
+    <row r="639" ht="16" customHeight="1">
       <c r="A639" s="23" t="n">
         <v>307037</v>
       </c>
@@ -51729,7 +51717,7 @@
         </is>
       </c>
     </row>
-    <row r="640" hidden="1">
+    <row r="640" ht="16" customHeight="1">
       <c r="A640" s="23" t="n">
         <v>307039</v>
       </c>
@@ -51797,7 +51785,7 @@
         </is>
       </c>
     </row>
-    <row r="641" hidden="1">
+    <row r="641" ht="16" customHeight="1">
       <c r="A641" s="23" t="n">
         <v>307042</v>
       </c>
@@ -51865,7 +51853,7 @@
         </is>
       </c>
     </row>
-    <row r="642" hidden="1">
+    <row r="642" ht="16" customHeight="1">
       <c r="A642" s="23" t="n">
         <v>307043</v>
       </c>
@@ -51933,7 +51921,7 @@
         </is>
       </c>
     </row>
-    <row r="643" hidden="1">
+    <row r="643" ht="16" customHeight="1">
       <c r="A643" s="23" t="n">
         <v>307044</v>
       </c>
@@ -52001,7 +51989,7 @@
         </is>
       </c>
     </row>
-    <row r="644" hidden="1">
+    <row r="644" ht="16" customHeight="1">
       <c r="A644" s="23" t="n">
         <v>307073</v>
       </c>
@@ -52071,7 +52059,7 @@
         </is>
       </c>
     </row>
-    <row r="645" hidden="1">
+    <row r="645" ht="16" customHeight="1">
       <c r="A645" s="23" t="n">
         <v>2007348</v>
       </c>
@@ -52141,7 +52129,7 @@
         </is>
       </c>
     </row>
-    <row r="646" hidden="1">
+    <row r="646" ht="16" customHeight="1">
       <c r="A646" s="23" t="n">
         <v>2007357</v>
       </c>
@@ -52211,7 +52199,7 @@
         </is>
       </c>
     </row>
-    <row r="647" hidden="1">
+    <row r="647" ht="16" customHeight="1">
       <c r="A647" s="23" t="n">
         <v>359620386</v>
       </c>
@@ -52281,7 +52269,7 @@
         </is>
       </c>
     </row>
-    <row r="648" hidden="1">
+    <row r="648" ht="16" customHeight="1">
       <c r="A648" s="23" t="n">
         <v>459161640</v>
       </c>
@@ -52351,7 +52339,7 @@
         </is>
       </c>
     </row>
-    <row r="649" hidden="1">
+    <row r="649" ht="16" customHeight="1">
       <c r="A649" s="23" t="n">
         <v>459061240</v>
       </c>
@@ -52421,7 +52409,7 @@
         </is>
       </c>
     </row>
-    <row r="650" hidden="1">
+    <row r="650" ht="16" customHeight="1">
       <c r="A650" s="23" t="n">
         <v>310817</v>
       </c>
@@ -52487,7 +52475,7 @@
         </is>
       </c>
     </row>
-    <row r="651" hidden="1">
+    <row r="651" ht="16" customHeight="1">
       <c r="A651" s="23" t="n">
         <v>310818</v>
       </c>
@@ -52553,7 +52541,7 @@
         </is>
       </c>
     </row>
-    <row r="652" hidden="1">
+    <row r="652" ht="16" customHeight="1">
       <c r="A652" s="23" t="n">
         <v>310819</v>
       </c>
@@ -52619,7 +52607,7 @@
         </is>
       </c>
     </row>
-    <row r="653" hidden="1">
+    <row r="653" ht="16" customHeight="1">
       <c r="A653" s="23" t="n">
         <v>310822</v>
       </c>
@@ -52685,7 +52673,7 @@
         </is>
       </c>
     </row>
-    <row r="654" hidden="1">
+    <row r="654" ht="16" customHeight="1">
       <c r="A654" s="23" t="n">
         <v>310823</v>
       </c>
@@ -52751,7 +52739,7 @@
         </is>
       </c>
     </row>
-    <row r="655" hidden="1">
+    <row r="655" ht="16" customHeight="1">
       <c r="A655" s="23" t="n">
         <v>310824</v>
       </c>
@@ -52817,7 +52805,7 @@
         </is>
       </c>
     </row>
-    <row r="656" hidden="1">
+    <row r="656" ht="16" customHeight="1">
       <c r="A656" s="23" t="n">
         <v>310826</v>
       </c>
@@ -52883,7 +52871,7 @@
         </is>
       </c>
     </row>
-    <row r="657" hidden="1">
+    <row r="657" ht="16" customHeight="1">
       <c r="A657" s="23" t="n">
         <v>310825</v>
       </c>
@@ -52949,7 +52937,7 @@
         </is>
       </c>
     </row>
-    <row r="658" hidden="1">
+    <row r="658" ht="16" customHeight="1">
       <c r="A658" s="23" t="n">
         <v>310827</v>
       </c>
@@ -53015,7 +53003,7 @@
         </is>
       </c>
     </row>
-    <row r="659" hidden="1">
+    <row r="659" ht="16" customHeight="1">
       <c r="A659" s="23" t="n">
         <v>310828</v>
       </c>
@@ -53081,7 +53069,7 @@
         </is>
       </c>
     </row>
-    <row r="660" hidden="1">
+    <row r="660" ht="16" customHeight="1">
       <c r="A660" s="23" t="n">
         <v>310829</v>
       </c>
@@ -53147,7 +53135,7 @@
         </is>
       </c>
     </row>
-    <row r="661" hidden="1">
+    <row r="661" ht="16" customHeight="1">
       <c r="A661" s="23" t="n">
         <v>310830</v>
       </c>
@@ -53213,7 +53201,7 @@
         </is>
       </c>
     </row>
-    <row r="662" hidden="1">
+    <row r="662" ht="16" customHeight="1">
       <c r="A662" s="23" t="n">
         <v>310833</v>
       </c>
@@ -53279,7 +53267,7 @@
         </is>
       </c>
     </row>
-    <row r="663" hidden="1">
+    <row r="663" ht="16" customHeight="1">
       <c r="A663" s="23" t="n">
         <v>310808</v>
       </c>
@@ -53343,7 +53331,7 @@
         </is>
       </c>
     </row>
-    <row r="664" hidden="1">
+    <row r="664" ht="16" customHeight="1">
       <c r="A664" s="23" t="n">
         <v>310871</v>
       </c>
@@ -53413,7 +53401,7 @@
         </is>
       </c>
     </row>
-    <row r="665" hidden="1">
+    <row r="665" ht="16" customHeight="1">
       <c r="A665" s="23" t="n">
         <v>310872</v>
       </c>
@@ -53483,7 +53471,7 @@
         </is>
       </c>
     </row>
-    <row r="666" hidden="1">
+    <row r="666" ht="16" customHeight="1">
       <c r="A666" s="23" t="n">
         <v>310875</v>
       </c>
@@ -53553,7 +53541,7 @@
         </is>
       </c>
     </row>
-    <row r="667" hidden="1">
+    <row r="667" ht="16" customHeight="1">
       <c r="A667" s="23" t="n">
         <v>310876</v>
       </c>
@@ -53623,7 +53611,7 @@
         </is>
       </c>
     </row>
-    <row r="668" hidden="1">
+    <row r="668" ht="16" customHeight="1">
       <c r="A668" s="23" t="n">
         <v>310877</v>
       </c>
@@ -53693,7 +53681,7 @@
         </is>
       </c>
     </row>
-    <row r="669" hidden="1">
+    <row r="669" ht="16" customHeight="1">
       <c r="A669" s="23" t="n">
         <v>310878</v>
       </c>
@@ -53763,7 +53751,7 @@
         </is>
       </c>
     </row>
-    <row r="670" hidden="1">
+    <row r="670" ht="16" customHeight="1">
       <c r="A670" s="23" t="n">
         <v>310882</v>
       </c>
@@ -53833,7 +53821,7 @@
         </is>
       </c>
     </row>
-    <row r="671" hidden="1">
+    <row r="671" ht="16" customHeight="1">
       <c r="A671" s="23" t="n">
         <v>310883</v>
       </c>
@@ -53903,7 +53891,7 @@
         </is>
       </c>
     </row>
-    <row r="672" hidden="1">
+    <row r="672" ht="16" customHeight="1">
       <c r="A672" s="23" t="n">
         <v>310887</v>
       </c>
@@ -53973,7 +53961,7 @@
         </is>
       </c>
     </row>
-    <row r="673" hidden="1">
+    <row r="673" ht="16" customHeight="1">
       <c r="A673" s="23" t="n">
         <v>310888</v>
       </c>
@@ -54043,7 +54031,7 @@
         </is>
       </c>
     </row>
-    <row r="674" hidden="1">
+    <row r="674" ht="16" customHeight="1">
       <c r="A674" s="23" t="n">
         <v>310856</v>
       </c>
@@ -54111,7 +54099,7 @@
         </is>
       </c>
     </row>
-    <row r="675" hidden="1">
+    <row r="675" ht="16" customHeight="1">
       <c r="A675" s="23" t="n">
         <v>310857</v>
       </c>
@@ -54179,7 +54167,7 @@
         </is>
       </c>
     </row>
-    <row r="676" hidden="1">
+    <row r="676" ht="16" customHeight="1">
       <c r="A676" s="23" t="n">
         <v>310859</v>
       </c>
@@ -54247,7 +54235,7 @@
         </is>
       </c>
     </row>
-    <row r="677" hidden="1">
+    <row r="677" ht="16" customHeight="1">
       <c r="A677" s="23" t="n">
         <v>310860</v>
       </c>
@@ -54315,7 +54303,7 @@
         </is>
       </c>
     </row>
-    <row r="678" hidden="1">
+    <row r="678" ht="16" customHeight="1">
       <c r="A678" s="23" t="n">
         <v>310861</v>
       </c>
@@ -54383,7 +54371,7 @@
         </is>
       </c>
     </row>
-    <row r="679" hidden="1">
+    <row r="679" ht="16" customHeight="1">
       <c r="A679" s="23" t="n">
         <v>310862</v>
       </c>
@@ -54451,7 +54439,7 @@
         </is>
       </c>
     </row>
-    <row r="680" hidden="1">
+    <row r="680" ht="16" customHeight="1">
       <c r="A680" s="23" t="n">
         <v>310864</v>
       </c>
@@ -54519,7 +54507,7 @@
         </is>
       </c>
     </row>
-    <row r="681" hidden="1">
+    <row r="681" ht="16" customHeight="1">
       <c r="A681" s="23" t="n">
         <v>310865</v>
       </c>
@@ -54587,7 +54575,7 @@
         </is>
       </c>
     </row>
-    <row r="682" hidden="1">
+    <row r="682" ht="16" customHeight="1">
       <c r="A682" s="23" t="n">
         <v>310866</v>
       </c>
@@ -54655,7 +54643,7 @@
         </is>
       </c>
     </row>
-    <row r="683" hidden="1">
+    <row r="683" ht="16" customHeight="1">
       <c r="A683" s="23" t="n">
         <v>310867</v>
       </c>
@@ -54723,7 +54711,7 @@
         </is>
       </c>
     </row>
-    <row r="684" hidden="1">
+    <row r="684" ht="16" customHeight="1">
       <c r="A684" s="23" t="n">
         <v>310870</v>
       </c>
@@ -54791,7 +54779,7 @@
         </is>
       </c>
     </row>
-    <row r="685" hidden="1">
+    <row r="685" ht="16" customHeight="1">
       <c r="A685" s="23" t="n">
         <v>3656114</v>
       </c>
@@ -54861,7 +54849,7 @@
         </is>
       </c>
     </row>
-    <row r="686" hidden="1">
+    <row r="686" ht="16" customHeight="1">
       <c r="A686" s="23" t="n">
         <v>2692657</v>
       </c>
@@ -54931,7 +54919,7 @@
         </is>
       </c>
     </row>
-    <row r="687" hidden="1">
+    <row r="687" ht="16" customHeight="1">
       <c r="A687" s="23" t="n">
         <v>310932</v>
       </c>
@@ -55001,7 +54989,7 @@
         </is>
       </c>
     </row>
-    <row r="688" hidden="1">
+    <row r="688" ht="16" customHeight="1">
       <c r="A688" s="23" t="n">
         <v>310933</v>
       </c>
@@ -55071,7 +55059,7 @@
         </is>
       </c>
     </row>
-    <row r="689" hidden="1">
+    <row r="689" ht="16" customHeight="1">
       <c r="A689" s="23" t="n">
         <v>310936</v>
       </c>
@@ -55141,7 +55129,7 @@
         </is>
       </c>
     </row>
-    <row r="690" hidden="1">
+    <row r="690" ht="16" customHeight="1">
       <c r="A690" s="23" t="n">
         <v>310937</v>
       </c>
@@ -55211,7 +55199,7 @@
         </is>
       </c>
     </row>
-    <row r="691" hidden="1">
+    <row r="691" ht="16" customHeight="1">
       <c r="A691" s="23" t="n">
         <v>310938</v>
       </c>
@@ -55281,7 +55269,7 @@
         </is>
       </c>
     </row>
-    <row r="692" hidden="1">
+    <row r="692" ht="16" customHeight="1">
       <c r="A692" s="23" t="n">
         <v>310911</v>
       </c>
@@ -55349,7 +55337,7 @@
         </is>
       </c>
     </row>
-    <row r="693" hidden="1">
+    <row r="693" ht="16" customHeight="1">
       <c r="A693" s="23" t="n">
         <v>310916</v>
       </c>
@@ -55417,7 +55405,7 @@
         </is>
       </c>
     </row>
-    <row r="694" hidden="1">
+    <row r="694" ht="16" customHeight="1">
       <c r="A694" s="23" t="n">
         <v>310917</v>
       </c>
@@ -55485,7 +55473,7 @@
         </is>
       </c>
     </row>
-    <row r="695" hidden="1">
+    <row r="695" ht="16" customHeight="1">
       <c r="A695" s="23" t="n">
         <v>310920</v>
       </c>
@@ -55553,7 +55541,7 @@
         </is>
       </c>
     </row>
-    <row r="696" hidden="1">
+    <row r="696" ht="16" customHeight="1">
       <c r="A696" s="23" t="n">
         <v>310921</v>
       </c>
@@ -55621,7 +55609,7 @@
         </is>
       </c>
     </row>
-    <row r="697" hidden="1">
+    <row r="697" ht="16" customHeight="1">
       <c r="A697" s="23" t="n">
         <v>310922</v>
       </c>
@@ -55689,7 +55677,7 @@
         </is>
       </c>
     </row>
-    <row r="698" hidden="1">
+    <row r="698" ht="16" customHeight="1">
       <c r="A698" s="23" t="n">
         <v>2692644</v>
       </c>
@@ -55759,7 +55747,7 @@
         </is>
       </c>
     </row>
-    <row r="699" hidden="1">
+    <row r="699" ht="16" customHeight="1">
       <c r="A699" s="23" t="n">
         <v>2692647</v>
       </c>
@@ -55829,7 +55817,7 @@
         </is>
       </c>
     </row>
-    <row r="700" hidden="1">
+    <row r="700" ht="16" customHeight="1">
       <c r="A700" s="23" t="n">
         <v>2692656</v>
       </c>
@@ -55899,7 +55887,7 @@
         </is>
       </c>
     </row>
-    <row r="701" hidden="1">
+    <row r="701" ht="16" customHeight="1">
       <c r="A701" s="23" t="n">
         <v>2742623</v>
       </c>
@@ -55969,7 +55957,7 @@
         </is>
       </c>
     </row>
-    <row r="702" hidden="1">
+    <row r="702" ht="16" customHeight="1">
       <c r="A702" s="23" t="n">
         <v>307187</v>
       </c>
@@ -56037,7 +56025,7 @@
         </is>
       </c>
     </row>
-    <row r="703" hidden="1">
+    <row r="703" ht="16" customHeight="1">
       <c r="A703" s="23" t="n">
         <v>310543</v>
       </c>
@@ -56107,7 +56095,7 @@
         </is>
       </c>
     </row>
-    <row r="704" hidden="1">
+    <row r="704" ht="16" customHeight="1">
       <c r="A704" s="23" t="n">
         <v>312827</v>
       </c>
@@ -56175,7 +56163,7 @@
         </is>
       </c>
     </row>
-    <row r="705" hidden="1">
+    <row r="705" ht="16" customHeight="1">
       <c r="A705" s="23" t="n">
         <v>311160</v>
       </c>
@@ -56245,7 +56233,7 @@
         </is>
       </c>
     </row>
-    <row r="706" hidden="1">
+    <row r="706" ht="16" customHeight="1">
       <c r="A706" s="23" t="n">
         <v>311163</v>
       </c>
@@ -56315,7 +56303,7 @@
         </is>
       </c>
     </row>
-    <row r="707" hidden="1">
+    <row r="707" ht="16" customHeight="1">
       <c r="A707" s="23" t="n">
         <v>311162</v>
       </c>
@@ -56385,7 +56373,7 @@
         </is>
       </c>
     </row>
-    <row r="708" hidden="1">
+    <row r="708" ht="16" customHeight="1">
       <c r="A708" s="23" t="n">
         <v>311170</v>
       </c>
@@ -56453,7 +56441,7 @@
         </is>
       </c>
     </row>
-    <row r="709" hidden="1">
+    <row r="709" ht="16" customHeight="1">
       <c r="A709" s="23" t="n">
         <v>2002544</v>
       </c>
@@ -56523,7 +56511,7 @@
         </is>
       </c>
     </row>
-    <row r="710" hidden="1">
+    <row r="710" ht="16" customHeight="1">
       <c r="A710" s="23" t="n">
         <v>3433407</v>
       </c>
@@ -56583,7 +56571,7 @@
         </is>
       </c>
     </row>
-    <row r="711" hidden="1">
+    <row r="711" ht="16" customHeight="1">
       <c r="A711" s="23" t="n">
         <v>3433410</v>
       </c>
@@ -56643,7 +56631,7 @@
         </is>
       </c>
     </row>
-    <row r="712" hidden="1">
+    <row r="712" ht="16" customHeight="1">
       <c r="A712" s="23" t="n">
         <v>3433416</v>
       </c>
@@ -56703,7 +56691,7 @@
         </is>
       </c>
     </row>
-    <row r="713" hidden="1">
+    <row r="713" ht="16" customHeight="1">
       <c r="A713" s="23" t="n">
         <v>3433423</v>
       </c>
@@ -56763,7 +56751,7 @@
         </is>
       </c>
     </row>
-    <row r="714" hidden="1">
+    <row r="714" ht="16" customHeight="1">
       <c r="A714" s="23" t="n">
         <v>3433448</v>
       </c>
@@ -56823,7 +56811,7 @@
         </is>
       </c>
     </row>
-    <row r="715" hidden="1">
+    <row r="715" ht="16" customHeight="1">
       <c r="A715" s="23" t="n">
         <v>3433451</v>
       </c>
@@ -56883,7 +56871,7 @@
         </is>
       </c>
     </row>
-    <row r="716" hidden="1">
+    <row r="716" ht="16" customHeight="1">
       <c r="A716" s="23" t="n">
         <v>2454939</v>
       </c>
@@ -56943,7 +56931,7 @@
         </is>
       </c>
     </row>
-    <row r="717" hidden="1">
+    <row r="717" ht="16" customHeight="1">
       <c r="A717" s="23" t="n">
         <v>2454938</v>
       </c>
@@ -57003,7 +56991,7 @@
         </is>
       </c>
     </row>
-    <row r="718" hidden="1">
+    <row r="718" ht="16" customHeight="1">
       <c r="A718" s="23" t="n">
         <v>2454921</v>
       </c>
@@ -57063,7 +57051,7 @@
         </is>
       </c>
     </row>
-    <row r="719" hidden="1">
+    <row r="719" ht="16" customHeight="1">
       <c r="A719" s="23" t="n">
         <v>2454929</v>
       </c>
@@ -57123,7 +57111,7 @@
         </is>
       </c>
     </row>
-    <row r="720" hidden="1">
+    <row r="720" ht="16" customHeight="1">
       <c r="A720" s="23" t="n">
         <v>2454937</v>
       </c>
@@ -57152,7 +57140,7 @@
       </c>
       <c r="G720" s="24" t="n"/>
       <c r="H720" s="23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I720" s="22" t="inlineStr">
         <is>
@@ -57183,7 +57171,7 @@
         </is>
       </c>
     </row>
-    <row r="721" hidden="1">
+    <row r="721" ht="16" customHeight="1">
       <c r="A721" s="23" t="n">
         <v>4109878</v>
       </c>
@@ -57243,7 +57231,7 @@
         </is>
       </c>
     </row>
-    <row r="722" hidden="1">
+    <row r="722" ht="16" customHeight="1">
       <c r="A722" s="23" t="n">
         <v>4109881</v>
       </c>
@@ -57303,7 +57291,7 @@
         </is>
       </c>
     </row>
-    <row r="723" hidden="1">
+    <row r="723" ht="16" customHeight="1">
       <c r="A723" s="23" t="n">
         <v>4110145</v>
       </c>
@@ -57363,7 +57351,7 @@
         </is>
       </c>
     </row>
-    <row r="724" hidden="1">
+    <row r="724" ht="16" customHeight="1">
       <c r="A724" s="23" t="n">
         <v>4110866</v>
       </c>
@@ -57423,7 +57411,7 @@
         </is>
       </c>
     </row>
-    <row r="725" hidden="1">
+    <row r="725" ht="16" customHeight="1">
       <c r="A725" s="23" t="n">
         <v>4110869</v>
       </c>
@@ -57483,7 +57471,7 @@
         </is>
       </c>
     </row>
-    <row r="726" hidden="1">
+    <row r="726" ht="16" customHeight="1">
       <c r="A726" s="23" t="n">
         <v>4110113</v>
       </c>
@@ -57543,7 +57531,7 @@
         </is>
       </c>
     </row>
-    <row r="727" hidden="1">
+    <row r="727" ht="16" customHeight="1">
       <c r="A727" s="23" t="n">
         <v>4110122</v>
       </c>
@@ -57603,7 +57591,7 @@
         </is>
       </c>
     </row>
-    <row r="728" hidden="1">
+    <row r="728" ht="16" customHeight="1">
       <c r="A728" s="23" t="n">
         <v>4110873</v>
       </c>
@@ -57663,7 +57651,7 @@
         </is>
       </c>
     </row>
-    <row r="729" hidden="1">
+    <row r="729" ht="16" customHeight="1">
       <c r="A729" s="23" t="n">
         <v>4109939</v>
       </c>
@@ -57723,7 +57711,7 @@
         </is>
       </c>
     </row>
-    <row r="730" hidden="1">
+    <row r="730" ht="16" customHeight="1">
       <c r="A730" s="23" t="n">
         <v>3467787</v>
       </c>
@@ -57783,7 +57771,7 @@
         </is>
       </c>
     </row>
-    <row r="731" hidden="1">
+    <row r="731" ht="16" customHeight="1">
       <c r="A731" s="23" t="n">
         <v>2454936</v>
       </c>
@@ -57843,7 +57831,7 @@
         </is>
       </c>
     </row>
-    <row r="732" hidden="1">
+    <row r="732" ht="16" customHeight="1">
       <c r="A732" s="23" t="n">
         <v>50940</v>
       </c>
@@ -57899,7 +57887,7 @@
         </is>
       </c>
     </row>
-    <row r="733" hidden="1">
+    <row r="733" ht="16" customHeight="1">
       <c r="A733" s="23" t="n">
         <v>147359</v>
       </c>
@@ -57957,7 +57945,7 @@
         </is>
       </c>
     </row>
-    <row r="734" hidden="1">
+    <row r="734" ht="16" customHeight="1">
       <c r="A734" s="23" t="n">
         <v>2605235</v>
       </c>
@@ -58015,7 +58003,7 @@
         </is>
       </c>
     </row>
-    <row r="735" hidden="1">
+    <row r="735" ht="16" customHeight="1">
       <c r="A735" s="23" t="n">
         <v>2605236</v>
       </c>
@@ -58073,7 +58061,7 @@
         </is>
       </c>
     </row>
-    <row r="736" hidden="1">
+    <row r="736" ht="16" customHeight="1">
       <c r="A736" s="23" t="n">
         <v>2605237</v>
       </c>
@@ -58131,7 +58119,7 @@
         </is>
       </c>
     </row>
-    <row r="737" hidden="1">
+    <row r="737" ht="16" customHeight="1">
       <c r="A737" s="23" t="n">
         <v>2605238</v>
       </c>
@@ -58189,7 +58177,7 @@
         </is>
       </c>
     </row>
-    <row r="738" hidden="1">
+    <row r="738" ht="16" customHeight="1">
       <c r="A738" s="23" t="n">
         <v>2605230</v>
       </c>
@@ -58247,7 +58235,7 @@
         </is>
       </c>
     </row>
-    <row r="739" hidden="1">
+    <row r="739" ht="16" customHeight="1">
       <c r="A739" s="23" t="n">
         <v>184879</v>
       </c>
@@ -58303,7 +58291,7 @@
         </is>
       </c>
     </row>
-    <row r="740" hidden="1">
+    <row r="740" ht="16" customHeight="1">
       <c r="A740" s="23" t="n">
         <v>184853</v>
       </c>
@@ -58359,7 +58347,7 @@
         </is>
       </c>
     </row>
-    <row r="741" hidden="1">
+    <row r="741" ht="16" customHeight="1">
       <c r="A741" s="23" t="n">
         <v>300110</v>
       </c>
@@ -58417,7 +58405,7 @@
         </is>
       </c>
     </row>
-    <row r="742" hidden="1">
+    <row r="742" ht="16" customHeight="1">
       <c r="A742" s="23" t="n">
         <v>3535821</v>
       </c>
@@ -58479,7 +58467,7 @@
         </is>
       </c>
     </row>
-    <row r="743" hidden="1">
+    <row r="743" ht="16" customHeight="1">
       <c r="A743" s="23" t="n">
         <v>313628</v>
       </c>
@@ -58541,7 +58529,7 @@
         </is>
       </c>
     </row>
-    <row r="744" hidden="1">
+    <row r="744" ht="16" customHeight="1">
       <c r="A744" s="23" t="n">
         <v>313629</v>
       </c>
@@ -58603,7 +58591,7 @@
         </is>
       </c>
     </row>
-    <row r="745" hidden="1">
+    <row r="745" ht="16" customHeight="1">
       <c r="A745" s="23" t="n">
         <v>313630</v>
       </c>
@@ -58665,7 +58653,7 @@
         </is>
       </c>
     </row>
-    <row r="746" hidden="1">
+    <row r="746" ht="16" customHeight="1">
       <c r="A746" s="23" t="n">
         <v>313631</v>
       </c>
@@ -58727,7 +58715,7 @@
         </is>
       </c>
     </row>
-    <row r="747" hidden="1">
+    <row r="747" ht="16" customHeight="1">
       <c r="A747" s="23" t="n">
         <v>313655</v>
       </c>
@@ -58789,7 +58777,7 @@
         </is>
       </c>
     </row>
-    <row r="748" hidden="1">
+    <row r="748" ht="16" customHeight="1">
       <c r="A748" s="23" t="n">
         <v>313656</v>
       </c>
@@ -58851,7 +58839,7 @@
         </is>
       </c>
     </row>
-    <row r="749" hidden="1">
+    <row r="749" ht="16" customHeight="1">
       <c r="A749" s="23" t="n">
         <v>2007387</v>
       </c>
@@ -58913,7 +58901,7 @@
         </is>
       </c>
     </row>
-    <row r="750" hidden="1">
+    <row r="750" ht="16" customHeight="1">
       <c r="A750" s="23" t="n">
         <v>2007388</v>
       </c>
@@ -58975,7 +58963,7 @@
         </is>
       </c>
     </row>
-    <row r="751" hidden="1">
+    <row r="751" ht="16" customHeight="1">
       <c r="A751" s="23" t="n">
         <v>2007390</v>
       </c>
@@ -59037,7 +59025,7 @@
         </is>
       </c>
     </row>
-    <row r="752" hidden="1">
+    <row r="752" ht="16" customHeight="1">
       <c r="A752" s="23" t="n">
         <v>2007391</v>
       </c>
@@ -59099,7 +59087,7 @@
         </is>
       </c>
     </row>
-    <row r="753" hidden="1">
+    <row r="753" ht="16" customHeight="1">
       <c r="A753" s="23" t="n">
         <v>2007392</v>
       </c>
@@ -59161,7 +59149,7 @@
         </is>
       </c>
     </row>
-    <row r="754" hidden="1">
+    <row r="754" ht="16" customHeight="1">
       <c r="A754" s="23" t="n">
         <v>2007393</v>
       </c>
@@ -59223,7 +59211,7 @@
         </is>
       </c>
     </row>
-    <row r="755" hidden="1">
+    <row r="755" ht="16" customHeight="1">
       <c r="A755" s="23" t="n">
         <v>2587184</v>
       </c>
@@ -59285,7 +59273,7 @@
         </is>
       </c>
     </row>
-    <row r="756" hidden="1">
+    <row r="756" ht="16" customHeight="1">
       <c r="A756" s="23" t="n">
         <v>2587185</v>
       </c>
@@ -59347,7 +59335,7 @@
         </is>
       </c>
     </row>
-    <row r="757" hidden="1">
+    <row r="757" ht="16" customHeight="1">
       <c r="A757" s="23" t="n">
         <v>313663</v>
       </c>
@@ -59409,7 +59397,7 @@
         </is>
       </c>
     </row>
-    <row r="758" hidden="1">
+    <row r="758" ht="16" customHeight="1">
       <c r="A758" s="23" t="n">
         <v>313664</v>
       </c>
@@ -59471,7 +59459,7 @@
         </is>
       </c>
     </row>
-    <row r="759" hidden="1">
+    <row r="759" ht="16" customHeight="1">
       <c r="A759" s="23" t="n">
         <v>313666</v>
       </c>
@@ -59533,7 +59521,7 @@
         </is>
       </c>
     </row>
-    <row r="760" hidden="1">
+    <row r="760" ht="16" customHeight="1">
       <c r="A760" s="23" t="n">
         <v>313676</v>
       </c>
@@ -59595,7 +59583,7 @@
         </is>
       </c>
     </row>
-    <row r="761" hidden="1">
+    <row r="761" ht="16" customHeight="1">
       <c r="A761" s="23" t="n">
         <v>313675</v>
       </c>
@@ -59657,7 +59645,7 @@
         </is>
       </c>
     </row>
-    <row r="762" hidden="1">
+    <row r="762" ht="16" customHeight="1">
       <c r="A762" s="23" t="n">
         <v>313667</v>
       </c>
@@ -59719,7 +59707,7 @@
         </is>
       </c>
     </row>
-    <row r="763" hidden="1">
+    <row r="763" ht="16" customHeight="1">
       <c r="A763" s="23" t="n">
         <v>313644</v>
       </c>
@@ -59781,7 +59769,7 @@
         </is>
       </c>
     </row>
-    <row r="764" hidden="1">
+    <row r="764" ht="16" customHeight="1">
       <c r="A764" s="23" t="n">
         <v>313657</v>
       </c>
@@ -59851,7 +59839,7 @@
         </is>
       </c>
     </row>
-    <row r="765" hidden="1">
+    <row r="765" ht="16" customHeight="1">
       <c r="A765" s="23" t="n">
         <v>313658</v>
       </c>
@@ -59921,7 +59909,7 @@
         </is>
       </c>
     </row>
-    <row r="766" hidden="1">
+    <row r="766" ht="16" customHeight="1">
       <c r="A766" s="23" t="n">
         <v>313660</v>
       </c>
@@ -59991,7 +59979,7 @@
         </is>
       </c>
     </row>
-    <row r="767" hidden="1">
+    <row r="767" ht="16" customHeight="1">
       <c r="A767" s="23" t="n">
         <v>313661</v>
       </c>
@@ -60061,7 +60049,7 @@
         </is>
       </c>
     </row>
-    <row r="768" hidden="1">
+    <row r="768" ht="16" customHeight="1">
       <c r="A768" s="23" t="n">
         <v>300394</v>
       </c>
@@ -60131,7 +60119,7 @@
         </is>
       </c>
     </row>
-    <row r="769" hidden="1">
+    <row r="769" ht="16" customHeight="1">
       <c r="A769" s="23" t="n">
         <v>300395</v>
       </c>
@@ -60201,7 +60189,7 @@
         </is>
       </c>
     </row>
-    <row r="770" hidden="1">
+    <row r="770" ht="16" customHeight="1">
       <c r="A770" s="23" t="n">
         <v>300396</v>
       </c>
@@ -60271,7 +60259,7 @@
         </is>
       </c>
     </row>
-    <row r="771" hidden="1">
+    <row r="771" ht="16" customHeight="1">
       <c r="A771" s="23" t="n">
         <v>3347212</v>
       </c>
@@ -60333,7 +60321,7 @@
         </is>
       </c>
     </row>
-    <row r="772" hidden="1">
+    <row r="772" ht="16" customHeight="1">
       <c r="A772" s="23" t="n">
         <v>3347215</v>
       </c>
@@ -60395,7 +60383,7 @@
         </is>
       </c>
     </row>
-    <row r="773" hidden="1">
+    <row r="773" ht="16" customHeight="1">
       <c r="A773" s="23" t="n">
         <v>3347216</v>
       </c>
@@ -60457,7 +60445,7 @@
         </is>
       </c>
     </row>
-    <row r="774" hidden="1">
+    <row r="774" ht="16" customHeight="1">
       <c r="A774" s="23" t="n">
         <v>3347217</v>
       </c>
@@ -60519,7 +60507,7 @@
         </is>
       </c>
     </row>
-    <row r="775" hidden="1">
+    <row r="775" ht="16" customHeight="1">
       <c r="A775" s="23" t="n">
         <v>3347218</v>
       </c>
@@ -60581,7 +60569,7 @@
         </is>
       </c>
     </row>
-    <row r="776" hidden="1">
+    <row r="776" ht="16" customHeight="1">
       <c r="A776" s="23" t="n">
         <v>3347219</v>
       </c>
@@ -60643,7 +60631,7 @@
         </is>
       </c>
     </row>
-    <row r="777" hidden="1">
+    <row r="777" ht="16" customHeight="1">
       <c r="A777" s="23" t="n">
         <v>3347220</v>
       </c>
@@ -60705,7 +60693,7 @@
         </is>
       </c>
     </row>
-    <row r="778" hidden="1">
+    <row r="778" ht="16" customHeight="1">
       <c r="A778" s="23" t="n">
         <v>3347222</v>
       </c>
@@ -60767,7 +60755,7 @@
         </is>
       </c>
     </row>
-    <row r="779" hidden="1">
+    <row r="779" ht="16" customHeight="1">
       <c r="A779" s="23" t="n">
         <v>3347224</v>
       </c>
@@ -60829,7 +60817,7 @@
         </is>
       </c>
     </row>
-    <row r="780" hidden="1">
+    <row r="780" ht="16" customHeight="1">
       <c r="A780" s="23" t="n">
         <v>3502181</v>
       </c>
@@ -60891,7 +60879,7 @@
         </is>
       </c>
     </row>
-    <row r="781" hidden="1">
+    <row r="781" ht="16" customHeight="1">
       <c r="A781" s="23" t="n">
         <v>3502186</v>
       </c>
@@ -60953,7 +60941,7 @@
         </is>
       </c>
     </row>
-    <row r="782" hidden="1">
+    <row r="782" ht="16" customHeight="1">
       <c r="A782" s="23" t="n">
         <v>3707429</v>
       </c>
@@ -61015,7 +61003,7 @@
         </is>
       </c>
     </row>
-    <row r="783" hidden="1">
+    <row r="783" ht="16" customHeight="1">
       <c r="A783" s="23" t="n">
         <v>3502188</v>
       </c>
@@ -61077,7 +61065,7 @@
         </is>
       </c>
     </row>
-    <row r="784" hidden="1">
+    <row r="784" ht="16" customHeight="1">
       <c r="A784" s="23" t="n">
         <v>3502190</v>
       </c>
@@ -61139,7 +61127,7 @@
         </is>
       </c>
     </row>
-    <row r="785" hidden="1">
+    <row r="785" ht="16" customHeight="1">
       <c r="A785" s="23" t="n">
         <v>3707421</v>
       </c>
@@ -61201,7 +61189,7 @@
         </is>
       </c>
     </row>
-    <row r="786" hidden="1">
+    <row r="786" ht="16" customHeight="1">
       <c r="A786" s="23" t="n">
         <v>3707423</v>
       </c>
@@ -61263,7 +61251,7 @@
         </is>
       </c>
     </row>
-    <row r="787" hidden="1">
+    <row r="787" ht="16" customHeight="1">
       <c r="A787" s="23" t="n">
         <v>3707425</v>
       </c>
@@ -61325,7 +61313,7 @@
         </is>
       </c>
     </row>
-    <row r="788" hidden="1">
+    <row r="788" ht="16" customHeight="1">
       <c r="A788" s="23" t="n">
         <v>2392346</v>
       </c>
@@ -61387,7 +61375,7 @@
         </is>
       </c>
     </row>
-    <row r="789" hidden="1">
+    <row r="789" ht="16" customHeight="1">
       <c r="A789" s="23" t="n">
         <v>2392351</v>
       </c>
@@ -61449,7 +61437,7 @@
         </is>
       </c>
     </row>
-    <row r="790" hidden="1">
+    <row r="790" ht="16" customHeight="1">
       <c r="A790" s="23" t="n">
         <v>2392356</v>
       </c>
@@ -61511,7 +61499,7 @@
         </is>
       </c>
     </row>
-    <row r="791" hidden="1">
+    <row r="791" ht="16" customHeight="1">
       <c r="A791" s="23" t="n">
         <v>3707422</v>
       </c>
@@ -61573,7 +61561,7 @@
         </is>
       </c>
     </row>
-    <row r="792" hidden="1">
+    <row r="792" ht="16" customHeight="1">
       <c r="A792" s="23" t="n">
         <v>3707416</v>
       </c>
@@ -61635,7 +61623,7 @@
         </is>
       </c>
     </row>
-    <row r="793" hidden="1">
+    <row r="793" ht="16" customHeight="1">
       <c r="A793" s="23" t="n">
         <v>3707418</v>
       </c>
@@ -61697,7 +61685,7 @@
         </is>
       </c>
     </row>
-    <row r="794" hidden="1">
+    <row r="794" ht="16" customHeight="1">
       <c r="A794" s="23" t="n">
         <v>340054</v>
       </c>
@@ -61759,7 +61747,7 @@
         </is>
       </c>
     </row>
-    <row r="795" hidden="1">
+    <row r="795" ht="16" customHeight="1">
       <c r="A795" s="23" t="n">
         <v>69606</v>
       </c>
@@ -61821,7 +61809,7 @@
         </is>
       </c>
     </row>
-    <row r="796" hidden="1">
+    <row r="796" ht="16" customHeight="1">
       <c r="A796" s="23" t="n">
         <v>69601</v>
       </c>
@@ -61883,7 +61871,7 @@
         </is>
       </c>
     </row>
-    <row r="797" hidden="1">
+    <row r="797" ht="16" customHeight="1">
       <c r="A797" s="23" t="n">
         <v>69596</v>
       </c>
@@ -61945,7 +61933,7 @@
         </is>
       </c>
     </row>
-    <row r="798" hidden="1">
+    <row r="798" ht="16" customHeight="1">
       <c r="A798" s="23" t="n">
         <v>69604</v>
       </c>
@@ -62007,7 +61995,7 @@
         </is>
       </c>
     </row>
-    <row r="799" hidden="1">
+    <row r="799" ht="16" customHeight="1">
       <c r="A799" s="23" t="n">
         <v>69594</v>
       </c>
@@ -62069,7 +62057,7 @@
         </is>
       </c>
     </row>
-    <row r="800" hidden="1">
+    <row r="800" ht="16" customHeight="1">
       <c r="A800" s="23" t="n">
         <v>69603</v>
       </c>
@@ -62131,7 +62119,7 @@
         </is>
       </c>
     </row>
-    <row r="801" hidden="1">
+    <row r="801" ht="16" customHeight="1">
       <c r="A801" s="23" t="n">
         <v>313060</v>
       </c>
@@ -62193,7 +62181,7 @@
         </is>
       </c>
     </row>
-    <row r="802" hidden="1">
+    <row r="802" ht="16" customHeight="1">
       <c r="A802" s="23" t="n">
         <v>313061</v>
       </c>
@@ -62255,7 +62243,7 @@
         </is>
       </c>
     </row>
-    <row r="803" hidden="1">
+    <row r="803" ht="16" customHeight="1">
       <c r="A803" s="23" t="n">
         <v>313062</v>
       </c>
@@ -62317,7 +62305,7 @@
         </is>
       </c>
     </row>
-    <row r="804" hidden="1">
+    <row r="804" ht="16" customHeight="1">
       <c r="A804" s="23" t="n">
         <v>69575</v>
       </c>
@@ -62379,7 +62367,7 @@
         </is>
       </c>
     </row>
-    <row r="805" hidden="1">
+    <row r="805" ht="16" customHeight="1">
       <c r="A805" s="23" t="n">
         <v>69565</v>
       </c>
@@ -62441,7 +62429,7 @@
         </is>
       </c>
     </row>
-    <row r="806" hidden="1">
+    <row r="806" ht="16" customHeight="1">
       <c r="A806" s="23" t="n">
         <v>313066</v>
       </c>
@@ -62503,7 +62491,7 @@
         </is>
       </c>
     </row>
-    <row r="807" hidden="1">
+    <row r="807" ht="16" customHeight="1">
       <c r="A807" s="23" t="n">
         <v>313068</v>
       </c>
@@ -62565,7 +62553,7 @@
         </is>
       </c>
     </row>
-    <row r="808" hidden="1">
+    <row r="808" ht="16" customHeight="1">
       <c r="A808" s="23" t="n">
         <v>3707461</v>
       </c>
@@ -62627,7 +62615,7 @@
         </is>
       </c>
     </row>
-    <row r="809" hidden="1">
+    <row r="809" ht="16" customHeight="1">
       <c r="A809" s="23" t="n">
         <v>3707463</v>
       </c>
@@ -62689,7 +62677,7 @@
         </is>
       </c>
     </row>
-    <row r="810" hidden="1">
+    <row r="810" ht="16" customHeight="1">
       <c r="A810" s="23" t="n">
         <v>3294300</v>
       </c>
@@ -62751,7 +62739,7 @@
         </is>
       </c>
     </row>
-    <row r="811" hidden="1">
+    <row r="811" ht="16" customHeight="1">
       <c r="A811" s="23" t="n">
         <v>300450</v>
       </c>
@@ -62813,7 +62801,7 @@
         </is>
       </c>
     </row>
-    <row r="812" hidden="1">
+    <row r="812" ht="16" customHeight="1">
       <c r="A812" s="23" t="n">
         <v>300452</v>
       </c>
@@ -62875,7 +62863,7 @@
         </is>
       </c>
     </row>
-    <row r="813" hidden="1">
+    <row r="813" ht="16" customHeight="1">
       <c r="A813" s="23" t="n">
         <v>300453</v>
       </c>
@@ -62937,7 +62925,7 @@
         </is>
       </c>
     </row>
-    <row r="814" hidden="1">
+    <row r="814" ht="16" customHeight="1">
       <c r="A814" s="23" t="n">
         <v>4109848</v>
       </c>
@@ -62999,7 +62987,7 @@
         </is>
       </c>
     </row>
-    <row r="815" hidden="1">
+    <row r="815" ht="16" customHeight="1">
       <c r="A815" s="23" t="n">
         <v>351301506005</v>
       </c>
@@ -63069,7 +63057,7 @@
         </is>
       </c>
     </row>
-    <row r="816" hidden="1">
+    <row r="816" ht="16" customHeight="1">
       <c r="A816" s="23" t="n">
         <v>351301506006</v>
       </c>
@@ -63139,7 +63127,7 @@
         </is>
       </c>
     </row>
-    <row r="817" hidden="1">
+    <row r="817" ht="16" customHeight="1">
       <c r="A817" s="23" t="n">
         <v>3758110</v>
       </c>
@@ -63201,7 +63189,7 @@
         </is>
       </c>
     </row>
-    <row r="818" hidden="1">
+    <row r="818" ht="16" customHeight="1">
       <c r="A818" s="23" t="n">
         <v>3023431</v>
       </c>
@@ -63263,207 +63251,128 @@
         </is>
       </c>
     </row>
-    <row r="819" hidden="1" ht="15.75" customHeight="1"/>
-    <row r="820" hidden="1">
+    <row r="820" ht="16" customHeight="1">
       <c r="M820" s="24" t="n"/>
     </row>
-    <row r="821" hidden="1">
+    <row r="821" ht="16" customHeight="1">
       <c r="M821" s="24" t="n"/>
     </row>
-    <row r="822" hidden="1">
+    <row r="822" ht="16" customHeight="1">
       <c r="M822" s="24" t="n"/>
     </row>
-    <row r="823" hidden="1">
+    <row r="823" ht="16" customHeight="1">
       <c r="M823" s="24" t="n"/>
     </row>
-    <row r="824" hidden="1">
+    <row r="824" ht="16" customHeight="1">
       <c r="M824" s="24" t="n"/>
     </row>
-    <row r="825" hidden="1">
+    <row r="825" ht="16" customHeight="1">
       <c r="M825" s="24" t="n"/>
     </row>
-    <row r="826" hidden="1">
+    <row r="826" ht="16" customHeight="1">
       <c r="M826" s="24" t="n"/>
     </row>
-    <row r="827" hidden="1">
+    <row r="827" ht="16" customHeight="1">
       <c r="M827" s="24" t="n"/>
     </row>
-    <row r="828" hidden="1">
+    <row r="828" ht="16" customHeight="1">
       <c r="M828" s="24" t="n"/>
     </row>
-    <row r="829" hidden="1">
+    <row r="829" ht="16" customHeight="1">
       <c r="M829" s="24" t="n"/>
     </row>
-    <row r="830" hidden="1">
+    <row r="830" ht="16" customHeight="1">
       <c r="M830" s="24" t="n"/>
     </row>
-    <row r="831" hidden="1">
+    <row r="831" ht="16" customHeight="1">
       <c r="M831" s="24" t="n"/>
     </row>
-    <row r="832" hidden="1">
+    <row r="832" ht="16" customHeight="1">
       <c r="M832" s="24" t="n"/>
     </row>
-    <row r="833" hidden="1">
+    <row r="833" ht="16" customHeight="1">
       <c r="M833" s="24" t="n"/>
     </row>
-    <row r="834" hidden="1">
+    <row r="834" ht="16" customHeight="1">
       <c r="M834" s="24" t="n"/>
     </row>
-    <row r="835" hidden="1">
+    <row r="835" ht="16" customHeight="1">
       <c r="M835" s="24" t="n"/>
     </row>
-    <row r="836" hidden="1">
+    <row r="836" ht="16" customHeight="1">
       <c r="M836" s="24" t="n"/>
     </row>
-    <row r="837" hidden="1">
+    <row r="837" ht="16" customHeight="1">
       <c r="M837" s="24" t="n"/>
     </row>
-    <row r="838" hidden="1">
+    <row r="838" ht="16" customHeight="1">
       <c r="M838" s="24" t="n"/>
     </row>
-    <row r="839" hidden="1">
+    <row r="839" ht="16" customHeight="1">
       <c r="M839" s="24" t="n"/>
     </row>
-    <row r="840" hidden="1">
+    <row r="840" ht="16" customHeight="1">
       <c r="M840" s="24" t="n"/>
     </row>
-    <row r="841" hidden="1">
+    <row r="841" ht="16" customHeight="1">
       <c r="M841" s="24" t="n"/>
     </row>
-    <row r="842" hidden="1">
+    <row r="842" ht="16" customHeight="1">
       <c r="M842" s="24" t="n"/>
     </row>
-    <row r="843" hidden="1">
+    <row r="843" ht="16" customHeight="1">
       <c r="M843" s="24" t="n"/>
     </row>
-    <row r="844" hidden="1">
+    <row r="844" ht="16" customHeight="1">
       <c r="M844" s="24" t="n"/>
     </row>
-    <row r="845" hidden="1">
+    <row r="845" ht="16" customHeight="1">
       <c r="M845" s="24" t="n"/>
     </row>
-    <row r="846" hidden="1">
+    <row r="846" ht="16" customHeight="1">
       <c r="M846" s="24" t="n"/>
     </row>
-    <row r="847" hidden="1">
+    <row r="847" ht="16" customHeight="1">
       <c r="M847" s="24" t="n"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="23" t="n">
-        <v>3502096</v>
-      </c>
-      <c r="B848" s="22" t="inlineStr">
-        <is>
-          <t>Клюшка для бенди муж.</t>
-        </is>
-      </c>
-      <c r="C848" s="22" t="inlineStr">
-        <is>
-          <t>тест</t>
-        </is>
-      </c>
-      <c r="D848" s="23" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E848" s="23" t="inlineStr">
-        <is>
-          <t>6 590,00 ₽</t>
-        </is>
-      </c>
-      <c r="F848" s="23" t="inlineStr">
-        <is>
-          <t>5 601,50 ₽</t>
-        </is>
-      </c>
+      <c r="A848" s="23" t="n"/>
+      <c r="B848" s="22" t="n"/>
+      <c r="C848" s="22" t="n"/>
+      <c r="D848" s="23" t="n"/>
+      <c r="E848" s="23" t="n"/>
+      <c r="F848" s="23" t="n"/>
       <c r="G848" s="24" t="n"/>
-      <c r="H848" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="I848" s="22" t="inlineStr">
-        <is>
-          <t>Бенди</t>
-        </is>
-      </c>
+      <c r="H848" s="23" t="n"/>
+      <c r="I848" s="22" t="n"/>
       <c r="J848" s="22" t="n"/>
       <c r="K848" s="24" t="n"/>
-      <c r="L848" s="24" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
+      <c r="L848" s="24" t="n"/>
       <c r="M848" s="24" t="n"/>
       <c r="N848" s="24" t="n"/>
       <c r="O848" s="24" t="n"/>
-      <c r="P848" s="12" t="inlineStr">
-        <is>
-          <t>Оригинал</t>
-        </is>
-      </c>
+      <c r="P848" s="12" t="n"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="23" t="n">
-        <v>3502096</v>
-      </c>
-      <c r="B849" s="22" t="inlineStr">
-        <is>
-          <t>тест</t>
-        </is>
-      </c>
-      <c r="C849" s="22" t="inlineStr">
-        <is>
-          <t>тест</t>
-        </is>
-      </c>
-      <c r="D849" s="23" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E849" s="23" t="inlineStr">
-        <is>
-          <t>6 590,00 ₽</t>
-        </is>
-      </c>
-      <c r="F849" s="23" t="inlineStr">
-        <is>
-          <t>5 601,50 ₽</t>
-        </is>
-      </c>
+      <c r="A849" s="23" t="n"/>
+      <c r="B849" s="22" t="n"/>
+      <c r="C849" s="22" t="n"/>
+      <c r="D849" s="23" t="n"/>
+      <c r="E849" s="23" t="n"/>
+      <c r="F849" s="23" t="n"/>
       <c r="G849" s="24" t="n"/>
-      <c r="H849" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="I849" s="22" t="inlineStr">
-        <is>
-          <t>Бенди</t>
-        </is>
-      </c>
+      <c r="H849" s="23" t="n"/>
+      <c r="I849" s="22" t="n"/>
       <c r="J849" s="22" t="n"/>
       <c r="K849" s="24" t="n"/>
-      <c r="L849" s="24" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
+      <c r="L849" s="24" t="n"/>
       <c r="M849" s="24" t="n"/>
       <c r="N849" s="24" t="n"/>
       <c r="O849" s="24" t="n"/>
-      <c r="P849" s="12" t="inlineStr">
-        <is>
-          <t>Оригинал</t>
-        </is>
-      </c>
+      <c r="P849" s="12" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T848">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Бенди"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T848"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K3" r:id="rId2"/>
@@ -64760,13 +64669,16 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col width="17" bestFit="1" customWidth="1" style="31" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -64774,28 +64686,36 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BANDY STICK SR</t>
+          <t>HG Rink CCM Bk/Bk S/12"</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>3656196</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+        <v>300305</v>
+      </c>
+      <c r="D1" t="n">
+        <v>12</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>6 111,50 ₽</t>
+          <t>3 287,50 ₽</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="G1" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
           <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
         </is>
       </c>
     </row>
@@ -64805,28 +64725,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BANDY STICK SR</t>
+          <t>SK BANDY TITANIUM 3 JR D 4.0D</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3656196</v>
+        <v>2990503</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>4.0D</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6 111,50 ₽</t>
+          <t>13 750,00 ₽</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
         </is>
       </c>
     </row>
@@ -64836,28 +64761,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BANDY STICK SR</t>
+          <t>BP Cover CCM 8K Rd S</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3502095</v>
+        <v>315347</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6 111,50 ₽</t>
+          <t>2 975,00 ₽</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
         </is>
       </c>
     </row>
@@ -64867,28 +64797,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BANDY STICK SR</t>
+          <t>BP Girdle CCM 4K Bk160</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3502095</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>315300</v>
+      </c>
+      <c r="D4" t="n">
+        <v>160</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6 111,50 ₽</t>
+          <t>3 950,00 ₽</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
         </is>
       </c>
     </row>
@@ -64898,181 +64836,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>тест</t>
+          <t>BP Girdle CCM 4K Bk160</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3502096</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
+        <v>315300</v>
+      </c>
+      <c r="D5" t="n">
+        <v>160</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5 601,50 ₽</t>
+          <t>3 950,00 ₽</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>тест</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3502096</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5 601,50 ₽</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>24</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BANDY STICK JR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3502096</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5 601,50 ₽</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>24</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BANDY STICK SR</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3656196</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6 111,50 ₽</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>45</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BANDY STICK SR</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3502095</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6 111,50 ₽</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>19</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>тест</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3502096</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5 601,50 ₽</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>24</v>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>89266407768</t>
         </is>

--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="заявки" sheetId="1" state="visible" r:id="rId1"/>
@@ -497,7 +497,7 @@
       <selection activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="17.19921875" customWidth="1" min="1" max="1"/>
     <col width="18.59765625" customWidth="1" min="2" max="2"/>
@@ -12541,21 +12541,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:P849"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C850" sqref="C850"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="19.59765625" customWidth="1" min="1" max="1"/>
     <col width="30.19921875" customWidth="1" min="2" max="2"/>
-    <col width="22.3984375" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
     <col width="20.3984375" customWidth="1" min="5" max="5"/>
     <col width="18.796875" customWidth="1" min="6" max="7"/>
     <col width="16.3984375" customWidth="1" min="8" max="8"/>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" hidden="1" ht="16" customHeight="1">
       <c r="A2" s="23" t="n">
         <v>352675</v>
       </c>
@@ -12707,7 +12707,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" hidden="1" ht="16" customHeight="1">
       <c r="A3" s="23" t="n">
         <v>3639013</v>
       </c>
@@ -12769,7 +12769,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" hidden="1" ht="16" customHeight="1">
       <c r="A4" s="23" t="n">
         <v>3639014</v>
       </c>
@@ -12831,7 +12831,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" hidden="1" ht="16" customHeight="1">
       <c r="A5" s="23" t="n">
         <v>3690615</v>
       </c>
@@ -12893,7 +12893,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" hidden="1" ht="16" customHeight="1">
       <c r="A6" s="23" t="n">
         <v>302699</v>
       </c>
@@ -12959,7 +12959,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" hidden="1" ht="16" customHeight="1">
       <c r="A7" s="23" t="n">
         <v>302697</v>
       </c>
@@ -13025,7 +13025,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" hidden="1" ht="16" customHeight="1">
       <c r="A8" s="23" t="n">
         <v>302703</v>
       </c>
@@ -13060,7 +13060,7 @@
         </is>
       </c>
       <c r="H8" s="23" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I8" s="22" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" hidden="1" ht="16" customHeight="1">
       <c r="A9" s="23" t="n">
         <v>89749</v>
       </c>
@@ -13157,7 +13157,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" hidden="1" ht="16" customHeight="1">
       <c r="A10" s="23" t="n">
         <v>80559</v>
       </c>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
+    <row r="11" hidden="1" ht="16" customHeight="1">
       <c r="A11" s="23" t="n">
         <v>199503</v>
       </c>
@@ -13281,7 +13281,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" hidden="1" ht="16" customHeight="1">
       <c r="A12" s="23" t="n">
         <v>465003400</v>
       </c>
@@ -13343,7 +13343,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
+    <row r="13" hidden="1" ht="16" customHeight="1">
       <c r="A13" s="23" t="n">
         <v>465002700</v>
       </c>
@@ -13409,7 +13409,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row r="14" hidden="1" ht="16" customHeight="1">
       <c r="A14" s="23" t="n">
         <v>465003200</v>
       </c>
@@ -13471,7 +13471,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="1">
+    <row r="15" hidden="1" ht="16" customHeight="1">
       <c r="A15" s="23" t="n">
         <v>465002900</v>
       </c>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
+    <row r="16" hidden="1" ht="16" customHeight="1">
       <c r="A16" s="23" t="n">
         <v>3023428</v>
       </c>
@@ -13591,7 +13591,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="16" customHeight="1">
+    <row r="17" hidden="1" ht="16" customHeight="1">
       <c r="A17" s="23" t="n">
         <v>3023429</v>
       </c>
@@ -13649,7 +13649,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
+    <row r="18" hidden="1" ht="16" customHeight="1">
       <c r="A18" s="23" t="n">
         <v>301249</v>
       </c>
@@ -13707,7 +13707,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1">
+    <row r="19" hidden="1" ht="16" customHeight="1">
       <c r="A19" s="23" t="n">
         <v>301250</v>
       </c>
@@ -13765,7 +13765,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" hidden="1" ht="16" customHeight="1">
       <c r="A20" s="23" t="n">
         <v>302718</v>
       </c>
@@ -13823,7 +13823,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="16" customHeight="1">
+    <row r="21" hidden="1" ht="16" customHeight="1">
       <c r="A21" s="23" t="n">
         <v>302708</v>
       </c>
@@ -13881,7 +13881,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="16" customHeight="1">
+    <row r="22" hidden="1" ht="16" customHeight="1">
       <c r="A22" s="23" t="n">
         <v>302712</v>
       </c>
@@ -13939,7 +13939,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" hidden="1" ht="16" customHeight="1">
       <c r="A23" s="23" t="n">
         <v>302707</v>
       </c>
@@ -13997,7 +13997,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" hidden="1" ht="16" customHeight="1">
       <c r="A24" s="23" t="n">
         <v>240486</v>
       </c>
@@ -14055,7 +14055,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" hidden="1" ht="16" customHeight="1">
       <c r="A25" s="23" t="n">
         <v>302714</v>
       </c>
@@ -14113,7 +14113,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="16" customHeight="1">
+    <row r="26" hidden="1" ht="16" customHeight="1">
       <c r="A26" s="23" t="n">
         <v>80495</v>
       </c>
@@ -14169,7 +14169,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" hidden="1" ht="16" customHeight="1">
       <c r="A27" s="23" t="n">
         <v>2025990</v>
       </c>
@@ -14225,7 +14225,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" hidden="1" ht="16" customHeight="1">
       <c r="A28" s="23" t="n">
         <v>2026006</v>
       </c>
@@ -14281,7 +14281,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row r="29" hidden="1" ht="16" customHeight="1">
       <c r="A29" s="23" t="n">
         <v>2360007</v>
       </c>
@@ -14339,7 +14339,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" hidden="1" ht="16" customHeight="1">
       <c r="A30" s="23" t="n">
         <v>2360008</v>
       </c>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" hidden="1" ht="16" customHeight="1">
       <c r="A31" s="23" t="n">
         <v>2360012</v>
       </c>
@@ -14455,7 +14455,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row r="32" hidden="1" ht="16" customHeight="1">
       <c r="A32" s="23" t="n">
         <v>2360013</v>
       </c>
@@ -14513,7 +14513,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="16" customHeight="1">
+    <row r="33" hidden="1" ht="16" customHeight="1">
       <c r="A33" s="23" t="n">
         <v>2360014</v>
       </c>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row r="34" hidden="1" ht="16" customHeight="1">
       <c r="A34" s="23" t="n">
         <v>2360016</v>
       </c>
@@ -14629,7 +14629,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="16" customHeight="1">
+    <row r="35" hidden="1" ht="16" customHeight="1">
       <c r="A35" s="23" t="n">
         <v>2344177</v>
       </c>
@@ -14687,7 +14687,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="16" customHeight="1">
+    <row r="36" hidden="1" ht="16" customHeight="1">
       <c r="A36" s="23" t="n">
         <v>2344178</v>
       </c>
@@ -14745,7 +14745,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="16" customHeight="1">
+    <row r="37" hidden="1" ht="16" customHeight="1">
       <c r="A37" s="23" t="n">
         <v>2344179</v>
       </c>
@@ -14803,7 +14803,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="16" customHeight="1">
+    <row r="38" hidden="1" ht="16" customHeight="1">
       <c r="A38" s="23" t="n">
         <v>2344180</v>
       </c>
@@ -14861,7 +14861,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="16" customHeight="1">
+    <row r="39" hidden="1" ht="16" customHeight="1">
       <c r="A39" s="23" t="n">
         <v>2344181</v>
       </c>
@@ -14919,7 +14919,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="16" customHeight="1">
+    <row r="40" hidden="1" ht="16" customHeight="1">
       <c r="A40" s="23" t="n">
         <v>3621534</v>
       </c>
@@ -14977,7 +14977,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="16" customHeight="1">
+    <row r="41" hidden="1" ht="16" customHeight="1">
       <c r="A41" s="23" t="n">
         <v>3450518</v>
       </c>
@@ -15035,7 +15035,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="16" customHeight="1">
+    <row r="42" hidden="1" ht="16" customHeight="1">
       <c r="A42" s="23" t="n">
         <v>3450526</v>
       </c>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="16" customHeight="1">
+    <row r="43" hidden="1" ht="16" customHeight="1">
       <c r="A43" s="23" t="n">
         <v>3450527</v>
       </c>
@@ -15151,7 +15151,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="16" customHeight="1">
+    <row r="44" hidden="1" ht="16" customHeight="1">
       <c r="A44" s="23" t="n">
         <v>3450524</v>
       </c>
@@ -15209,7 +15209,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="16" customHeight="1">
+    <row r="45" hidden="1" ht="16" customHeight="1">
       <c r="A45" s="23" t="n">
         <v>3450521</v>
       </c>
@@ -15267,7 +15267,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="16" customHeight="1">
+    <row r="46" hidden="1" ht="16" customHeight="1">
       <c r="A46" s="23" t="n">
         <v>2552993</v>
       </c>
@@ -15325,7 +15325,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="16" customHeight="1">
+    <row r="47" hidden="1" ht="16" customHeight="1">
       <c r="A47" s="23" t="n">
         <v>240486</v>
       </c>
@@ -15383,7 +15383,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="16" customHeight="1">
+    <row r="48" hidden="1" ht="16" customHeight="1">
       <c r="A48" s="23" t="n">
         <v>301600</v>
       </c>
@@ -15441,7 +15441,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="16" customHeight="1">
+    <row r="49" hidden="1" ht="16" customHeight="1">
       <c r="A49" s="23" t="n">
         <v>301599</v>
       </c>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="16" customHeight="1">
+    <row r="50" hidden="1" ht="16" customHeight="1">
       <c r="A50" s="23" t="n">
         <v>2028380</v>
       </c>
@@ -15559,7 +15559,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="16" customHeight="1">
+    <row r="51" hidden="1" ht="16" customHeight="1">
       <c r="A51" s="23" t="n">
         <v>2028381</v>
       </c>
@@ -15619,7 +15619,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="16" customHeight="1">
+    <row r="52" hidden="1" ht="16" customHeight="1">
       <c r="A52" s="23" t="n">
         <v>2028382</v>
       </c>
@@ -15679,7 +15679,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="16" customHeight="1">
+    <row r="53" hidden="1" ht="16" customHeight="1">
       <c r="A53" s="23" t="n">
         <v>2074379</v>
       </c>
@@ -15743,7 +15743,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="16" customHeight="1">
+    <row r="54" hidden="1" ht="16" customHeight="1">
       <c r="A54" s="23" t="n">
         <v>61320</v>
       </c>
@@ -15809,7 +15809,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="16" customHeight="1">
+    <row r="55" hidden="1" ht="16" customHeight="1">
       <c r="A55" s="23" t="n">
         <v>61323</v>
       </c>
@@ -15875,7 +15875,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="16" customHeight="1">
+    <row r="56" hidden="1" ht="16" customHeight="1">
       <c r="A56" s="23" t="n">
         <v>61324</v>
       </c>
@@ -15941,7 +15941,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="16" customHeight="1">
+    <row r="57" hidden="1" ht="16" customHeight="1">
       <c r="A57" s="23" t="n">
         <v>61325</v>
       </c>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="16" customHeight="1">
+    <row r="58" hidden="1" ht="16" customHeight="1">
       <c r="A58" s="23" t="n">
         <v>61332</v>
       </c>
@@ -16073,7 +16073,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="16" customHeight="1">
+    <row r="59" hidden="1" ht="16" customHeight="1">
       <c r="A59" s="23" t="n">
         <v>2000813</v>
       </c>
@@ -16137,7 +16137,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="16" customHeight="1">
+    <row r="60" hidden="1" ht="16" customHeight="1">
       <c r="A60" s="23" t="n">
         <v>195594</v>
       </c>
@@ -16203,7 +16203,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="16" customHeight="1">
+    <row r="61" hidden="1" ht="16" customHeight="1">
       <c r="A61" s="23" t="n">
         <v>195598</v>
       </c>
@@ -16269,7 +16269,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="16" customHeight="1">
+    <row r="62" hidden="1" ht="16" customHeight="1">
       <c r="A62" s="23" t="n">
         <v>61296</v>
       </c>
@@ -16335,7 +16335,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="16" customHeight="1">
+    <row r="63" hidden="1" ht="16" customHeight="1">
       <c r="A63" s="23" t="n">
         <v>61298</v>
       </c>
@@ -16401,7 +16401,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="16" customHeight="1">
+    <row r="64" hidden="1" ht="16" customHeight="1">
       <c r="A64" s="23" t="n">
         <v>61301</v>
       </c>
@@ -16467,7 +16467,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="16" customHeight="1">
+    <row r="65" hidden="1" ht="16" customHeight="1">
       <c r="A65" s="23" t="n">
         <v>61302</v>
       </c>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="16" customHeight="1">
+    <row r="66" hidden="1" ht="16" customHeight="1">
       <c r="A66" s="23" t="n">
         <v>61305</v>
       </c>
@@ -16599,7 +16599,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="16" customHeight="1">
+    <row r="67" hidden="1" ht="16" customHeight="1">
       <c r="A67" s="23" t="n">
         <v>318515</v>
       </c>
@@ -16663,7 +16663,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="16" customHeight="1">
+    <row r="68" hidden="1" ht="16" customHeight="1">
       <c r="A68" s="23" t="n">
         <v>305274</v>
       </c>
@@ -16725,7 +16725,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="16" customHeight="1">
+    <row r="69" hidden="1" ht="16" customHeight="1">
       <c r="A69" s="23" t="n">
         <v>327486</v>
       </c>
@@ -16791,7 +16791,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="16" customHeight="1">
+    <row r="70" hidden="1" ht="16" customHeight="1">
       <c r="A70" s="23" t="n">
         <v>2079430</v>
       </c>
@@ -16849,7 +16849,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="16" customHeight="1">
+    <row r="71" hidden="1" ht="16" customHeight="1">
       <c r="A71" s="23" t="n">
         <v>2026810</v>
       </c>
@@ -16907,7 +16907,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="16" customHeight="1">
+    <row r="72" hidden="1" ht="16" customHeight="1">
       <c r="A72" s="23" t="n">
         <v>4441500</v>
       </c>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="16" customHeight="1">
+    <row r="73" hidden="1" ht="16" customHeight="1">
       <c r="A73" s="23" t="n">
         <v>4441502</v>
       </c>
@@ -17023,7 +17023,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="16" customHeight="1">
+    <row r="74" hidden="1" ht="16" customHeight="1">
       <c r="A74" s="23" t="n">
         <v>4441511</v>
       </c>
@@ -17081,7 +17081,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="16" customHeight="1">
+    <row r="75" hidden="1" ht="16" customHeight="1">
       <c r="A75" s="23" t="n">
         <v>4441514</v>
       </c>
@@ -17139,7 +17139,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="16" customHeight="1">
+    <row r="76" hidden="1" ht="16" customHeight="1">
       <c r="A76" s="23" t="n">
         <v>4441515</v>
       </c>
@@ -17197,7 +17197,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="16" customHeight="1">
+    <row r="77" hidden="1" ht="16" customHeight="1">
       <c r="A77" s="23" t="n">
         <v>4441516</v>
       </c>
@@ -17255,7 +17255,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="16" customHeight="1">
+    <row r="78" hidden="1" ht="16" customHeight="1">
       <c r="A78" s="23" t="n">
         <v>4441520</v>
       </c>
@@ -17313,7 +17313,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="16" customHeight="1">
+    <row r="79" hidden="1" ht="16" customHeight="1">
       <c r="A79" s="23" t="n">
         <v>4441522</v>
       </c>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="16" customHeight="1">
+    <row r="80" hidden="1" ht="16" customHeight="1">
       <c r="A80" s="23" t="n">
         <v>4441538</v>
       </c>
@@ -17491,7 +17491,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="16" customHeight="1">
+    <row r="82" hidden="1" ht="16" customHeight="1">
       <c r="A82" s="23" t="n">
         <v>79762</v>
       </c>
@@ -17553,7 +17553,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="16" customHeight="1">
+    <row r="83" hidden="1" ht="16" customHeight="1">
       <c r="A83" s="23" t="n">
         <v>307015</v>
       </c>
@@ -17615,7 +17615,7 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="16" customHeight="1">
+    <row r="84" hidden="1" ht="16" customHeight="1">
       <c r="A84" s="23" t="n">
         <v>2026811</v>
       </c>
@@ -17677,7 +17677,7 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="16" customHeight="1">
+    <row r="85" hidden="1" ht="16" customHeight="1">
       <c r="A85" s="23" t="n">
         <v>3741130</v>
       </c>
@@ -17735,7 +17735,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="16" customHeight="1">
+    <row r="86" hidden="1" ht="16" customHeight="1">
       <c r="A86" s="23" t="n">
         <v>89831</v>
       </c>
@@ -17801,7 +17801,7 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="16" customHeight="1">
+    <row r="87" hidden="1" ht="16" customHeight="1">
       <c r="A87" s="23" t="n">
         <v>89826</v>
       </c>
@@ -17865,7 +17865,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="16" customHeight="1">
+    <row r="88" hidden="1" ht="16" customHeight="1">
       <c r="A88" s="23" t="n">
         <v>2028440</v>
       </c>
@@ -17921,7 +17921,7 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="16" customHeight="1">
+    <row r="89" hidden="1" ht="16" customHeight="1">
       <c r="A89" s="23" t="n">
         <v>2028441</v>
       </c>
@@ -17977,7 +17977,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="16" customHeight="1">
+    <row r="90" hidden="1" ht="16" customHeight="1">
       <c r="A90" s="23" t="n">
         <v>2028442</v>
       </c>
@@ -18033,7 +18033,7 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="16" customHeight="1">
+    <row r="91" hidden="1" ht="16" customHeight="1">
       <c r="A91" s="23" t="n">
         <v>2028443</v>
       </c>
@@ -18089,7 +18089,7 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="16" customHeight="1">
+    <row r="92" hidden="1" ht="16" customHeight="1">
       <c r="A92" s="23" t="n">
         <v>2028446</v>
       </c>
@@ -18145,7 +18145,7 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="16" customHeight="1">
+    <row r="93" hidden="1" ht="16" customHeight="1">
       <c r="A93" s="23" t="n">
         <v>2028447</v>
       </c>
@@ -18201,7 +18201,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="16" customHeight="1">
+    <row r="94" hidden="1" ht="16" customHeight="1">
       <c r="A94" s="23" t="n">
         <v>2028448</v>
       </c>
@@ -18257,7 +18257,7 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="16" customHeight="1">
+    <row r="95" hidden="1" ht="16" customHeight="1">
       <c r="A95" s="23" t="n">
         <v>2028449</v>
       </c>
@@ -18313,7 +18313,7 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="16" customHeight="1">
+    <row r="96" hidden="1" ht="16" customHeight="1">
       <c r="A96" s="23" t="n">
         <v>2028450</v>
       </c>
@@ -18369,7 +18369,7 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="16" customHeight="1">
+    <row r="97" hidden="1" ht="16" customHeight="1">
       <c r="A97" s="23" t="n">
         <v>2028451</v>
       </c>
@@ -18425,7 +18425,7 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="16" customHeight="1">
+    <row r="98" hidden="1" ht="16" customHeight="1">
       <c r="A98" s="23" t="n">
         <v>2028452</v>
       </c>
@@ -18481,7 +18481,7 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="16" customHeight="1">
+    <row r="99" hidden="1" ht="16" customHeight="1">
       <c r="A99" s="23" t="n">
         <v>2028453</v>
       </c>
@@ -18537,7 +18537,7 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="16" customHeight="1">
+    <row r="100" hidden="1" ht="16" customHeight="1">
       <c r="A100" s="23" t="n">
         <v>2028454</v>
       </c>
@@ -18593,7 +18593,7 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="16" customHeight="1">
+    <row r="101" hidden="1" ht="16" customHeight="1">
       <c r="A101" s="23" t="n">
         <v>2028455</v>
       </c>
@@ -18649,7 +18649,7 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="16" customHeight="1">
+    <row r="102" hidden="1" ht="16" customHeight="1">
       <c r="A102" s="23" t="n">
         <v>2028456</v>
       </c>
@@ -18705,7 +18705,7 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="16" customHeight="1">
+    <row r="103" hidden="1" ht="16" customHeight="1">
       <c r="A103" s="23" t="n">
         <v>2028457</v>
       </c>
@@ -18761,7 +18761,7 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="16" customHeight="1">
+    <row r="104" hidden="1" ht="16" customHeight="1">
       <c r="A104" s="23" t="n">
         <v>2028459</v>
       </c>
@@ -18817,7 +18817,7 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="16" customHeight="1">
+    <row r="105" hidden="1" ht="16" customHeight="1">
       <c r="A105" s="23" t="n">
         <v>2028460</v>
       </c>
@@ -18873,7 +18873,7 @@
         </is>
       </c>
     </row>
-    <row r="106" ht="16" customHeight="1">
+    <row r="106" hidden="1" ht="16" customHeight="1">
       <c r="A106" s="23" t="n">
         <v>2028461</v>
       </c>
@@ -18929,7 +18929,7 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="16" customHeight="1">
+    <row r="107" hidden="1" ht="16" customHeight="1">
       <c r="A107" s="23" t="n">
         <v>2028462</v>
       </c>
@@ -18985,7 +18985,7 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="16" customHeight="1">
+    <row r="108" hidden="1" ht="16" customHeight="1">
       <c r="A108" s="23" t="n">
         <v>2028463</v>
       </c>
@@ -19041,7 +19041,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="16" customHeight="1">
+    <row r="109" hidden="1" ht="16" customHeight="1">
       <c r="A109" s="23" t="n">
         <v>2028464</v>
       </c>
@@ -19097,7 +19097,7 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="16" customHeight="1">
+    <row r="110" hidden="1" ht="16" customHeight="1">
       <c r="A110" s="23" t="n">
         <v>2028465</v>
       </c>
@@ -19153,7 +19153,7 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="16" customHeight="1">
+    <row r="111" hidden="1" ht="16" customHeight="1">
       <c r="A111" s="23" t="n">
         <v>3450637</v>
       </c>
@@ -19209,7 +19209,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="16" customHeight="1">
+    <row r="112" hidden="1" ht="16" customHeight="1">
       <c r="A112" s="23" t="n">
         <v>3450598</v>
       </c>
@@ -19265,7 +19265,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="16" customHeight="1">
+    <row r="113" hidden="1" ht="16" customHeight="1">
       <c r="A113" s="23" t="n">
         <v>3450608</v>
       </c>
@@ -19321,7 +19321,7 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="16" customHeight="1">
+    <row r="114" hidden="1" ht="16" customHeight="1">
       <c r="A114" s="23" t="n">
         <v>3450625</v>
       </c>
@@ -19377,7 +19377,7 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="16" customHeight="1">
+    <row r="115" hidden="1" ht="16" customHeight="1">
       <c r="A115" s="23" t="n">
         <v>3450626</v>
       </c>
@@ -19433,7 +19433,7 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="16" customHeight="1">
+    <row r="116" hidden="1" ht="16" customHeight="1">
       <c r="A116" s="23" t="n">
         <v>3450628</v>
       </c>
@@ -19489,7 +19489,7 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="16" customHeight="1">
+    <row r="117" hidden="1" ht="16" customHeight="1">
       <c r="A117" s="23" t="n">
         <v>3450629</v>
       </c>
@@ -19545,7 +19545,7 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="16" customHeight="1">
+    <row r="118" hidden="1" ht="16" customHeight="1">
       <c r="A118" s="23" t="n">
         <v>3450632</v>
       </c>
@@ -19601,7 +19601,7 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="16" customHeight="1">
+    <row r="119" hidden="1" ht="16" customHeight="1">
       <c r="A119" s="23" t="n">
         <v>3450633</v>
       </c>
@@ -19657,7 +19657,7 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="16" customHeight="1">
+    <row r="120" hidden="1" ht="16" customHeight="1">
       <c r="A120" s="23" t="n">
         <v>3450634</v>
       </c>
@@ -19713,7 +19713,7 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="16" customHeight="1">
+    <row r="121" hidden="1" ht="16" customHeight="1">
       <c r="A121" s="23" t="n">
         <v>3450649</v>
       </c>
@@ -19769,7 +19769,7 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="16" customHeight="1">
+    <row r="122" hidden="1" ht="16" customHeight="1">
       <c r="A122" s="23" t="n">
         <v>3450650</v>
       </c>
@@ -19825,7 +19825,7 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="16" customHeight="1">
+    <row r="123" hidden="1" ht="16" customHeight="1">
       <c r="A123" s="23" t="n">
         <v>3450652</v>
       </c>
@@ -19881,7 +19881,7 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="16" customHeight="1">
+    <row r="124" hidden="1" ht="16" customHeight="1">
       <c r="A124" s="23" t="n">
         <v>3450653</v>
       </c>
@@ -19937,7 +19937,7 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="16" customHeight="1">
+    <row r="125" hidden="1" ht="16" customHeight="1">
       <c r="A125" s="23" t="n">
         <v>3450661</v>
       </c>
@@ -19993,7 +19993,7 @@
         </is>
       </c>
     </row>
-    <row r="126" ht="16" customHeight="1">
+    <row r="126" hidden="1" ht="16" customHeight="1">
       <c r="A126" s="23" t="n">
         <v>3450603</v>
       </c>
@@ -20049,7 +20049,7 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="16" customHeight="1">
+    <row r="127" hidden="1" ht="16" customHeight="1">
       <c r="A127" s="23" t="n">
         <v>3450654</v>
       </c>
@@ -20105,7 +20105,7 @@
         </is>
       </c>
     </row>
-    <row r="128" ht="16" customHeight="1">
+    <row r="128" hidden="1" ht="16" customHeight="1">
       <c r="A128" s="23" t="n">
         <v>3450656</v>
       </c>
@@ -20161,7 +20161,7 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="16" customHeight="1">
+    <row r="129" hidden="1" ht="16" customHeight="1">
       <c r="A129" s="23" t="n">
         <v>3450658</v>
       </c>
@@ -20217,7 +20217,7 @@
         </is>
       </c>
     </row>
-    <row r="130" ht="16" customHeight="1">
+    <row r="130" hidden="1" ht="16" customHeight="1">
       <c r="A130" s="23" t="n">
         <v>3450659</v>
       </c>
@@ -20273,7 +20273,7 @@
         </is>
       </c>
     </row>
-    <row r="131" ht="16" customHeight="1">
+    <row r="131" hidden="1" ht="16" customHeight="1">
       <c r="A131" s="23" t="n">
         <v>3450660</v>
       </c>
@@ -20329,7 +20329,7 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="16" customHeight="1">
+    <row r="132" hidden="1" ht="16" customHeight="1">
       <c r="A132" s="23" t="n">
         <v>2028409</v>
       </c>
@@ -20385,7 +20385,7 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="16" customHeight="1">
+    <row r="133" hidden="1" ht="16" customHeight="1">
       <c r="A133" s="23" t="n">
         <v>2028410</v>
       </c>
@@ -20441,7 +20441,7 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="16" customHeight="1">
+    <row r="134" hidden="1" ht="16" customHeight="1">
       <c r="A134" s="23" t="n">
         <v>2028411</v>
       </c>
@@ -20497,7 +20497,7 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="16" customHeight="1">
+    <row r="135" hidden="1" ht="16" customHeight="1">
       <c r="A135" s="23" t="n">
         <v>2028412</v>
       </c>
@@ -20553,7 +20553,7 @@
         </is>
       </c>
     </row>
-    <row r="136" ht="16" customHeight="1">
+    <row r="136" hidden="1" ht="16" customHeight="1">
       <c r="A136" s="23" t="n">
         <v>2028413</v>
       </c>
@@ -20609,7 +20609,7 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="16" customHeight="1">
+    <row r="137" hidden="1" ht="16" customHeight="1">
       <c r="A137" s="23" t="n">
         <v>2028424</v>
       </c>
@@ -20665,7 +20665,7 @@
         </is>
       </c>
     </row>
-    <row r="138" ht="16" customHeight="1">
+    <row r="138" hidden="1" ht="16" customHeight="1">
       <c r="A138" s="23" t="n">
         <v>2028426</v>
       </c>
@@ -20721,7 +20721,7 @@
         </is>
       </c>
     </row>
-    <row r="139" ht="16" customHeight="1">
+    <row r="139" hidden="1" ht="16" customHeight="1">
       <c r="A139" s="23" t="n">
         <v>2028427</v>
       </c>
@@ -20777,7 +20777,7 @@
         </is>
       </c>
     </row>
-    <row r="140" ht="16" customHeight="1">
+    <row r="140" hidden="1" ht="16" customHeight="1">
       <c r="A140" s="23" t="n">
         <v>2028384</v>
       </c>
@@ -20833,7 +20833,7 @@
         </is>
       </c>
     </row>
-    <row r="141" ht="16" customHeight="1">
+    <row r="141" hidden="1" ht="16" customHeight="1">
       <c r="A141" s="23" t="n">
         <v>2028386</v>
       </c>
@@ -20889,7 +20889,7 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="16" customHeight="1">
+    <row r="142" hidden="1" ht="16" customHeight="1">
       <c r="A142" s="23" t="n">
         <v>3450571</v>
       </c>
@@ -20945,7 +20945,7 @@
         </is>
       </c>
     </row>
-    <row r="143" ht="16" customHeight="1">
+    <row r="143" hidden="1" ht="16" customHeight="1">
       <c r="A143" s="23" t="n">
         <v>3450569</v>
       </c>
@@ -21001,7 +21001,7 @@
         </is>
       </c>
     </row>
-    <row r="144" ht="16" customHeight="1">
+    <row r="144" hidden="1" ht="16" customHeight="1">
       <c r="A144" s="23" t="n">
         <v>3450572</v>
       </c>
@@ -21057,7 +21057,7 @@
         </is>
       </c>
     </row>
-    <row r="145" ht="16" customHeight="1">
+    <row r="145" hidden="1" ht="16" customHeight="1">
       <c r="A145" s="23" t="n">
         <v>3450575</v>
       </c>
@@ -21113,7 +21113,7 @@
         </is>
       </c>
     </row>
-    <row r="146" ht="16" customHeight="1">
+    <row r="146" hidden="1" ht="16" customHeight="1">
       <c r="A146" s="23" t="n">
         <v>3450573</v>
       </c>
@@ -21169,7 +21169,7 @@
         </is>
       </c>
     </row>
-    <row r="147" ht="16" customHeight="1">
+    <row r="147" hidden="1" ht="16" customHeight="1">
       <c r="A147" s="23" t="n">
         <v>3450574</v>
       </c>
@@ -21225,7 +21225,7 @@
         </is>
       </c>
     </row>
-    <row r="148" ht="16" customHeight="1">
+    <row r="148" hidden="1" ht="16" customHeight="1">
       <c r="A148" s="23" t="n">
         <v>3450576</v>
       </c>
@@ -21281,7 +21281,7 @@
         </is>
       </c>
     </row>
-    <row r="149" ht="16" customHeight="1">
+    <row r="149" hidden="1" ht="16" customHeight="1">
       <c r="A149" s="23" t="n">
         <v>3450577</v>
       </c>
@@ -21337,7 +21337,7 @@
         </is>
       </c>
     </row>
-    <row r="150" ht="16" customHeight="1">
+    <row r="150" hidden="1" ht="16" customHeight="1">
       <c r="A150" s="23" t="n">
         <v>3450578</v>
       </c>
@@ -21393,7 +21393,7 @@
         </is>
       </c>
     </row>
-    <row r="151" ht="16" customHeight="1">
+    <row r="151" hidden="1" ht="16" customHeight="1">
       <c r="A151" s="23" t="n">
         <v>3450579</v>
       </c>
@@ -21449,7 +21449,7 @@
         </is>
       </c>
     </row>
-    <row r="152" ht="16" customHeight="1">
+    <row r="152" hidden="1" ht="16" customHeight="1">
       <c r="A152" s="23" t="n">
         <v>2028393</v>
       </c>
@@ -21505,7 +21505,7 @@
         </is>
       </c>
     </row>
-    <row r="153" ht="16" customHeight="1">
+    <row r="153" hidden="1" ht="16" customHeight="1">
       <c r="A153" s="23" t="n">
         <v>2028394</v>
       </c>
@@ -21561,7 +21561,7 @@
         </is>
       </c>
     </row>
-    <row r="154" ht="16" customHeight="1">
+    <row r="154" hidden="1" ht="16" customHeight="1">
       <c r="A154" s="23" t="n">
         <v>2028389</v>
       </c>
@@ -21617,7 +21617,7 @@
         </is>
       </c>
     </row>
-    <row r="155" ht="16" customHeight="1">
+    <row r="155" hidden="1" ht="16" customHeight="1">
       <c r="A155" s="23" t="n">
         <v>2028390</v>
       </c>
@@ -21673,7 +21673,7 @@
         </is>
       </c>
     </row>
-    <row r="156" ht="16" customHeight="1">
+    <row r="156" hidden="1" ht="16" customHeight="1">
       <c r="A156" s="23" t="n">
         <v>2028391</v>
       </c>
@@ -21729,7 +21729,7 @@
         </is>
       </c>
     </row>
-    <row r="157" ht="16" customHeight="1">
+    <row r="157" hidden="1" ht="16" customHeight="1">
       <c r="A157" s="23" t="n">
         <v>2028392</v>
       </c>
@@ -21785,7 +21785,7 @@
         </is>
       </c>
     </row>
-    <row r="158" ht="16" customHeight="1">
+    <row r="158" hidden="1" ht="16" customHeight="1">
       <c r="A158" s="23" t="n">
         <v>2028399</v>
       </c>
@@ -21841,7 +21841,7 @@
         </is>
       </c>
     </row>
-    <row r="159" ht="16" customHeight="1">
+    <row r="159" hidden="1" ht="16" customHeight="1">
       <c r="A159" s="23" t="n">
         <v>2028400</v>
       </c>
@@ -21897,7 +21897,7 @@
         </is>
       </c>
     </row>
-    <row r="160" ht="16" customHeight="1">
+    <row r="160" hidden="1" ht="16" customHeight="1">
       <c r="A160" s="23" t="n">
         <v>2028395</v>
       </c>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="G160" s="24" t="n"/>
       <c r="H160" s="23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160" s="22" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         </is>
       </c>
     </row>
-    <row r="161" ht="16" customHeight="1">
+    <row r="161" hidden="1" ht="16" customHeight="1">
       <c r="A161" s="23" t="n">
         <v>2028396</v>
       </c>
@@ -22009,7 +22009,7 @@
         </is>
       </c>
     </row>
-    <row r="162" ht="16" customHeight="1">
+    <row r="162" hidden="1" ht="16" customHeight="1">
       <c r="A162" s="23" t="n">
         <v>2028397</v>
       </c>
@@ -22065,7 +22065,7 @@
         </is>
       </c>
     </row>
-    <row r="163" ht="16" customHeight="1">
+    <row r="163" hidden="1" ht="16" customHeight="1">
       <c r="A163" s="23" t="n">
         <v>2028398</v>
       </c>
@@ -22121,7 +22121,7 @@
         </is>
       </c>
     </row>
-    <row r="164" ht="16" customHeight="1">
+    <row r="164" hidden="1" ht="16" customHeight="1">
       <c r="A164" s="23" t="n">
         <v>300138</v>
       </c>
@@ -22179,7 +22179,7 @@
         </is>
       </c>
     </row>
-    <row r="165" ht="16" customHeight="1">
+    <row r="165" hidden="1" ht="16" customHeight="1">
       <c r="A165" s="23" t="n">
         <v>306380</v>
       </c>
@@ -22237,7 +22237,7 @@
         </is>
       </c>
     </row>
-    <row r="166" ht="16" customHeight="1">
+    <row r="166" hidden="1" ht="16" customHeight="1">
       <c r="A166" s="23" t="n">
         <v>306375</v>
       </c>
@@ -22295,7 +22295,7 @@
         </is>
       </c>
     </row>
-    <row r="167" ht="16" customHeight="1">
+    <row r="167" hidden="1" ht="16" customHeight="1">
       <c r="A167" s="23" t="n">
         <v>306377</v>
       </c>
@@ -22353,7 +22353,7 @@
         </is>
       </c>
     </row>
-    <row r="168" ht="16" customHeight="1">
+    <row r="168" hidden="1" ht="16" customHeight="1">
       <c r="A168" s="23" t="n">
         <v>306372</v>
       </c>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
     </row>
-    <row r="169" ht="16" customHeight="1">
+    <row r="169" hidden="1" ht="16" customHeight="1">
       <c r="A169" s="23" t="n">
         <v>318490</v>
       </c>
@@ -22467,7 +22467,7 @@
         </is>
       </c>
     </row>
-    <row r="170" ht="16" customHeight="1">
+    <row r="170" hidden="1" ht="16" customHeight="1">
       <c r="A170" s="23" t="n">
         <v>303149</v>
       </c>
@@ -22523,7 +22523,7 @@
         </is>
       </c>
     </row>
-    <row r="171" ht="16" customHeight="1">
+    <row r="171" hidden="1" ht="16" customHeight="1">
       <c r="A171" s="23" t="n">
         <v>303156</v>
       </c>
@@ -22579,7 +22579,7 @@
         </is>
       </c>
     </row>
-    <row r="172" ht="16" customHeight="1">
+    <row r="172" hidden="1" ht="16" customHeight="1">
       <c r="A172" s="23" t="n">
         <v>318490</v>
       </c>
@@ -22635,7 +22635,7 @@
         </is>
       </c>
     </row>
-    <row r="173" ht="16" customHeight="1">
+    <row r="173" hidden="1" ht="16" customHeight="1">
       <c r="A173" s="23" t="n">
         <v>266187</v>
       </c>
@@ -22687,7 +22687,7 @@
         </is>
       </c>
     </row>
-    <row r="174" ht="16" customHeight="1">
+    <row r="174" hidden="1" ht="16" customHeight="1">
       <c r="A174" s="23" t="n">
         <v>266188</v>
       </c>
@@ -22739,7 +22739,7 @@
         </is>
       </c>
     </row>
-    <row r="175" ht="16" customHeight="1">
+    <row r="175" hidden="1" ht="16" customHeight="1">
       <c r="A175" s="23" t="n">
         <v>266189</v>
       </c>
@@ -22791,7 +22791,7 @@
         </is>
       </c>
     </row>
-    <row r="176" ht="16" customHeight="1">
+    <row r="176" hidden="1" ht="16" customHeight="1">
       <c r="A176" s="23" t="n">
         <v>266190</v>
       </c>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
     </row>
-    <row r="177" ht="16" customHeight="1">
+    <row r="177" hidden="1" ht="16" customHeight="1">
       <c r="A177" s="23" t="n">
         <v>266181</v>
       </c>
@@ -22895,7 +22895,7 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="16" customHeight="1">
+    <row r="178" hidden="1" ht="16" customHeight="1">
       <c r="A178" s="23" t="n">
         <v>300303</v>
       </c>
@@ -22953,7 +22953,7 @@
         </is>
       </c>
     </row>
-    <row r="179" ht="16" customHeight="1">
+    <row r="179" hidden="1" ht="16" customHeight="1">
       <c r="A179" s="23" t="n">
         <v>300085</v>
       </c>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
     </row>
-    <row r="180" ht="16" customHeight="1">
+    <row r="180" hidden="1" ht="16" customHeight="1">
       <c r="A180" s="23" t="n">
         <v>2028414</v>
       </c>
@@ -23071,7 +23071,7 @@
         </is>
       </c>
     </row>
-    <row r="181" ht="16" customHeight="1">
+    <row r="181" hidden="1" ht="16" customHeight="1">
       <c r="A181" s="23" t="n">
         <v>3502095</v>
       </c>
@@ -23129,7 +23129,7 @@
         </is>
       </c>
     </row>
-    <row r="182" ht="16" customHeight="1">
+    <row r="182" hidden="1" ht="16" customHeight="1">
       <c r="A182" s="23" t="n">
         <v>3656196</v>
       </c>
@@ -23187,7 +23187,7 @@
         </is>
       </c>
     </row>
-    <row r="183" ht="16" customHeight="1">
+    <row r="183" hidden="1" ht="16" customHeight="1">
       <c r="A183" s="23" t="n">
         <v>3656197</v>
       </c>
@@ -23245,7 +23245,7 @@
         </is>
       </c>
     </row>
-    <row r="184" ht="16" customHeight="1">
+    <row r="184" hidden="1" ht="16" customHeight="1">
       <c r="A184" s="23" t="n">
         <v>3502096</v>
       </c>
@@ -23303,7 +23303,7 @@
         </is>
       </c>
     </row>
-    <row r="185" ht="16" customHeight="1">
+    <row r="185" hidden="1" ht="16" customHeight="1">
       <c r="A185" s="23" t="n">
         <v>2028467</v>
       </c>
@@ -23359,7 +23359,7 @@
         </is>
       </c>
     </row>
-    <row r="186" ht="16" customHeight="1">
+    <row r="186" hidden="1" ht="16" customHeight="1">
       <c r="A186" s="23" t="n">
         <v>2028470</v>
       </c>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
     </row>
-    <row r="187" ht="16" customHeight="1">
+    <row r="187" hidden="1" ht="16" customHeight="1">
       <c r="A187" s="23" t="n">
         <v>2028471</v>
       </c>
@@ -23471,7 +23471,7 @@
         </is>
       </c>
     </row>
-    <row r="188" ht="16" customHeight="1">
+    <row r="188" hidden="1" ht="16" customHeight="1">
       <c r="A188" s="23" t="n">
         <v>2028472</v>
       </c>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
     </row>
-    <row r="189" ht="16" customHeight="1">
+    <row r="189" hidden="1" ht="16" customHeight="1">
       <c r="A189" s="23" t="n">
         <v>4181464</v>
       </c>
@@ -23583,7 +23583,7 @@
         </is>
       </c>
     </row>
-    <row r="190" ht="16" customHeight="1">
+    <row r="190" hidden="1" ht="16" customHeight="1">
       <c r="A190" s="23" t="n">
         <v>4181453</v>
       </c>
@@ -23641,7 +23641,7 @@
         </is>
       </c>
     </row>
-    <row r="191" ht="16" customHeight="1">
+    <row r="191" hidden="1" ht="16" customHeight="1">
       <c r="A191" s="23" t="n">
         <v>4181458</v>
       </c>
@@ -23699,7 +23699,7 @@
         </is>
       </c>
     </row>
-    <row r="192" ht="16" customHeight="1">
+    <row r="192" hidden="1" ht="16" customHeight="1">
       <c r="A192" s="23" t="n">
         <v>4181459</v>
       </c>
@@ -23757,7 +23757,7 @@
         </is>
       </c>
     </row>
-    <row r="193" ht="16" customHeight="1">
+    <row r="193" hidden="1" ht="16" customHeight="1">
       <c r="A193" s="23" t="n">
         <v>4181460</v>
       </c>
@@ -23815,7 +23815,7 @@
         </is>
       </c>
     </row>
-    <row r="194" ht="16" customHeight="1">
+    <row r="194" hidden="1" ht="16" customHeight="1">
       <c r="A194" s="23" t="n">
         <v>4181461</v>
       </c>
@@ -23873,7 +23873,7 @@
         </is>
       </c>
     </row>
-    <row r="195" ht="16" customHeight="1">
+    <row r="195" hidden="1" ht="16" customHeight="1">
       <c r="A195" s="23" t="n">
         <v>4181462</v>
       </c>
@@ -23931,7 +23931,7 @@
         </is>
       </c>
     </row>
-    <row r="196" ht="16" customHeight="1">
+    <row r="196" hidden="1" ht="16" customHeight="1">
       <c r="A196" s="23" t="n">
         <v>4181463</v>
       </c>
@@ -23989,7 +23989,7 @@
         </is>
       </c>
     </row>
-    <row r="197" ht="16" customHeight="1">
+    <row r="197" hidden="1" ht="16" customHeight="1">
       <c r="A197" s="23" t="n">
         <v>4181474</v>
       </c>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
     </row>
-    <row r="198" ht="16" customHeight="1">
+    <row r="198" hidden="1" ht="16" customHeight="1">
       <c r="A198" s="23" t="n">
         <v>4181475</v>
       </c>
@@ -24105,7 +24105,7 @@
         </is>
       </c>
     </row>
-    <row r="199" ht="16" customHeight="1">
+    <row r="199" hidden="1" ht="16" customHeight="1">
       <c r="A199" s="23" t="n">
         <v>4181476</v>
       </c>
@@ -24163,7 +24163,7 @@
         </is>
       </c>
     </row>
-    <row r="200" ht="16" customHeight="1">
+    <row r="200" hidden="1" ht="16" customHeight="1">
       <c r="A200" s="23" t="n">
         <v>4181478</v>
       </c>
@@ -24221,7 +24221,7 @@
         </is>
       </c>
     </row>
-    <row r="201" ht="16" customHeight="1">
+    <row r="201" hidden="1" ht="16" customHeight="1">
       <c r="A201" s="23" t="n">
         <v>4181479</v>
       </c>
@@ -24279,7 +24279,7 @@
         </is>
       </c>
     </row>
-    <row r="202" ht="16" customHeight="1">
+    <row r="202" hidden="1" ht="16" customHeight="1">
       <c r="A202" s="23" t="n">
         <v>4181480</v>
       </c>
@@ -24335,7 +24335,7 @@
         </is>
       </c>
     </row>
-    <row r="203" ht="16" customHeight="1">
+    <row r="203" hidden="1" ht="16" customHeight="1">
       <c r="A203" s="23" t="n">
         <v>4181481</v>
       </c>
@@ -24364,7 +24364,7 @@
       </c>
       <c r="G203" s="24" t="n"/>
       <c r="H203" s="23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I203" s="22" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         </is>
       </c>
     </row>
-    <row r="204" ht="16" customHeight="1">
+    <row r="204" hidden="1" ht="16" customHeight="1">
       <c r="A204" s="23" t="n">
         <v>4181482</v>
       </c>
@@ -24447,7 +24447,7 @@
         </is>
       </c>
     </row>
-    <row r="205" ht="16" customHeight="1">
+    <row r="205" hidden="1" ht="16" customHeight="1">
       <c r="A205" s="23" t="n">
         <v>4181483</v>
       </c>
@@ -24503,7 +24503,7 @@
         </is>
       </c>
     </row>
-    <row r="206" ht="16" customHeight="1">
+    <row r="206" hidden="1" ht="16" customHeight="1">
       <c r="A206" s="23" t="n">
         <v>4181485</v>
       </c>
@@ -24559,7 +24559,7 @@
         </is>
       </c>
     </row>
-    <row r="207" ht="16" customHeight="1">
+    <row r="207" hidden="1" ht="16" customHeight="1">
       <c r="A207" s="23" t="n">
         <v>4181486</v>
       </c>
@@ -24615,7 +24615,7 @@
         </is>
       </c>
     </row>
-    <row r="208" ht="16" customHeight="1">
+    <row r="208" hidden="1" ht="16" customHeight="1">
       <c r="A208" s="23" t="n">
         <v>4181487</v>
       </c>
@@ -24671,7 +24671,7 @@
         </is>
       </c>
     </row>
-    <row r="209" ht="16" customHeight="1">
+    <row r="209" hidden="1" ht="16" customHeight="1">
       <c r="A209" s="23" t="n">
         <v>2990503</v>
       </c>
@@ -24733,7 +24733,7 @@
         </is>
       </c>
     </row>
-    <row r="210" ht="16" customHeight="1">
+    <row r="210" hidden="1" ht="16" customHeight="1">
       <c r="A210" s="23" t="n">
         <v>315301</v>
       </c>
@@ -24795,7 +24795,7 @@
         </is>
       </c>
     </row>
-    <row r="211" ht="16" customHeight="1">
+    <row r="211" hidden="1" ht="16" customHeight="1">
       <c r="A211" s="23" t="n">
         <v>315299</v>
       </c>
@@ -24855,7 +24855,7 @@
         </is>
       </c>
     </row>
-    <row r="212" ht="16" customHeight="1">
+    <row r="212" hidden="1" ht="16" customHeight="1">
       <c r="A212" s="23" t="n">
         <v>315300</v>
       </c>
@@ -24915,7 +24915,7 @@
         </is>
       </c>
     </row>
-    <row r="213" ht="16" customHeight="1">
+    <row r="213" hidden="1" ht="16" customHeight="1">
       <c r="A213" s="23" t="n">
         <v>315347</v>
       </c>
@@ -24977,7 +24977,7 @@
         </is>
       </c>
     </row>
-    <row r="214" ht="16" customHeight="1">
+    <row r="214" hidden="1" ht="16" customHeight="1">
       <c r="A214" s="23" t="n">
         <v>315313</v>
       </c>
@@ -25037,7 +25037,7 @@
         </is>
       </c>
     </row>
-    <row r="215" ht="16" customHeight="1">
+    <row r="215" hidden="1" ht="16" customHeight="1">
       <c r="A215" s="23" t="n">
         <v>315314</v>
       </c>
@@ -25097,7 +25097,7 @@
         </is>
       </c>
     </row>
-    <row r="216" ht="16" customHeight="1">
+    <row r="216" hidden="1" ht="16" customHeight="1">
       <c r="A216" s="23" t="n">
         <v>300305</v>
       </c>
@@ -25157,7 +25157,7 @@
         </is>
       </c>
     </row>
-    <row r="217" ht="16" customHeight="1">
+    <row r="217" hidden="1" ht="16" customHeight="1">
       <c r="A217" s="23" t="n">
         <v>315321</v>
       </c>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
     </row>
-    <row r="218" ht="16" customHeight="1">
+    <row r="218" hidden="1" ht="16" customHeight="1">
       <c r="A218" s="23" t="n">
         <v>315333</v>
       </c>
@@ -25281,7 +25281,7 @@
         </is>
       </c>
     </row>
-    <row r="219" ht="16" customHeight="1">
+    <row r="219" hidden="1" ht="16" customHeight="1">
       <c r="A219" s="23" t="n">
         <v>3329290</v>
       </c>
@@ -25339,7 +25339,7 @@
         </is>
       </c>
     </row>
-    <row r="220" ht="16" customHeight="1">
+    <row r="220" hidden="1" ht="16" customHeight="1">
       <c r="A220" s="23" t="n">
         <v>3329291</v>
       </c>
@@ -25397,7 +25397,7 @@
         </is>
       </c>
     </row>
-    <row r="221" ht="16" customHeight="1">
+    <row r="221" hidden="1" ht="16" customHeight="1">
       <c r="A221" s="23" t="n">
         <v>3329295</v>
       </c>
@@ -25455,7 +25455,7 @@
         </is>
       </c>
     </row>
-    <row r="222" ht="16" customHeight="1">
+    <row r="222" hidden="1" ht="16" customHeight="1">
       <c r="A222" s="23" t="n">
         <v>3347113</v>
       </c>
@@ -25513,7 +25513,7 @@
         </is>
       </c>
     </row>
-    <row r="223" ht="16" customHeight="1">
+    <row r="223" hidden="1" ht="16" customHeight="1">
       <c r="A223" s="23" t="n">
         <v>3347114</v>
       </c>
@@ -25571,7 +25571,7 @@
         </is>
       </c>
     </row>
-    <row r="224" ht="16" customHeight="1">
+    <row r="224" hidden="1" ht="16" customHeight="1">
       <c r="A224" s="23" t="n">
         <v>3347117</v>
       </c>
@@ -25629,7 +25629,7 @@
         </is>
       </c>
     </row>
-    <row r="225" ht="16" customHeight="1">
+    <row r="225" hidden="1" ht="16" customHeight="1">
       <c r="A225" s="23" t="n">
         <v>3347118</v>
       </c>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
     </row>
-    <row r="226" ht="16" customHeight="1">
+    <row r="226" hidden="1" ht="16" customHeight="1">
       <c r="A226" s="23" t="n">
         <v>3347119</v>
       </c>
@@ -25745,7 +25745,7 @@
         </is>
       </c>
     </row>
-    <row r="227" ht="16" customHeight="1">
+    <row r="227" hidden="1" ht="16" customHeight="1">
       <c r="A227" s="23" t="n">
         <v>3347122</v>
       </c>
@@ -25803,7 +25803,7 @@
         </is>
       </c>
     </row>
-    <row r="228" ht="16" customHeight="1">
+    <row r="228" hidden="1" ht="16" customHeight="1">
       <c r="A228" s="23" t="n">
         <v>3347123</v>
       </c>
@@ -25861,7 +25861,7 @@
         </is>
       </c>
     </row>
-    <row r="229" ht="16" customHeight="1">
+    <row r="229" hidden="1" ht="16" customHeight="1">
       <c r="A229" s="23" t="n">
         <v>3347129</v>
       </c>
@@ -25919,7 +25919,7 @@
         </is>
       </c>
     </row>
-    <row r="230" ht="16" customHeight="1">
+    <row r="230" hidden="1" ht="16" customHeight="1">
       <c r="A230" s="23" t="n">
         <v>3347130</v>
       </c>
@@ -25977,7 +25977,7 @@
         </is>
       </c>
     </row>
-    <row r="231" ht="16" customHeight="1">
+    <row r="231" hidden="1" ht="16" customHeight="1">
       <c r="A231" s="23" t="n">
         <v>3347131</v>
       </c>
@@ -26035,7 +26035,7 @@
         </is>
       </c>
     </row>
-    <row r="232" ht="16" customHeight="1">
+    <row r="232" hidden="1" ht="16" customHeight="1">
       <c r="A232" s="23" t="n">
         <v>3347138</v>
       </c>
@@ -26093,7 +26093,7 @@
         </is>
       </c>
     </row>
-    <row r="233" ht="16" customHeight="1">
+    <row r="233" hidden="1" ht="16" customHeight="1">
       <c r="A233" s="23" t="n">
         <v>3329196</v>
       </c>
@@ -26151,7 +26151,7 @@
         </is>
       </c>
     </row>
-    <row r="234" ht="16" customHeight="1">
+    <row r="234" hidden="1" ht="16" customHeight="1">
       <c r="A234" s="23" t="n">
         <v>3329197</v>
       </c>
@@ -26209,7 +26209,7 @@
         </is>
       </c>
     </row>
-    <row r="235" ht="16" customHeight="1">
+    <row r="235" hidden="1" ht="16" customHeight="1">
       <c r="A235" s="23" t="n">
         <v>3329199</v>
       </c>
@@ -26267,7 +26267,7 @@
         </is>
       </c>
     </row>
-    <row r="236" ht="16" customHeight="1">
+    <row r="236" hidden="1" ht="16" customHeight="1">
       <c r="A236" s="23" t="n">
         <v>3329200</v>
       </c>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
     </row>
-    <row r="237" ht="16" customHeight="1">
+    <row r="237" hidden="1" ht="16" customHeight="1">
       <c r="A237" s="23" t="n">
         <v>3329201</v>
       </c>
@@ -26383,7 +26383,7 @@
         </is>
       </c>
     </row>
-    <row r="238" ht="16" customHeight="1">
+    <row r="238" hidden="1" ht="16" customHeight="1">
       <c r="A238" s="23" t="n">
         <v>3329239</v>
       </c>
@@ -26441,7 +26441,7 @@
         </is>
       </c>
     </row>
-    <row r="239" ht="16" customHeight="1">
+    <row r="239" hidden="1" ht="16" customHeight="1">
       <c r="A239" s="23" t="n">
         <v>3329087</v>
       </c>
@@ -26499,7 +26499,7 @@
         </is>
       </c>
     </row>
-    <row r="240" ht="16" customHeight="1">
+    <row r="240" hidden="1" ht="16" customHeight="1">
       <c r="A240" s="23" t="n">
         <v>3329088</v>
       </c>
@@ -26557,7 +26557,7 @@
         </is>
       </c>
     </row>
-    <row r="241" ht="16" customHeight="1">
+    <row r="241" hidden="1" ht="16" customHeight="1">
       <c r="A241" s="23" t="n">
         <v>52729</v>
       </c>
@@ -26615,7 +26615,7 @@
         </is>
       </c>
     </row>
-    <row r="242" ht="16" customHeight="1">
+    <row r="242" hidden="1" ht="16" customHeight="1">
       <c r="A242" s="23" t="n">
         <v>52734</v>
       </c>
@@ -26673,7 +26673,7 @@
         </is>
       </c>
     </row>
-    <row r="243" ht="16" customHeight="1">
+    <row r="243" hidden="1" ht="16" customHeight="1">
       <c r="A243" s="23" t="n">
         <v>52740</v>
       </c>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
     </row>
-    <row r="244" ht="16" customHeight="1">
+    <row r="244" hidden="1" ht="16" customHeight="1">
       <c r="A244" s="23" t="n">
         <v>52741</v>
       </c>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
     </row>
-    <row r="245" ht="16" customHeight="1">
+    <row r="245" hidden="1" ht="16" customHeight="1">
       <c r="A245" s="23" t="n">
         <v>25685</v>
       </c>
@@ -26847,7 +26847,7 @@
         </is>
       </c>
     </row>
-    <row r="246" ht="16" customHeight="1">
+    <row r="246" hidden="1" ht="16" customHeight="1">
       <c r="A246" s="23" t="n">
         <v>52743</v>
       </c>
@@ -26905,7 +26905,7 @@
         </is>
       </c>
     </row>
-    <row r="247" ht="16" customHeight="1">
+    <row r="247" hidden="1" ht="16" customHeight="1">
       <c r="A247" s="23" t="n">
         <v>3329084</v>
       </c>
@@ -26963,7 +26963,7 @@
         </is>
       </c>
     </row>
-    <row r="248" ht="16" customHeight="1">
+    <row r="248" hidden="1" ht="16" customHeight="1">
       <c r="A248" s="23" t="n">
         <v>2553078</v>
       </c>
@@ -27021,7 +27021,7 @@
         </is>
       </c>
     </row>
-    <row r="249" ht="16" customHeight="1">
+    <row r="249" hidden="1" ht="16" customHeight="1">
       <c r="A249" s="23" t="n">
         <v>2026987</v>
       </c>
@@ -27079,7 +27079,7 @@
         </is>
       </c>
     </row>
-    <row r="250" ht="16" customHeight="1">
+    <row r="250" hidden="1" ht="16" customHeight="1">
       <c r="A250" s="23" t="n">
         <v>2026988</v>
       </c>
@@ -27137,7 +27137,7 @@
         </is>
       </c>
     </row>
-    <row r="251" ht="16" customHeight="1">
+    <row r="251" hidden="1" ht="16" customHeight="1">
       <c r="A251" s="23" t="n">
         <v>4181256</v>
       </c>
@@ -27195,7 +27195,7 @@
         </is>
       </c>
     </row>
-    <row r="252" ht="16" customHeight="1">
+    <row r="252" hidden="1" ht="16" customHeight="1">
       <c r="A252" s="23" t="n">
         <v>4181258</v>
       </c>
@@ -27253,7 +27253,7 @@
         </is>
       </c>
     </row>
-    <row r="253" ht="16" customHeight="1">
+    <row r="253" hidden="1" ht="16" customHeight="1">
       <c r="A253" s="23" t="n">
         <v>4058244</v>
       </c>
@@ -27311,7 +27311,7 @@
         </is>
       </c>
     </row>
-    <row r="254" ht="16" customHeight="1">
+    <row r="254" hidden="1" ht="16" customHeight="1">
       <c r="A254" s="23" t="n">
         <v>4058247</v>
       </c>
@@ -27369,7 +27369,7 @@
         </is>
       </c>
     </row>
-    <row r="255" ht="16" customHeight="1">
+    <row r="255" hidden="1" ht="16" customHeight="1">
       <c r="A255" s="23" t="n">
         <v>4058123</v>
       </c>
@@ -27427,7 +27427,7 @@
         </is>
       </c>
     </row>
-    <row r="256" ht="16" customHeight="1">
+    <row r="256" hidden="1" ht="16" customHeight="1">
       <c r="A256" s="23" t="n">
         <v>4058128</v>
       </c>
@@ -27485,7 +27485,7 @@
         </is>
       </c>
     </row>
-    <row r="257" ht="16" customHeight="1">
+    <row r="257" hidden="1" ht="16" customHeight="1">
       <c r="A257" s="23" t="n">
         <v>4058116</v>
       </c>
@@ -27543,7 +27543,7 @@
         </is>
       </c>
     </row>
-    <row r="258" ht="16" customHeight="1">
+    <row r="258" hidden="1" ht="16" customHeight="1">
       <c r="A258" s="23" t="n">
         <v>2027471</v>
       </c>
@@ -27609,7 +27609,7 @@
         </is>
       </c>
     </row>
-    <row r="259" ht="16" customHeight="1">
+    <row r="259" hidden="1" ht="16" customHeight="1">
       <c r="A259" s="23" t="n">
         <v>302897</v>
       </c>
@@ -27671,7 +27671,7 @@
         </is>
       </c>
     </row>
-    <row r="260" ht="16" customHeight="1">
+    <row r="260" hidden="1" ht="16" customHeight="1">
       <c r="A260" s="23" t="n">
         <v>2081587</v>
       </c>
@@ -27733,7 +27733,7 @@
         </is>
       </c>
     </row>
-    <row r="261" ht="16" customHeight="1">
+    <row r="261" hidden="1" ht="16" customHeight="1">
       <c r="A261" s="23" t="n">
         <v>2081588</v>
       </c>
@@ -27795,7 +27795,7 @@
         </is>
       </c>
     </row>
-    <row r="262" ht="16" customHeight="1">
+    <row r="262" hidden="1" ht="16" customHeight="1">
       <c r="A262" s="23" t="n">
         <v>2081585</v>
       </c>
@@ -27857,7 +27857,7 @@
         </is>
       </c>
     </row>
-    <row r="263" ht="16" customHeight="1">
+    <row r="263" hidden="1" ht="16" customHeight="1">
       <c r="A263" s="23" t="n">
         <v>2081586</v>
       </c>
@@ -27919,7 +27919,7 @@
         </is>
       </c>
     </row>
-    <row r="264" ht="16" customHeight="1">
+    <row r="264" hidden="1" ht="16" customHeight="1">
       <c r="A264" s="23" t="n">
         <v>2081589</v>
       </c>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
     </row>
-    <row r="265" ht="16" customHeight="1">
+    <row r="265" hidden="1" ht="16" customHeight="1">
       <c r="A265" s="23" t="n">
         <v>2081590</v>
       </c>
@@ -28043,7 +28043,7 @@
         </is>
       </c>
     </row>
-    <row r="266" ht="16" customHeight="1">
+    <row r="266" hidden="1" ht="16" customHeight="1">
       <c r="A266" s="23" t="n">
         <v>199495</v>
       </c>
@@ -28105,7 +28105,7 @@
         </is>
       </c>
     </row>
-    <row r="267" ht="16" customHeight="1">
+    <row r="267" hidden="1" ht="16" customHeight="1">
       <c r="A267" s="23" t="n">
         <v>199500</v>
       </c>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
     </row>
-    <row r="268" ht="16" customHeight="1">
+    <row r="268" hidden="1" ht="16" customHeight="1">
       <c r="A268" s="23" t="n">
         <v>327425</v>
       </c>
@@ -28233,7 +28233,7 @@
         </is>
       </c>
     </row>
-    <row r="269" ht="16" customHeight="1">
+    <row r="269" hidden="1" ht="16" customHeight="1">
       <c r="A269" s="23" t="n">
         <v>3347100</v>
       </c>
@@ -28289,7 +28289,7 @@
         </is>
       </c>
     </row>
-    <row r="270" ht="16" customHeight="1">
+    <row r="270" hidden="1" ht="16" customHeight="1">
       <c r="A270" s="23" t="n">
         <v>40134</v>
       </c>
@@ -28347,7 +28347,7 @@
         </is>
       </c>
     </row>
-    <row r="271" ht="16" customHeight="1">
+    <row r="271" hidden="1" ht="16" customHeight="1">
       <c r="A271" s="23" t="n">
         <v>40133</v>
       </c>
@@ -28405,7 +28405,7 @@
         </is>
       </c>
     </row>
-    <row r="272" ht="16" customHeight="1">
+    <row r="272" hidden="1" ht="16" customHeight="1">
       <c r="A272" s="23" t="n">
         <v>40132</v>
       </c>
@@ -28463,7 +28463,7 @@
         </is>
       </c>
     </row>
-    <row r="273" ht="16" customHeight="1">
+    <row r="273" hidden="1" ht="16" customHeight="1">
       <c r="A273" s="23" t="n">
         <v>15903</v>
       </c>
@@ -28521,7 +28521,7 @@
         </is>
       </c>
     </row>
-    <row r="274" ht="16" customHeight="1">
+    <row r="274" hidden="1" ht="16" customHeight="1">
       <c r="A274" s="23" t="n">
         <v>15423</v>
       </c>
@@ -28579,7 +28579,7 @@
         </is>
       </c>
     </row>
-    <row r="275" ht="16" customHeight="1">
+    <row r="275" hidden="1" ht="16" customHeight="1">
       <c r="A275" s="23" t="n">
         <v>15421</v>
       </c>
@@ -28637,7 +28637,7 @@
         </is>
       </c>
     </row>
-    <row r="276" ht="16" customHeight="1">
+    <row r="276" hidden="1" ht="16" customHeight="1">
       <c r="A276" s="23" t="n">
         <v>15424</v>
       </c>
@@ -28695,7 +28695,7 @@
         </is>
       </c>
     </row>
-    <row r="277" ht="16" customHeight="1">
+    <row r="277" hidden="1" ht="16" customHeight="1">
       <c r="A277" s="23" t="n">
         <v>15427</v>
       </c>
@@ -28753,7 +28753,7 @@
         </is>
       </c>
     </row>
-    <row r="278" ht="16" customHeight="1">
+    <row r="278" hidden="1" ht="16" customHeight="1">
       <c r="A278" s="23" t="n">
         <v>15428</v>
       </c>
@@ -28811,7 +28811,7 @@
         </is>
       </c>
     </row>
-    <row r="279" ht="16" customHeight="1">
+    <row r="279" hidden="1" ht="16" customHeight="1">
       <c r="A279" s="23" t="n">
         <v>40138</v>
       </c>
@@ -28869,7 +28869,7 @@
         </is>
       </c>
     </row>
-    <row r="280" ht="16" customHeight="1">
+    <row r="280" hidden="1" ht="16" customHeight="1">
       <c r="A280" s="23" t="n">
         <v>40135</v>
       </c>
@@ -28927,7 +28927,7 @@
         </is>
       </c>
     </row>
-    <row r="281" ht="16" customHeight="1">
+    <row r="281" hidden="1" ht="16" customHeight="1">
       <c r="A281" s="23" t="n">
         <v>3433732</v>
       </c>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
     </row>
-    <row r="282" ht="16" customHeight="1">
+    <row r="282" hidden="1" ht="16" customHeight="1">
       <c r="A282" s="23" t="n">
         <v>3433749</v>
       </c>
@@ -29051,7 +29051,7 @@
         </is>
       </c>
     </row>
-    <row r="283" ht="16" customHeight="1">
+    <row r="283" hidden="1" ht="16" customHeight="1">
       <c r="A283" s="23" t="n">
         <v>3433751</v>
       </c>
@@ -29113,7 +29113,7 @@
         </is>
       </c>
     </row>
-    <row r="284" ht="16" customHeight="1">
+    <row r="284" hidden="1" ht="16" customHeight="1">
       <c r="A284" s="23" t="n">
         <v>3433761</v>
       </c>
@@ -29175,7 +29175,7 @@
         </is>
       </c>
     </row>
-    <row r="285" ht="16" customHeight="1">
+    <row r="285" hidden="1" ht="16" customHeight="1">
       <c r="A285" s="23" t="n">
         <v>2438943</v>
       </c>
@@ -29233,7 +29233,7 @@
         </is>
       </c>
     </row>
-    <row r="286" ht="16" customHeight="1">
+    <row r="286" hidden="1" ht="16" customHeight="1">
       <c r="A286" s="23" t="n">
         <v>2438944</v>
       </c>
@@ -29291,7 +29291,7 @@
         </is>
       </c>
     </row>
-    <row r="287" ht="16" customHeight="1">
+    <row r="287" hidden="1" ht="16" customHeight="1">
       <c r="A287" s="23" t="n">
         <v>2438945</v>
       </c>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
     </row>
-    <row r="288" ht="16" customHeight="1">
+    <row r="288" hidden="1" ht="16" customHeight="1">
       <c r="A288" s="23" t="n">
         <v>2454984</v>
       </c>
@@ -29407,7 +29407,7 @@
         </is>
       </c>
     </row>
-    <row r="289" ht="16" customHeight="1">
+    <row r="289" hidden="1" ht="16" customHeight="1">
       <c r="A289" s="23" t="n">
         <v>2454985</v>
       </c>
@@ -29465,7 +29465,7 @@
         </is>
       </c>
     </row>
-    <row r="290" ht="16" customHeight="1">
+    <row r="290" hidden="1" ht="16" customHeight="1">
       <c r="A290" s="23" t="n">
         <v>2392357</v>
       </c>
@@ -29523,7 +29523,7 @@
         </is>
       </c>
     </row>
-    <row r="291" ht="16" customHeight="1">
+    <row r="291" hidden="1" ht="16" customHeight="1">
       <c r="A291" s="23" t="n">
         <v>2392359</v>
       </c>
@@ -29581,7 +29581,7 @@
         </is>
       </c>
     </row>
-    <row r="292" ht="16" customHeight="1">
+    <row r="292" hidden="1" ht="16" customHeight="1">
       <c r="A292" s="23" t="n">
         <v>2455007</v>
       </c>
@@ -29639,7 +29639,7 @@
         </is>
       </c>
     </row>
-    <row r="293" ht="16" customHeight="1">
+    <row r="293" hidden="1" ht="16" customHeight="1">
       <c r="A293" s="23" t="n">
         <v>2455011</v>
       </c>
@@ -29697,7 +29697,7 @@
         </is>
       </c>
     </row>
-    <row r="294" ht="16" customHeight="1">
+    <row r="294" hidden="1" ht="16" customHeight="1">
       <c r="A294" s="23" t="n">
         <v>2455008</v>
       </c>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
     </row>
-    <row r="295" ht="16" customHeight="1">
+    <row r="295" hidden="1" ht="16" customHeight="1">
       <c r="A295" s="23" t="n">
         <v>2438970</v>
       </c>
@@ -29813,7 +29813,7 @@
         </is>
       </c>
     </row>
-    <row r="296" ht="16" customHeight="1">
+    <row r="296" hidden="1" ht="16" customHeight="1">
       <c r="A296" s="23" t="n">
         <v>2438967</v>
       </c>
@@ -29871,7 +29871,7 @@
         </is>
       </c>
     </row>
-    <row r="297" ht="16" customHeight="1">
+    <row r="297" hidden="1" ht="16" customHeight="1">
       <c r="A297" s="23" t="n">
         <v>3433516</v>
       </c>
@@ -29933,7 +29933,7 @@
         </is>
       </c>
     </row>
-    <row r="298" ht="16" customHeight="1">
+    <row r="298" hidden="1" ht="16" customHeight="1">
       <c r="A298" s="23" t="n">
         <v>3433517</v>
       </c>
@@ -29995,7 +29995,7 @@
         </is>
       </c>
     </row>
-    <row r="299" ht="16" customHeight="1">
+    <row r="299" hidden="1" ht="16" customHeight="1">
       <c r="A299" s="23" t="n">
         <v>3433710</v>
       </c>
@@ -30057,7 +30057,7 @@
         </is>
       </c>
     </row>
-    <row r="300" ht="16" customHeight="1">
+    <row r="300" hidden="1" ht="16" customHeight="1">
       <c r="A300" s="23" t="n">
         <v>4109892</v>
       </c>
@@ -30119,7 +30119,7 @@
         </is>
       </c>
     </row>
-    <row r="301" ht="16" customHeight="1">
+    <row r="301" hidden="1" ht="16" customHeight="1">
       <c r="A301" s="23" t="n">
         <v>4109894</v>
       </c>
@@ -30181,7 +30181,7 @@
         </is>
       </c>
     </row>
-    <row r="302" ht="16" customHeight="1">
+    <row r="302" hidden="1" ht="16" customHeight="1">
       <c r="A302" s="23" t="n">
         <v>4109895</v>
       </c>
@@ -30243,7 +30243,7 @@
         </is>
       </c>
     </row>
-    <row r="303" ht="16" customHeight="1">
+    <row r="303" hidden="1" ht="16" customHeight="1">
       <c r="A303" s="23" t="n">
         <v>4110133</v>
       </c>
@@ -30305,7 +30305,7 @@
         </is>
       </c>
     </row>
-    <row r="304" ht="16" customHeight="1">
+    <row r="304" hidden="1" ht="16" customHeight="1">
       <c r="A304" s="23" t="n">
         <v>4109897</v>
       </c>
@@ -30367,7 +30367,7 @@
         </is>
       </c>
     </row>
-    <row r="305" ht="16" customHeight="1">
+    <row r="305" hidden="1" ht="16" customHeight="1">
       <c r="A305" s="23" t="n">
         <v>4109946</v>
       </c>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
     </row>
-    <row r="306" ht="16" customHeight="1">
+    <row r="306" hidden="1" ht="16" customHeight="1">
       <c r="A306" s="23" t="n">
         <v>4109949</v>
       </c>
@@ -30491,7 +30491,7 @@
         </is>
       </c>
     </row>
-    <row r="307" ht="16" customHeight="1">
+    <row r="307" hidden="1" ht="16" customHeight="1">
       <c r="A307" s="23" t="n">
         <v>4181211</v>
       </c>
@@ -30553,7 +30553,7 @@
         </is>
       </c>
     </row>
-    <row r="308" ht="16" customHeight="1">
+    <row r="308" hidden="1" ht="16" customHeight="1">
       <c r="A308" s="23" t="n">
         <v>4181212</v>
       </c>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
     </row>
-    <row r="309" ht="16" customHeight="1">
+    <row r="309" hidden="1" ht="16" customHeight="1">
       <c r="A309" s="23" t="n">
         <v>4181213</v>
       </c>
@@ -30677,7 +30677,7 @@
         </is>
       </c>
     </row>
-    <row r="310" ht="16" customHeight="1">
+    <row r="310" hidden="1" ht="16" customHeight="1">
       <c r="A310" s="23" t="n">
         <v>4181216</v>
       </c>
@@ -30739,7 +30739,7 @@
         </is>
       </c>
     </row>
-    <row r="311" ht="16" customHeight="1">
+    <row r="311" hidden="1" ht="16" customHeight="1">
       <c r="A311" s="23" t="n">
         <v>4181217</v>
       </c>
@@ -30801,7 +30801,7 @@
         </is>
       </c>
     </row>
-    <row r="312" ht="16" customHeight="1">
+    <row r="312" hidden="1" ht="16" customHeight="1">
       <c r="A312" s="23" t="n">
         <v>4181218</v>
       </c>
@@ -30863,7 +30863,7 @@
         </is>
       </c>
     </row>
-    <row r="313" ht="16" customHeight="1">
+    <row r="313" hidden="1" ht="16" customHeight="1">
       <c r="A313" s="23" t="n">
         <v>4181219</v>
       </c>
@@ -30925,7 +30925,7 @@
         </is>
       </c>
     </row>
-    <row r="314" ht="16" customHeight="1">
+    <row r="314" hidden="1" ht="16" customHeight="1">
       <c r="A314" s="23" t="n">
         <v>4181221</v>
       </c>
@@ -30987,7 +30987,7 @@
         </is>
       </c>
     </row>
-    <row r="315" ht="16" customHeight="1">
+    <row r="315" hidden="1" ht="16" customHeight="1">
       <c r="A315" s="23" t="n">
         <v>4181222</v>
       </c>
@@ -31049,7 +31049,7 @@
         </is>
       </c>
     </row>
-    <row r="316" ht="16" customHeight="1">
+    <row r="316" hidden="1" ht="16" customHeight="1">
       <c r="A316" s="23" t="n">
         <v>4181223</v>
       </c>
@@ -31111,7 +31111,7 @@
         </is>
       </c>
     </row>
-    <row r="317" ht="16" customHeight="1">
+    <row r="317" hidden="1" ht="16" customHeight="1">
       <c r="A317" s="23" t="n">
         <v>4181224</v>
       </c>
@@ -31173,7 +31173,7 @@
         </is>
       </c>
     </row>
-    <row r="318" ht="16" customHeight="1">
+    <row r="318" hidden="1" ht="16" customHeight="1">
       <c r="A318" s="23" t="n">
         <v>62343</v>
       </c>
@@ -31237,7 +31237,7 @@
         </is>
       </c>
     </row>
-    <row r="319" ht="16" customHeight="1">
+    <row r="319" hidden="1" ht="16" customHeight="1">
       <c r="A319" s="23" t="n">
         <v>2071337</v>
       </c>
@@ -31301,7 +31301,7 @@
         </is>
       </c>
     </row>
-    <row r="320" ht="16" customHeight="1">
+    <row r="320" hidden="1" ht="16" customHeight="1">
       <c r="A320" s="23" t="n">
         <v>2026922</v>
       </c>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
     </row>
-    <row r="321" ht="16" customHeight="1">
+    <row r="321" hidden="1" ht="16" customHeight="1">
       <c r="A321" s="23" t="n">
         <v>61363</v>
       </c>
@@ -31431,7 +31431,7 @@
         </is>
       </c>
     </row>
-    <row r="322" ht="16" customHeight="1">
+    <row r="322" hidden="1" ht="16" customHeight="1">
       <c r="A322" s="23" t="n">
         <v>61364</v>
       </c>
@@ -31497,7 +31497,7 @@
         </is>
       </c>
     </row>
-    <row r="323" ht="16" customHeight="1">
+    <row r="323" hidden="1" ht="16" customHeight="1">
       <c r="A323" s="23" t="n">
         <v>61369</v>
       </c>
@@ -31563,7 +31563,7 @@
         </is>
       </c>
     </row>
-    <row r="324" ht="16" customHeight="1">
+    <row r="324" hidden="1" ht="16" customHeight="1">
       <c r="A324" s="23" t="n">
         <v>317087</v>
       </c>
@@ -31633,7 +31633,7 @@
         </is>
       </c>
     </row>
-    <row r="325" ht="16" customHeight="1">
+    <row r="325" hidden="1" ht="16" customHeight="1">
       <c r="A325" s="23" t="n">
         <v>61408</v>
       </c>
@@ -31703,7 +31703,7 @@
         </is>
       </c>
     </row>
-    <row r="326" ht="16" customHeight="1">
+    <row r="326" hidden="1" ht="16" customHeight="1">
       <c r="A326" s="23" t="n">
         <v>26021</v>
       </c>
@@ -31773,7 +31773,7 @@
         </is>
       </c>
     </row>
-    <row r="327" ht="16" customHeight="1">
+    <row r="327" hidden="1" ht="16" customHeight="1">
       <c r="A327" s="23" t="n">
         <v>352445203</v>
       </c>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
     </row>
-    <row r="328" ht="16" customHeight="1">
+    <row r="328" hidden="1" ht="16" customHeight="1">
       <c r="A328" s="23" t="n">
         <v>452281203</v>
       </c>
@@ -31913,7 +31913,7 @@
         </is>
       </c>
     </row>
-    <row r="329" ht="16" customHeight="1">
+    <row r="329" hidden="1" ht="16" customHeight="1">
       <c r="A329" s="23" t="n">
         <v>318798</v>
       </c>
@@ -31983,7 +31983,7 @@
         </is>
       </c>
     </row>
-    <row r="330" ht="16" customHeight="1">
+    <row r="330" hidden="1" ht="16" customHeight="1">
       <c r="A330" s="23" t="n">
         <v>193823</v>
       </c>
@@ -32045,7 +32045,7 @@
         </is>
       </c>
     </row>
-    <row r="331" ht="16" customHeight="1">
+    <row r="331" hidden="1" ht="16" customHeight="1">
       <c r="A331" s="23" t="n">
         <v>193669</v>
       </c>
@@ -32107,7 +32107,7 @@
         </is>
       </c>
     </row>
-    <row r="332" ht="16" customHeight="1">
+    <row r="332" hidden="1" ht="16" customHeight="1">
       <c r="A332" s="23" t="n">
         <v>193670</v>
       </c>
@@ -32169,7 +32169,7 @@
         </is>
       </c>
     </row>
-    <row r="333" ht="16" customHeight="1">
+    <row r="333" hidden="1" ht="16" customHeight="1">
       <c r="A333" s="23" t="n">
         <v>193676</v>
       </c>
@@ -32231,7 +32231,7 @@
         </is>
       </c>
     </row>
-    <row r="334" ht="16" customHeight="1">
+    <row r="334" hidden="1" ht="16" customHeight="1">
       <c r="A334" s="23" t="n">
         <v>191436</v>
       </c>
@@ -32293,7 +32293,7 @@
         </is>
       </c>
     </row>
-    <row r="335" ht="16" customHeight="1">
+    <row r="335" hidden="1" ht="16" customHeight="1">
       <c r="A335" s="23" t="n">
         <v>191439</v>
       </c>
@@ -32355,7 +32355,7 @@
         </is>
       </c>
     </row>
-    <row r="336" ht="16" customHeight="1">
+    <row r="336" hidden="1" ht="16" customHeight="1">
       <c r="A336" s="23" t="n">
         <v>198015</v>
       </c>
@@ -32417,7 +32417,7 @@
         </is>
       </c>
     </row>
-    <row r="337" ht="16" customHeight="1">
+    <row r="337" hidden="1" ht="16" customHeight="1">
       <c r="A337" s="23" t="n">
         <v>306274</v>
       </c>
@@ -32477,7 +32477,7 @@
         </is>
       </c>
     </row>
-    <row r="338" ht="16" customHeight="1">
+    <row r="338" hidden="1" ht="16" customHeight="1">
       <c r="A338" s="23" t="n">
         <v>306273</v>
       </c>
@@ -32537,7 +32537,7 @@
         </is>
       </c>
     </row>
-    <row r="339" ht="16" customHeight="1">
+    <row r="339" hidden="1" ht="16" customHeight="1">
       <c r="A339" s="23" t="n">
         <v>306270</v>
       </c>
@@ -32597,7 +32597,7 @@
         </is>
       </c>
     </row>
-    <row r="340" ht="16" customHeight="1">
+    <row r="340" hidden="1" ht="16" customHeight="1">
       <c r="A340" s="23" t="n">
         <v>306275</v>
       </c>
@@ -32657,7 +32657,7 @@
         </is>
       </c>
     </row>
-    <row r="341" ht="16" customHeight="1">
+    <row r="341" hidden="1" ht="16" customHeight="1">
       <c r="A341" s="23" t="n">
         <v>306268</v>
       </c>
@@ -32717,7 +32717,7 @@
         </is>
       </c>
     </row>
-    <row r="342" ht="16" customHeight="1">
+    <row r="342" hidden="1" ht="16" customHeight="1">
       <c r="A342" s="23" t="n">
         <v>306263</v>
       </c>
@@ -32777,7 +32777,7 @@
         </is>
       </c>
     </row>
-    <row r="343" ht="16" customHeight="1">
+    <row r="343" hidden="1" ht="16" customHeight="1">
       <c r="A343" s="23" t="n">
         <v>306267</v>
       </c>
@@ -32837,7 +32837,7 @@
         </is>
       </c>
     </row>
-    <row r="344" ht="16" customHeight="1">
+    <row r="344" hidden="1" ht="16" customHeight="1">
       <c r="A344" s="23" t="n">
         <v>306264</v>
       </c>
@@ -32897,7 +32897,7 @@
         </is>
       </c>
     </row>
-    <row r="345" ht="16" customHeight="1">
+    <row r="345" hidden="1" ht="16" customHeight="1">
       <c r="A345" s="23" t="n">
         <v>306269</v>
       </c>
@@ -32957,7 +32957,7 @@
         </is>
       </c>
     </row>
-    <row r="346" ht="16" customHeight="1">
+    <row r="346" hidden="1" ht="16" customHeight="1">
       <c r="A346" s="23" t="n">
         <v>311707</v>
       </c>
@@ -33017,7 +33017,7 @@
         </is>
       </c>
     </row>
-    <row r="347" ht="16" customHeight="1">
+    <row r="347" hidden="1" ht="16" customHeight="1">
       <c r="A347" s="23" t="n">
         <v>189858</v>
       </c>
@@ -33079,7 +33079,7 @@
         </is>
       </c>
     </row>
-    <row r="348" ht="16" customHeight="1">
+    <row r="348" hidden="1" ht="16" customHeight="1">
       <c r="A348" s="23" t="n">
         <v>191363</v>
       </c>
@@ -33141,7 +33141,7 @@
         </is>
       </c>
     </row>
-    <row r="349" ht="16" customHeight="1">
+    <row r="349" hidden="1" ht="16" customHeight="1">
       <c r="A349" s="23" t="n">
         <v>191365</v>
       </c>
@@ -33203,7 +33203,7 @@
         </is>
       </c>
     </row>
-    <row r="350" ht="16" customHeight="1">
+    <row r="350" hidden="1" ht="16" customHeight="1">
       <c r="A350" s="23" t="n">
         <v>192941</v>
       </c>
@@ -33265,7 +33265,7 @@
         </is>
       </c>
     </row>
-    <row r="351" ht="16" customHeight="1">
+    <row r="351" hidden="1" ht="16" customHeight="1">
       <c r="A351" s="23" t="n">
         <v>192969</v>
       </c>
@@ -33327,7 +33327,7 @@
         </is>
       </c>
     </row>
-    <row r="352" ht="16" customHeight="1">
+    <row r="352" hidden="1" ht="16" customHeight="1">
       <c r="A352" s="23" t="n">
         <v>192972</v>
       </c>
@@ -33389,7 +33389,7 @@
         </is>
       </c>
     </row>
-    <row r="353" ht="16" customHeight="1">
+    <row r="353" hidden="1" ht="16" customHeight="1">
       <c r="A353" s="23" t="n">
         <v>189832</v>
       </c>
@@ -33451,7 +33451,7 @@
         </is>
       </c>
     </row>
-    <row r="354" ht="16" customHeight="1">
+    <row r="354" hidden="1" ht="16" customHeight="1">
       <c r="A354" s="23" t="n">
         <v>192940</v>
       </c>
@@ -33513,7 +33513,7 @@
         </is>
       </c>
     </row>
-    <row r="355" ht="16" customHeight="1">
+    <row r="355" hidden="1" ht="16" customHeight="1">
       <c r="A355" s="23" t="n">
         <v>192946</v>
       </c>
@@ -33575,7 +33575,7 @@
         </is>
       </c>
     </row>
-    <row r="356" ht="16" customHeight="1">
+    <row r="356" hidden="1" ht="16" customHeight="1">
       <c r="A356" s="23" t="n">
         <v>192968</v>
       </c>
@@ -33637,7 +33637,7 @@
         </is>
       </c>
     </row>
-    <row r="357" ht="16" customHeight="1">
+    <row r="357" hidden="1" ht="16" customHeight="1">
       <c r="A357" s="23" t="n">
         <v>192960</v>
       </c>
@@ -33699,7 +33699,7 @@
         </is>
       </c>
     </row>
-    <row r="358" ht="16" customHeight="1">
+    <row r="358" hidden="1" ht="16" customHeight="1">
       <c r="A358" s="23" t="n">
         <v>153429</v>
       </c>
@@ -33761,7 +33761,7 @@
         </is>
       </c>
     </row>
-    <row r="359" ht="16" customHeight="1">
+    <row r="359" hidden="1" ht="16" customHeight="1">
       <c r="A359" s="23" t="n">
         <v>137808</v>
       </c>
@@ -33823,7 +33823,7 @@
         </is>
       </c>
     </row>
-    <row r="360" ht="16" customHeight="1">
+    <row r="360" hidden="1" ht="16" customHeight="1">
       <c r="A360" s="23" t="n">
         <v>137809</v>
       </c>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
     </row>
-    <row r="361" ht="16" customHeight="1">
+    <row r="361" hidden="1" ht="16" customHeight="1">
       <c r="A361" s="23" t="n">
         <v>137812</v>
       </c>
@@ -33947,7 +33947,7 @@
         </is>
       </c>
     </row>
-    <row r="362" ht="16" customHeight="1">
+    <row r="362" hidden="1" ht="16" customHeight="1">
       <c r="A362" s="23" t="n">
         <v>137888</v>
       </c>
@@ -34009,7 +34009,7 @@
         </is>
       </c>
     </row>
-    <row r="363" ht="16" customHeight="1">
+    <row r="363" hidden="1" ht="16" customHeight="1">
       <c r="A363" s="23" t="n">
         <v>137889</v>
       </c>
@@ -34071,7 +34071,7 @@
         </is>
       </c>
     </row>
-    <row r="364" ht="16" customHeight="1">
+    <row r="364" hidden="1" ht="16" customHeight="1">
       <c r="A364" s="23" t="n">
         <v>137892</v>
       </c>
@@ -34133,7 +34133,7 @@
         </is>
       </c>
     </row>
-    <row r="365" ht="16" customHeight="1">
+    <row r="365" hidden="1" ht="16" customHeight="1">
       <c r="A365" s="23" t="n">
         <v>3775446</v>
       </c>
@@ -34195,7 +34195,7 @@
         </is>
       </c>
     </row>
-    <row r="366" ht="16" customHeight="1">
+    <row r="366" hidden="1" ht="16" customHeight="1">
       <c r="A366" s="23" t="n">
         <v>3775458</v>
       </c>
@@ -34257,7 +34257,7 @@
         </is>
       </c>
     </row>
-    <row r="367" ht="16" customHeight="1">
+    <row r="367" hidden="1" ht="16" customHeight="1">
       <c r="A367" s="23" t="n">
         <v>3775486</v>
       </c>
@@ -34319,7 +34319,7 @@
         </is>
       </c>
     </row>
-    <row r="368" ht="16" customHeight="1">
+    <row r="368" hidden="1" ht="16" customHeight="1">
       <c r="A368" s="23" t="n">
         <v>3775497</v>
       </c>
@@ -34381,7 +34381,7 @@
         </is>
       </c>
     </row>
-    <row r="369" ht="16" customHeight="1">
+    <row r="369" hidden="1" ht="16" customHeight="1">
       <c r="A369" s="23" t="n">
         <v>3775498</v>
       </c>
@@ -34443,7 +34443,7 @@
         </is>
       </c>
     </row>
-    <row r="370" ht="16" customHeight="1">
+    <row r="370" hidden="1" ht="16" customHeight="1">
       <c r="A370" s="23" t="n">
         <v>3775499</v>
       </c>
@@ -34505,7 +34505,7 @@
         </is>
       </c>
     </row>
-    <row r="371" ht="16" customHeight="1">
+    <row r="371" hidden="1" ht="16" customHeight="1">
       <c r="A371" s="23" t="n">
         <v>3775500</v>
       </c>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
     </row>
-    <row r="372" ht="16" customHeight="1">
+    <row r="372" hidden="1" ht="16" customHeight="1">
       <c r="A372" s="23" t="n">
         <v>3775505</v>
       </c>
@@ -34629,7 +34629,7 @@
         </is>
       </c>
     </row>
-    <row r="373" ht="16" customHeight="1">
+    <row r="373" hidden="1" ht="16" customHeight="1">
       <c r="A373" s="23" t="n">
         <v>3775507</v>
       </c>
@@ -34691,7 +34691,7 @@
         </is>
       </c>
     </row>
-    <row r="374" ht="16" customHeight="1">
+    <row r="374" hidden="1" ht="16" customHeight="1">
       <c r="A374" s="23" t="n">
         <v>3775508</v>
       </c>
@@ -34753,7 +34753,7 @@
         </is>
       </c>
     </row>
-    <row r="375" ht="16" customHeight="1">
+    <row r="375" hidden="1" ht="16" customHeight="1">
       <c r="A375" s="23" t="n">
         <v>3775514</v>
       </c>
@@ -34815,7 +34815,7 @@
         </is>
       </c>
     </row>
-    <row r="376" ht="16" customHeight="1">
+    <row r="376" hidden="1" ht="16" customHeight="1">
       <c r="A376" s="23" t="n">
         <v>3775516</v>
       </c>
@@ -34877,7 +34877,7 @@
         </is>
       </c>
     </row>
-    <row r="377" ht="16" customHeight="1">
+    <row r="377" hidden="1" ht="16" customHeight="1">
       <c r="A377" s="23" t="n">
         <v>3775605</v>
       </c>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
     </row>
-    <row r="378" ht="16" customHeight="1">
+    <row r="378" hidden="1" ht="16" customHeight="1">
       <c r="A378" s="23" t="n">
         <v>3775616</v>
       </c>
@@ -35001,7 +35001,7 @@
         </is>
       </c>
     </row>
-    <row r="379" ht="16" customHeight="1">
+    <row r="379" hidden="1" ht="16" customHeight="1">
       <c r="A379" s="23" t="n">
         <v>3775627</v>
       </c>
@@ -35063,7 +35063,7 @@
         </is>
       </c>
     </row>
-    <row r="380" ht="16" customHeight="1">
+    <row r="380" hidden="1" ht="16" customHeight="1">
       <c r="A380" s="23" t="n">
         <v>3775629</v>
       </c>
@@ -35125,7 +35125,7 @@
         </is>
       </c>
     </row>
-    <row r="381" ht="16" customHeight="1">
+    <row r="381" hidden="1" ht="16" customHeight="1">
       <c r="A381" s="23" t="n">
         <v>3775637</v>
       </c>
@@ -35187,7 +35187,7 @@
         </is>
       </c>
     </row>
-    <row r="382" ht="16" customHeight="1">
+    <row r="382" hidden="1" ht="16" customHeight="1">
       <c r="A382" s="23" t="n">
         <v>3775664</v>
       </c>
@@ -35249,7 +35249,7 @@
         </is>
       </c>
     </row>
-    <row r="383" ht="16" customHeight="1">
+    <row r="383" hidden="1" ht="16" customHeight="1">
       <c r="A383" s="23" t="n">
         <v>3775653</v>
       </c>
@@ -35311,7 +35311,7 @@
         </is>
       </c>
     </row>
-    <row r="384" ht="16" customHeight="1">
+    <row r="384" hidden="1" ht="16" customHeight="1">
       <c r="A384" s="23" t="n">
         <v>3775654</v>
       </c>
@@ -35373,7 +35373,7 @@
         </is>
       </c>
     </row>
-    <row r="385" ht="16" customHeight="1">
+    <row r="385" hidden="1" ht="16" customHeight="1">
       <c r="A385" s="23" t="n">
         <v>3775674</v>
       </c>
@@ -35435,7 +35435,7 @@
         </is>
       </c>
     </row>
-    <row r="386" ht="16" customHeight="1">
+    <row r="386" hidden="1" ht="16" customHeight="1">
       <c r="A386" s="23" t="n">
         <v>3775742</v>
       </c>
@@ -35497,7 +35497,7 @@
         </is>
       </c>
     </row>
-    <row r="387" ht="16" customHeight="1">
+    <row r="387" hidden="1" ht="16" customHeight="1">
       <c r="A387" s="23" t="n">
         <v>3775745</v>
       </c>
@@ -35559,7 +35559,7 @@
         </is>
       </c>
     </row>
-    <row r="388" ht="16" customHeight="1">
+    <row r="388" hidden="1" ht="16" customHeight="1">
       <c r="A388" s="23" t="n">
         <v>3775746</v>
       </c>
@@ -35621,7 +35621,7 @@
         </is>
       </c>
     </row>
-    <row r="389" ht="16" customHeight="1">
+    <row r="389" hidden="1" ht="16" customHeight="1">
       <c r="A389" s="23" t="n">
         <v>3775747</v>
       </c>
@@ -35683,7 +35683,7 @@
         </is>
       </c>
     </row>
-    <row r="390" ht="16" customHeight="1">
+    <row r="390" hidden="1" ht="16" customHeight="1">
       <c r="A390" s="23" t="n">
         <v>3775748</v>
       </c>
@@ -35745,7 +35745,7 @@
         </is>
       </c>
     </row>
-    <row r="391" ht="16" customHeight="1">
+    <row r="391" hidden="1" ht="16" customHeight="1">
       <c r="A391" s="23" t="n">
         <v>3775753</v>
       </c>
@@ -35807,7 +35807,7 @@
         </is>
       </c>
     </row>
-    <row r="392" ht="16" customHeight="1">
+    <row r="392" hidden="1" ht="16" customHeight="1">
       <c r="A392" s="23" t="n">
         <v>3775754</v>
       </c>
@@ -35869,7 +35869,7 @@
         </is>
       </c>
     </row>
-    <row r="393" ht="16" customHeight="1">
+    <row r="393" hidden="1" ht="16" customHeight="1">
       <c r="A393" s="23" t="n">
         <v>3775756</v>
       </c>
@@ -35931,7 +35931,7 @@
         </is>
       </c>
     </row>
-    <row r="394" ht="16" customHeight="1">
+    <row r="394" hidden="1" ht="16" customHeight="1">
       <c r="A394" s="23" t="n">
         <v>3775760</v>
       </c>
@@ -35993,7 +35993,7 @@
         </is>
       </c>
     </row>
-    <row r="395" ht="16" customHeight="1">
+    <row r="395" hidden="1" ht="16" customHeight="1">
       <c r="A395" s="23" t="n">
         <v>3775762</v>
       </c>
@@ -36055,7 +36055,7 @@
         </is>
       </c>
     </row>
-    <row r="396" ht="16" customHeight="1">
+    <row r="396" hidden="1" ht="16" customHeight="1">
       <c r="A396" s="23" t="n">
         <v>3775764</v>
       </c>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
     </row>
-    <row r="397" ht="16" customHeight="1">
+    <row r="397" hidden="1" ht="16" customHeight="1">
       <c r="A397" s="23" t="n">
         <v>3775847</v>
       </c>
@@ -36179,7 +36179,7 @@
         </is>
       </c>
     </row>
-    <row r="398" ht="16" customHeight="1">
+    <row r="398" hidden="1" ht="16" customHeight="1">
       <c r="A398" s="23" t="n">
         <v>4110810</v>
       </c>
@@ -36241,7 +36241,7 @@
         </is>
       </c>
     </row>
-    <row r="399" ht="16" customHeight="1">
+    <row r="399" hidden="1" ht="16" customHeight="1">
       <c r="A399" s="23" t="n">
         <v>4110812</v>
       </c>
@@ -36303,7 +36303,7 @@
         </is>
       </c>
     </row>
-    <row r="400" ht="16" customHeight="1">
+    <row r="400" hidden="1" ht="16" customHeight="1">
       <c r="A400" s="23" t="n">
         <v>4110813</v>
       </c>
@@ -36365,7 +36365,7 @@
         </is>
       </c>
     </row>
-    <row r="401" ht="16" customHeight="1">
+    <row r="401" hidden="1" ht="16" customHeight="1">
       <c r="A401" s="23" t="n">
         <v>3311598</v>
       </c>
@@ -36427,7 +36427,7 @@
         </is>
       </c>
     </row>
-    <row r="402" ht="16" customHeight="1">
+    <row r="402" hidden="1" ht="16" customHeight="1">
       <c r="A402" s="23" t="n">
         <v>2471366</v>
       </c>
@@ -36489,7 +36489,7 @@
         </is>
       </c>
     </row>
-    <row r="403" ht="16" customHeight="1">
+    <row r="403" hidden="1" ht="16" customHeight="1">
       <c r="A403" s="23" t="n">
         <v>2454654</v>
       </c>
@@ -36551,7 +36551,7 @@
         </is>
       </c>
     </row>
-    <row r="404" ht="16" customHeight="1">
+    <row r="404" hidden="1" ht="16" customHeight="1">
       <c r="A404" s="23" t="n">
         <v>2454655</v>
       </c>
@@ -36613,7 +36613,7 @@
         </is>
       </c>
     </row>
-    <row r="405" ht="16" customHeight="1">
+    <row r="405" hidden="1" ht="16" customHeight="1">
       <c r="A405" s="23" t="n">
         <v>2454653</v>
       </c>
@@ -36675,7 +36675,7 @@
         </is>
       </c>
     </row>
-    <row r="406" ht="16" customHeight="1">
+    <row r="406" hidden="1" ht="16" customHeight="1">
       <c r="A406" s="23" t="n">
         <v>2841423</v>
       </c>
@@ -36737,7 +36737,7 @@
         </is>
       </c>
     </row>
-    <row r="407" ht="16" customHeight="1">
+    <row r="407" hidden="1" ht="16" customHeight="1">
       <c r="A407" s="23" t="n">
         <v>33577</v>
       </c>
@@ -36799,7 +36799,7 @@
         </is>
       </c>
     </row>
-    <row r="408" ht="16" customHeight="1">
+    <row r="408" hidden="1" ht="16" customHeight="1">
       <c r="A408" s="23" t="n">
         <v>3311399</v>
       </c>
@@ -36861,7 +36861,7 @@
         </is>
       </c>
     </row>
-    <row r="409" ht="16" customHeight="1">
+    <row r="409" hidden="1" ht="16" customHeight="1">
       <c r="A409" s="23" t="n">
         <v>4019719</v>
       </c>
@@ -36923,7 +36923,7 @@
         </is>
       </c>
     </row>
-    <row r="410" ht="16" customHeight="1">
+    <row r="410" hidden="1" ht="16" customHeight="1">
       <c r="A410" s="23" t="n">
         <v>4019728</v>
       </c>
@@ -36985,7 +36985,7 @@
         </is>
       </c>
     </row>
-    <row r="411" ht="16" customHeight="1">
+    <row r="411" hidden="1" ht="16" customHeight="1">
       <c r="A411" s="23" t="n">
         <v>4019782</v>
       </c>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
     </row>
-    <row r="412" ht="16" customHeight="1">
+    <row r="412" hidden="1" ht="16" customHeight="1">
       <c r="A412" s="23" t="n">
         <v>4019784</v>
       </c>
@@ -37109,7 +37109,7 @@
         </is>
       </c>
     </row>
-    <row r="413" ht="16" customHeight="1">
+    <row r="413" hidden="1" ht="16" customHeight="1">
       <c r="A413" s="23" t="n">
         <v>4019790</v>
       </c>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
     </row>
-    <row r="414" ht="16" customHeight="1">
+    <row r="414" hidden="1" ht="16" customHeight="1">
       <c r="A414" s="23" t="n">
         <v>4019814</v>
       </c>
@@ -37233,7 +37233,7 @@
         </is>
       </c>
     </row>
-    <row r="415" ht="16" customHeight="1">
+    <row r="415" hidden="1" ht="16" customHeight="1">
       <c r="A415" s="23" t="n">
         <v>4019684</v>
       </c>
@@ -37295,7 +37295,7 @@
         </is>
       </c>
     </row>
-    <row r="416" ht="16" customHeight="1">
+    <row r="416" hidden="1" ht="16" customHeight="1">
       <c r="A416" s="23" t="n">
         <v>4019562</v>
       </c>
@@ -37357,7 +37357,7 @@
         </is>
       </c>
     </row>
-    <row r="417" ht="16" customHeight="1">
+    <row r="417" hidden="1" ht="16" customHeight="1">
       <c r="A417" s="23" t="n">
         <v>4019617</v>
       </c>
@@ -37419,7 +37419,7 @@
         </is>
       </c>
     </row>
-    <row r="418" ht="16" customHeight="1">
+    <row r="418" hidden="1" ht="16" customHeight="1">
       <c r="A418" s="23" t="n">
         <v>4019628</v>
       </c>
@@ -37481,7 +37481,7 @@
         </is>
       </c>
     </row>
-    <row r="419" ht="16" customHeight="1">
+    <row r="419" hidden="1" ht="16" customHeight="1">
       <c r="A419" s="23" t="n">
         <v>4020215</v>
       </c>
@@ -37543,7 +37543,7 @@
         </is>
       </c>
     </row>
-    <row r="420" ht="16" customHeight="1">
+    <row r="420" hidden="1" ht="16" customHeight="1">
       <c r="A420" s="23" t="n">
         <v>4020647</v>
       </c>
@@ -37605,7 +37605,7 @@
         </is>
       </c>
     </row>
-    <row r="421" ht="16" customHeight="1">
+    <row r="421" hidden="1" ht="16" customHeight="1">
       <c r="A421" s="23" t="n">
         <v>4020649</v>
       </c>
@@ -37667,7 +37667,7 @@
         </is>
       </c>
     </row>
-    <row r="422" ht="16" customHeight="1">
+    <row r="422" hidden="1" ht="16" customHeight="1">
       <c r="A422" s="23" t="n">
         <v>4019489</v>
       </c>
@@ -37729,7 +37729,7 @@
         </is>
       </c>
     </row>
-    <row r="423" ht="16" customHeight="1">
+    <row r="423" hidden="1" ht="16" customHeight="1">
       <c r="A423" s="23" t="n">
         <v>4019493</v>
       </c>
@@ -37791,7 +37791,7 @@
         </is>
       </c>
     </row>
-    <row r="424" ht="16" customHeight="1">
+    <row r="424" hidden="1" ht="16" customHeight="1">
       <c r="A424" s="23" t="n">
         <v>4019495</v>
       </c>
@@ -37853,7 +37853,7 @@
         </is>
       </c>
     </row>
-    <row r="425" ht="16" customHeight="1">
+    <row r="425" hidden="1" ht="16" customHeight="1">
       <c r="A425" s="23" t="n">
         <v>4019496</v>
       </c>
@@ -37915,7 +37915,7 @@
         </is>
       </c>
     </row>
-    <row r="426" ht="16" customHeight="1">
+    <row r="426" hidden="1" ht="16" customHeight="1">
       <c r="A426" s="23" t="n">
         <v>4019499</v>
       </c>
@@ -37977,7 +37977,7 @@
         </is>
       </c>
     </row>
-    <row r="427" ht="16" customHeight="1">
+    <row r="427" hidden="1" ht="16" customHeight="1">
       <c r="A427" s="23" t="n">
         <v>4019500</v>
       </c>
@@ -38039,7 +38039,7 @@
         </is>
       </c>
     </row>
-    <row r="428" ht="16" customHeight="1">
+    <row r="428" hidden="1" ht="16" customHeight="1">
       <c r="A428" s="23" t="n">
         <v>4019501</v>
       </c>
@@ -38101,7 +38101,7 @@
         </is>
       </c>
     </row>
-    <row r="429" ht="16" customHeight="1">
+    <row r="429" hidden="1" ht="16" customHeight="1">
       <c r="A429" s="23" t="n">
         <v>4019502</v>
       </c>
@@ -38163,7 +38163,7 @@
         </is>
       </c>
     </row>
-    <row r="430" ht="16" customHeight="1">
+    <row r="430" hidden="1" ht="16" customHeight="1">
       <c r="A430" s="23" t="n">
         <v>4389441</v>
       </c>
@@ -38225,7 +38225,7 @@
         </is>
       </c>
     </row>
-    <row r="431" ht="16" customHeight="1">
+    <row r="431" hidden="1" ht="16" customHeight="1">
       <c r="A431" s="23" t="n">
         <v>3621421</v>
       </c>
@@ -38291,7 +38291,7 @@
         </is>
       </c>
     </row>
-    <row r="432" ht="16" customHeight="1">
+    <row r="432" hidden="1" ht="16" customHeight="1">
       <c r="A432" s="23" t="n">
         <v>3207706</v>
       </c>
@@ -38357,7 +38357,7 @@
         </is>
       </c>
     </row>
-    <row r="433" ht="16" customHeight="1">
+    <row r="433" hidden="1" ht="16" customHeight="1">
       <c r="A433" s="23" t="n">
         <v>3207704</v>
       </c>
@@ -38388,7 +38388,7 @@
         </is>
       </c>
       <c r="H433" s="23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433" s="22" t="inlineStr">
         <is>
@@ -38423,7 +38423,7 @@
         </is>
       </c>
     </row>
-    <row r="434" ht="16" customHeight="1">
+    <row r="434" hidden="1" ht="16" customHeight="1">
       <c r="A434" s="23" t="n">
         <v>3207700</v>
       </c>
@@ -38489,7 +38489,7 @@
         </is>
       </c>
     </row>
-    <row r="435" ht="16" customHeight="1">
+    <row r="435" hidden="1" ht="16" customHeight="1">
       <c r="A435" s="23" t="n">
         <v>3190477</v>
       </c>
@@ -38555,7 +38555,7 @@
         </is>
       </c>
     </row>
-    <row r="436" ht="16" customHeight="1">
+    <row r="436" hidden="1" ht="16" customHeight="1">
       <c r="A436" s="23" t="n">
         <v>2759292</v>
       </c>
@@ -38621,7 +38621,7 @@
         </is>
       </c>
     </row>
-    <row r="437" ht="16" customHeight="1">
+    <row r="437" hidden="1" ht="16" customHeight="1">
       <c r="A437" s="23" t="n">
         <v>2344141</v>
       </c>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
     </row>
-    <row r="438" ht="16" customHeight="1">
+    <row r="438" hidden="1" ht="16" customHeight="1">
       <c r="A438" s="23" t="n">
         <v>4021306</v>
       </c>
@@ -38745,7 +38745,7 @@
         </is>
       </c>
     </row>
-    <row r="439" ht="16" customHeight="1">
+    <row r="439" hidden="1" ht="16" customHeight="1">
       <c r="A439" s="23" t="n">
         <v>4021307</v>
       </c>
@@ -38805,7 +38805,7 @@
         </is>
       </c>
     </row>
-    <row r="440" ht="16" customHeight="1">
+    <row r="440" hidden="1" ht="16" customHeight="1">
       <c r="A440" s="23" t="n">
         <v>4021302</v>
       </c>
@@ -38867,7 +38867,7 @@
         </is>
       </c>
     </row>
-    <row r="441" ht="16" customHeight="1">
+    <row r="441" hidden="1" ht="16" customHeight="1">
       <c r="A441" s="23" t="n">
         <v>4021303</v>
       </c>
@@ -38927,7 +38927,7 @@
         </is>
       </c>
     </row>
-    <row r="442" ht="16" customHeight="1">
+    <row r="442" hidden="1" ht="16" customHeight="1">
       <c r="A442" s="23" t="n">
         <v>4021304</v>
       </c>
@@ -38989,7 +38989,7 @@
         </is>
       </c>
     </row>
-    <row r="443" ht="16" customHeight="1">
+    <row r="443" hidden="1" ht="16" customHeight="1">
       <c r="A443" s="23" t="n">
         <v>4021338</v>
       </c>
@@ -39051,7 +39051,7 @@
         </is>
       </c>
     </row>
-    <row r="444" ht="16" customHeight="1">
+    <row r="444" hidden="1" ht="16" customHeight="1">
       <c r="A444" s="23" t="n">
         <v>4021349</v>
       </c>
@@ -39113,7 +39113,7 @@
         </is>
       </c>
     </row>
-    <row r="445" ht="16" customHeight="1">
+    <row r="445" hidden="1" ht="16" customHeight="1">
       <c r="A445" s="23" t="n">
         <v>4021350</v>
       </c>
@@ -39173,7 +39173,7 @@
         </is>
       </c>
     </row>
-    <row r="446" ht="16" customHeight="1">
+    <row r="446" hidden="1" ht="16" customHeight="1">
       <c r="A446" s="23" t="n">
         <v>4021355</v>
       </c>
@@ -39235,7 +39235,7 @@
         </is>
       </c>
     </row>
-    <row r="447" ht="16" customHeight="1">
+    <row r="447" hidden="1" ht="16" customHeight="1">
       <c r="A447" s="23" t="n">
         <v>4021356</v>
       </c>
@@ -39295,7 +39295,7 @@
         </is>
       </c>
     </row>
-    <row r="448" ht="16" customHeight="1">
+    <row r="448" hidden="1" ht="16" customHeight="1">
       <c r="A448" s="23" t="n">
         <v>4021377</v>
       </c>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
     </row>
-    <row r="449" ht="16" customHeight="1">
+    <row r="449" hidden="1" ht="16" customHeight="1">
       <c r="A449" s="23" t="n">
         <v>4021379</v>
       </c>
@@ -39419,7 +39419,7 @@
         </is>
       </c>
     </row>
-    <row r="450" ht="16" customHeight="1">
+    <row r="450" hidden="1" ht="16" customHeight="1">
       <c r="A450" s="23" t="n">
         <v>4021380</v>
       </c>
@@ -39479,7 +39479,7 @@
         </is>
       </c>
     </row>
-    <row r="451" ht="16" customHeight="1">
+    <row r="451" hidden="1" ht="16" customHeight="1">
       <c r="A451" s="23" t="n">
         <v>4021381</v>
       </c>
@@ -39541,7 +39541,7 @@
         </is>
       </c>
     </row>
-    <row r="452" ht="16" customHeight="1">
+    <row r="452" hidden="1" ht="16" customHeight="1">
       <c r="A452" s="23" t="n">
         <v>4021383</v>
       </c>
@@ -39603,7 +39603,7 @@
         </is>
       </c>
     </row>
-    <row r="453" ht="16" customHeight="1">
+    <row r="453" hidden="1" ht="16" customHeight="1">
       <c r="A453" s="23" t="n">
         <v>4021392</v>
       </c>
@@ -39663,7 +39663,7 @@
         </is>
       </c>
     </row>
-    <row r="454" ht="16" customHeight="1">
+    <row r="454" hidden="1" ht="16" customHeight="1">
       <c r="A454" s="23" t="n">
         <v>4021416</v>
       </c>
@@ -39723,7 +39723,7 @@
         </is>
       </c>
     </row>
-    <row r="455" ht="16" customHeight="1">
+    <row r="455" hidden="1" ht="16" customHeight="1">
       <c r="A455" s="23" t="n">
         <v>4021429</v>
       </c>
@@ -39785,7 +39785,7 @@
         </is>
       </c>
     </row>
-    <row r="456" ht="16" customHeight="1">
+    <row r="456" hidden="1" ht="16" customHeight="1">
       <c r="A456" s="23" t="n">
         <v>4021463</v>
       </c>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
     </row>
-    <row r="457" ht="16" customHeight="1">
+    <row r="457" hidden="1" ht="16" customHeight="1">
       <c r="A457" s="23" t="n">
         <v>4021489</v>
       </c>
@@ -39909,7 +39909,7 @@
         </is>
       </c>
     </row>
-    <row r="458" ht="16" customHeight="1">
+    <row r="458" hidden="1" ht="16" customHeight="1">
       <c r="A458" s="23" t="n">
         <v>300173</v>
       </c>
@@ -39973,7 +39973,7 @@
         </is>
       </c>
     </row>
-    <row r="459" ht="16" customHeight="1">
+    <row r="459" hidden="1" ht="16" customHeight="1">
       <c r="A459" s="23" t="n">
         <v>2007393</v>
       </c>
@@ -40035,7 +40035,7 @@
         </is>
       </c>
     </row>
-    <row r="460" ht="16" customHeight="1">
+    <row r="460" hidden="1" ht="16" customHeight="1">
       <c r="A460" s="23" t="n">
         <v>2007388</v>
       </c>
@@ -40097,7 +40097,7 @@
         </is>
       </c>
     </row>
-    <row r="461" ht="16" customHeight="1">
+    <row r="461" hidden="1" ht="16" customHeight="1">
       <c r="A461" s="23" t="n">
         <v>352851</v>
       </c>
@@ -40159,7 +40159,7 @@
         </is>
       </c>
     </row>
-    <row r="462" ht="16" customHeight="1">
+    <row r="462" hidden="1" ht="16" customHeight="1">
       <c r="A462" s="23" t="n">
         <v>3450668</v>
       </c>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
     </row>
-    <row r="463" ht="16" customHeight="1">
+    <row r="463" hidden="1" ht="16" customHeight="1">
       <c r="A463" s="23" t="n">
         <v>3450670</v>
       </c>
@@ -40283,7 +40283,7 @@
         </is>
       </c>
     </row>
-    <row r="464" ht="16" customHeight="1">
+    <row r="464" hidden="1" ht="16" customHeight="1">
       <c r="A464" s="23" t="n">
         <v>3450671</v>
       </c>
@@ -40345,7 +40345,7 @@
         </is>
       </c>
     </row>
-    <row r="465" ht="16" customHeight="1">
+    <row r="465" hidden="1" ht="16" customHeight="1">
       <c r="A465" s="23" t="n">
         <v>3450673</v>
       </c>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
     </row>
-    <row r="466" ht="16" customHeight="1">
+    <row r="466" hidden="1" ht="16" customHeight="1">
       <c r="A466" s="23" t="n">
         <v>3450674</v>
       </c>
@@ -40469,7 +40469,7 @@
         </is>
       </c>
     </row>
-    <row r="467" ht="16" customHeight="1">
+    <row r="467" hidden="1" ht="16" customHeight="1">
       <c r="A467" s="23" t="n">
         <v>3450675</v>
       </c>
@@ -40531,7 +40531,7 @@
         </is>
       </c>
     </row>
-    <row r="468" ht="16" customHeight="1">
+    <row r="468" hidden="1" ht="16" customHeight="1">
       <c r="A468" s="23" t="n">
         <v>3468185</v>
       </c>
@@ -40593,7 +40593,7 @@
         </is>
       </c>
     </row>
-    <row r="469" ht="16" customHeight="1">
+    <row r="469" hidden="1" ht="16" customHeight="1">
       <c r="A469" s="23" t="n">
         <v>3468188</v>
       </c>
@@ -40655,7 +40655,7 @@
         </is>
       </c>
     </row>
-    <row r="470" ht="16" customHeight="1">
+    <row r="470" hidden="1" ht="16" customHeight="1">
       <c r="A470" s="23" t="n">
         <v>3468189</v>
       </c>
@@ -40717,7 +40717,7 @@
         </is>
       </c>
     </row>
-    <row r="471" ht="16" customHeight="1">
+    <row r="471" hidden="1" ht="16" customHeight="1">
       <c r="A471" s="23" t="n">
         <v>3468192</v>
       </c>
@@ -40779,7 +40779,7 @@
         </is>
       </c>
     </row>
-    <row r="472" ht="16" customHeight="1">
+    <row r="472" hidden="1" ht="16" customHeight="1">
       <c r="A472" s="23" t="n">
         <v>3468193</v>
       </c>
@@ -40841,7 +40841,7 @@
         </is>
       </c>
     </row>
-    <row r="473" ht="16" customHeight="1">
+    <row r="473" hidden="1" ht="16" customHeight="1">
       <c r="A473" s="23" t="n">
         <v>3468194</v>
       </c>
@@ -40903,7 +40903,7 @@
         </is>
       </c>
     </row>
-    <row r="474" ht="16" customHeight="1">
+    <row r="474" hidden="1" ht="16" customHeight="1">
       <c r="A474" s="23" t="n">
         <v>3468195</v>
       </c>
@@ -40965,7 +40965,7 @@
         </is>
       </c>
     </row>
-    <row r="475" ht="16" customHeight="1">
+    <row r="475" hidden="1" ht="16" customHeight="1">
       <c r="A475" s="23" t="n">
         <v>2692694</v>
       </c>
@@ -41027,7 +41027,7 @@
         </is>
       </c>
     </row>
-    <row r="476" ht="16" customHeight="1">
+    <row r="476" hidden="1" ht="16" customHeight="1">
       <c r="A476" s="23" t="n">
         <v>2692729</v>
       </c>
@@ -41087,7 +41087,7 @@
         </is>
       </c>
     </row>
-    <row r="477" ht="16" customHeight="1">
+    <row r="477" hidden="1" ht="16" customHeight="1">
       <c r="A477" s="23" t="n">
         <v>2692731</v>
       </c>
@@ -41147,7 +41147,7 @@
         </is>
       </c>
     </row>
-    <row r="478" ht="16" customHeight="1">
+    <row r="478" hidden="1" ht="16" customHeight="1">
       <c r="A478" s="23" t="n">
         <v>2692720</v>
       </c>
@@ -41209,7 +41209,7 @@
         </is>
       </c>
     </row>
-    <row r="479" ht="16" customHeight="1">
+    <row r="479" hidden="1" ht="16" customHeight="1">
       <c r="A479" s="23" t="n">
         <v>2692726</v>
       </c>
@@ -41271,7 +41271,7 @@
         </is>
       </c>
     </row>
-    <row r="480" ht="16" customHeight="1">
+    <row r="480" hidden="1" ht="16" customHeight="1">
       <c r="A480" s="23" t="n">
         <v>2692722</v>
       </c>
@@ -41333,7 +41333,7 @@
         </is>
       </c>
     </row>
-    <row r="481" ht="16" customHeight="1">
+    <row r="481" hidden="1" ht="16" customHeight="1">
       <c r="A481" s="23" t="n">
         <v>2692724</v>
       </c>
@@ -41395,7 +41395,7 @@
         </is>
       </c>
     </row>
-    <row r="482" ht="16" customHeight="1">
+    <row r="482" hidden="1" ht="16" customHeight="1">
       <c r="A482" s="23" t="n">
         <v>2692727</v>
       </c>
@@ -41457,7 +41457,7 @@
         </is>
       </c>
     </row>
-    <row r="483" ht="16" customHeight="1">
+    <row r="483" hidden="1" ht="16" customHeight="1">
       <c r="A483" s="23" t="n">
         <v>2742616</v>
       </c>
@@ -41519,7 +41519,7 @@
         </is>
       </c>
     </row>
-    <row r="484" ht="16" customHeight="1">
+    <row r="484" hidden="1" ht="16" customHeight="1">
       <c r="A484" s="23" t="n">
         <v>2742617</v>
       </c>
@@ -41581,7 +41581,7 @@
         </is>
       </c>
     </row>
-    <row r="485" ht="16" customHeight="1">
+    <row r="485" hidden="1" ht="16" customHeight="1">
       <c r="A485" s="23" t="n">
         <v>2742618</v>
       </c>
@@ -41643,7 +41643,7 @@
         </is>
       </c>
     </row>
-    <row r="486" ht="16" customHeight="1">
+    <row r="486" hidden="1" ht="16" customHeight="1">
       <c r="A486" s="23" t="n">
         <v>2742619</v>
       </c>
@@ -41705,7 +41705,7 @@
         </is>
       </c>
     </row>
-    <row r="487" ht="16" customHeight="1">
+    <row r="487" hidden="1" ht="16" customHeight="1">
       <c r="A487" s="23" t="n">
         <v>2742620</v>
       </c>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
     </row>
-    <row r="488" ht="16" customHeight="1">
+    <row r="488" hidden="1" ht="16" customHeight="1">
       <c r="A488" s="23" t="n">
         <v>2742621</v>
       </c>
@@ -41829,7 +41829,7 @@
         </is>
       </c>
     </row>
-    <row r="489" ht="16" customHeight="1">
+    <row r="489" hidden="1" ht="16" customHeight="1">
       <c r="A489" s="23" t="n">
         <v>302899</v>
       </c>
@@ -41891,7 +41891,7 @@
         </is>
       </c>
     </row>
-    <row r="490" ht="16" customHeight="1">
+    <row r="490" hidden="1" ht="16" customHeight="1">
       <c r="A490" s="23" t="n">
         <v>302900</v>
       </c>
@@ -41953,7 +41953,7 @@
         </is>
       </c>
     </row>
-    <row r="491" ht="16" customHeight="1">
+    <row r="491" hidden="1" ht="16" customHeight="1">
       <c r="A491" s="23" t="n">
         <v>302901</v>
       </c>
@@ -42015,7 +42015,7 @@
         </is>
       </c>
     </row>
-    <row r="492" ht="16" customHeight="1">
+    <row r="492" hidden="1" ht="16" customHeight="1">
       <c r="A492" s="23" t="n">
         <v>302902</v>
       </c>
@@ -42077,7 +42077,7 @@
         </is>
       </c>
     </row>
-    <row r="493" ht="16" customHeight="1">
+    <row r="493" hidden="1" ht="16" customHeight="1">
       <c r="A493" s="23" t="n">
         <v>302903</v>
       </c>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
     </row>
-    <row r="494" ht="16" customHeight="1">
+    <row r="494" hidden="1" ht="16" customHeight="1">
       <c r="A494" s="23" t="n">
         <v>302905</v>
       </c>
@@ -42201,7 +42201,7 @@
         </is>
       </c>
     </row>
-    <row r="495" ht="16" customHeight="1">
+    <row r="495" hidden="1" ht="16" customHeight="1">
       <c r="A495" s="23" t="n">
         <v>302906</v>
       </c>
@@ -42263,7 +42263,7 @@
         </is>
       </c>
     </row>
-    <row r="496" ht="16" customHeight="1">
+    <row r="496" hidden="1" ht="16" customHeight="1">
       <c r="A496" s="23" t="n">
         <v>302907</v>
       </c>
@@ -42325,7 +42325,7 @@
         </is>
       </c>
     </row>
-    <row r="497" ht="16" customHeight="1">
+    <row r="497" hidden="1" ht="16" customHeight="1">
       <c r="A497" s="23" t="n">
         <v>302910</v>
       </c>
@@ -42387,7 +42387,7 @@
         </is>
       </c>
     </row>
-    <row r="498" ht="16" customHeight="1">
+    <row r="498" hidden="1" ht="16" customHeight="1">
       <c r="A498" s="23" t="n">
         <v>302911</v>
       </c>
@@ -42449,7 +42449,7 @@
         </is>
       </c>
     </row>
-    <row r="499" ht="16" customHeight="1">
+    <row r="499" hidden="1" ht="16" customHeight="1">
       <c r="A499" s="23" t="n">
         <v>302912</v>
       </c>
@@ -42511,7 +42511,7 @@
         </is>
       </c>
     </row>
-    <row r="500" ht="16" customHeight="1">
+    <row r="500" hidden="1" ht="16" customHeight="1">
       <c r="A500" s="23" t="n">
         <v>302913</v>
       </c>
@@ -42573,7 +42573,7 @@
         </is>
       </c>
     </row>
-    <row r="501" ht="16" customHeight="1">
+    <row r="501" hidden="1" ht="16" customHeight="1">
       <c r="A501" s="23" t="n">
         <v>302916</v>
       </c>
@@ -42635,7 +42635,7 @@
         </is>
       </c>
     </row>
-    <row r="502" ht="16" customHeight="1">
+    <row r="502" hidden="1" ht="16" customHeight="1">
       <c r="A502" s="23" t="n">
         <v>302917</v>
       </c>
@@ -42697,7 +42697,7 @@
         </is>
       </c>
     </row>
-    <row r="503" ht="16" customHeight="1">
+    <row r="503" hidden="1" ht="16" customHeight="1">
       <c r="A503" s="23" t="n">
         <v>302920</v>
       </c>
@@ -42759,7 +42759,7 @@
         </is>
       </c>
     </row>
-    <row r="504" ht="16" customHeight="1">
+    <row r="504" hidden="1" ht="16" customHeight="1">
       <c r="A504" s="23" t="n">
         <v>302921</v>
       </c>
@@ -42821,7 +42821,7 @@
         </is>
       </c>
     </row>
-    <row r="505" ht="16" customHeight="1">
+    <row r="505" hidden="1" ht="16" customHeight="1">
       <c r="A505" s="23" t="n">
         <v>2037743</v>
       </c>
@@ -42881,7 +42881,7 @@
         </is>
       </c>
     </row>
-    <row r="506" ht="16" customHeight="1">
+    <row r="506" hidden="1" ht="16" customHeight="1">
       <c r="A506" s="23" t="n">
         <v>4337502</v>
       </c>
@@ -42943,7 +42943,7 @@
         </is>
       </c>
     </row>
-    <row r="507" ht="16" customHeight="1">
+    <row r="507" hidden="1" ht="16" customHeight="1">
       <c r="A507" s="23" t="n">
         <v>4337503</v>
       </c>
@@ -43005,7 +43005,7 @@
         </is>
       </c>
     </row>
-    <row r="508" ht="16" customHeight="1">
+    <row r="508" hidden="1" ht="16" customHeight="1">
       <c r="A508" s="23" t="n">
         <v>4337504</v>
       </c>
@@ -43067,7 +43067,7 @@
         </is>
       </c>
     </row>
-    <row r="509" ht="16" customHeight="1">
+    <row r="509" hidden="1" ht="16" customHeight="1">
       <c r="A509" s="23" t="n">
         <v>4337508</v>
       </c>
@@ -43129,7 +43129,7 @@
         </is>
       </c>
     </row>
-    <row r="510" ht="16" customHeight="1">
+    <row r="510" hidden="1" ht="16" customHeight="1">
       <c r="A510" s="23" t="n">
         <v>4337509</v>
       </c>
@@ -43191,7 +43191,7 @@
         </is>
       </c>
     </row>
-    <row r="511" ht="16" customHeight="1">
+    <row r="511" hidden="1" ht="16" customHeight="1">
       <c r="A511" s="23" t="n">
         <v>4337510</v>
       </c>
@@ -43253,7 +43253,7 @@
         </is>
       </c>
     </row>
-    <row r="512" ht="16" customHeight="1">
+    <row r="512" hidden="1" ht="16" customHeight="1">
       <c r="A512" s="23" t="n">
         <v>4354839</v>
       </c>
@@ -43315,7 +43315,7 @@
         </is>
       </c>
     </row>
-    <row r="513" ht="16" customHeight="1">
+    <row r="513" hidden="1" ht="16" customHeight="1">
       <c r="A513" s="23" t="n">
         <v>4354840</v>
       </c>
@@ -43377,7 +43377,7 @@
         </is>
       </c>
     </row>
-    <row r="514" ht="16" customHeight="1">
+    <row r="514" hidden="1" ht="16" customHeight="1">
       <c r="A514" s="23" t="n">
         <v>4354872</v>
       </c>
@@ -43439,7 +43439,7 @@
         </is>
       </c>
     </row>
-    <row r="515" ht="16" customHeight="1">
+    <row r="515" hidden="1" ht="16" customHeight="1">
       <c r="A515" s="23" t="n">
         <v>4354873</v>
       </c>
@@ -43501,7 +43501,7 @@
         </is>
       </c>
     </row>
-    <row r="516" ht="16" customHeight="1">
+    <row r="516" hidden="1" ht="16" customHeight="1">
       <c r="A516" s="23" t="n">
         <v>4354874</v>
       </c>
@@ -43563,7 +43563,7 @@
         </is>
       </c>
     </row>
-    <row r="517" ht="16" customHeight="1">
+    <row r="517" hidden="1" ht="16" customHeight="1">
       <c r="A517" s="23" t="n">
         <v>3468204</v>
       </c>
@@ -43625,7 +43625,7 @@
         </is>
       </c>
     </row>
-    <row r="518" ht="16" customHeight="1">
+    <row r="518" hidden="1" ht="16" customHeight="1">
       <c r="A518" s="23" t="n">
         <v>3468206</v>
       </c>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
     </row>
-    <row r="519" ht="16" customHeight="1">
+    <row r="519" hidden="1" ht="16" customHeight="1">
       <c r="A519" s="23" t="n">
         <v>3468207</v>
       </c>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
     </row>
-    <row r="520" ht="16" customHeight="1">
+    <row r="520" hidden="1" ht="16" customHeight="1">
       <c r="A520" s="23" t="n">
         <v>4354905</v>
       </c>
@@ -43811,7 +43811,7 @@
         </is>
       </c>
     </row>
-    <row r="521" ht="16" customHeight="1">
+    <row r="521" hidden="1" ht="16" customHeight="1">
       <c r="A521" s="23" t="n">
         <v>4354910</v>
       </c>
@@ -43873,7 +43873,7 @@
         </is>
       </c>
     </row>
-    <row r="522" ht="16" customHeight="1">
+    <row r="522" hidden="1" ht="16" customHeight="1">
       <c r="A522" s="23" t="n">
         <v>4354911</v>
       </c>
@@ -43935,7 +43935,7 @@
         </is>
       </c>
     </row>
-    <row r="523" ht="16" customHeight="1">
+    <row r="523" hidden="1" ht="16" customHeight="1">
       <c r="A523" s="23" t="n">
         <v>4354912</v>
       </c>
@@ -43997,7 +43997,7 @@
         </is>
       </c>
     </row>
-    <row r="524" ht="16" customHeight="1">
+    <row r="524" hidden="1" ht="16" customHeight="1">
       <c r="A524" s="23" t="n">
         <v>4354913</v>
       </c>
@@ -44059,7 +44059,7 @@
         </is>
       </c>
     </row>
-    <row r="525" ht="16" customHeight="1">
+    <row r="525" hidden="1" ht="16" customHeight="1">
       <c r="A525" s="23" t="n">
         <v>4354949</v>
       </c>
@@ -44121,7 +44121,7 @@
         </is>
       </c>
     </row>
-    <row r="526" ht="16" customHeight="1">
+    <row r="526" hidden="1" ht="16" customHeight="1">
       <c r="A526" s="23" t="n">
         <v>4354950</v>
       </c>
@@ -44183,7 +44183,7 @@
         </is>
       </c>
     </row>
-    <row r="527" ht="16" customHeight="1">
+    <row r="527" hidden="1" ht="16" customHeight="1">
       <c r="A527" s="23" t="n">
         <v>4354951</v>
       </c>
@@ -44245,7 +44245,7 @@
         </is>
       </c>
     </row>
-    <row r="528" ht="16" customHeight="1">
+    <row r="528" hidden="1" ht="16" customHeight="1">
       <c r="A528" s="23" t="n">
         <v>4337461</v>
       </c>
@@ -44307,7 +44307,7 @@
         </is>
       </c>
     </row>
-    <row r="529" ht="16" customHeight="1">
+    <row r="529" hidden="1" ht="16" customHeight="1">
       <c r="A529" s="23" t="n">
         <v>4337462</v>
       </c>
@@ -44369,7 +44369,7 @@
         </is>
       </c>
     </row>
-    <row r="530" ht="16" customHeight="1">
+    <row r="530" hidden="1" ht="16" customHeight="1">
       <c r="A530" s="23" t="n">
         <v>4337463</v>
       </c>
@@ -44431,7 +44431,7 @@
         </is>
       </c>
     </row>
-    <row r="531" ht="16" customHeight="1">
+    <row r="531" hidden="1" ht="16" customHeight="1">
       <c r="A531" s="23" t="n">
         <v>4337464</v>
       </c>
@@ -44493,7 +44493,7 @@
         </is>
       </c>
     </row>
-    <row r="532" ht="16" customHeight="1">
+    <row r="532" hidden="1" ht="16" customHeight="1">
       <c r="A532" s="23" t="n">
         <v>4337465</v>
       </c>
@@ -44555,7 +44555,7 @@
         </is>
       </c>
     </row>
-    <row r="533" ht="16" customHeight="1">
+    <row r="533" hidden="1" ht="16" customHeight="1">
       <c r="A533" s="23" t="n">
         <v>4337474</v>
       </c>
@@ -44617,7 +44617,7 @@
         </is>
       </c>
     </row>
-    <row r="534" ht="16" customHeight="1">
+    <row r="534" hidden="1" ht="16" customHeight="1">
       <c r="A534" s="23" t="n">
         <v>4337475</v>
       </c>
@@ -44679,7 +44679,7 @@
         </is>
       </c>
     </row>
-    <row r="535" ht="16" customHeight="1">
+    <row r="535" hidden="1" ht="16" customHeight="1">
       <c r="A535" s="23" t="n">
         <v>4337469</v>
       </c>
@@ -44741,7 +44741,7 @@
         </is>
       </c>
     </row>
-    <row r="536" ht="16" customHeight="1">
+    <row r="536" hidden="1" ht="16" customHeight="1">
       <c r="A536" s="23" t="n">
         <v>4337470</v>
       </c>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
     </row>
-    <row r="537" ht="16" customHeight="1">
+    <row r="537" hidden="1" ht="16" customHeight="1">
       <c r="A537" s="23" t="n">
         <v>4337472</v>
       </c>
@@ -44865,7 +44865,7 @@
         </is>
       </c>
     </row>
-    <row r="538" ht="16" customHeight="1">
+    <row r="538" hidden="1" ht="16" customHeight="1">
       <c r="A538" s="23" t="n">
         <v>4319927</v>
       </c>
@@ -44927,7 +44927,7 @@
         </is>
       </c>
     </row>
-    <row r="539" ht="16" customHeight="1">
+    <row r="539" hidden="1" ht="16" customHeight="1">
       <c r="A539" s="23" t="n">
         <v>4319928</v>
       </c>
@@ -44989,7 +44989,7 @@
         </is>
       </c>
     </row>
-    <row r="540" ht="16" customHeight="1">
+    <row r="540" hidden="1" ht="16" customHeight="1">
       <c r="A540" s="23" t="n">
         <v>4319929</v>
       </c>
@@ -45051,7 +45051,7 @@
         </is>
       </c>
     </row>
-    <row r="541" ht="16" customHeight="1">
+    <row r="541" hidden="1" ht="16" customHeight="1">
       <c r="A541" s="23" t="n">
         <v>3741248</v>
       </c>
@@ -45113,7 +45113,7 @@
         </is>
       </c>
     </row>
-    <row r="542" ht="16" customHeight="1">
+    <row r="542" hidden="1" ht="16" customHeight="1">
       <c r="A542" s="23" t="n">
         <v>3741249</v>
       </c>
@@ -45175,7 +45175,7 @@
         </is>
       </c>
     </row>
-    <row r="543" ht="16" customHeight="1">
+    <row r="543" hidden="1" ht="16" customHeight="1">
       <c r="A543" s="23" t="n">
         <v>3741251</v>
       </c>
@@ -45237,7 +45237,7 @@
         </is>
       </c>
     </row>
-    <row r="544" ht="16" customHeight="1">
+    <row r="544" hidden="1" ht="16" customHeight="1">
       <c r="A544" s="23" t="n">
         <v>3741252</v>
       </c>
@@ -45299,7 +45299,7 @@
         </is>
       </c>
     </row>
-    <row r="545" ht="16" customHeight="1">
+    <row r="545" hidden="1" ht="16" customHeight="1">
       <c r="A545" s="23" t="n">
         <v>3741253</v>
       </c>
@@ -45361,7 +45361,7 @@
         </is>
       </c>
     </row>
-    <row r="546" ht="16" customHeight="1">
+    <row r="546" hidden="1" ht="16" customHeight="1">
       <c r="A546" s="23" t="n">
         <v>3741254</v>
       </c>
@@ -45423,7 +45423,7 @@
         </is>
       </c>
     </row>
-    <row r="547" ht="16" customHeight="1">
+    <row r="547" hidden="1" ht="16" customHeight="1">
       <c r="A547" s="23" t="n">
         <v>3741255</v>
       </c>
@@ -45485,7 +45485,7 @@
         </is>
       </c>
     </row>
-    <row r="548" ht="16" customHeight="1">
+    <row r="548" hidden="1" ht="16" customHeight="1">
       <c r="A548" s="23" t="n">
         <v>4355036</v>
       </c>
@@ -45547,7 +45547,7 @@
         </is>
       </c>
     </row>
-    <row r="549" ht="16" customHeight="1">
+    <row r="549" hidden="1" ht="16" customHeight="1">
       <c r="A549" s="23" t="n">
         <v>4355037</v>
       </c>
@@ -45609,7 +45609,7 @@
         </is>
       </c>
     </row>
-    <row r="550" ht="16" customHeight="1">
+    <row r="550" hidden="1" ht="16" customHeight="1">
       <c r="A550" s="23" t="n">
         <v>4355038</v>
       </c>
@@ -45671,7 +45671,7 @@
         </is>
       </c>
     </row>
-    <row r="551" ht="16" customHeight="1">
+    <row r="551" hidden="1" ht="16" customHeight="1">
       <c r="A551" s="23" t="n">
         <v>4355039</v>
       </c>
@@ -45733,7 +45733,7 @@
         </is>
       </c>
     </row>
-    <row r="552" ht="16" customHeight="1">
+    <row r="552" hidden="1" ht="16" customHeight="1">
       <c r="A552" s="23" t="n">
         <v>4355040</v>
       </c>
@@ -45795,7 +45795,7 @@
         </is>
       </c>
     </row>
-    <row r="553" ht="16" customHeight="1">
+    <row r="553" hidden="1" ht="16" customHeight="1">
       <c r="A553" s="23" t="n">
         <v>3587432</v>
       </c>
@@ -45861,7 +45861,7 @@
         </is>
       </c>
     </row>
-    <row r="554" ht="16" customHeight="1">
+    <row r="554" hidden="1" ht="16" customHeight="1">
       <c r="A554" s="23" t="n">
         <v>3587433</v>
       </c>
@@ -45927,7 +45927,7 @@
         </is>
       </c>
     </row>
-    <row r="555" ht="16" customHeight="1">
+    <row r="555" hidden="1" ht="16" customHeight="1">
       <c r="A555" s="23" t="n">
         <v>3587434</v>
       </c>
@@ -45993,7 +45993,7 @@
         </is>
       </c>
     </row>
-    <row r="556" ht="16" customHeight="1">
+    <row r="556" hidden="1" ht="16" customHeight="1">
       <c r="A556" s="23" t="n">
         <v>2002545</v>
       </c>
@@ -46063,7 +46063,7 @@
         </is>
       </c>
     </row>
-    <row r="557" ht="16" customHeight="1">
+    <row r="557" hidden="1" ht="16" customHeight="1">
       <c r="A557" s="23" t="n">
         <v>310686</v>
       </c>
@@ -46133,7 +46133,7 @@
         </is>
       </c>
     </row>
-    <row r="558" ht="16" customHeight="1">
+    <row r="558" hidden="1" ht="16" customHeight="1">
       <c r="A558" s="23" t="n">
         <v>310687</v>
       </c>
@@ -46203,7 +46203,7 @@
         </is>
       </c>
     </row>
-    <row r="559" ht="16" customHeight="1">
+    <row r="559" hidden="1" ht="16" customHeight="1">
       <c r="A559" s="23" t="n">
         <v>311021</v>
       </c>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
     </row>
-    <row r="560" ht="16" customHeight="1">
+    <row r="560" hidden="1" ht="16" customHeight="1">
       <c r="A560" s="23" t="n">
         <v>311022</v>
       </c>
@@ -46335,7 +46335,7 @@
         </is>
       </c>
     </row>
-    <row r="561" ht="16" customHeight="1">
+    <row r="561" hidden="1" ht="16" customHeight="1">
       <c r="A561" s="23" t="n">
         <v>311026</v>
       </c>
@@ -46401,7 +46401,7 @@
         </is>
       </c>
     </row>
-    <row r="562" ht="16" customHeight="1">
+    <row r="562" hidden="1" ht="16" customHeight="1">
       <c r="A562" s="23" t="n">
         <v>311032</v>
       </c>
@@ -46467,7 +46467,7 @@
         </is>
       </c>
     </row>
-    <row r="563" ht="16" customHeight="1">
+    <row r="563" hidden="1" ht="16" customHeight="1">
       <c r="A563" s="23" t="n">
         <v>311034</v>
       </c>
@@ -46533,7 +46533,7 @@
         </is>
       </c>
     </row>
-    <row r="564" ht="16" customHeight="1">
+    <row r="564" hidden="1" ht="16" customHeight="1">
       <c r="A564" s="23" t="n">
         <v>311037</v>
       </c>
@@ -46599,7 +46599,7 @@
         </is>
       </c>
     </row>
-    <row r="565" ht="16" customHeight="1">
+    <row r="565" hidden="1" ht="16" customHeight="1">
       <c r="A565" s="23" t="n">
         <v>311030</v>
       </c>
@@ -46663,7 +46663,7 @@
         </is>
       </c>
     </row>
-    <row r="566" ht="16" customHeight="1">
+    <row r="566" hidden="1" ht="16" customHeight="1">
       <c r="A566" s="23" t="n">
         <v>270083</v>
       </c>
@@ -46729,7 +46729,7 @@
         </is>
       </c>
     </row>
-    <row r="567" ht="16" customHeight="1">
+    <row r="567" hidden="1" ht="16" customHeight="1">
       <c r="A567" s="23" t="n">
         <v>148960</v>
       </c>
@@ -46795,7 +46795,7 @@
         </is>
       </c>
     </row>
-    <row r="568" ht="16" customHeight="1">
+    <row r="568" hidden="1" ht="16" customHeight="1">
       <c r="A568" s="23" t="n">
         <v>148962</v>
       </c>
@@ -46861,7 +46861,7 @@
         </is>
       </c>
     </row>
-    <row r="569" ht="16" customHeight="1">
+    <row r="569" hidden="1" ht="16" customHeight="1">
       <c r="A569" s="23" t="n">
         <v>96982</v>
       </c>
@@ -46925,7 +46925,7 @@
         </is>
       </c>
     </row>
-    <row r="570" ht="16" customHeight="1">
+    <row r="570" hidden="1" ht="16" customHeight="1">
       <c r="A570" s="23" t="n">
         <v>270084</v>
       </c>
@@ -46991,7 +46991,7 @@
         </is>
       </c>
     </row>
-    <row r="571" ht="16" customHeight="1">
+    <row r="571" hidden="1" ht="16" customHeight="1">
       <c r="A571" s="23" t="n">
         <v>197926</v>
       </c>
@@ -47057,7 +47057,7 @@
         </is>
       </c>
     </row>
-    <row r="572" ht="16" customHeight="1">
+    <row r="572" hidden="1" ht="16" customHeight="1">
       <c r="A572" s="23" t="n">
         <v>197925</v>
       </c>
@@ -47123,7 +47123,7 @@
         </is>
       </c>
     </row>
-    <row r="573" ht="16" customHeight="1">
+    <row r="573" hidden="1" ht="16" customHeight="1">
       <c r="A573" s="23" t="n">
         <v>197929</v>
       </c>
@@ -47189,7 +47189,7 @@
         </is>
       </c>
     </row>
-    <row r="574" ht="16" customHeight="1">
+    <row r="574" hidden="1" ht="16" customHeight="1">
       <c r="A574" s="23" t="n">
         <v>198639</v>
       </c>
@@ -47253,7 +47253,7 @@
         </is>
       </c>
     </row>
-    <row r="575" ht="16" customHeight="1">
+    <row r="575" hidden="1" ht="16" customHeight="1">
       <c r="A575" s="23" t="n">
         <v>198276</v>
       </c>
@@ -47317,7 +47317,7 @@
         </is>
       </c>
     </row>
-    <row r="576" ht="16" customHeight="1">
+    <row r="576" hidden="1" ht="16" customHeight="1">
       <c r="A576" s="23" t="n">
         <v>198277</v>
       </c>
@@ -47381,7 +47381,7 @@
         </is>
       </c>
     </row>
-    <row r="577" ht="16" customHeight="1">
+    <row r="577" hidden="1" ht="16" customHeight="1">
       <c r="A577" s="23" t="n">
         <v>198639</v>
       </c>
@@ -47447,7 +47447,7 @@
         </is>
       </c>
     </row>
-    <row r="578" ht="16" customHeight="1">
+    <row r="578" hidden="1" ht="16" customHeight="1">
       <c r="A578" s="23" t="n">
         <v>198276</v>
       </c>
@@ -47513,7 +47513,7 @@
         </is>
       </c>
     </row>
-    <row r="579" ht="16" customHeight="1">
+    <row r="579" hidden="1" ht="16" customHeight="1">
       <c r="A579" s="23" t="n">
         <v>198277</v>
       </c>
@@ -47579,7 +47579,7 @@
         </is>
       </c>
     </row>
-    <row r="580" ht="16" customHeight="1">
+    <row r="580" hidden="1" ht="16" customHeight="1">
       <c r="A580" s="23" t="n">
         <v>304911</v>
       </c>
@@ -47645,7 +47645,7 @@
         </is>
       </c>
     </row>
-    <row r="581" ht="16" customHeight="1">
+    <row r="581" hidden="1" ht="16" customHeight="1">
       <c r="A581" s="23" t="n">
         <v>304914</v>
       </c>
@@ -47711,7 +47711,7 @@
         </is>
       </c>
     </row>
-    <row r="582" ht="16" customHeight="1">
+    <row r="582" hidden="1" ht="16" customHeight="1">
       <c r="A582" s="23" t="n">
         <v>2002579</v>
       </c>
@@ -47777,7 +47777,7 @@
         </is>
       </c>
     </row>
-    <row r="583" ht="16" customHeight="1">
+    <row r="583" hidden="1" ht="16" customHeight="1">
       <c r="A583" s="23" t="n">
         <v>319072</v>
       </c>
@@ -47843,7 +47843,7 @@
         </is>
       </c>
     </row>
-    <row r="584" ht="16" customHeight="1">
+    <row r="584" hidden="1" ht="16" customHeight="1">
       <c r="A584" s="23" t="n">
         <v>310698</v>
       </c>
@@ -47909,7 +47909,7 @@
         </is>
       </c>
     </row>
-    <row r="585" ht="16" customHeight="1">
+    <row r="585" hidden="1" ht="16" customHeight="1">
       <c r="A585" s="23" t="n">
         <v>310699</v>
       </c>
@@ -47975,7 +47975,7 @@
         </is>
       </c>
     </row>
-    <row r="586" ht="16" customHeight="1">
+    <row r="586" hidden="1" ht="16" customHeight="1">
       <c r="A586" s="23" t="n">
         <v>310703</v>
       </c>
@@ -48041,7 +48041,7 @@
         </is>
       </c>
     </row>
-    <row r="587" ht="16" customHeight="1">
+    <row r="587" hidden="1" ht="16" customHeight="1">
       <c r="A587" s="23" t="n">
         <v>311136</v>
       </c>
@@ -48107,7 +48107,7 @@
         </is>
       </c>
     </row>
-    <row r="588" ht="16" customHeight="1">
+    <row r="588" hidden="1" ht="16" customHeight="1">
       <c r="A588" s="23" t="n">
         <v>199396</v>
       </c>
@@ -48181,7 +48181,7 @@
         </is>
       </c>
     </row>
-    <row r="589" ht="16" customHeight="1">
+    <row r="589" hidden="1" ht="16" customHeight="1">
       <c r="A589" s="23" t="n">
         <v>3207578</v>
       </c>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
     </row>
-    <row r="590" ht="16" customHeight="1">
+    <row r="590" hidden="1" ht="16" customHeight="1">
       <c r="A590" s="23" t="n">
         <v>3207579</v>
       </c>
@@ -48313,7 +48313,7 @@
         </is>
       </c>
     </row>
-    <row r="591" ht="16" customHeight="1">
+    <row r="591" hidden="1" ht="16" customHeight="1">
       <c r="A591" s="23" t="n">
         <v>270086</v>
       </c>
@@ -48383,7 +48383,7 @@
         </is>
       </c>
     </row>
-    <row r="592" ht="16" customHeight="1">
+    <row r="592" hidden="1" ht="16" customHeight="1">
       <c r="A592" s="23" t="n">
         <v>197915</v>
       </c>
@@ -48453,7 +48453,7 @@
         </is>
       </c>
     </row>
-    <row r="593" ht="16" customHeight="1">
+    <row r="593" hidden="1" ht="16" customHeight="1">
       <c r="A593" s="23" t="n">
         <v>197914</v>
       </c>
@@ -48523,7 +48523,7 @@
         </is>
       </c>
     </row>
-    <row r="594" ht="16" customHeight="1">
+    <row r="594" hidden="1" ht="16" customHeight="1">
       <c r="A594" s="23" t="n">
         <v>197918</v>
       </c>
@@ -48593,7 +48593,7 @@
         </is>
       </c>
     </row>
-    <row r="595" ht="16" customHeight="1">
+    <row r="595" hidden="1" ht="16" customHeight="1">
       <c r="A595" s="23" t="n">
         <v>270087</v>
       </c>
@@ -48663,7 +48663,7 @@
         </is>
       </c>
     </row>
-    <row r="596" ht="16" customHeight="1">
+    <row r="596" hidden="1" ht="16" customHeight="1">
       <c r="A596" s="23" t="n">
         <v>270088</v>
       </c>
@@ -48733,7 +48733,7 @@
         </is>
       </c>
     </row>
-    <row r="597" ht="16" customHeight="1">
+    <row r="597" hidden="1" ht="16" customHeight="1">
       <c r="A597" s="23" t="n">
         <v>270089</v>
       </c>
@@ -48803,7 +48803,7 @@
         </is>
       </c>
     </row>
-    <row r="598" ht="16" customHeight="1">
+    <row r="598" hidden="1" ht="16" customHeight="1">
       <c r="A598" s="23" t="n">
         <v>270090</v>
       </c>
@@ -48873,7 +48873,7 @@
         </is>
       </c>
     </row>
-    <row r="599" ht="16" customHeight="1">
+    <row r="599" hidden="1" ht="16" customHeight="1">
       <c r="A599" s="23" t="n">
         <v>270091</v>
       </c>
@@ -48943,7 +48943,7 @@
         </is>
       </c>
     </row>
-    <row r="600" ht="16" customHeight="1">
+    <row r="600" hidden="1" ht="16" customHeight="1">
       <c r="A600" s="23" t="n">
         <v>138329</v>
       </c>
@@ -49013,7 +49013,7 @@
         </is>
       </c>
     </row>
-    <row r="601" ht="16" customHeight="1">
+    <row r="601" hidden="1" ht="16" customHeight="1">
       <c r="A601" s="23" t="n">
         <v>270080</v>
       </c>
@@ -49083,7 +49083,7 @@
         </is>
       </c>
     </row>
-    <row r="602" ht="16" customHeight="1">
+    <row r="602" hidden="1" ht="16" customHeight="1">
       <c r="A602" s="23" t="n">
         <v>2037753</v>
       </c>
@@ -49153,7 +49153,7 @@
         </is>
       </c>
     </row>
-    <row r="603" ht="16" customHeight="1">
+    <row r="603" hidden="1" ht="16" customHeight="1">
       <c r="A603" s="23" t="n">
         <v>2037754</v>
       </c>
@@ -49223,7 +49223,7 @@
         </is>
       </c>
     </row>
-    <row r="604" ht="16" customHeight="1">
+    <row r="604" hidden="1" ht="16" customHeight="1">
       <c r="A604" s="23" t="n">
         <v>270081</v>
       </c>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
     </row>
-    <row r="605" ht="16" customHeight="1">
+    <row r="605" hidden="1" ht="16" customHeight="1">
       <c r="A605" s="23" t="n">
         <v>2037755</v>
       </c>
@@ -49363,7 +49363,7 @@
         </is>
       </c>
     </row>
-    <row r="606" ht="16" customHeight="1">
+    <row r="606" hidden="1" ht="16" customHeight="1">
       <c r="A606" s="23" t="n">
         <v>270082</v>
       </c>
@@ -49433,7 +49433,7 @@
         </is>
       </c>
     </row>
-    <row r="607" ht="16" customHeight="1">
+    <row r="607" hidden="1" ht="16" customHeight="1">
       <c r="A607" s="23" t="n">
         <v>2037760</v>
       </c>
@@ -49503,7 +49503,7 @@
         </is>
       </c>
     </row>
-    <row r="608" ht="16" customHeight="1">
+    <row r="608" hidden="1" ht="16" customHeight="1">
       <c r="A608" s="23" t="n">
         <v>2037761</v>
       </c>
@@ -49573,7 +49573,7 @@
         </is>
       </c>
     </row>
-    <row r="609" ht="16" customHeight="1">
+    <row r="609" hidden="1" ht="16" customHeight="1">
       <c r="A609" s="23" t="n">
         <v>2037762</v>
       </c>
@@ -49643,7 +49643,7 @@
         </is>
       </c>
     </row>
-    <row r="610" ht="16" customHeight="1">
+    <row r="610" hidden="1" ht="16" customHeight="1">
       <c r="A610" s="23" t="n">
         <v>2037763</v>
       </c>
@@ -49713,7 +49713,7 @@
         </is>
       </c>
     </row>
-    <row r="611" ht="16" customHeight="1">
+    <row r="611" hidden="1" ht="16" customHeight="1">
       <c r="A611" s="23" t="n">
         <v>2037764</v>
       </c>
@@ -49783,7 +49783,7 @@
         </is>
       </c>
     </row>
-    <row r="612" ht="16" customHeight="1">
+    <row r="612" hidden="1" ht="16" customHeight="1">
       <c r="A612" s="23" t="n">
         <v>2037774</v>
       </c>
@@ -49851,7 +49851,7 @@
         </is>
       </c>
     </row>
-    <row r="613" ht="16" customHeight="1">
+    <row r="613" hidden="1" ht="16" customHeight="1">
       <c r="A613" s="23" t="n">
         <v>320357</v>
       </c>
@@ -49919,7 +49919,7 @@
         </is>
       </c>
     </row>
-    <row r="614" ht="16" customHeight="1">
+    <row r="614" hidden="1" ht="16" customHeight="1">
       <c r="A614" s="23" t="n">
         <v>311223</v>
       </c>
@@ -49989,7 +49989,7 @@
         </is>
       </c>
     </row>
-    <row r="615" ht="16" customHeight="1">
+    <row r="615" hidden="1" ht="16" customHeight="1">
       <c r="A615" s="23" t="n">
         <v>2007348</v>
       </c>
@@ -50055,7 +50055,7 @@
         </is>
       </c>
     </row>
-    <row r="616" ht="16" customHeight="1">
+    <row r="616" hidden="1" ht="16" customHeight="1">
       <c r="A616" s="23" t="n">
         <v>2007357</v>
       </c>
@@ -50121,7 +50121,7 @@
         </is>
       </c>
     </row>
-    <row r="617" ht="16" customHeight="1">
+    <row r="617" hidden="1" ht="16" customHeight="1">
       <c r="A617" s="23" t="n">
         <v>2007361</v>
       </c>
@@ -50187,7 +50187,7 @@
         </is>
       </c>
     </row>
-    <row r="618" ht="16" customHeight="1">
+    <row r="618" hidden="1" ht="16" customHeight="1">
       <c r="A618" s="23" t="n">
         <v>3587475</v>
       </c>
@@ -50253,7 +50253,7 @@
         </is>
       </c>
     </row>
-    <row r="619" ht="16" customHeight="1">
+    <row r="619" hidden="1" ht="16" customHeight="1">
       <c r="A619" s="23" t="n">
         <v>3587476</v>
       </c>
@@ -50319,7 +50319,7 @@
         </is>
       </c>
     </row>
-    <row r="620" ht="16" customHeight="1">
+    <row r="620" hidden="1" ht="16" customHeight="1">
       <c r="A620" s="23" t="n">
         <v>3587489</v>
       </c>
@@ -50389,7 +50389,7 @@
         </is>
       </c>
     </row>
-    <row r="621" ht="16" customHeight="1">
+    <row r="621" hidden="1" ht="16" customHeight="1">
       <c r="A621" s="23" t="n">
         <v>3587491</v>
       </c>
@@ -50459,7 +50459,7 @@
         </is>
       </c>
     </row>
-    <row r="622" ht="16" customHeight="1">
+    <row r="622" hidden="1" ht="16" customHeight="1">
       <c r="A622" s="23" t="n">
         <v>3587494</v>
       </c>
@@ -50529,7 +50529,7 @@
         </is>
       </c>
     </row>
-    <row r="623" ht="16" customHeight="1">
+    <row r="623" hidden="1" ht="16" customHeight="1">
       <c r="A623" s="23" t="n">
         <v>3587490</v>
       </c>
@@ -50599,7 +50599,7 @@
         </is>
       </c>
     </row>
-    <row r="624" ht="16" customHeight="1">
+    <row r="624" hidden="1" ht="16" customHeight="1">
       <c r="A624" s="23" t="n">
         <v>3587450</v>
       </c>
@@ -50669,7 +50669,7 @@
         </is>
       </c>
     </row>
-    <row r="625" ht="16" customHeight="1">
+    <row r="625" hidden="1" ht="16" customHeight="1">
       <c r="A625" s="23" t="n">
         <v>3587449</v>
       </c>
@@ -50739,7 +50739,7 @@
         </is>
       </c>
     </row>
-    <row r="626" ht="16" customHeight="1">
+    <row r="626" hidden="1" ht="16" customHeight="1">
       <c r="A626" s="23" t="n">
         <v>3587461</v>
       </c>
@@ -50809,7 +50809,7 @@
         </is>
       </c>
     </row>
-    <row r="627" ht="16" customHeight="1">
+    <row r="627" hidden="1" ht="16" customHeight="1">
       <c r="A627" s="23" t="n">
         <v>3656128</v>
       </c>
@@ -50879,7 +50879,7 @@
         </is>
       </c>
     </row>
-    <row r="628" ht="16" customHeight="1">
+    <row r="628" hidden="1" ht="16" customHeight="1">
       <c r="A628" s="23" t="n">
         <v>3656177</v>
       </c>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
     </row>
-    <row r="629" ht="16" customHeight="1">
+    <row r="629" hidden="1" ht="16" customHeight="1">
       <c r="A629" s="23" t="n">
         <v>3587501</v>
       </c>
@@ -51019,7 +51019,7 @@
         </is>
       </c>
     </row>
-    <row r="630" ht="16" customHeight="1">
+    <row r="630" hidden="1" ht="16" customHeight="1">
       <c r="A630" s="23" t="n">
         <v>3587503</v>
       </c>
@@ -51089,7 +51089,7 @@
         </is>
       </c>
     </row>
-    <row r="631" ht="16" customHeight="1">
+    <row r="631" hidden="1" ht="16" customHeight="1">
       <c r="A631" s="23" t="n">
         <v>311065</v>
       </c>
@@ -51159,7 +51159,7 @@
         </is>
       </c>
     </row>
-    <row r="632" ht="16" customHeight="1">
+    <row r="632" hidden="1" ht="16" customHeight="1">
       <c r="A632" s="23" t="n">
         <v>311066</v>
       </c>
@@ -51229,7 +51229,7 @@
         </is>
       </c>
     </row>
-    <row r="633" ht="16" customHeight="1">
+    <row r="633" hidden="1" ht="16" customHeight="1">
       <c r="A633" s="23" t="n">
         <v>311080</v>
       </c>
@@ -51299,7 +51299,7 @@
         </is>
       </c>
     </row>
-    <row r="634" ht="16" customHeight="1">
+    <row r="634" hidden="1" ht="16" customHeight="1">
       <c r="A634" s="23" t="n">
         <v>311087</v>
       </c>
@@ -51369,7 +51369,7 @@
         </is>
       </c>
     </row>
-    <row r="635" ht="16" customHeight="1">
+    <row r="635" hidden="1" ht="16" customHeight="1">
       <c r="A635" s="23" t="n">
         <v>311092</v>
       </c>
@@ -51439,7 +51439,7 @@
         </is>
       </c>
     </row>
-    <row r="636" ht="16" customHeight="1">
+    <row r="636" hidden="1" ht="16" customHeight="1">
       <c r="A636" s="23" t="n">
         <v>306834</v>
       </c>
@@ -51509,7 +51509,7 @@
         </is>
       </c>
     </row>
-    <row r="637" ht="16" customHeight="1">
+    <row r="637" hidden="1" ht="16" customHeight="1">
       <c r="A637" s="23" t="n">
         <v>306840</v>
       </c>
@@ -51579,7 +51579,7 @@
         </is>
       </c>
     </row>
-    <row r="638" ht="16" customHeight="1">
+    <row r="638" hidden="1" ht="16" customHeight="1">
       <c r="A638" s="23" t="n">
         <v>306846</v>
       </c>
@@ -51649,7 +51649,7 @@
         </is>
       </c>
     </row>
-    <row r="639" ht="16" customHeight="1">
+    <row r="639" hidden="1" ht="16" customHeight="1">
       <c r="A639" s="23" t="n">
         <v>307037</v>
       </c>
@@ -51717,7 +51717,7 @@
         </is>
       </c>
     </row>
-    <row r="640" ht="16" customHeight="1">
+    <row r="640" hidden="1" ht="16" customHeight="1">
       <c r="A640" s="23" t="n">
         <v>307039</v>
       </c>
@@ -51785,7 +51785,7 @@
         </is>
       </c>
     </row>
-    <row r="641" ht="16" customHeight="1">
+    <row r="641" hidden="1" ht="16" customHeight="1">
       <c r="A641" s="23" t="n">
         <v>307042</v>
       </c>
@@ -51853,7 +51853,7 @@
         </is>
       </c>
     </row>
-    <row r="642" ht="16" customHeight="1">
+    <row r="642" hidden="1" ht="16" customHeight="1">
       <c r="A642" s="23" t="n">
         <v>307043</v>
       </c>
@@ -51921,7 +51921,7 @@
         </is>
       </c>
     </row>
-    <row r="643" ht="16" customHeight="1">
+    <row r="643" hidden="1" ht="16" customHeight="1">
       <c r="A643" s="23" t="n">
         <v>307044</v>
       </c>
@@ -51989,7 +51989,7 @@
         </is>
       </c>
     </row>
-    <row r="644" ht="16" customHeight="1">
+    <row r="644" hidden="1" ht="16" customHeight="1">
       <c r="A644" s="23" t="n">
         <v>307073</v>
       </c>
@@ -52059,7 +52059,7 @@
         </is>
       </c>
     </row>
-    <row r="645" ht="16" customHeight="1">
+    <row r="645" hidden="1" ht="16" customHeight="1">
       <c r="A645" s="23" t="n">
         <v>2007348</v>
       </c>
@@ -52129,7 +52129,7 @@
         </is>
       </c>
     </row>
-    <row r="646" ht="16" customHeight="1">
+    <row r="646" hidden="1" ht="16" customHeight="1">
       <c r="A646" s="23" t="n">
         <v>2007357</v>
       </c>
@@ -52199,7 +52199,7 @@
         </is>
       </c>
     </row>
-    <row r="647" ht="16" customHeight="1">
+    <row r="647" hidden="1" ht="16" customHeight="1">
       <c r="A647" s="23" t="n">
         <v>359620386</v>
       </c>
@@ -52269,7 +52269,7 @@
         </is>
       </c>
     </row>
-    <row r="648" ht="16" customHeight="1">
+    <row r="648" hidden="1" ht="16" customHeight="1">
       <c r="A648" s="23" t="n">
         <v>459161640</v>
       </c>
@@ -52339,7 +52339,7 @@
         </is>
       </c>
     </row>
-    <row r="649" ht="16" customHeight="1">
+    <row r="649" hidden="1" ht="16" customHeight="1">
       <c r="A649" s="23" t="n">
         <v>459061240</v>
       </c>
@@ -52409,7 +52409,7 @@
         </is>
       </c>
     </row>
-    <row r="650" ht="16" customHeight="1">
+    <row r="650" hidden="1" ht="16" customHeight="1">
       <c r="A650" s="23" t="n">
         <v>310817</v>
       </c>
@@ -52475,7 +52475,7 @@
         </is>
       </c>
     </row>
-    <row r="651" ht="16" customHeight="1">
+    <row r="651" hidden="1" ht="16" customHeight="1">
       <c r="A651" s="23" t="n">
         <v>310818</v>
       </c>
@@ -52541,7 +52541,7 @@
         </is>
       </c>
     </row>
-    <row r="652" ht="16" customHeight="1">
+    <row r="652" hidden="1" ht="16" customHeight="1">
       <c r="A652" s="23" t="n">
         <v>310819</v>
       </c>
@@ -52607,7 +52607,7 @@
         </is>
       </c>
     </row>
-    <row r="653" ht="16" customHeight="1">
+    <row r="653" hidden="1" ht="16" customHeight="1">
       <c r="A653" s="23" t="n">
         <v>310822</v>
       </c>
@@ -52673,7 +52673,7 @@
         </is>
       </c>
     </row>
-    <row r="654" ht="16" customHeight="1">
+    <row r="654" hidden="1" ht="16" customHeight="1">
       <c r="A654" s="23" t="n">
         <v>310823</v>
       </c>
@@ -52739,7 +52739,7 @@
         </is>
       </c>
     </row>
-    <row r="655" ht="16" customHeight="1">
+    <row r="655" hidden="1" ht="16" customHeight="1">
       <c r="A655" s="23" t="n">
         <v>310824</v>
       </c>
@@ -52805,7 +52805,7 @@
         </is>
       </c>
     </row>
-    <row r="656" ht="16" customHeight="1">
+    <row r="656" hidden="1" ht="16" customHeight="1">
       <c r="A656" s="23" t="n">
         <v>310826</v>
       </c>
@@ -52871,7 +52871,7 @@
         </is>
       </c>
     </row>
-    <row r="657" ht="16" customHeight="1">
+    <row r="657" hidden="1" ht="16" customHeight="1">
       <c r="A657" s="23" t="n">
         <v>310825</v>
       </c>
@@ -52937,7 +52937,7 @@
         </is>
       </c>
     </row>
-    <row r="658" ht="16" customHeight="1">
+    <row r="658" hidden="1" ht="16" customHeight="1">
       <c r="A658" s="23" t="n">
         <v>310827</v>
       </c>
@@ -53003,7 +53003,7 @@
         </is>
       </c>
     </row>
-    <row r="659" ht="16" customHeight="1">
+    <row r="659" hidden="1" ht="16" customHeight="1">
       <c r="A659" s="23" t="n">
         <v>310828</v>
       </c>
@@ -53069,7 +53069,7 @@
         </is>
       </c>
     </row>
-    <row r="660" ht="16" customHeight="1">
+    <row r="660" hidden="1" ht="16" customHeight="1">
       <c r="A660" s="23" t="n">
         <v>310829</v>
       </c>
@@ -53135,7 +53135,7 @@
         </is>
       </c>
     </row>
-    <row r="661" ht="16" customHeight="1">
+    <row r="661" hidden="1" ht="16" customHeight="1">
       <c r="A661" s="23" t="n">
         <v>310830</v>
       </c>
@@ -53201,7 +53201,7 @@
         </is>
       </c>
     </row>
-    <row r="662" ht="16" customHeight="1">
+    <row r="662" hidden="1" ht="16" customHeight="1">
       <c r="A662" s="23" t="n">
         <v>310833</v>
       </c>
@@ -53267,7 +53267,7 @@
         </is>
       </c>
     </row>
-    <row r="663" ht="16" customHeight="1">
+    <row r="663" hidden="1" ht="16" customHeight="1">
       <c r="A663" s="23" t="n">
         <v>310808</v>
       </c>
@@ -53331,7 +53331,7 @@
         </is>
       </c>
     </row>
-    <row r="664" ht="16" customHeight="1">
+    <row r="664" hidden="1" ht="16" customHeight="1">
       <c r="A664" s="23" t="n">
         <v>310871</v>
       </c>
@@ -53401,7 +53401,7 @@
         </is>
       </c>
     </row>
-    <row r="665" ht="16" customHeight="1">
+    <row r="665" hidden="1" ht="16" customHeight="1">
       <c r="A665" s="23" t="n">
         <v>310872</v>
       </c>
@@ -53471,7 +53471,7 @@
         </is>
       </c>
     </row>
-    <row r="666" ht="16" customHeight="1">
+    <row r="666" hidden="1" ht="16" customHeight="1">
       <c r="A666" s="23" t="n">
         <v>310875</v>
       </c>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
     </row>
-    <row r="667" ht="16" customHeight="1">
+    <row r="667" hidden="1" ht="16" customHeight="1">
       <c r="A667" s="23" t="n">
         <v>310876</v>
       </c>
@@ -53611,7 +53611,7 @@
         </is>
       </c>
     </row>
-    <row r="668" ht="16" customHeight="1">
+    <row r="668" hidden="1" ht="16" customHeight="1">
       <c r="A668" s="23" t="n">
         <v>310877</v>
       </c>
@@ -53681,7 +53681,7 @@
         </is>
       </c>
     </row>
-    <row r="669" ht="16" customHeight="1">
+    <row r="669" hidden="1" ht="16" customHeight="1">
       <c r="A669" s="23" t="n">
         <v>310878</v>
       </c>
@@ -53751,7 +53751,7 @@
         </is>
       </c>
     </row>
-    <row r="670" ht="16" customHeight="1">
+    <row r="670" hidden="1" ht="16" customHeight="1">
       <c r="A670" s="23" t="n">
         <v>310882</v>
       </c>
@@ -53821,7 +53821,7 @@
         </is>
       </c>
     </row>
-    <row r="671" ht="16" customHeight="1">
+    <row r="671" hidden="1" ht="16" customHeight="1">
       <c r="A671" s="23" t="n">
         <v>310883</v>
       </c>
@@ -53891,7 +53891,7 @@
         </is>
       </c>
     </row>
-    <row r="672" ht="16" customHeight="1">
+    <row r="672" hidden="1" ht="16" customHeight="1">
       <c r="A672" s="23" t="n">
         <v>310887</v>
       </c>
@@ -53961,7 +53961,7 @@
         </is>
       </c>
     </row>
-    <row r="673" ht="16" customHeight="1">
+    <row r="673" hidden="1" ht="16" customHeight="1">
       <c r="A673" s="23" t="n">
         <v>310888</v>
       </c>
@@ -54031,7 +54031,7 @@
         </is>
       </c>
     </row>
-    <row r="674" ht="16" customHeight="1">
+    <row r="674" hidden="1" ht="16" customHeight="1">
       <c r="A674" s="23" t="n">
         <v>310856</v>
       </c>
@@ -54099,7 +54099,7 @@
         </is>
       </c>
     </row>
-    <row r="675" ht="16" customHeight="1">
+    <row r="675" hidden="1" ht="16" customHeight="1">
       <c r="A675" s="23" t="n">
         <v>310857</v>
       </c>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
     </row>
-    <row r="676" ht="16" customHeight="1">
+    <row r="676" hidden="1" ht="16" customHeight="1">
       <c r="A676" s="23" t="n">
         <v>310859</v>
       </c>
@@ -54235,7 +54235,7 @@
         </is>
       </c>
     </row>
-    <row r="677" ht="16" customHeight="1">
+    <row r="677" hidden="1" ht="16" customHeight="1">
       <c r="A677" s="23" t="n">
         <v>310860</v>
       </c>
@@ -54303,7 +54303,7 @@
         </is>
       </c>
     </row>
-    <row r="678" ht="16" customHeight="1">
+    <row r="678" hidden="1" ht="16" customHeight="1">
       <c r="A678" s="23" t="n">
         <v>310861</v>
       </c>
@@ -54371,7 +54371,7 @@
         </is>
       </c>
     </row>
-    <row r="679" ht="16" customHeight="1">
+    <row r="679" hidden="1" ht="16" customHeight="1">
       <c r="A679" s="23" t="n">
         <v>310862</v>
       </c>
@@ -54439,7 +54439,7 @@
         </is>
       </c>
     </row>
-    <row r="680" ht="16" customHeight="1">
+    <row r="680" hidden="1" ht="16" customHeight="1">
       <c r="A680" s="23" t="n">
         <v>310864</v>
       </c>
@@ -54507,7 +54507,7 @@
         </is>
       </c>
     </row>
-    <row r="681" ht="16" customHeight="1">
+    <row r="681" hidden="1" ht="16" customHeight="1">
       <c r="A681" s="23" t="n">
         <v>310865</v>
       </c>
@@ -54575,7 +54575,7 @@
         </is>
       </c>
     </row>
-    <row r="682" ht="16" customHeight="1">
+    <row r="682" hidden="1" ht="16" customHeight="1">
       <c r="A682" s="23" t="n">
         <v>310866</v>
       </c>
@@ -54643,7 +54643,7 @@
         </is>
       </c>
     </row>
-    <row r="683" ht="16" customHeight="1">
+    <row r="683" hidden="1" ht="16" customHeight="1">
       <c r="A683" s="23" t="n">
         <v>310867</v>
       </c>
@@ -54711,7 +54711,7 @@
         </is>
       </c>
     </row>
-    <row r="684" ht="16" customHeight="1">
+    <row r="684" hidden="1" ht="16" customHeight="1">
       <c r="A684" s="23" t="n">
         <v>310870</v>
       </c>
@@ -54779,7 +54779,7 @@
         </is>
       </c>
     </row>
-    <row r="685" ht="16" customHeight="1">
+    <row r="685" hidden="1" ht="16" customHeight="1">
       <c r="A685" s="23" t="n">
         <v>3656114</v>
       </c>
@@ -54849,7 +54849,7 @@
         </is>
       </c>
     </row>
-    <row r="686" ht="16" customHeight="1">
+    <row r="686" hidden="1" ht="16" customHeight="1">
       <c r="A686" s="23" t="n">
         <v>2692657</v>
       </c>
@@ -54919,7 +54919,7 @@
         </is>
       </c>
     </row>
-    <row r="687" ht="16" customHeight="1">
+    <row r="687" hidden="1" ht="16" customHeight="1">
       <c r="A687" s="23" t="n">
         <v>310932</v>
       </c>
@@ -54989,7 +54989,7 @@
         </is>
       </c>
     </row>
-    <row r="688" ht="16" customHeight="1">
+    <row r="688" hidden="1" ht="16" customHeight="1">
       <c r="A688" s="23" t="n">
         <v>310933</v>
       </c>
@@ -55059,7 +55059,7 @@
         </is>
       </c>
     </row>
-    <row r="689" ht="16" customHeight="1">
+    <row r="689" hidden="1" ht="16" customHeight="1">
       <c r="A689" s="23" t="n">
         <v>310936</v>
       </c>
@@ -55129,7 +55129,7 @@
         </is>
       </c>
     </row>
-    <row r="690" ht="16" customHeight="1">
+    <row r="690" hidden="1" ht="16" customHeight="1">
       <c r="A690" s="23" t="n">
         <v>310937</v>
       </c>
@@ -55199,7 +55199,7 @@
         </is>
       </c>
     </row>
-    <row r="691" ht="16" customHeight="1">
+    <row r="691" hidden="1" ht="16" customHeight="1">
       <c r="A691" s="23" t="n">
         <v>310938</v>
       </c>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
     </row>
-    <row r="692" ht="16" customHeight="1">
+    <row r="692" hidden="1" ht="16" customHeight="1">
       <c r="A692" s="23" t="n">
         <v>310911</v>
       </c>
@@ -55337,7 +55337,7 @@
         </is>
       </c>
     </row>
-    <row r="693" ht="16" customHeight="1">
+    <row r="693" hidden="1" ht="16" customHeight="1">
       <c r="A693" s="23" t="n">
         <v>310916</v>
       </c>
@@ -55405,7 +55405,7 @@
         </is>
       </c>
     </row>
-    <row r="694" ht="16" customHeight="1">
+    <row r="694" hidden="1" ht="16" customHeight="1">
       <c r="A694" s="23" t="n">
         <v>310917</v>
       </c>
@@ -55473,7 +55473,7 @@
         </is>
       </c>
     </row>
-    <row r="695" ht="16" customHeight="1">
+    <row r="695" hidden="1" ht="16" customHeight="1">
       <c r="A695" s="23" t="n">
         <v>310920</v>
       </c>
@@ -55541,7 +55541,7 @@
         </is>
       </c>
     </row>
-    <row r="696" ht="16" customHeight="1">
+    <row r="696" hidden="1" ht="16" customHeight="1">
       <c r="A696" s="23" t="n">
         <v>310921</v>
       </c>
@@ -55609,7 +55609,7 @@
         </is>
       </c>
     </row>
-    <row r="697" ht="16" customHeight="1">
+    <row r="697" hidden="1" ht="16" customHeight="1">
       <c r="A697" s="23" t="n">
         <v>310922</v>
       </c>
@@ -55677,7 +55677,7 @@
         </is>
       </c>
     </row>
-    <row r="698" ht="16" customHeight="1">
+    <row r="698" hidden="1" ht="16" customHeight="1">
       <c r="A698" s="23" t="n">
         <v>2692644</v>
       </c>
@@ -55747,7 +55747,7 @@
         </is>
       </c>
     </row>
-    <row r="699" ht="16" customHeight="1">
+    <row r="699" hidden="1" ht="16" customHeight="1">
       <c r="A699" s="23" t="n">
         <v>2692647</v>
       </c>
@@ -55817,7 +55817,7 @@
         </is>
       </c>
     </row>
-    <row r="700" ht="16" customHeight="1">
+    <row r="700" hidden="1" ht="16" customHeight="1">
       <c r="A700" s="23" t="n">
         <v>2692656</v>
       </c>
@@ -55887,7 +55887,7 @@
         </is>
       </c>
     </row>
-    <row r="701" ht="16" customHeight="1">
+    <row r="701" hidden="1" ht="16" customHeight="1">
       <c r="A701" s="23" t="n">
         <v>2742623</v>
       </c>
@@ -55957,7 +55957,7 @@
         </is>
       </c>
     </row>
-    <row r="702" ht="16" customHeight="1">
+    <row r="702" hidden="1" ht="16" customHeight="1">
       <c r="A702" s="23" t="n">
         <v>307187</v>
       </c>
@@ -56025,7 +56025,7 @@
         </is>
       </c>
     </row>
-    <row r="703" ht="16" customHeight="1">
+    <row r="703" hidden="1" ht="16" customHeight="1">
       <c r="A703" s="23" t="n">
         <v>310543</v>
       </c>
@@ -56095,7 +56095,7 @@
         </is>
       </c>
     </row>
-    <row r="704" ht="16" customHeight="1">
+    <row r="704" hidden="1" ht="16" customHeight="1">
       <c r="A704" s="23" t="n">
         <v>312827</v>
       </c>
@@ -56163,7 +56163,7 @@
         </is>
       </c>
     </row>
-    <row r="705" ht="16" customHeight="1">
+    <row r="705" hidden="1" ht="16" customHeight="1">
       <c r="A705" s="23" t="n">
         <v>311160</v>
       </c>
@@ -56233,7 +56233,7 @@
         </is>
       </c>
     </row>
-    <row r="706" ht="16" customHeight="1">
+    <row r="706" hidden="1" ht="16" customHeight="1">
       <c r="A706" s="23" t="n">
         <v>311163</v>
       </c>
@@ -56303,7 +56303,7 @@
         </is>
       </c>
     </row>
-    <row r="707" ht="16" customHeight="1">
+    <row r="707" hidden="1" ht="16" customHeight="1">
       <c r="A707" s="23" t="n">
         <v>311162</v>
       </c>
@@ -56373,7 +56373,7 @@
         </is>
       </c>
     </row>
-    <row r="708" ht="16" customHeight="1">
+    <row r="708" hidden="1" ht="16" customHeight="1">
       <c r="A708" s="23" t="n">
         <v>311170</v>
       </c>
@@ -56441,7 +56441,7 @@
         </is>
       </c>
     </row>
-    <row r="709" ht="16" customHeight="1">
+    <row r="709" hidden="1" ht="16" customHeight="1">
       <c r="A709" s="23" t="n">
         <v>2002544</v>
       </c>
@@ -56511,7 +56511,7 @@
         </is>
       </c>
     </row>
-    <row r="710" ht="16" customHeight="1">
+    <row r="710" hidden="1" ht="16" customHeight="1">
       <c r="A710" s="23" t="n">
         <v>3433407</v>
       </c>
@@ -56571,7 +56571,7 @@
         </is>
       </c>
     </row>
-    <row r="711" ht="16" customHeight="1">
+    <row r="711" hidden="1" ht="16" customHeight="1">
       <c r="A711" s="23" t="n">
         <v>3433410</v>
       </c>
@@ -56631,7 +56631,7 @@
         </is>
       </c>
     </row>
-    <row r="712" ht="16" customHeight="1">
+    <row r="712" hidden="1" ht="16" customHeight="1">
       <c r="A712" s="23" t="n">
         <v>3433416</v>
       </c>
@@ -56691,7 +56691,7 @@
         </is>
       </c>
     </row>
-    <row r="713" ht="16" customHeight="1">
+    <row r="713" hidden="1" ht="16" customHeight="1">
       <c r="A713" s="23" t="n">
         <v>3433423</v>
       </c>
@@ -56751,7 +56751,7 @@
         </is>
       </c>
     </row>
-    <row r="714" ht="16" customHeight="1">
+    <row r="714" hidden="1" ht="16" customHeight="1">
       <c r="A714" s="23" t="n">
         <v>3433448</v>
       </c>
@@ -56811,7 +56811,7 @@
         </is>
       </c>
     </row>
-    <row r="715" ht="16" customHeight="1">
+    <row r="715" hidden="1" ht="16" customHeight="1">
       <c r="A715" s="23" t="n">
         <v>3433451</v>
       </c>
@@ -56871,7 +56871,7 @@
         </is>
       </c>
     </row>
-    <row r="716" ht="16" customHeight="1">
+    <row r="716" hidden="1" ht="16" customHeight="1">
       <c r="A716" s="23" t="n">
         <v>2454939</v>
       </c>
@@ -56931,7 +56931,7 @@
         </is>
       </c>
     </row>
-    <row r="717" ht="16" customHeight="1">
+    <row r="717" hidden="1" ht="16" customHeight="1">
       <c r="A717" s="23" t="n">
         <v>2454938</v>
       </c>
@@ -56991,7 +56991,7 @@
         </is>
       </c>
     </row>
-    <row r="718" ht="16" customHeight="1">
+    <row r="718" hidden="1" ht="16" customHeight="1">
       <c r="A718" s="23" t="n">
         <v>2454921</v>
       </c>
@@ -57051,7 +57051,7 @@
         </is>
       </c>
     </row>
-    <row r="719" ht="16" customHeight="1">
+    <row r="719" hidden="1" ht="16" customHeight="1">
       <c r="A719" s="23" t="n">
         <v>2454929</v>
       </c>
@@ -57111,7 +57111,7 @@
         </is>
       </c>
     </row>
-    <row r="720" ht="16" customHeight="1">
+    <row r="720" hidden="1" ht="16" customHeight="1">
       <c r="A720" s="23" t="n">
         <v>2454937</v>
       </c>
@@ -57140,7 +57140,7 @@
       </c>
       <c r="G720" s="24" t="n"/>
       <c r="H720" s="23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I720" s="22" t="inlineStr">
         <is>
@@ -57171,7 +57171,7 @@
         </is>
       </c>
     </row>
-    <row r="721" ht="16" customHeight="1">
+    <row r="721" hidden="1" ht="16" customHeight="1">
       <c r="A721" s="23" t="n">
         <v>4109878</v>
       </c>
@@ -57231,7 +57231,7 @@
         </is>
       </c>
     </row>
-    <row r="722" ht="16" customHeight="1">
+    <row r="722" hidden="1" ht="16" customHeight="1">
       <c r="A722" s="23" t="n">
         <v>4109881</v>
       </c>
@@ -57291,7 +57291,7 @@
         </is>
       </c>
     </row>
-    <row r="723" ht="16" customHeight="1">
+    <row r="723" hidden="1" ht="16" customHeight="1">
       <c r="A723" s="23" t="n">
         <v>4110145</v>
       </c>
@@ -57351,7 +57351,7 @@
         </is>
       </c>
     </row>
-    <row r="724" ht="16" customHeight="1">
+    <row r="724" hidden="1" ht="16" customHeight="1">
       <c r="A724" s="23" t="n">
         <v>4110866</v>
       </c>
@@ -57411,7 +57411,7 @@
         </is>
       </c>
     </row>
-    <row r="725" ht="16" customHeight="1">
+    <row r="725" hidden="1" ht="16" customHeight="1">
       <c r="A725" s="23" t="n">
         <v>4110869</v>
       </c>
@@ -57471,7 +57471,7 @@
         </is>
       </c>
     </row>
-    <row r="726" ht="16" customHeight="1">
+    <row r="726" hidden="1" ht="16" customHeight="1">
       <c r="A726" s="23" t="n">
         <v>4110113</v>
       </c>
@@ -57531,7 +57531,7 @@
         </is>
       </c>
     </row>
-    <row r="727" ht="16" customHeight="1">
+    <row r="727" hidden="1" ht="16" customHeight="1">
       <c r="A727" s="23" t="n">
         <v>4110122</v>
       </c>
@@ -57591,7 +57591,7 @@
         </is>
       </c>
     </row>
-    <row r="728" ht="16" customHeight="1">
+    <row r="728" hidden="1" ht="16" customHeight="1">
       <c r="A728" s="23" t="n">
         <v>4110873</v>
       </c>
@@ -57651,7 +57651,7 @@
         </is>
       </c>
     </row>
-    <row r="729" ht="16" customHeight="1">
+    <row r="729" hidden="1" ht="16" customHeight="1">
       <c r="A729" s="23" t="n">
         <v>4109939</v>
       </c>
@@ -57711,7 +57711,7 @@
         </is>
       </c>
     </row>
-    <row r="730" ht="16" customHeight="1">
+    <row r="730" hidden="1" ht="16" customHeight="1">
       <c r="A730" s="23" t="n">
         <v>3467787</v>
       </c>
@@ -57771,7 +57771,7 @@
         </is>
       </c>
     </row>
-    <row r="731" ht="16" customHeight="1">
+    <row r="731" hidden="1" ht="16" customHeight="1">
       <c r="A731" s="23" t="n">
         <v>2454936</v>
       </c>
@@ -57831,7 +57831,7 @@
         </is>
       </c>
     </row>
-    <row r="732" ht="16" customHeight="1">
+    <row r="732" hidden="1" ht="16" customHeight="1">
       <c r="A732" s="23" t="n">
         <v>50940</v>
       </c>
@@ -57887,7 +57887,7 @@
         </is>
       </c>
     </row>
-    <row r="733" ht="16" customHeight="1">
+    <row r="733" hidden="1" ht="16" customHeight="1">
       <c r="A733" s="23" t="n">
         <v>147359</v>
       </c>
@@ -57945,7 +57945,7 @@
         </is>
       </c>
     </row>
-    <row r="734" ht="16" customHeight="1">
+    <row r="734" hidden="1" ht="16" customHeight="1">
       <c r="A734" s="23" t="n">
         <v>2605235</v>
       </c>
@@ -58003,7 +58003,7 @@
         </is>
       </c>
     </row>
-    <row r="735" ht="16" customHeight="1">
+    <row r="735" hidden="1" ht="16" customHeight="1">
       <c r="A735" s="23" t="n">
         <v>2605236</v>
       </c>
@@ -58061,7 +58061,7 @@
         </is>
       </c>
     </row>
-    <row r="736" ht="16" customHeight="1">
+    <row r="736" hidden="1" ht="16" customHeight="1">
       <c r="A736" s="23" t="n">
         <v>2605237</v>
       </c>
@@ -58119,7 +58119,7 @@
         </is>
       </c>
     </row>
-    <row r="737" ht="16" customHeight="1">
+    <row r="737" hidden="1" ht="16" customHeight="1">
       <c r="A737" s="23" t="n">
         <v>2605238</v>
       </c>
@@ -58177,7 +58177,7 @@
         </is>
       </c>
     </row>
-    <row r="738" ht="16" customHeight="1">
+    <row r="738" hidden="1" ht="16" customHeight="1">
       <c r="A738" s="23" t="n">
         <v>2605230</v>
       </c>
@@ -58235,7 +58235,7 @@
         </is>
       </c>
     </row>
-    <row r="739" ht="16" customHeight="1">
+    <row r="739" hidden="1" ht="16" customHeight="1">
       <c r="A739" s="23" t="n">
         <v>184879</v>
       </c>
@@ -58291,7 +58291,7 @@
         </is>
       </c>
     </row>
-    <row r="740" ht="16" customHeight="1">
+    <row r="740" hidden="1" ht="16" customHeight="1">
       <c r="A740" s="23" t="n">
         <v>184853</v>
       </c>
@@ -58347,7 +58347,7 @@
         </is>
       </c>
     </row>
-    <row r="741" ht="16" customHeight="1">
+    <row r="741" hidden="1" ht="16" customHeight="1">
       <c r="A741" s="23" t="n">
         <v>300110</v>
       </c>
@@ -58405,7 +58405,7 @@
         </is>
       </c>
     </row>
-    <row r="742" ht="16" customHeight="1">
+    <row r="742" hidden="1" ht="16" customHeight="1">
       <c r="A742" s="23" t="n">
         <v>3535821</v>
       </c>
@@ -58467,7 +58467,7 @@
         </is>
       </c>
     </row>
-    <row r="743" ht="16" customHeight="1">
+    <row r="743" hidden="1" ht="16" customHeight="1">
       <c r="A743" s="23" t="n">
         <v>313628</v>
       </c>
@@ -58529,7 +58529,7 @@
         </is>
       </c>
     </row>
-    <row r="744" ht="16" customHeight="1">
+    <row r="744" hidden="1" ht="16" customHeight="1">
       <c r="A744" s="23" t="n">
         <v>313629</v>
       </c>
@@ -58591,7 +58591,7 @@
         </is>
       </c>
     </row>
-    <row r="745" ht="16" customHeight="1">
+    <row r="745" hidden="1" ht="16" customHeight="1">
       <c r="A745" s="23" t="n">
         <v>313630</v>
       </c>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
     </row>
-    <row r="746" ht="16" customHeight="1">
+    <row r="746" hidden="1" ht="16" customHeight="1">
       <c r="A746" s="23" t="n">
         <v>313631</v>
       </c>
@@ -58715,7 +58715,7 @@
         </is>
       </c>
     </row>
-    <row r="747" ht="16" customHeight="1">
+    <row r="747" hidden="1" ht="16" customHeight="1">
       <c r="A747" s="23" t="n">
         <v>313655</v>
       </c>
@@ -58777,7 +58777,7 @@
         </is>
       </c>
     </row>
-    <row r="748" ht="16" customHeight="1">
+    <row r="748" hidden="1" ht="16" customHeight="1">
       <c r="A748" s="23" t="n">
         <v>313656</v>
       </c>
@@ -58839,7 +58839,7 @@
         </is>
       </c>
     </row>
-    <row r="749" ht="16" customHeight="1">
+    <row r="749" hidden="1" ht="16" customHeight="1">
       <c r="A749" s="23" t="n">
         <v>2007387</v>
       </c>
@@ -58901,7 +58901,7 @@
         </is>
       </c>
     </row>
-    <row r="750" ht="16" customHeight="1">
+    <row r="750" hidden="1" ht="16" customHeight="1">
       <c r="A750" s="23" t="n">
         <v>2007388</v>
       </c>
@@ -58963,7 +58963,7 @@
         </is>
       </c>
     </row>
-    <row r="751" ht="16" customHeight="1">
+    <row r="751" hidden="1" ht="16" customHeight="1">
       <c r="A751" s="23" t="n">
         <v>2007390</v>
       </c>
@@ -59025,7 +59025,7 @@
         </is>
       </c>
     </row>
-    <row r="752" ht="16" customHeight="1">
+    <row r="752" hidden="1" ht="16" customHeight="1">
       <c r="A752" s="23" t="n">
         <v>2007391</v>
       </c>
@@ -59087,7 +59087,7 @@
         </is>
       </c>
     </row>
-    <row r="753" ht="16" customHeight="1">
+    <row r="753" hidden="1" ht="16" customHeight="1">
       <c r="A753" s="23" t="n">
         <v>2007392</v>
       </c>
@@ -59149,7 +59149,7 @@
         </is>
       </c>
     </row>
-    <row r="754" ht="16" customHeight="1">
+    <row r="754" hidden="1" ht="16" customHeight="1">
       <c r="A754" s="23" t="n">
         <v>2007393</v>
       </c>
@@ -59211,7 +59211,7 @@
         </is>
       </c>
     </row>
-    <row r="755" ht="16" customHeight="1">
+    <row r="755" hidden="1" ht="16" customHeight="1">
       <c r="A755" s="23" t="n">
         <v>2587184</v>
       </c>
@@ -59273,7 +59273,7 @@
         </is>
       </c>
     </row>
-    <row r="756" ht="16" customHeight="1">
+    <row r="756" hidden="1" ht="16" customHeight="1">
       <c r="A756" s="23" t="n">
         <v>2587185</v>
       </c>
@@ -59335,7 +59335,7 @@
         </is>
       </c>
     </row>
-    <row r="757" ht="16" customHeight="1">
+    <row r="757" hidden="1" ht="16" customHeight="1">
       <c r="A757" s="23" t="n">
         <v>313663</v>
       </c>
@@ -59397,7 +59397,7 @@
         </is>
       </c>
     </row>
-    <row r="758" ht="16" customHeight="1">
+    <row r="758" hidden="1" ht="16" customHeight="1">
       <c r="A758" s="23" t="n">
         <v>313664</v>
       </c>
@@ -59459,7 +59459,7 @@
         </is>
       </c>
     </row>
-    <row r="759" ht="16" customHeight="1">
+    <row r="759" hidden="1" ht="16" customHeight="1">
       <c r="A759" s="23" t="n">
         <v>313666</v>
       </c>
@@ -59521,7 +59521,7 @@
         </is>
       </c>
     </row>
-    <row r="760" ht="16" customHeight="1">
+    <row r="760" hidden="1" ht="16" customHeight="1">
       <c r="A760" s="23" t="n">
         <v>313676</v>
       </c>
@@ -59583,7 +59583,7 @@
         </is>
       </c>
     </row>
-    <row r="761" ht="16" customHeight="1">
+    <row r="761" hidden="1" ht="16" customHeight="1">
       <c r="A761" s="23" t="n">
         <v>313675</v>
       </c>
@@ -59645,7 +59645,7 @@
         </is>
       </c>
     </row>
-    <row r="762" ht="16" customHeight="1">
+    <row r="762" hidden="1" ht="16" customHeight="1">
       <c r="A762" s="23" t="n">
         <v>313667</v>
       </c>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
     </row>
-    <row r="763" ht="16" customHeight="1">
+    <row r="763" hidden="1" ht="16" customHeight="1">
       <c r="A763" s="23" t="n">
         <v>313644</v>
       </c>
@@ -59769,7 +59769,7 @@
         </is>
       </c>
     </row>
-    <row r="764" ht="16" customHeight="1">
+    <row r="764" hidden="1" ht="16" customHeight="1">
       <c r="A764" s="23" t="n">
         <v>313657</v>
       </c>
@@ -59839,7 +59839,7 @@
         </is>
       </c>
     </row>
-    <row r="765" ht="16" customHeight="1">
+    <row r="765" hidden="1" ht="16" customHeight="1">
       <c r="A765" s="23" t="n">
         <v>313658</v>
       </c>
@@ -59909,7 +59909,7 @@
         </is>
       </c>
     </row>
-    <row r="766" ht="16" customHeight="1">
+    <row r="766" hidden="1" ht="16" customHeight="1">
       <c r="A766" s="23" t="n">
         <v>313660</v>
       </c>
@@ -59979,7 +59979,7 @@
         </is>
       </c>
     </row>
-    <row r="767" ht="16" customHeight="1">
+    <row r="767" hidden="1" ht="16" customHeight="1">
       <c r="A767" s="23" t="n">
         <v>313661</v>
       </c>
@@ -60049,7 +60049,7 @@
         </is>
       </c>
     </row>
-    <row r="768" ht="16" customHeight="1">
+    <row r="768" hidden="1" ht="16" customHeight="1">
       <c r="A768" s="23" t="n">
         <v>300394</v>
       </c>
@@ -60119,7 +60119,7 @@
         </is>
       </c>
     </row>
-    <row r="769" ht="16" customHeight="1">
+    <row r="769" hidden="1" ht="16" customHeight="1">
       <c r="A769" s="23" t="n">
         <v>300395</v>
       </c>
@@ -60189,7 +60189,7 @@
         </is>
       </c>
     </row>
-    <row r="770" ht="16" customHeight="1">
+    <row r="770" hidden="1" ht="16" customHeight="1">
       <c r="A770" s="23" t="n">
         <v>300396</v>
       </c>
@@ -60259,7 +60259,7 @@
         </is>
       </c>
     </row>
-    <row r="771" ht="16" customHeight="1">
+    <row r="771" hidden="1" ht="16" customHeight="1">
       <c r="A771" s="23" t="n">
         <v>3347212</v>
       </c>
@@ -60321,7 +60321,7 @@
         </is>
       </c>
     </row>
-    <row r="772" ht="16" customHeight="1">
+    <row r="772" hidden="1" ht="16" customHeight="1">
       <c r="A772" s="23" t="n">
         <v>3347215</v>
       </c>
@@ -60383,7 +60383,7 @@
         </is>
       </c>
     </row>
-    <row r="773" ht="16" customHeight="1">
+    <row r="773" hidden="1" ht="16" customHeight="1">
       <c r="A773" s="23" t="n">
         <v>3347216</v>
       </c>
@@ -60445,7 +60445,7 @@
         </is>
       </c>
     </row>
-    <row r="774" ht="16" customHeight="1">
+    <row r="774" hidden="1" ht="16" customHeight="1">
       <c r="A774" s="23" t="n">
         <v>3347217</v>
       </c>
@@ -60507,7 +60507,7 @@
         </is>
       </c>
     </row>
-    <row r="775" ht="16" customHeight="1">
+    <row r="775" hidden="1" ht="16" customHeight="1">
       <c r="A775" s="23" t="n">
         <v>3347218</v>
       </c>
@@ -60569,7 +60569,7 @@
         </is>
       </c>
     </row>
-    <row r="776" ht="16" customHeight="1">
+    <row r="776" hidden="1" ht="16" customHeight="1">
       <c r="A776" s="23" t="n">
         <v>3347219</v>
       </c>
@@ -60631,7 +60631,7 @@
         </is>
       </c>
     </row>
-    <row r="777" ht="16" customHeight="1">
+    <row r="777" hidden="1" ht="16" customHeight="1">
       <c r="A777" s="23" t="n">
         <v>3347220</v>
       </c>
@@ -60693,7 +60693,7 @@
         </is>
       </c>
     </row>
-    <row r="778" ht="16" customHeight="1">
+    <row r="778" hidden="1" ht="16" customHeight="1">
       <c r="A778" s="23" t="n">
         <v>3347222</v>
       </c>
@@ -60755,7 +60755,7 @@
         </is>
       </c>
     </row>
-    <row r="779" ht="16" customHeight="1">
+    <row r="779" hidden="1" ht="16" customHeight="1">
       <c r="A779" s="23" t="n">
         <v>3347224</v>
       </c>
@@ -60817,7 +60817,7 @@
         </is>
       </c>
     </row>
-    <row r="780" ht="16" customHeight="1">
+    <row r="780" hidden="1" ht="16" customHeight="1">
       <c r="A780" s="23" t="n">
         <v>3502181</v>
       </c>
@@ -60879,7 +60879,7 @@
         </is>
       </c>
     </row>
-    <row r="781" ht="16" customHeight="1">
+    <row r="781" hidden="1" ht="16" customHeight="1">
       <c r="A781" s="23" t="n">
         <v>3502186</v>
       </c>
@@ -60941,7 +60941,7 @@
         </is>
       </c>
     </row>
-    <row r="782" ht="16" customHeight="1">
+    <row r="782" hidden="1" ht="16" customHeight="1">
       <c r="A782" s="23" t="n">
         <v>3707429</v>
       </c>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
     </row>
-    <row r="783" ht="16" customHeight="1">
+    <row r="783" hidden="1" ht="16" customHeight="1">
       <c r="A783" s="23" t="n">
         <v>3502188</v>
       </c>
@@ -61065,7 +61065,7 @@
         </is>
       </c>
     </row>
-    <row r="784" ht="16" customHeight="1">
+    <row r="784" hidden="1" ht="16" customHeight="1">
       <c r="A784" s="23" t="n">
         <v>3502190</v>
       </c>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
     </row>
-    <row r="785" ht="16" customHeight="1">
+    <row r="785" hidden="1" ht="16" customHeight="1">
       <c r="A785" s="23" t="n">
         <v>3707421</v>
       </c>
@@ -61189,7 +61189,7 @@
         </is>
       </c>
     </row>
-    <row r="786" ht="16" customHeight="1">
+    <row r="786" hidden="1" ht="16" customHeight="1">
       <c r="A786" s="23" t="n">
         <v>3707423</v>
       </c>
@@ -61251,7 +61251,7 @@
         </is>
       </c>
     </row>
-    <row r="787" ht="16" customHeight="1">
+    <row r="787" hidden="1" ht="16" customHeight="1">
       <c r="A787" s="23" t="n">
         <v>3707425</v>
       </c>
@@ -61313,7 +61313,7 @@
         </is>
       </c>
     </row>
-    <row r="788" ht="16" customHeight="1">
+    <row r="788" hidden="1" ht="16" customHeight="1">
       <c r="A788" s="23" t="n">
         <v>2392346</v>
       </c>
@@ -61375,7 +61375,7 @@
         </is>
       </c>
     </row>
-    <row r="789" ht="16" customHeight="1">
+    <row r="789" hidden="1" ht="16" customHeight="1">
       <c r="A789" s="23" t="n">
         <v>2392351</v>
       </c>
@@ -61437,7 +61437,7 @@
         </is>
       </c>
     </row>
-    <row r="790" ht="16" customHeight="1">
+    <row r="790" hidden="1" ht="16" customHeight="1">
       <c r="A790" s="23" t="n">
         <v>2392356</v>
       </c>
@@ -61499,7 +61499,7 @@
         </is>
       </c>
     </row>
-    <row r="791" ht="16" customHeight="1">
+    <row r="791" hidden="1" ht="16" customHeight="1">
       <c r="A791" s="23" t="n">
         <v>3707422</v>
       </c>
@@ -61561,7 +61561,7 @@
         </is>
       </c>
     </row>
-    <row r="792" ht="16" customHeight="1">
+    <row r="792" hidden="1" ht="16" customHeight="1">
       <c r="A792" s="23" t="n">
         <v>3707416</v>
       </c>
@@ -61623,7 +61623,7 @@
         </is>
       </c>
     </row>
-    <row r="793" ht="16" customHeight="1">
+    <row r="793" hidden="1" ht="16" customHeight="1">
       <c r="A793" s="23" t="n">
         <v>3707418</v>
       </c>
@@ -61685,7 +61685,7 @@
         </is>
       </c>
     </row>
-    <row r="794" ht="16" customHeight="1">
+    <row r="794" hidden="1" ht="16" customHeight="1">
       <c r="A794" s="23" t="n">
         <v>340054</v>
       </c>
@@ -61747,7 +61747,7 @@
         </is>
       </c>
     </row>
-    <row r="795" ht="16" customHeight="1">
+    <row r="795" hidden="1" ht="16" customHeight="1">
       <c r="A795" s="23" t="n">
         <v>69606</v>
       </c>
@@ -61809,7 +61809,7 @@
         </is>
       </c>
     </row>
-    <row r="796" ht="16" customHeight="1">
+    <row r="796" hidden="1" ht="16" customHeight="1">
       <c r="A796" s="23" t="n">
         <v>69601</v>
       </c>
@@ -61871,7 +61871,7 @@
         </is>
       </c>
     </row>
-    <row r="797" ht="16" customHeight="1">
+    <row r="797" hidden="1" ht="16" customHeight="1">
       <c r="A797" s="23" t="n">
         <v>69596</v>
       </c>
@@ -61933,7 +61933,7 @@
         </is>
       </c>
     </row>
-    <row r="798" ht="16" customHeight="1">
+    <row r="798" hidden="1" ht="16" customHeight="1">
       <c r="A798" s="23" t="n">
         <v>69604</v>
       </c>
@@ -61995,7 +61995,7 @@
         </is>
       </c>
     </row>
-    <row r="799" ht="16" customHeight="1">
+    <row r="799" hidden="1" ht="16" customHeight="1">
       <c r="A799" s="23" t="n">
         <v>69594</v>
       </c>
@@ -62057,7 +62057,7 @@
         </is>
       </c>
     </row>
-    <row r="800" ht="16" customHeight="1">
+    <row r="800" hidden="1" ht="16" customHeight="1">
       <c r="A800" s="23" t="n">
         <v>69603</v>
       </c>
@@ -62119,7 +62119,7 @@
         </is>
       </c>
     </row>
-    <row r="801" ht="16" customHeight="1">
+    <row r="801" hidden="1" ht="16" customHeight="1">
       <c r="A801" s="23" t="n">
         <v>313060</v>
       </c>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
     </row>
-    <row r="802" ht="16" customHeight="1">
+    <row r="802" hidden="1" ht="16" customHeight="1">
       <c r="A802" s="23" t="n">
         <v>313061</v>
       </c>
@@ -62243,7 +62243,7 @@
         </is>
       </c>
     </row>
-    <row r="803" ht="16" customHeight="1">
+    <row r="803" hidden="1" ht="16" customHeight="1">
       <c r="A803" s="23" t="n">
         <v>313062</v>
       </c>
@@ -62305,7 +62305,7 @@
         </is>
       </c>
     </row>
-    <row r="804" ht="16" customHeight="1">
+    <row r="804" hidden="1" ht="16" customHeight="1">
       <c r="A804" s="23" t="n">
         <v>69575</v>
       </c>
@@ -62367,7 +62367,7 @@
         </is>
       </c>
     </row>
-    <row r="805" ht="16" customHeight="1">
+    <row r="805" hidden="1" ht="16" customHeight="1">
       <c r="A805" s="23" t="n">
         <v>69565</v>
       </c>
@@ -62429,7 +62429,7 @@
         </is>
       </c>
     </row>
-    <row r="806" ht="16" customHeight="1">
+    <row r="806" hidden="1" ht="16" customHeight="1">
       <c r="A806" s="23" t="n">
         <v>313066</v>
       </c>
@@ -62491,7 +62491,7 @@
         </is>
       </c>
     </row>
-    <row r="807" ht="16" customHeight="1">
+    <row r="807" hidden="1" ht="16" customHeight="1">
       <c r="A807" s="23" t="n">
         <v>313068</v>
       </c>
@@ -62553,7 +62553,7 @@
         </is>
       </c>
     </row>
-    <row r="808" ht="16" customHeight="1">
+    <row r="808" hidden="1" ht="16" customHeight="1">
       <c r="A808" s="23" t="n">
         <v>3707461</v>
       </c>
@@ -62615,7 +62615,7 @@
         </is>
       </c>
     </row>
-    <row r="809" ht="16" customHeight="1">
+    <row r="809" hidden="1" ht="16" customHeight="1">
       <c r="A809" s="23" t="n">
         <v>3707463</v>
       </c>
@@ -62677,7 +62677,7 @@
         </is>
       </c>
     </row>
-    <row r="810" ht="16" customHeight="1">
+    <row r="810" hidden="1" ht="16" customHeight="1">
       <c r="A810" s="23" t="n">
         <v>3294300</v>
       </c>
@@ -62739,7 +62739,7 @@
         </is>
       </c>
     </row>
-    <row r="811" ht="16" customHeight="1">
+    <row r="811" hidden="1" ht="16" customHeight="1">
       <c r="A811" s="23" t="n">
         <v>300450</v>
       </c>
@@ -62801,7 +62801,7 @@
         </is>
       </c>
     </row>
-    <row r="812" ht="16" customHeight="1">
+    <row r="812" hidden="1" ht="16" customHeight="1">
       <c r="A812" s="23" t="n">
         <v>300452</v>
       </c>
@@ -62863,7 +62863,7 @@
         </is>
       </c>
     </row>
-    <row r="813" ht="16" customHeight="1">
+    <row r="813" hidden="1" ht="16" customHeight="1">
       <c r="A813" s="23" t="n">
         <v>300453</v>
       </c>
@@ -62925,7 +62925,7 @@
         </is>
       </c>
     </row>
-    <row r="814" ht="16" customHeight="1">
+    <row r="814" hidden="1" ht="16" customHeight="1">
       <c r="A814" s="23" t="n">
         <v>4109848</v>
       </c>
@@ -62987,7 +62987,7 @@
         </is>
       </c>
     </row>
-    <row r="815" ht="16" customHeight="1">
+    <row r="815" hidden="1" ht="16" customHeight="1">
       <c r="A815" s="23" t="n">
         <v>351301506005</v>
       </c>
@@ -63057,7 +63057,7 @@
         </is>
       </c>
     </row>
-    <row r="816" ht="16" customHeight="1">
+    <row r="816" hidden="1" ht="16" customHeight="1">
       <c r="A816" s="23" t="n">
         <v>351301506006</v>
       </c>
@@ -63127,7 +63127,7 @@
         </is>
       </c>
     </row>
-    <row r="817" ht="16" customHeight="1">
+    <row r="817" hidden="1" ht="16" customHeight="1">
       <c r="A817" s="23" t="n">
         <v>3758110</v>
       </c>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
     </row>
-    <row r="818" ht="16" customHeight="1">
+    <row r="818" hidden="1" ht="16" customHeight="1">
       <c r="A818" s="23" t="n">
         <v>3023431</v>
       </c>
@@ -63251,91 +63251,92 @@
         </is>
       </c>
     </row>
-    <row r="820" ht="16" customHeight="1">
+    <row r="819" hidden="1" ht="15.75" customHeight="1"/>
+    <row r="820" hidden="1" ht="16" customHeight="1">
       <c r="M820" s="24" t="n"/>
     </row>
-    <row r="821" ht="16" customHeight="1">
+    <row r="821" hidden="1" ht="16" customHeight="1">
       <c r="M821" s="24" t="n"/>
     </row>
-    <row r="822" ht="16" customHeight="1">
+    <row r="822" hidden="1" ht="16" customHeight="1">
       <c r="M822" s="24" t="n"/>
     </row>
-    <row r="823" ht="16" customHeight="1">
+    <row r="823" hidden="1" ht="16" customHeight="1">
       <c r="M823" s="24" t="n"/>
     </row>
-    <row r="824" ht="16" customHeight="1">
+    <row r="824" hidden="1" ht="16" customHeight="1">
       <c r="M824" s="24" t="n"/>
     </row>
-    <row r="825" ht="16" customHeight="1">
+    <row r="825" hidden="1" ht="16" customHeight="1">
       <c r="M825" s="24" t="n"/>
     </row>
-    <row r="826" ht="16" customHeight="1">
+    <row r="826" hidden="1" ht="16" customHeight="1">
       <c r="M826" s="24" t="n"/>
     </row>
-    <row r="827" ht="16" customHeight="1">
+    <row r="827" hidden="1" ht="16" customHeight="1">
       <c r="M827" s="24" t="n"/>
     </row>
-    <row r="828" ht="16" customHeight="1">
+    <row r="828" hidden="1" ht="16" customHeight="1">
       <c r="M828" s="24" t="n"/>
     </row>
-    <row r="829" ht="16" customHeight="1">
+    <row r="829" hidden="1" ht="16" customHeight="1">
       <c r="M829" s="24" t="n"/>
     </row>
-    <row r="830" ht="16" customHeight="1">
+    <row r="830" hidden="1" ht="16" customHeight="1">
       <c r="M830" s="24" t="n"/>
     </row>
-    <row r="831" ht="16" customHeight="1">
+    <row r="831" hidden="1" ht="16" customHeight="1">
       <c r="M831" s="24" t="n"/>
     </row>
-    <row r="832" ht="16" customHeight="1">
+    <row r="832" hidden="1" ht="16" customHeight="1">
       <c r="M832" s="24" t="n"/>
     </row>
-    <row r="833" ht="16" customHeight="1">
+    <row r="833" hidden="1" ht="16" customHeight="1">
       <c r="M833" s="24" t="n"/>
     </row>
-    <row r="834" ht="16" customHeight="1">
+    <row r="834" hidden="1" ht="16" customHeight="1">
       <c r="M834" s="24" t="n"/>
     </row>
-    <row r="835" ht="16" customHeight="1">
+    <row r="835" hidden="1" ht="16" customHeight="1">
       <c r="M835" s="24" t="n"/>
     </row>
-    <row r="836" ht="16" customHeight="1">
+    <row r="836" hidden="1" ht="16" customHeight="1">
       <c r="M836" s="24" t="n"/>
     </row>
-    <row r="837" ht="16" customHeight="1">
+    <row r="837" hidden="1" ht="16" customHeight="1">
       <c r="M837" s="24" t="n"/>
     </row>
-    <row r="838" ht="16" customHeight="1">
+    <row r="838" hidden="1" ht="16" customHeight="1">
       <c r="M838" s="24" t="n"/>
     </row>
-    <row r="839" ht="16" customHeight="1">
+    <row r="839" hidden="1" ht="16" customHeight="1">
       <c r="M839" s="24" t="n"/>
     </row>
-    <row r="840" ht="16" customHeight="1">
+    <row r="840" hidden="1" ht="16" customHeight="1">
       <c r="M840" s="24" t="n"/>
     </row>
-    <row r="841" ht="16" customHeight="1">
+    <row r="841" hidden="1" ht="16" customHeight="1">
       <c r="M841" s="24" t="n"/>
     </row>
-    <row r="842" ht="16" customHeight="1">
+    <row r="842" hidden="1" ht="16" customHeight="1">
       <c r="M842" s="24" t="n"/>
     </row>
-    <row r="843" ht="16" customHeight="1">
+    <row r="843" hidden="1" ht="16" customHeight="1">
       <c r="M843" s="24" t="n"/>
     </row>
-    <row r="844" ht="16" customHeight="1">
+    <row r="844" hidden="1" ht="16" customHeight="1">
       <c r="M844" s="24" t="n"/>
     </row>
-    <row r="845" ht="16" customHeight="1">
+    <row r="845" hidden="1" ht="16" customHeight="1">
       <c r="M845" s="24" t="n"/>
     </row>
-    <row r="846" ht="16" customHeight="1">
+    <row r="846" hidden="1" ht="16" customHeight="1">
       <c r="M846" s="24" t="n"/>
     </row>
-    <row r="847" ht="16" customHeight="1">
+    <row r="847" hidden="1" ht="16" customHeight="1">
       <c r="M847" s="24" t="n"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" hidden="1" ht="15.75" customHeight="1">
       <c r="A848" s="23" t="n"/>
       <c r="B848" s="22" t="n"/>
       <c r="C848" s="22" t="n"/>
@@ -63372,7 +63373,13 @@
       <c r="P849" s="12" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T848"/>
+  <autoFilter ref="A1:T848">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TOP CLIP FM780/680"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K3" r:id="rId2"/>
@@ -64669,13 +64676,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="17" bestFit="1" customWidth="1" style="31" min="3" max="3"/>
   </cols>
@@ -64686,18 +64693,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HG Rink CCM Bk/Bk S/12"</t>
+          <t>PG JETSPEED GIRDLE SR L</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>300305</v>
-      </c>
-      <c r="D1" t="n">
-        <v>12</v>
+        <v>2392359</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>3 287,50 ₽</t>
+          <t>17 331,50 ₽</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -64706,16 +64715,16 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>15</v>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
+        <v>10</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
           <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Гирдлы муж.</t>
         </is>
       </c>
     </row>
@@ -64725,33 +64734,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK BANDY TITANIUM 3 JR D 4.0D</t>
+          <t>PG JETSPEED GIRDLE SR S</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2990503</v>
+        <v>2392357</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.0D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13 750,00 ₽</t>
+          <t>17 331,50 ₽</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
+        <v>5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Гирдлы муж.</t>
         </is>
       </c>
     </row>
@@ -64761,24 +64775,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BP Cover CCM 8K Rd S</t>
+          <t>End Plugg Wood Sr</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>315347</v>
+        <v>301600</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N SZ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2 975,00 ₽</t>
+          <t>807,50 ₽</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -64788,6 +64807,11 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Надставка для клюшки муж.</t>
         </is>
       </c>
     </row>
@@ -64797,18 +64821,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk160</t>
+          <t>End Plugg Wood Jr</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>315300</v>
-      </c>
-      <c r="D4" t="n">
-        <v>160</v>
+        <v>301599</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3 950,00 ₽</t>
+          <t>705,50 ₽</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -64817,7 +64843,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -64827,6 +64853,11 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Надставка для клюшки муж.</t>
         </is>
       </c>
     </row>
@@ -64836,26 +64867,563 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk160</t>
+          <t>HP AS-V PRO PANTS YT RD</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>315300</v>
-      </c>
-      <c r="D5" t="n">
-        <v>160</v>
+        <v>4109897</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3 950,00 ₽</t>
+          <t>7 641,50 ₽</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>19</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Шорты игрока дет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HP AS-V PRO PANTS YT BK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4109949</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7 641,50 ₽</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Шорты игрока дет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HP AS-V PRO PANTS JR BK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4110133</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14 781,50 ₽</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Шорты игрока дет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HT 70 SR NV</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4109848</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6 111,50 ₽</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>32</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Шлем муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CCM Proline soaker Royal SMU Sr</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>327486</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1 351,50 ₽</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>44</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>🏷️Чехлы для лезвий муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CCM Pro Tongue Spec Sr</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>305274</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0,00 ₽</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>🏷️Язык для коньков</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BP Girdle CCM 8K Bk S</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>315301</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5 350,00 ₽</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>🆕Шорты для бенди муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BP Girdle CCM 8K Bk S</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>315301</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5 350,00 ₽</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>🆕Шорты для бенди муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EP BANDY ELBOW PADS 86K JR</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4181478</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3 153,50 ₽</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>12</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>🆕Налокотники для бенди дет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CCM TACKS SHELL JR NVY L</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>26021</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2 913,75 ₽</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>🏷️Чехол на шорты дет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FMFV1 CCM HF FULL VISOR SR</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2079430</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>9 681,50 ₽</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>111</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Визор муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EP JETSPEED FT475 ELBOW PADS SR</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3433516</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>4 887,50 ₽</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>124</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Налокотники муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BP Cover CCM 4K Bk 140</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>315313</v>
+      </c>
+      <c r="D17" t="n">
+        <v>140</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2 812,50 ₽</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>🆕Чехол на шорты для бенди дет.</t>
         </is>
       </c>
     </row>

--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -497,7 +497,7 @@
       <selection activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="17.19921875" customWidth="1" min="1" max="1"/>
     <col width="18.59765625" customWidth="1" min="2" max="2"/>
@@ -12551,7 +12551,7 @@
       <selection activeCell="C850" sqref="C850"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="19.59765625" customWidth="1" min="1" max="1"/>
     <col width="30.19921875" customWidth="1" min="2" max="2"/>
@@ -64676,13 +64676,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="17" bestFit="1" customWidth="1" style="31" min="3" max="3"/>
   </cols>
@@ -64693,20 +64693,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PG JETSPEED GIRDLE SR L</t>
+          <t>End Plugg Wood Sr</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>2392359</v>
+        <v>301600</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N SZ</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>17 331,50 ₽</t>
+          <t>807,50 ₽</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -64715,7 +64715,7 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -64724,7 +64724,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Гирдлы муж.</t>
+          <t>Надставка для клюшки муж.</t>
         </is>
       </c>
     </row>
@@ -64734,15 +64734,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG JETSPEED GIRDLE SR S</t>
+          <t>PG JETSPEED GIRDLE SR L</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2392357</v>
+        <v>2392359</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -64752,11 +64752,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -64775,20 +64775,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>End Plugg Wood Sr</t>
+          <t>PG JETSPEED GIRDLE SR S</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>301600</v>
+        <v>2392357</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N SZ</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807,50 ₽</t>
+          <t>17 331,50 ₽</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -64797,12 +64797,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
+        <v>5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -64811,7 +64806,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Надставка для клюшки муж.</t>
+          <t>Гирдлы муж.</t>
         </is>
       </c>
     </row>
@@ -64821,11 +64816,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>End Plugg Wood Jr</t>
+          <t>End Plugg Wood Sr</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>301599</v>
+        <v>301600</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -64834,16 +64829,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>705,50 ₽</t>
+          <t>807,50 ₽</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -64867,29 +64862,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HP AS-V PRO PANTS YT RD</t>
+          <t>End Plugg Wood Jr</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4109897</v>
+        <v>301599</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N SZ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7 641,50 ₽</t>
+          <t>705,50 ₽</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -64903,7 +64898,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Шорты игрока дет.</t>
+          <t>Надставка для клюшки муж.</t>
         </is>
       </c>
     </row>
@@ -64913,11 +64908,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HP AS-V PRO PANTS YT BK</t>
+          <t>HP AS-V PRO PANTS YT RD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4109949</v>
+        <v>4109897</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -64935,7 +64930,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -64959,24 +64954,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HP AS-V PRO PANTS JR BK</t>
+          <t>HP AS-V PRO PANTS YT BK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4110133</v>
+        <v>4109949</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14 781,50 ₽</t>
+          <t>7 641,50 ₽</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -65000,29 +65000,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HT 70 SR NV</t>
+          <t>HP AS-V PRO PANTS JR BK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4109848</v>
+        <v>4110133</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6 111,50 ₽</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>14 781,50 ₽</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -65036,7 +65031,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Шлем муж.</t>
+          <t>Шорты игрока дет.</t>
         </is>
       </c>
     </row>
@@ -65046,29 +65041,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CCM Proline soaker Royal SMU Sr</t>
+          <t>HT 70 SR NV</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>327486</v>
+        <v>4109848</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N SZ</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1 351,50 ₽</t>
+          <t>6 111,50 ₽</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -65082,7 +65077,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>🏷️Чехлы для лезвий муж.</t>
+          <t>Шлем муж.</t>
         </is>
       </c>
     </row>
@@ -65092,24 +65087,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CCM Pro Tongue Spec Sr</t>
+          <t>CCM Proline soaker Royal SMU Sr</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>305274</v>
+        <v>327486</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N SZ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,00 ₽</t>
+          <t>1 351,50 ₽</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -65123,7 +65123,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>🏷️Язык для коньков</t>
+          <t>🏷️Чехлы для лезвий муж.</t>
         </is>
       </c>
     </row>
@@ -65133,11 +65133,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 8K Bk S</t>
+          <t>CCM Pro Tongue Spec Sr</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>315301</v>
+        <v>305274</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -65146,16 +65146,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5 350,00 ₽</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>0,00 ₽</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -65169,7 +65164,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>🆕Шорты для бенди муж.</t>
+          <t>🏷️Язык для коньков</t>
         </is>
       </c>
     </row>
@@ -65195,6 +65190,11 @@
           <t>5 350,00 ₽</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
@@ -65220,29 +65220,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EP BANDY ELBOW PADS 86K JR</t>
+          <t>BP Girdle CCM 8K Bk S</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4181478</v>
+        <v>315301</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3 153,50 ₽</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>5 350,00 ₽</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>🆕Налокотники для бенди дет.</t>
+          <t>🆕Шорты для бенди муж.</t>
         </is>
       </c>
     </row>
@@ -65261,29 +65261,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CCM TACKS SHELL JR NVY L</t>
+          <t>EP BANDY ELBOW PADS 86K JR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26021</v>
+        <v>4181478</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2 913,75 ₽</t>
+          <t>3 153,50 ₽</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>🏷️Чехол на шорты дет.</t>
+          <t>🆕Налокотники для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -65302,29 +65302,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FMFV1 CCM HF FULL VISOR SR</t>
+          <t>CCM TACKS SHELL JR NVY L</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2079430</v>
+        <v>26021</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N SZ</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9 681,50 ₽</t>
+          <t>2 913,75 ₽</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -65333,7 +65333,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Визор муж.</t>
+          <t>🏷️Чехол на шорты дет.</t>
         </is>
       </c>
     </row>
@@ -65343,34 +65343,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EP JETSPEED FT475 ELBOW PADS SR</t>
+          <t>FMFV1 CCM HF FULL VISOR SR</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3433516</v>
+        <v>2079430</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N SZ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4 887,50 ₽</t>
+          <t>9 681,50 ₽</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>124</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
+        <v>111</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -65379,7 +65374,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Налокотники муж.</t>
+          <t>Визор муж.</t>
         </is>
       </c>
     </row>
@@ -65389,39 +65384,85 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>EP JETSPEED FT475 ELBOW PADS SR</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3433516</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4 887,50 ₽</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>124</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Налокотники муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>BP Cover CCM 4K Bk 140</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>315313</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>140</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2 812,50 ₽</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>89266407768</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>🆕Чехол на шорты для бенди дет.</t>
         </is>

--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -17704,7 +17704,7 @@
       </c>
       <c r="G85" s="24" t="n"/>
       <c r="H85" s="23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I85" s="22" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
       </c>
       <c r="G251" s="24" t="n"/>
       <c r="H251" s="23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I251" s="22" t="inlineStr">
         <is>
@@ -64676,7 +64676,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
@@ -64689,15 +64689,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>127154290</v>
+        <v>1338281106</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>End Plugg Wood Sr</t>
+          <t>Bladecovers CCM Jr Bk</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>301600</v>
+        <v>306372</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>807,50 ₽</t>
+          <t>969,00 ₽</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -64715,7 +64715,7 @@
         </is>
       </c>
       <c r="G1" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -64724,7 +64724,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Надставка для клюшки муж.</t>
+          <t>Чехлы для лезвий муж.</t>
         </is>
       </c>
     </row>
@@ -64734,20 +64734,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG JETSPEED GIRDLE SR L</t>
+          <t>PP25G GOALIE COVER PANT SR BK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2392359</v>
+        <v>4181256</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>L/XL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17 331,50 ₽</t>
+          <t>4 911,80 ₽</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -64756,7 +64756,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -64765,7 +64765,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Гирдлы муж.</t>
+          <t>Чехол на шорты врат.</t>
         </is>
       </c>
     </row>
@@ -64775,29 +64775,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG JETSPEED GIRDLE SR S</t>
+          <t>VRPSPAC2 SR CCM PRO HF Cages/Visor</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2392357</v>
+        <v>3741130</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>OSFA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17 331,50 ₽</t>
+          <t>1 575,00 ₽</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -64806,7 +64806,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Гирдлы муж.</t>
+          <t>Набор для крепления визора к шлему</t>
         </is>
       </c>
     </row>
@@ -64834,16 +64834,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>100</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -64862,20 +64857,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>End Plugg Wood Jr</t>
+          <t>PG JETSPEED GIRDLE SR L</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>301599</v>
+        <v>2392359</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N SZ</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>705,50 ₽</t>
+          <t>17 331,50 ₽</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -64884,12 +64879,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>300</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
+        <v>10</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -64898,573 +64888,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Надставка для клюшки муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HP AS-V PRO PANTS YT RD</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4109897</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>7 641,50 ₽</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>19</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Шорты игрока дет.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HP AS-V PRO PANTS YT BK</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4109949</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7 641,50 ₽</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Шорты игрока дет.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HP AS-V PRO PANTS JR BK</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4110133</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>14 781,50 ₽</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Шорты игрока дет.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HT 70 SR NV</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>4109848</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6 111,50 ₽</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>32</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Шлем муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CCM Proline soaker Royal SMU Sr</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>327486</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>N SZ</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1 351,50 ₽</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>44</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>🏷️Чехлы для лезвий муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CCM Pro Tongue Spec Sr</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>305274</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0,00 ₽</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>🏷️Язык для коньков</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BP Girdle CCM 8K Bk S</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>315301</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5 350,00 ₽</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>🆕Шорты для бенди муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BP Girdle CCM 8K Bk S</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>315301</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5 350,00 ₽</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>🆕Шорты для бенди муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>EP BANDY ELBOW PADS 86K JR</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>4181478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3 153,50 ₽</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>12</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>🆕Налокотники для бенди дет.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CCM TACKS SHELL JR NVY L</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>26021</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2 913,75 ₽</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>🏷️Чехол на шорты дет.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FMFV1 CCM HF FULL VISOR SR</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2079430</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N SZ</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>9 681,50 ₽</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>111</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Визор муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EP JETSPEED FT475 ELBOW PADS SR</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3433516</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4 887,50 ₽</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>124</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Налокотники муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BP Cover CCM 4K Bk 140</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>315313</v>
-      </c>
-      <c r="D18" t="n">
-        <v>140</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2 812,50 ₽</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>🆕Чехол на шорты для бенди дет.</t>
+          <t>Гирдлы муж.</t>
         </is>
       </c>
     </row>

--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -78185,7 +78185,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
@@ -78202,21 +78202,21 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>SK CCM Pirouette Sr 40</t>
+          <t>BP Girdle CCM 4K Bk160</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>300173</v>
+        <v>315300</v>
       </c>
       <c r="D1" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="E1">
-        <f>G435</f>
+        <f>G219</f>
         <v/>
       </c>
       <c r="G1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -78225,7 +78225,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки фигурные дет. </t>
+          <t>Шорты для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -78235,21 +78235,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK CCM Pirouette Jr 32</t>
+          <t>BP Girdle CCM 4K Bk160</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>300165</v>
+        <v>315300</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <f>G436</f>
+        <f>G219</f>
         <v/>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -78258,7 +78258,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки фигурные дет. </t>
+          <t>Шорты для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -78268,27 +78268,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">AP7010 SR CCM RPA Goalie Accessories White </t>
+          <t>SK CCM Pirouette Sr 40</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2026987</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>OSFA</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>300173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <f>G435</f>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -78297,7 +78291,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>🆕Ремни для щитка вратаря</t>
+          <t xml:space="preserve">🆕Коньки фигурные дет. </t>
         </is>
       </c>
     </row>
@@ -78307,27 +78301,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 40 </t>
+          <t>SK CCM Pirouette Jr 32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3775637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29R</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>15800</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>300165</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <f>G436</f>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -78336,7 +78324,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Клюшка композитная дет.</t>
+          <t xml:space="preserve">🆕Коньки фигурные дет. </t>
         </is>
       </c>
     </row>
@@ -78346,19 +78334,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">PP25 COVER PANT SR RD </t>
+          <t xml:space="preserve">AP7010 SR CCM RPA Goalie Accessories White </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4181222</v>
+        <v>2026987</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>OSFA</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -78366,7 +78354,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -78375,7 +78363,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чехол на шорты муж. </t>
+          <t>🆕Ремни для щитка вратаря</t>
         </is>
       </c>
     </row>
@@ -78385,19 +78373,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">PP25 COVER PANT SR RD </t>
+          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 40 </t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4181222</v>
+        <v>3775637</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>29R</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5000</v>
+        <v>15800</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -78405,7 +78393,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -78414,7 +78402,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чехол на шорты муж. </t>
+          <t>Клюшка композитная дет.</t>
         </is>
       </c>
     </row>
@@ -78424,27 +78412,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S100P KNIT SOCK SR 28" ROYAL  -0- 08</t>
+          <t xml:space="preserve">PP25 COVER PANT SR RD </t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>153429</v>
+        <v>4181222</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N SZ</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -78453,7 +78441,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Гамаши игровые муж.</t>
+          <t xml:space="preserve">Чехол на шорты муж. </t>
         </is>
       </c>
     </row>
@@ -78463,11 +78451,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">GST EFX 5.5 SR P4 WH/BK 27 </t>
+          <t xml:space="preserve">PP25 COVER PANT SR RD </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4019489</v>
+        <v>4181222</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -78475,7 +78463,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18400</v>
+        <v>5000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -78483,7 +78471,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -78492,7 +78480,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Клюшка вратаря муж.</t>
+          <t xml:space="preserve">Чехол на шорты муж. </t>
         </is>
       </c>
     </row>
@@ -78502,19 +78490,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 50 </t>
+          <t>S100P KNIT SOCK SR 28" ROYAL  -0- 08</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3775627</v>
+        <v>153429</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28R</t>
+          <t>N SZ</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15800</v>
+        <v>2500</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -78522,7 +78510,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -78531,91 +78519,91 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>🆕Клюшка композитная дет.</t>
+          <t>Гамаши игровые муж.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>794509655</v>
+        <v>127154290</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Composite Carbon 18K MKP SR 97</t>
+          <t xml:space="preserve">GST EFX 5.5 SR P4 WH/BK 27 </t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2023001</v>
+        <v>4019489</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92L</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9500</v>
+        <v>18400</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>89292507807</t>
-        </is>
+        <v>20</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Москва, 3-5 рд</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Клюшка NoName</t>
+          <t>Клюшка вратаря муж.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>989859961</v>
+        <v>127154290</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Composite Carbon 18K MKP SR 97</t>
+          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 50 </t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2023001</v>
+        <v>3775627</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92L</t>
+          <t>28R</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9500</v>
+        <v>15800</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Москва, 3-5 рд</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>🆕Клюшка NoName</t>
+          <t>🆕Клюшка композитная дет.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>989859961</v>
+        <v>794509655</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -78636,6 +78624,11 @@
       <c r="G12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>89292507807</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>В наличии</t>
@@ -78643,7 +78636,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>🏷️Клюшка NoName</t>
+          <t>Клюшка NoName</t>
         </is>
       </c>
     </row>
@@ -78667,6 +78660,11 @@
       <c r="E13" t="n">
         <v>9500</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
@@ -78677,120 +78675,110 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Клюшка NoName</t>
+          <t>🆕Клюшка NoName</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>989859961</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Composite Carbon 18K MKP SR 97</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2023001</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>92L</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>🏷️Клюшка NoName</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>989859961</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Composite Carbon 18K MKP SR 97</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2023001</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>92L</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Клюшка NoName</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>425807443</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>SG TACKS PRO V.2 SHIN GUARDS SR</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>2071337</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E14">
+      <c r="E16">
         <f>G173</f>
         <v/>
       </c>
-      <c r="G14" t="n">
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t xml:space="preserve">🏷️Щитки игрока муж. </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>794509655</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HT SUPER TACKS X SR BK </t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>3347212</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>42800</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>89292507807</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>🏷️Шлем муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>794509655</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SX8000 SR SOCK DET HOME</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>189858</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N SZ</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>3600</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>89292507807</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>🆕Гамаши игровые муж.</t>
         </is>
       </c>
     </row>
@@ -78800,36 +78788,114 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t xml:space="preserve">HT SUPER TACKS X SR BK </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3347212</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>42800</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>89292507807</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>🏷️Шлем муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>794509655</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SX8000 SR SOCK DET HOME</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>189858</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>89292507807</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>🆕Гамаши игровые муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>794509655</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>ST CCM ULTIMATE JR 50 29R</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>33577</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>29R</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>3 051,50 ₽</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>5</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>89292507807</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>Клюшка деревянная дет.</t>
         </is>

--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -10703,7 +10703,7 @@
       <selection activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="17.19921875" customWidth="1" style="35" min="1" max="1"/>
     <col width="18.59765625" customWidth="1" style="35" min="2" max="2"/>
@@ -22757,7 +22757,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="22.19921875" customWidth="1" style="27" min="1" max="1"/>
     <col width="36.19921875" customWidth="1" style="35" min="2" max="2"/>
@@ -76743,7 +76743,7 @@
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col width="43.796875" bestFit="1" customWidth="1" style="35" min="1" max="1"/>
     <col width="27.3984375" bestFit="1" customWidth="1" style="35" min="2" max="2"/>
@@ -78185,13 +78185,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
     <col width="17" bestFit="1" customWidth="1" style="27" min="3" max="3"/>
   </cols>
@@ -78202,21 +78202,32 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk160</t>
+          <t>PS REFEREE PADDED SHIRT SR M</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>315300</v>
-      </c>
-      <c r="D1" t="n">
-        <v>160</v>
-      </c>
-      <c r="E1">
-        <f>G219</f>
-        <v/>
+        <v>2605231</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G1" t="n">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -78225,7 +78236,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Шорты для бенди дет.</t>
+          <t xml:space="preserve">🏷️Нательное бельё (топ) для судьи </t>
         </is>
       </c>
     </row>
@@ -78235,30 +78246,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk160</t>
+          <t>Composite Carbon 18K MKP SR 97</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>315300</v>
-      </c>
-      <c r="D2" t="n">
-        <v>160</v>
-      </c>
-      <c r="E2">
-        <f>G219</f>
-        <v/>
+        <v>2023001</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92L</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Москва, 3-5 рд</t>
+          <t>В наличии</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Шорты для бенди дет.</t>
+          <t>🏷️Клюшка NoName</t>
         </is>
       </c>
     </row>
@@ -78268,21 +78290,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SK CCM Pirouette Sr 40</t>
+          <t>End Plugg Wood Jr</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>300173</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <f>G435</f>
-        <v/>
+        <v>301599</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>700</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>299</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -78291,7 +78319,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки фигурные дет. </t>
+          <t xml:space="preserve">Надставка для клюшки муж. </t>
         </is>
       </c>
     </row>
@@ -78301,21 +78329,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SK CCM Pirouette Jr 32</t>
+          <t>BP Girdle CCM 4K Bk160</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>300165</v>
+        <v>315300</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="E4">
-        <f>G436</f>
+        <f>G219</f>
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -78324,7 +78352,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки фигурные дет. </t>
+          <t>Шорты для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -78334,27 +78362,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">AP7010 SR CCM RPA Goalie Accessories White </t>
+          <t>BP Girdle CCM 4K Bk160</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2026987</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>OSFA</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>315300</v>
+      </c>
+      <c r="D5" t="n">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <f>G219</f>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -78363,7 +78385,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>🆕Ремни для щитка вратаря</t>
+          <t>Шорты для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -78373,27 +78395,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 40 </t>
+          <t>SK CCM Pirouette Sr 40</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3775637</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29R</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>15800</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>300173</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>G435</f>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -78402,502 +78418,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Клюшка композитная дет.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PP25 COVER PANT SR RD </t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4181222</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Чехол на шорты муж. </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PP25 COVER PANT SR RD </t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4181222</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Чехол на шорты муж. </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>S100P KNIT SOCK SR 28" ROYAL  -0- 08</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>153429</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N SZ</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Гамаши игровые муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GST EFX 5.5 SR P4 WH/BK 27 </t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4019489</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>18400</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Клюшка вратаря муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>127154290</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 50 </t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>3775627</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>28R</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>15800</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>16</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>🆕Клюшка композитная дет.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>794509655</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Composite Carbon 18K MKP SR 97</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2023001</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92L</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>89292507807</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>В наличии</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Клюшка NoName</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>989859961</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Composite Carbon 18K MKP SR 97</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2023001</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92L</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>9500</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>В наличии</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>🆕Клюшка NoName</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>989859961</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Composite Carbon 18K MKP SR 97</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2023001</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92L</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>В наличии</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>🏷️Клюшка NoName</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>989859961</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Composite Carbon 18K MKP SR 97</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2023001</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92L</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>9500</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>В наличии</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Клюшка NoName</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>425807443</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SG TACKS PRO V.2 SHIN GUARDS SR</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2071337</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E16">
-        <f>G173</f>
-        <v/>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">🏷️Щитки игрока муж. </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>794509655</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HT SUPER TACKS X SR BK </t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3347212</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>42800</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>89292507807</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>🏷️Шлем муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>794509655</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SX8000 SR SOCK DET HOME</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>189858</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>N SZ</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>3600</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>89292507807</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>🆕Гамаши игровые муж.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>794509655</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ST CCM ULTIMATE JR 50 29R</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>33577</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>29R</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3 051,50 ₽</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>89292507807</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Клюшка деревянная дет.</t>
+          <t xml:space="preserve">🆕Коньки фигурные дет. </t>
         </is>
       </c>
     </row>

--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -10703,7 +10703,7 @@
       <selection activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="17.19921875" customWidth="1" style="35" min="1" max="1"/>
     <col width="18.59765625" customWidth="1" style="35" min="2" max="2"/>
@@ -22757,7 +22757,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="22.19921875" customWidth="1" style="27" min="1" max="1"/>
     <col width="36.19921875" customWidth="1" style="35" min="2" max="2"/>
@@ -76743,7 +76743,7 @@
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col width="43.796875" bestFit="1" customWidth="1" style="35" min="1" max="1"/>
     <col width="27.3984375" bestFit="1" customWidth="1" style="35" min="2" max="2"/>
@@ -78185,13 +78185,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="17" bestFit="1" customWidth="1" style="27" min="3" max="3"/>
   </cols>
@@ -78202,32 +78202,22 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>PS REFEREE PADDED SHIRT SR M</t>
+          <t>PG JETSPEED GIRDLE SR S</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>2605231</v>
+        <v>2392357</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E1" t="n">
-        <v>11200</v>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>17300</v>
       </c>
       <c r="G1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
+        <v>5</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -78236,7 +78226,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t xml:space="preserve">🏷️Нательное бельё (топ) для судьи </t>
+          <t xml:space="preserve">Гирдлы муж. </t>
         </is>
       </c>
     </row>
@@ -78246,41 +78236,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Composite Carbon 18K MKP SR 97</t>
+          <t>PG JETSPEED GIRDLE JR L</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2023001</v>
+        <v>2454985</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92L</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9500</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>17100</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>89266407768</t>
-        </is>
+        <v>10</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>В наличии</t>
+          <t>Москва, 3-5 рд</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>🏷️Клюшка NoName</t>
+          <t xml:space="preserve">Гирдлы дет. </t>
         </is>
       </c>
     </row>
@@ -78290,27 +78270,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>End Plugg Wood Jr</t>
+          <t>PG JETSPEED GIRDLE JR M</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>301599</v>
+        <v>2454984</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N SZ</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>700</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>17100</v>
       </c>
       <c r="G3" t="n">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -78319,7 +78294,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Надставка для клюшки муж. </t>
+          <t xml:space="preserve">Гирдлы дет. </t>
         </is>
       </c>
     </row>
@@ -78329,21 +78304,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk160</t>
+          <t>ACCGAMEON PLAYER</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>315300</v>
-      </c>
-      <c r="D4" t="n">
-        <v>160</v>
+        <v>3639013</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S-M-L</t>
+        </is>
       </c>
       <c r="E4">
-        <f>G219</f>
+        <f>G41</f>
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -78352,7 +78329,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Шорты для бенди дет.</t>
+          <t>Тканевая маска</t>
         </is>
       </c>
     </row>
@@ -78362,21 +78339,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk160</t>
+          <t>ACCGAMEON PLAYER</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>315300</v>
-      </c>
-      <c r="D5" t="n">
-        <v>160</v>
+        <v>352675</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>XS-S</t>
+        </is>
       </c>
       <c r="E5">
-        <f>G219</f>
+        <f>G40</f>
         <v/>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -78385,7 +78364,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Шорты для бенди дет.</t>
+          <t>Тканевая маска</t>
         </is>
       </c>
     </row>
@@ -78395,28 +78374,431 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>ACCGAMEON PLAYER</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3639013</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S-M-L</t>
+        </is>
+      </c>
+      <c r="E6">
+        <f>G41</f>
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Тканевая маска</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ACCGAMEON PLAYER</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>352675</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>XS-S</t>
+        </is>
+      </c>
+      <c r="E7">
+        <f>G40</f>
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Тканевая маска</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ACCGAMEONG MASK GOALIE Black</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3639014</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OSFA</t>
+        </is>
+      </c>
+      <c r="E8">
+        <f>G42</f>
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Тканевая маска</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ACCGAMEONV HALF-VISOR Black</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3690615</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OSFA</t>
+        </is>
+      </c>
+      <c r="E9">
+        <f>G43</f>
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Тканевая маска</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ACCGAMEONG MASK GOALIE Black</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3639014</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OSFA</t>
+        </is>
+      </c>
+      <c r="E10">
+        <f>G42</f>
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Тканевая маска</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Suspenders Boy Clips</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>302697</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
+      </c>
+      <c r="E11">
+        <f>G18</f>
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v>91</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подтяжки дет. </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PS REFEREE PADDED SHIRT SR M</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2605231</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>11200</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">🏷️Нательное бельё (топ) для судьи </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Composite Carbon 18K MKP SR 97</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2023001</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>92L</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>89266407768</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>В наличии</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>🏷️Клюшка NoName</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>End Plugg Wood Jr</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>301599</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>700</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>299</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Надставка для клюшки муж. </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BP Girdle CCM 4K Bk160</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>315300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>160</v>
+      </c>
+      <c r="E15">
+        <f>G219</f>
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Шорты для бенди дет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BP Girdle CCM 4K Bk160</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>315300</v>
+      </c>
+      <c r="D16" t="n">
+        <v>160</v>
+      </c>
+      <c r="E16">
+        <f>G219</f>
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Шорты для бенди дет.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>127154290</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>SK CCM Pirouette Sr 40</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C17" t="n">
         <v>300173</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D17" t="n">
         <v>40</v>
       </c>
-      <c r="E6">
+      <c r="E17">
         <f>G435</f>
         <v/>
       </c>
-      <c r="G6" t="n">
+      <c r="G17" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t xml:space="preserve">🆕Коньки фигурные дет. </t>
         </is>

--- a/CCM.xlsx
+++ b/CCM.xlsx
@@ -10705,7 +10705,7 @@
       <selection activeCell="K2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="17.19921875" customWidth="1" min="1" max="1"/>
     <col width="18.59765625" customWidth="1" min="2" max="2"/>
@@ -22759,7 +22759,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="22.19921875" customWidth="1" style="27" min="1" max="1"/>
     <col width="36.19921875" customWidth="1" min="2" max="2"/>
@@ -76397,7 +76397,7 @@
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col width="43.796875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="27.3984375" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -77839,13 +77839,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="17" bestFit="1" customWidth="1" style="27" min="3" max="3"/>
   </cols>
@@ -77856,20 +77856,22 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk140</t>
+          <t xml:space="preserve">SK RIBCOR 88K JR REGULAR </t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>315299</v>
-      </c>
-      <c r="D1" t="n">
-        <v>140</v>
+        <v>3467843</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
       </c>
       <c r="E1" t="n">
-        <v>4400</v>
+        <v>22900</v>
       </c>
       <c r="G1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I1" t="inlineStr">
         <is>
@@ -77878,7 +77880,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Шорты для бенди дет.</t>
+          <t xml:space="preserve">Коньки хоккейные дет. </t>
         </is>
       </c>
     </row>
@@ -77888,27 +77890,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK TACKS AS 590 SR REGULAR </t>
+          <t>PS REFEREE PADDED SHIRT SR M</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4021383</v>
+        <v>2605231</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43900</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>11200</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -77917,7 +77914,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки хоккейные муж. </t>
+          <t xml:space="preserve">🏷️Нательное бельё (топ) для судьи </t>
         </is>
       </c>
     </row>
@@ -77927,22 +77924,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK RIBCOR 88K JR REGULAR </t>
+          <t>BP Girdle CCM 4K Bk140</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3467845</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+        <v>315299</v>
+      </c>
+      <c r="D3" t="n">
+        <v>140</v>
       </c>
       <c r="E3" t="n">
-        <v>22900</v>
+        <v>4400</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -77951,7 +77946,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки хоккейные дет. </t>
+          <t>Шорты для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -77961,22 +77956,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SKG CCM JS FT2 SR D 9.5D</t>
+          <t xml:space="preserve">SK TACKS AS 590 SR REGULAR </t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2028328</v>
+        <v>4021383</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.5D</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>47400</v>
+        <v>43900</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -77985,7 +77985,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки вратаря муж. </t>
+          <t xml:space="preserve">🆕Коньки хоккейные муж. </t>
         </is>
       </c>
     </row>
@@ -77995,19 +77995,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SKG SUPERTACKS 9370 SR 12.0 D</t>
+          <t xml:space="preserve">SK RIBCOR 88K JR REGULAR </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2344141</v>
+        <v>3467845</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.0D</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24500</v>
+        <v>22900</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -78019,7 +78019,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">🆕Коньки вратаря муж. </t>
+          <t xml:space="preserve">🆕Коньки хоккейные дет. </t>
         </is>
       </c>
     </row>
@@ -78029,27 +78029,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 40 </t>
+          <t>SKG CCM JS FT2 SR D 9.5D</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3775637</v>
+        <v>2028328</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29R</t>
+          <t>9.5D</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15800</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>47400</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -78058,7 +78053,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Клюшка композитная дет.</t>
+          <t xml:space="preserve">🆕Коньки вратаря муж. </t>
         </is>
       </c>
     </row>
@@ -78068,20 +78063,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk140</t>
+          <t>SKG SUPERTACKS 9370 SR 12.0 D</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>315299</v>
-      </c>
-      <c r="D7" t="n">
-        <v>140</v>
+        <v>2344141</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.0D</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>4400</v>
+        <v>24500</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -78090,7 +78087,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Шорты для бенди дет.</t>
+          <t xml:space="preserve">🆕Коньки вратаря муж. </t>
         </is>
       </c>
     </row>
@@ -78100,20 +78097,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BP Girdle CCM 4K Bk140</t>
+          <t xml:space="preserve">HS RIBCOR TRIGGER 6 JR 40 </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>315299</v>
-      </c>
-      <c r="D8" t="n">
-        <v>140</v>
+        <v>3775637</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29R</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>4400</v>
+        <v>15800</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -78122,7 +78126,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Шорты для бенди дет.</t>
+          <t>Клюшка композитная дет.</t>
         </is>
       </c>
     </row>
@@ -78144,13 +78148,8 @@
       <c r="E9" t="n">
         <v>4400</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -78169,22 +78168,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK TACKS AS 590 SR WIDE </t>
+          <t>BP Girdle CCM 4K Bk140</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4021392</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
+        <v>315299</v>
+      </c>
+      <c r="D10" t="n">
+        <v>140</v>
       </c>
       <c r="E10" t="n">
-        <v>43900</v>
+        <v>4400</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -78193,7 +78190,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коньки хоккейные муж. </t>
+          <t>Шорты для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -78203,27 +78200,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK TACKS AS 590 SR WIDE </t>
+          <t>BP Girdle CCM 4K Bk140</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4021392</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
+        <v>315299</v>
+      </c>
+      <c r="D11" t="n">
+        <v>140</v>
       </c>
       <c r="E11" t="n">
-        <v>43900</v>
+        <v>4400</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -78232,7 +78227,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коньки хоккейные муж. </t>
+          <t>Шорты для бенди дет.</t>
         </is>
       </c>
     </row>
@@ -78242,19 +78237,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK RIBCOR 88K JR REGULAR </t>
+          <t xml:space="preserve">SK TACKS AS 590 SR WIDE </t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3467845</v>
+        <v>4021392</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22900</v>
+        <v>43900</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -78266,7 +78261,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Коньки хоккейные дет. </t>
+          <t xml:space="preserve">Коньки хоккейные муж. </t>
         </is>
       </c>
     </row>
@@ -78276,22 +78271,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>End Plugg Wood Sr</t>
+          <t xml:space="preserve">SK TACKS AS 590 SR WIDE </t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>301600</v>
+        <v>4021392</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N SZ</t>
+          <t>10.5</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>800</v>
+        <v>43900</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -78300,7 +78300,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Надставка для клюшки муж. </t>
+          <t xml:space="preserve">Коньки хоккейные муж. </t>
         </is>
       </c>
     </row>
@@ -78310,22 +78310,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">JOCK COMBO YT BK </t>
+          <t xml:space="preserve">SK RIBCOR 88K JR REGULAR </t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3450527</v>
+        <v>3467845</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OSFA</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2200</v>
+        <v>22900</v>
       </c>
       <c r="G14" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -78334,30 +78334,32 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Раковина с подтяжками дет. </t>
+          <t xml:space="preserve">Коньки хоккейные дет. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>286750502</v>
+        <v>127154290</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">HG JETSPEED FT4 PRO GLOVES SR NV/RD/WH </t>
+          <t>End Plugg Wood Sr</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3433416</v>
-      </c>
-      <c r="D15" t="n">
-        <v>15</v>
+        <v>301600</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N SZ</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>18400</v>
+        <v>800</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -78366,30 +78368,32 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Перчатки игрока муж.</t>
+          <t xml:space="preserve">Надставка для клюшки муж. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>286750502</v>
+        <v>127154290</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HG 4 ROLL PRO2 GLOVES SR RD/RD 14</t>
+          <t xml:space="preserve">JOCK COMBO YT BK </t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2454929</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
+        <v>3450527</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OSFA</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>15800</v>
+        <v>2200</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -78398,42 +78402,106 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Перчатки игрока муж.</t>
+          <t xml:space="preserve">Раковина с подтяжками дет. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>286750502</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HG JETSPEED FT4 PRO GLOVES SR NV/RD/WH </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3433416</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18400</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Перчатки игрока муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>286750502</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HG 4 ROLL PRO2 GLOVES SR RD/RD 14</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2454929</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15800</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Перчатки игрока муж.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>127154290</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>EBGPROCORE CCM GBA ACC Bags Red 42</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>2025990</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>42</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E19" t="n">
         <v>7500</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G19" t="n">
         <v>17</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Москва, 3-5 рд</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Москва, 3-5 рд</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t xml:space="preserve">Баул вратаря муж. </t>
         </is>
